--- a/finalPJT/Server/theme/type.xlsx
+++ b/finalPJT/Server/theme/type.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KB_workspace\final_pj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\KB_IT_Academy_4Team\finalPJT\Server\theme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,35 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="299">
-  <si>
-    <t>숙소이름</t>
-  </si>
-  <si>
-    <t>내츄럴</t>
-  </si>
-  <si>
-    <t>모던</t>
-  </si>
-  <si>
-    <t>인더스트리얼</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="600">
   <si>
     <t>클래식</t>
   </si>
   <si>
-    <t>팝아트</t>
-  </si>
-  <si>
-    <t>프로방스</t>
-  </si>
-  <si>
-    <t>한옥</t>
-  </si>
-  <si>
-    <t>분류</t>
-  </si>
-  <si>
     <t>스테이 아온</t>
   </si>
   <si>
@@ -72,9 +48,6 @@
     <t>뜰안길로</t>
   </si>
   <si>
-    <t>한옥스테이 까치</t>
-  </si>
-  <si>
     <t>미풍언덕</t>
   </si>
   <si>
@@ -264,9 +237,6 @@
     <t>스테이 무메</t>
   </si>
   <si>
-    <t>한옥 시호일</t>
-  </si>
-  <si>
     <t>무릇 제주</t>
   </si>
   <si>
@@ -327,9 +297,6 @@
     <t>서촌영락재</t>
   </si>
   <si>
-    <t>오소한옥</t>
-  </si>
-  <si>
     <t>무디타 제주</t>
   </si>
   <si>
@@ -414,9 +381,6 @@
     <t>종로하루</t>
   </si>
   <si>
-    <t>아담한옥</t>
-  </si>
-  <si>
     <t>이화루애</t>
   </si>
   <si>
@@ -762,9 +726,6 @@
     <t>설레다</t>
   </si>
   <si>
-    <t>한옥에세이 서촌</t>
-  </si>
-  <si>
     <t>까사멜로우</t>
   </si>
   <si>
@@ -916,6 +877,962 @@
   </si>
   <si>
     <t>메이킷슬로우</t>
+  </si>
+  <si>
+    <t>img3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lodging_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>natural</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modern</t>
+  </si>
+  <si>
+    <t>modern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>industrial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>classic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>popart</t>
+  </si>
+  <si>
+    <t>popart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>provence</t>
+  </si>
+  <si>
+    <t>provence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asia</t>
+  </si>
+  <si>
+    <t>asia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add92</t>
+  </si>
+  <si>
+    <t>add32</t>
+  </si>
+  <si>
+    <t>add9</t>
+  </si>
+  <si>
+    <t>add2</t>
+  </si>
+  <si>
+    <t>add4</t>
+  </si>
+  <si>
+    <t>add94</t>
+  </si>
+  <si>
+    <t>add5</t>
+  </si>
+  <si>
+    <t>add61</t>
+  </si>
+  <si>
+    <t>add24</t>
+  </si>
+  <si>
+    <t>add6</t>
+  </si>
+  <si>
+    <t>add23</t>
+  </si>
+  <si>
+    <t>add49</t>
+  </si>
+  <si>
+    <t>add3</t>
+  </si>
+  <si>
+    <t>add7</t>
+  </si>
+  <si>
+    <t>add8</t>
+  </si>
+  <si>
+    <t>add10</t>
+  </si>
+  <si>
+    <t>add11</t>
+  </si>
+  <si>
+    <t>add12</t>
+  </si>
+  <si>
+    <t>add13</t>
+  </si>
+  <si>
+    <t>add14</t>
+  </si>
+  <si>
+    <t>add15</t>
+  </si>
+  <si>
+    <t>add16</t>
+  </si>
+  <si>
+    <t>add17</t>
+  </si>
+  <si>
+    <t>add18</t>
+  </si>
+  <si>
+    <t>add19</t>
+  </si>
+  <si>
+    <t>add20</t>
+  </si>
+  <si>
+    <t>add21</t>
+  </si>
+  <si>
+    <t>add22</t>
+  </si>
+  <si>
+    <t>add25</t>
+  </si>
+  <si>
+    <t>add26</t>
+  </si>
+  <si>
+    <t>add27</t>
+  </si>
+  <si>
+    <t>add28</t>
+  </si>
+  <si>
+    <t>add29</t>
+  </si>
+  <si>
+    <t>add30</t>
+  </si>
+  <si>
+    <t>add31</t>
+  </si>
+  <si>
+    <t>add33</t>
+  </si>
+  <si>
+    <t>add34</t>
+  </si>
+  <si>
+    <t>add35</t>
+  </si>
+  <si>
+    <t>add36</t>
+  </si>
+  <si>
+    <t>add37</t>
+  </si>
+  <si>
+    <t>add38</t>
+  </si>
+  <si>
+    <t>add39</t>
+  </si>
+  <si>
+    <t>add40</t>
+  </si>
+  <si>
+    <t>add41</t>
+  </si>
+  <si>
+    <t>add42</t>
+  </si>
+  <si>
+    <t>add43</t>
+  </si>
+  <si>
+    <t>add44</t>
+  </si>
+  <si>
+    <t>add45</t>
+  </si>
+  <si>
+    <t>add46</t>
+  </si>
+  <si>
+    <t>add47</t>
+  </si>
+  <si>
+    <t>add48</t>
+  </si>
+  <si>
+    <t>add50</t>
+  </si>
+  <si>
+    <t>add51</t>
+  </si>
+  <si>
+    <t>add52</t>
+  </si>
+  <si>
+    <t>add53</t>
+  </si>
+  <si>
+    <t>add54</t>
+  </si>
+  <si>
+    <t>add55</t>
+  </si>
+  <si>
+    <t>add56</t>
+  </si>
+  <si>
+    <t>add57</t>
+  </si>
+  <si>
+    <t>add58</t>
+  </si>
+  <si>
+    <t>add59</t>
+  </si>
+  <si>
+    <t>add60</t>
+  </si>
+  <si>
+    <t>add62</t>
+  </si>
+  <si>
+    <t>add63</t>
+  </si>
+  <si>
+    <t>add64</t>
+  </si>
+  <si>
+    <t>add65</t>
+  </si>
+  <si>
+    <t>add66</t>
+  </si>
+  <si>
+    <t>add67</t>
+  </si>
+  <si>
+    <t>add68</t>
+  </si>
+  <si>
+    <t>add69</t>
+  </si>
+  <si>
+    <t>add70</t>
+  </si>
+  <si>
+    <t>add71</t>
+  </si>
+  <si>
+    <t>add72</t>
+  </si>
+  <si>
+    <t>add73</t>
+  </si>
+  <si>
+    <t>add74</t>
+  </si>
+  <si>
+    <t>add75</t>
+  </si>
+  <si>
+    <t>add76</t>
+  </si>
+  <si>
+    <t>add77</t>
+  </si>
+  <si>
+    <t>add78</t>
+  </si>
+  <si>
+    <t>add79</t>
+  </si>
+  <si>
+    <t>add80</t>
+  </si>
+  <si>
+    <t>add81</t>
+  </si>
+  <si>
+    <t>add82</t>
+  </si>
+  <si>
+    <t>add83</t>
+  </si>
+  <si>
+    <t>add84</t>
+  </si>
+  <si>
+    <t>add85</t>
+  </si>
+  <si>
+    <t>add86</t>
+  </si>
+  <si>
+    <t>add87</t>
+  </si>
+  <si>
+    <t>add88</t>
+  </si>
+  <si>
+    <t>add89</t>
+  </si>
+  <si>
+    <t>add90</t>
+  </si>
+  <si>
+    <t>add91</t>
+  </si>
+  <si>
+    <t>add93</t>
+  </si>
+  <si>
+    <t>add95</t>
+  </si>
+  <si>
+    <t>add96</t>
+  </si>
+  <si>
+    <t>add97</t>
+  </si>
+  <si>
+    <t>add98</t>
+  </si>
+  <si>
+    <t>add99</t>
+  </si>
+  <si>
+    <t>add100</t>
+  </si>
+  <si>
+    <t>add101</t>
+  </si>
+  <si>
+    <t>add102</t>
+  </si>
+  <si>
+    <t>add103</t>
+  </si>
+  <si>
+    <t>add104</t>
+  </si>
+  <si>
+    <t>add105</t>
+  </si>
+  <si>
+    <t>add106</t>
+  </si>
+  <si>
+    <t>add107</t>
+  </si>
+  <si>
+    <t>add108</t>
+  </si>
+  <si>
+    <t>add109</t>
+  </si>
+  <si>
+    <t>add110</t>
+  </si>
+  <si>
+    <t>add111</t>
+  </si>
+  <si>
+    <t>add112</t>
+  </si>
+  <si>
+    <t>add113</t>
+  </si>
+  <si>
+    <t>add114</t>
+  </si>
+  <si>
+    <t>add115</t>
+  </si>
+  <si>
+    <t>add116</t>
+  </si>
+  <si>
+    <t>add117</t>
+  </si>
+  <si>
+    <t>add118</t>
+  </si>
+  <si>
+    <t>add119</t>
+  </si>
+  <si>
+    <t>add120</t>
+  </si>
+  <si>
+    <t>add121</t>
+  </si>
+  <si>
+    <t>add122</t>
+  </si>
+  <si>
+    <t>add123</t>
+  </si>
+  <si>
+    <t>add124</t>
+  </si>
+  <si>
+    <t>add125</t>
+  </si>
+  <si>
+    <t>add126</t>
+  </si>
+  <si>
+    <t>add127</t>
+  </si>
+  <si>
+    <t>add128</t>
+  </si>
+  <si>
+    <t>add129</t>
+  </si>
+  <si>
+    <t>add130</t>
+  </si>
+  <si>
+    <t>add131</t>
+  </si>
+  <si>
+    <t>add132</t>
+  </si>
+  <si>
+    <t>add133</t>
+  </si>
+  <si>
+    <t>add134</t>
+  </si>
+  <si>
+    <t>add135</t>
+  </si>
+  <si>
+    <t>add136</t>
+  </si>
+  <si>
+    <t>add137</t>
+  </si>
+  <si>
+    <t>add138</t>
+  </si>
+  <si>
+    <t>add139</t>
+  </si>
+  <si>
+    <t>add140</t>
+  </si>
+  <si>
+    <t>add141</t>
+  </si>
+  <si>
+    <t>add142</t>
+  </si>
+  <si>
+    <t>add143</t>
+  </si>
+  <si>
+    <t>add144</t>
+  </si>
+  <si>
+    <t>add145</t>
+  </si>
+  <si>
+    <t>add146</t>
+  </si>
+  <si>
+    <t>add147</t>
+  </si>
+  <si>
+    <t>add148</t>
+  </si>
+  <si>
+    <t>add149</t>
+  </si>
+  <si>
+    <t>add150</t>
+  </si>
+  <si>
+    <t>add151</t>
+  </si>
+  <si>
+    <t>add152</t>
+  </si>
+  <si>
+    <t>add153</t>
+  </si>
+  <si>
+    <t>add154</t>
+  </si>
+  <si>
+    <t>add155</t>
+  </si>
+  <si>
+    <t>add156</t>
+  </si>
+  <si>
+    <t>add157</t>
+  </si>
+  <si>
+    <t>add158</t>
+  </si>
+  <si>
+    <t>add159</t>
+  </si>
+  <si>
+    <t>add160</t>
+  </si>
+  <si>
+    <t>add161</t>
+  </si>
+  <si>
+    <t>add162</t>
+  </si>
+  <si>
+    <t>add163</t>
+  </si>
+  <si>
+    <t>add164</t>
+  </si>
+  <si>
+    <t>add165</t>
+  </si>
+  <si>
+    <t>add166</t>
+  </si>
+  <si>
+    <t>add167</t>
+  </si>
+  <si>
+    <t>add168</t>
+  </si>
+  <si>
+    <t>add169</t>
+  </si>
+  <si>
+    <t>add170</t>
+  </si>
+  <si>
+    <t>add171</t>
+  </si>
+  <si>
+    <t>add172</t>
+  </si>
+  <si>
+    <t>add173</t>
+  </si>
+  <si>
+    <t>add174</t>
+  </si>
+  <si>
+    <t>add175</t>
+  </si>
+  <si>
+    <t>add176</t>
+  </si>
+  <si>
+    <t>add177</t>
+  </si>
+  <si>
+    <t>add178</t>
+  </si>
+  <si>
+    <t>add179</t>
+  </si>
+  <si>
+    <t>add180</t>
+  </si>
+  <si>
+    <t>add181</t>
+  </si>
+  <si>
+    <t>add182</t>
+  </si>
+  <si>
+    <t>add183</t>
+  </si>
+  <si>
+    <t>add184</t>
+  </si>
+  <si>
+    <t>add185</t>
+  </si>
+  <si>
+    <t>add186</t>
+  </si>
+  <si>
+    <t>add187</t>
+  </si>
+  <si>
+    <t>add188</t>
+  </si>
+  <si>
+    <t>add189</t>
+  </si>
+  <si>
+    <t>add190</t>
+  </si>
+  <si>
+    <t>add191</t>
+  </si>
+  <si>
+    <t>add192</t>
+  </si>
+  <si>
+    <t>add193</t>
+  </si>
+  <si>
+    <t>add194</t>
+  </si>
+  <si>
+    <t>add195</t>
+  </si>
+  <si>
+    <t>add196</t>
+  </si>
+  <si>
+    <t>add197</t>
+  </si>
+  <si>
+    <t>add198</t>
+  </si>
+  <si>
+    <t>add199</t>
+  </si>
+  <si>
+    <t>add200</t>
+  </si>
+  <si>
+    <t>add201</t>
+  </si>
+  <si>
+    <t>add202</t>
+  </si>
+  <si>
+    <t>add203</t>
+  </si>
+  <si>
+    <t>add204</t>
+  </si>
+  <si>
+    <t>add205</t>
+  </si>
+  <si>
+    <t>add206</t>
+  </si>
+  <si>
+    <t>add207</t>
+  </si>
+  <si>
+    <t>add208</t>
+  </si>
+  <si>
+    <t>add209</t>
+  </si>
+  <si>
+    <t>add210</t>
+  </si>
+  <si>
+    <t>add211</t>
+  </si>
+  <si>
+    <t>add212</t>
+  </si>
+  <si>
+    <t>add213</t>
+  </si>
+  <si>
+    <t>add214</t>
+  </si>
+  <si>
+    <t>add215</t>
+  </si>
+  <si>
+    <t>add216</t>
+  </si>
+  <si>
+    <t>add217</t>
+  </si>
+  <si>
+    <t>add218</t>
+  </si>
+  <si>
+    <t>add219</t>
+  </si>
+  <si>
+    <t>add220</t>
+  </si>
+  <si>
+    <t>add221</t>
+  </si>
+  <si>
+    <t>add222</t>
+  </si>
+  <si>
+    <t>add223</t>
+  </si>
+  <si>
+    <t>add224</t>
+  </si>
+  <si>
+    <t>add225</t>
+  </si>
+  <si>
+    <t>add226</t>
+  </si>
+  <si>
+    <t>add227</t>
+  </si>
+  <si>
+    <t>add228</t>
+  </si>
+  <si>
+    <t>add229</t>
+  </si>
+  <si>
+    <t>add230</t>
+  </si>
+  <si>
+    <t>add231</t>
+  </si>
+  <si>
+    <t>add232</t>
+  </si>
+  <si>
+    <t>add233</t>
+  </si>
+  <si>
+    <t>add234</t>
+  </si>
+  <si>
+    <t>add235</t>
+  </si>
+  <si>
+    <t>add236</t>
+  </si>
+  <si>
+    <t>add237</t>
+  </si>
+  <si>
+    <t>add238</t>
+  </si>
+  <si>
+    <t>add239</t>
+  </si>
+  <si>
+    <t>add240</t>
+  </si>
+  <si>
+    <t>add241</t>
+  </si>
+  <si>
+    <t>add242</t>
+  </si>
+  <si>
+    <t>add243</t>
+  </si>
+  <si>
+    <t>add244</t>
+  </si>
+  <si>
+    <t>add245</t>
+  </si>
+  <si>
+    <t>add246</t>
+  </si>
+  <si>
+    <t>add247</t>
+  </si>
+  <si>
+    <t>add248</t>
+  </si>
+  <si>
+    <t>add249</t>
+  </si>
+  <si>
+    <t>add250</t>
+  </si>
+  <si>
+    <t>add251</t>
+  </si>
+  <si>
+    <t>add252</t>
+  </si>
+  <si>
+    <t>add253</t>
+  </si>
+  <si>
+    <t>add254</t>
+  </si>
+  <si>
+    <t>add255</t>
+  </si>
+  <si>
+    <t>add256</t>
+  </si>
+  <si>
+    <t>add257</t>
+  </si>
+  <si>
+    <t>add258</t>
+  </si>
+  <si>
+    <t>add259</t>
+  </si>
+  <si>
+    <t>add260</t>
+  </si>
+  <si>
+    <t>add261</t>
+  </si>
+  <si>
+    <t>add262</t>
+  </si>
+  <si>
+    <t>add263</t>
+  </si>
+  <si>
+    <t>add264</t>
+  </si>
+  <si>
+    <t>add265</t>
+  </si>
+  <si>
+    <t>add266</t>
+  </si>
+  <si>
+    <t>add267</t>
+  </si>
+  <si>
+    <t>add268</t>
+  </si>
+  <si>
+    <t>add269</t>
+  </si>
+  <si>
+    <t>add270</t>
+  </si>
+  <si>
+    <t>add271</t>
+  </si>
+  <si>
+    <t>add272</t>
+  </si>
+  <si>
+    <t>add273</t>
+  </si>
+  <si>
+    <t>add274</t>
+  </si>
+  <si>
+    <t>add275</t>
+  </si>
+  <si>
+    <t>add276</t>
+  </si>
+  <si>
+    <t>add277</t>
+  </si>
+  <si>
+    <t>add278</t>
+  </si>
+  <si>
+    <t>add279</t>
+  </si>
+  <si>
+    <t>add280</t>
+  </si>
+  <si>
+    <t>add281</t>
+  </si>
+  <si>
+    <t>add282</t>
+  </si>
+  <si>
+    <t>add283</t>
+  </si>
+  <si>
+    <t>add284</t>
+  </si>
+  <si>
+    <t>add285</t>
+  </si>
+  <si>
+    <t>add286</t>
+  </si>
+  <si>
+    <t>add287</t>
+  </si>
+  <si>
+    <t>add288</t>
+  </si>
+  <si>
+    <t>add289</t>
+  </si>
+  <si>
+    <t>add290</t>
+  </si>
+  <si>
+    <t>asia스테이 까치</t>
+  </si>
+  <si>
+    <t>asia 시호일</t>
+  </si>
+  <si>
+    <t>오소asia</t>
+  </si>
+  <si>
+    <t>아담asia</t>
+  </si>
+  <si>
+    <t>asia에세이 서촌</t>
   </si>
 </sst>
 </file>
@@ -953,7 +1870,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -976,13 +1893,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1287,10 +2218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J291"/>
+  <dimension ref="A1:N291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1299,41 +2230,53 @@
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>294</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>297</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>299</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>301</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>303</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1357,15 +2300,18 @@
         <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1389,15 +2335,18 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1421,15 +2370,18 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>36</v>
@@ -1453,15 +2405,18 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1485,15 +2440,18 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1517,15 +2475,18 @@
         <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>73</v>
@@ -1549,15 +2510,18 @@
         <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>96</v>
@@ -1581,15 +2545,18 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>595</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -1613,15 +2580,18 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="K10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1645,15 +2615,18 @@
         <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>84</v>
@@ -1677,15 +2650,18 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1709,15 +2685,18 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1741,15 +2720,18 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>62</v>
@@ -1773,15 +2755,18 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>29</v>
@@ -1805,15 +2790,18 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>66</v>
@@ -1837,15 +2825,18 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1869,15 +2860,18 @@
         <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -1901,15 +2895,18 @@
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1933,15 +2930,18 @@
         <v>98</v>
       </c>
       <c r="J20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>18</v>
@@ -1965,15 +2965,18 @@
         <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -1997,15 +3000,18 @@
         <v>41</v>
       </c>
       <c r="J22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2029,15 +3035,18 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>18</v>
@@ -2061,15 +3070,18 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -2093,15 +3105,18 @@
         <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>96</v>
@@ -2125,15 +3140,18 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>94</v>
@@ -2157,15 +3175,18 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>21</v>
@@ -2189,15 +3210,18 @@
         <v>17</v>
       </c>
       <c r="J28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>76</v>
@@ -2221,15 +3245,18 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -2253,15 +3280,18 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -2285,15 +3315,18 @@
         <v>42</v>
       </c>
       <c r="J31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>47</v>
@@ -2317,15 +3350,18 @@
         <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>22</v>
@@ -2349,15 +3385,18 @@
         <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2381,15 +3420,18 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K34" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2413,15 +3455,18 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K35" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -2445,15 +3490,18 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K36" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2477,15 +3525,18 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -2509,15 +3560,18 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2541,15 +3595,18 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -2573,15 +3630,18 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <v>56</v>
@@ -2605,15 +3665,18 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>53</v>
@@ -2637,15 +3700,18 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>99</v>
@@ -2669,15 +3735,18 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>13</v>
@@ -2701,15 +3770,18 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>16</v>
@@ -2733,15 +3805,18 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>11</v>
@@ -2765,15 +3840,18 @@
         <v>9</v>
       </c>
       <c r="J46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K46" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2797,15 +3875,18 @@
         <v>19</v>
       </c>
       <c r="J47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C48">
         <v>9</v>
@@ -2829,15 +3910,18 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K48" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -2861,15 +3945,18 @@
         <v>39</v>
       </c>
       <c r="J49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K49" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <v>8</v>
@@ -2893,15 +3980,18 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C51">
         <v>44</v>
@@ -2925,15 +4015,18 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K51" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -2957,15 +4050,18 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C53">
         <v>19</v>
@@ -2989,15 +4085,18 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K53" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3021,15 +4120,18 @@
         <v>91</v>
       </c>
       <c r="J54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K54" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C55">
         <v>99</v>
@@ -3053,15 +4155,18 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K55" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -3085,15 +4190,18 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K56" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>12</v>
@@ -3117,15 +4225,18 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K57" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <v>93</v>
@@ -3149,15 +4260,18 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K58" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3181,15 +4295,18 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K59" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>18</v>
@@ -3213,15 +4330,18 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K60" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C61">
         <v>61</v>
@@ -3245,15 +4365,18 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K61" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -3277,15 +4400,18 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K62" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3309,15 +4435,18 @@
         <v>97</v>
       </c>
       <c r="J63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K63" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <v>34</v>
@@ -3341,15 +4470,18 @@
         <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K64" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3373,15 +4505,18 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="K65" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3405,15 +4540,18 @@
         <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K66" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3437,15 +4575,18 @@
         <v>94</v>
       </c>
       <c r="J67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K67" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <v>50</v>
@@ -3469,15 +4610,18 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K68" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C69">
         <v>81</v>
@@ -3501,15 +4645,18 @@
         <v>4</v>
       </c>
       <c r="J69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K69" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C70">
         <v>9</v>
@@ -3533,15 +4680,18 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K70" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C71">
         <v>17</v>
@@ -3565,15 +4715,18 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K71" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C72">
         <v>99</v>
@@ -3597,15 +4750,18 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K72" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C73">
         <v>13</v>
@@ -3629,15 +4785,18 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K73" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>596</v>
       </c>
       <c r="C74">
         <v>38</v>
@@ -3661,15 +4820,18 @@
         <v>34</v>
       </c>
       <c r="J74" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K74" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C75">
         <v>76</v>
@@ -3693,15 +4855,18 @@
         <v>8</v>
       </c>
       <c r="J75" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K75" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3725,15 +4890,18 @@
         <v>98</v>
       </c>
       <c r="J76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K76" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -3757,15 +4925,18 @@
         <v>84</v>
       </c>
       <c r="J77" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K77" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3789,15 +4960,18 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K78" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3821,15 +4995,18 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K79" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3853,15 +5030,18 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K80" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C81">
         <v>8</v>
@@ -3885,15 +5065,18 @@
         <v>84</v>
       </c>
       <c r="J81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K81" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C82">
         <v>30</v>
@@ -3917,15 +5100,18 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K82" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C83">
         <v>12</v>
@@ -3949,15 +5135,18 @@
         <v>81</v>
       </c>
       <c r="J83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K83" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C84">
         <v>21</v>
@@ -3981,15 +5170,18 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K84" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C85">
         <v>70</v>
@@ -4013,15 +5205,18 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K85" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4045,15 +5240,18 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K86" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C87">
         <v>83</v>
@@ -4077,15 +5275,18 @@
         <v>7</v>
       </c>
       <c r="J87" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K87" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -4109,15 +5310,18 @@
         <v>6</v>
       </c>
       <c r="J88" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K88" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -4141,15 +5345,18 @@
         <v>64</v>
       </c>
       <c r="J89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K89" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -4173,15 +5380,18 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K90" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C91">
         <v>98</v>
@@ -4205,15 +5415,18 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K91" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C92">
         <v>56</v>
@@ -4237,15 +5450,18 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K92" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C93">
         <v>9</v>
@@ -4269,15 +5485,18 @@
         <v>34</v>
       </c>
       <c r="J93" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K93" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -4301,15 +5520,18 @@
         <v>9</v>
       </c>
       <c r="J94" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K94" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>597</v>
       </c>
       <c r="C95">
         <v>8</v>
@@ -4333,15 +5555,18 @@
         <v>8</v>
       </c>
       <c r="J95" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K95" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -4365,15 +5590,18 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K96" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -4397,15 +5625,18 @@
         <v>88</v>
       </c>
       <c r="J97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K97" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C98">
         <v>8</v>
@@ -4429,15 +5660,18 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K98" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C99">
         <v>55</v>
@@ -4461,15 +5695,18 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K99" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C100">
         <v>38</v>
@@ -4493,15 +5730,18 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K100" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C101">
         <v>88</v>
@@ -4525,15 +5765,18 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K101" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C102">
         <v>58</v>
@@ -4557,15 +5800,18 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K102" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -4589,15 +5835,18 @@
         <v>98</v>
       </c>
       <c r="J103" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K103" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C104">
         <v>32</v>
@@ -4621,15 +5870,18 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K104" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C105">
         <v>27</v>
@@ -4653,15 +5905,18 @@
         <v>32</v>
       </c>
       <c r="J105" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K105" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C106">
         <v>50</v>
@@ -4685,15 +5940,18 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K106" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C107">
         <v>98</v>
@@ -4717,15 +5975,18 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K107" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C108">
         <v>34</v>
@@ -4749,15 +6010,18 @@
         <v>21</v>
       </c>
       <c r="J108" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K108" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C109">
         <v>99</v>
@@ -4781,15 +6045,18 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K109" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C110">
         <v>11</v>
@@ -4813,15 +6080,18 @@
         <v>58</v>
       </c>
       <c r="J110" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K110" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C111">
         <v>10</v>
@@ -4845,15 +6115,18 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K111" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -4877,15 +6150,18 @@
         <v>8</v>
       </c>
       <c r="J112" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K112" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C113">
         <v>84</v>
@@ -4909,15 +6185,18 @@
         <v>11</v>
       </c>
       <c r="J113" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K113" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C114">
         <v>7</v>
@@ -4941,15 +6220,18 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K114" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -4973,15 +6255,18 @@
         <v>65</v>
       </c>
       <c r="J115" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K115" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C116">
         <v>22</v>
@@ -5005,15 +6290,18 @@
         <v>17</v>
       </c>
       <c r="J116" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -5037,15 +6325,18 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K117" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C118">
         <v>4</v>
@@ -5069,15 +6360,18 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K118" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C119">
         <v>98</v>
@@ -5101,15 +6395,18 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K119" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C120">
         <v>6</v>
@@ -5133,15 +6430,18 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K120" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -5165,15 +6465,18 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K121" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C122">
         <v>6</v>
@@ -5197,15 +6500,18 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K122" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C123">
         <v>11</v>
@@ -5229,15 +6535,18 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K123" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>598</v>
       </c>
       <c r="C124">
         <v>11</v>
@@ -5261,15 +6570,18 @@
         <v>69</v>
       </c>
       <c r="J124" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K124" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C125">
         <v>79</v>
@@ -5293,15 +6605,18 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K125" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -5325,15 +6640,18 @@
         <v>10</v>
       </c>
       <c r="J126" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K126" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -5357,15 +6675,18 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K127" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C128">
         <v>4</v>
@@ -5389,15 +6710,18 @@
         <v>4</v>
       </c>
       <c r="J128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="K128" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -5421,15 +6745,18 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K129" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -5453,15 +6780,18 @@
         <v>17</v>
       </c>
       <c r="J130" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K130" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -5485,15 +6815,18 @@
         <v>83</v>
       </c>
       <c r="J131" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K131" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C132">
         <v>7</v>
@@ -5517,15 +6850,18 @@
         <v>23</v>
       </c>
       <c r="J132" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K132" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C133">
         <v>24</v>
@@ -5549,15 +6885,18 @@
         <v>60</v>
       </c>
       <c r="J133" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K133" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C134">
         <v>35</v>
@@ -5581,15 +6920,18 @@
         <v>8</v>
       </c>
       <c r="J134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K134" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -5613,15 +6955,18 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K135" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C136">
         <v>83</v>
@@ -5645,15 +6990,18 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K136" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C137">
         <v>18</v>
@@ -5677,15 +7025,18 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K137" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C138">
         <v>25</v>
@@ -5709,15 +7060,18 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K138" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -5741,15 +7095,18 @@
         <v>27</v>
       </c>
       <c r="J139" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K139" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C140">
         <v>64</v>
@@ -5773,15 +7130,18 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K140" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C141">
         <v>9</v>
@@ -5805,15 +7165,18 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K141" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C142">
         <v>7</v>
@@ -5837,15 +7200,18 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K142" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -5869,15 +7235,18 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K143" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -5901,15 +7270,18 @@
         <v>75</v>
       </c>
       <c r="J144" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K144" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C145">
         <v>32</v>
@@ -5933,15 +7305,18 @@
         <v>8</v>
       </c>
       <c r="J145" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K145" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -5965,15 +7340,18 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="K146" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C147">
         <v>52</v>
@@ -5997,15 +7375,18 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K147" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -6029,15 +7410,18 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K148" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C149">
         <v>7</v>
@@ -6061,15 +7445,18 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K149" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -6093,15 +7480,18 @@
         <v>99</v>
       </c>
       <c r="J150" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K150" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C151">
         <v>22</v>
@@ -6125,15 +7515,18 @@
         <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K151" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C152">
         <v>87</v>
@@ -6157,15 +7550,18 @@
         <v>4</v>
       </c>
       <c r="J152" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K152" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -6189,15 +7585,18 @@
         <v>96</v>
       </c>
       <c r="J153" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K153" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C154">
         <v>98</v>
@@ -6221,15 +7620,18 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K154" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -6253,15 +7655,18 @@
         <v>95</v>
       </c>
       <c r="J155" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K155" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C156">
         <v>6</v>
@@ -6285,15 +7690,18 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K156" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -6317,15 +7725,18 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K157" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C158">
         <v>3</v>
@@ -6349,15 +7760,18 @@
         <v>22</v>
       </c>
       <c r="J158" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K158" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6381,15 +7795,18 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K159" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C160">
         <v>35</v>
@@ -6413,15 +7830,18 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K160" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C161">
         <v>20</v>
@@ -6445,15 +7865,18 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K161" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -6477,15 +7900,18 @@
         <v>99</v>
       </c>
       <c r="J162" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K162" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -6509,15 +7935,18 @@
         <v>70</v>
       </c>
       <c r="J163" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K163" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C164">
         <v>15</v>
@@ -6541,15 +7970,18 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K164" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C165">
         <v>37</v>
@@ -6573,15 +8005,18 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K165" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C166">
         <v>14</v>
@@ -6605,15 +8040,18 @@
         <v>72</v>
       </c>
       <c r="J166" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K166" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -6637,15 +8075,18 @@
         <v>85</v>
       </c>
       <c r="J167" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K167" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C168">
         <v>99</v>
@@ -6669,15 +8110,18 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K168" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C169">
         <v>64</v>
@@ -6701,15 +8145,18 @@
         <v>4</v>
       </c>
       <c r="J169" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K169" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -6733,15 +8180,18 @@
         <v>30</v>
       </c>
       <c r="J170" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K170" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C171">
         <v>43</v>
@@ -6765,15 +8215,18 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K171" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C172">
         <v>26</v>
@@ -6797,15 +8250,18 @@
         <v>33</v>
       </c>
       <c r="J172" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K172" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -6829,15 +8285,18 @@
         <v>98</v>
       </c>
       <c r="J173" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K173" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -6861,15 +8320,18 @@
         <v>97</v>
       </c>
       <c r="J174" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K174" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C175">
         <v>77</v>
@@ -6893,15 +8355,18 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K175" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C176">
         <v>3</v>
@@ -6925,15 +8390,18 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K176" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -6957,15 +8425,18 @@
         <v>98</v>
       </c>
       <c r="J177" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K177" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -6989,15 +8460,18 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K178" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C179">
         <v>3</v>
@@ -7021,15 +8495,18 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K179" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C180">
         <v>12</v>
@@ -7053,15 +8530,18 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K180" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -7085,15 +8565,18 @@
         <v>90</v>
       </c>
       <c r="J181" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K181" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -7117,15 +8600,18 @@
         <v>81</v>
       </c>
       <c r="J182" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K182" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C183">
         <v>25</v>
@@ -7149,15 +8635,18 @@
         <v>44</v>
       </c>
       <c r="J183" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K183" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C184">
         <v>2</v>
@@ -7181,15 +8670,18 @@
         <v>33</v>
       </c>
       <c r="J184" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K184" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C185">
         <v>12</v>
@@ -7213,15 +8705,18 @@
         <v>9</v>
       </c>
       <c r="J185" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K185" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C186">
         <v>9</v>
@@ -7245,15 +8740,18 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K186" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C187">
         <v>28</v>
@@ -7277,15 +8775,18 @@
         <v>39</v>
       </c>
       <c r="J187" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K187" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C188">
         <v>38</v>
@@ -7309,15 +8810,18 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K188" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C189">
         <v>12</v>
@@ -7341,15 +8845,18 @@
         <v>5</v>
       </c>
       <c r="J189" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K189" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C190">
         <v>5</v>
@@ -7373,15 +8880,18 @@
         <v>8</v>
       </c>
       <c r="J190" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K190" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C191">
         <v>12</v>
@@ -7405,15 +8915,18 @@
         <v>46</v>
       </c>
       <c r="J191" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K191" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C192">
         <v>17</v>
@@ -7437,15 +8950,18 @@
         <v>24</v>
       </c>
       <c r="J192" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K192" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -7469,15 +8985,18 @@
         <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K193" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -7501,15 +9020,18 @@
         <v>84</v>
       </c>
       <c r="J194" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K194" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C195">
         <v>2</v>
@@ -7533,15 +9055,18 @@
         <v>4</v>
       </c>
       <c r="J195" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="K195" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C196">
         <v>45</v>
@@ -7565,15 +9090,18 @@
         <v>13</v>
       </c>
       <c r="J196" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K196" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C197">
         <v>53</v>
@@ -7597,15 +9125,18 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K197" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C198">
         <v>10</v>
@@ -7629,15 +9160,18 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="K198" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C199">
         <v>5</v>
@@ -7661,15 +9195,18 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K199" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C200">
         <v>99</v>
@@ -7693,15 +9230,18 @@
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K200" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C201">
         <v>26</v>
@@ -7725,15 +9265,18 @@
         <v>57</v>
       </c>
       <c r="J201" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K201" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C202">
         <v>64</v>
@@ -7757,15 +9300,18 @@
         <v>3</v>
       </c>
       <c r="J202" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K202" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C203">
         <v>2</v>
@@ -7789,15 +9335,18 @@
         <v>83</v>
       </c>
       <c r="J203" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K203" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C204">
         <v>38</v>
@@ -7821,15 +9370,18 @@
         <v>37</v>
       </c>
       <c r="J204" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K204" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -7853,15 +9405,18 @@
         <v>97</v>
       </c>
       <c r="J205" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K205" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C206">
         <v>7</v>
@@ -7885,15 +9440,18 @@
         <v>13</v>
       </c>
       <c r="J206" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K206" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C207">
         <v>60</v>
@@ -7917,15 +9475,18 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K207" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C208">
         <v>12</v>
@@ -7949,15 +9510,18 @@
         <v>47</v>
       </c>
       <c r="J208" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K208" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C209">
         <v>2</v>
@@ -7981,15 +9545,18 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K209" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -8013,15 +9580,18 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K210" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C211">
         <v>2</v>
@@ -8045,15 +9615,18 @@
         <v>89</v>
       </c>
       <c r="J211" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K211" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C212">
         <v>7</v>
@@ -8077,15 +9650,18 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K212" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C213">
         <v>2</v>
@@ -8109,15 +9685,18 @@
         <v>95</v>
       </c>
       <c r="J213" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K213" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C214">
         <v>3</v>
@@ -8141,15 +9720,18 @@
         <v>83</v>
       </c>
       <c r="J214" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K214" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C215">
         <v>8</v>
@@ -8173,15 +9755,18 @@
         <v>59</v>
       </c>
       <c r="J215" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K215" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -8205,15 +9790,18 @@
         <v>98</v>
       </c>
       <c r="J216" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K216" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C217">
         <v>85</v>
@@ -8237,15 +9825,18 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K217" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C218">
         <v>92</v>
@@ -8269,15 +9860,18 @@
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K218" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C219">
         <v>39</v>
@@ -8301,15 +9895,18 @@
         <v>26</v>
       </c>
       <c r="J219" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K219" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C220">
         <v>2</v>
@@ -8333,15 +9930,18 @@
         <v>59</v>
       </c>
       <c r="J220" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K220" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -8365,15 +9965,18 @@
         <v>50</v>
       </c>
       <c r="J221" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K221" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C222">
         <v>26</v>
@@ -8397,15 +10000,18 @@
         <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K222" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -8429,15 +10035,18 @@
         <v>50</v>
       </c>
       <c r="J223" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K223" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C224">
         <v>87</v>
@@ -8461,15 +10070,18 @@
         <v>5</v>
       </c>
       <c r="J224" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K224" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C225">
         <v>4</v>
@@ -8493,15 +10105,18 @@
         <v>3</v>
       </c>
       <c r="J225" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K225" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C226">
         <v>43</v>
@@ -8525,15 +10140,18 @@
         <v>4</v>
       </c>
       <c r="J226" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K226" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -8557,15 +10175,18 @@
         <v>42</v>
       </c>
       <c r="J227" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K227" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C228">
         <v>99</v>
@@ -8589,15 +10210,18 @@
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K228" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -8621,15 +10245,18 @@
         <v>99</v>
       </c>
       <c r="J229" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K229" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C230">
         <v>15</v>
@@ -8653,15 +10280,18 @@
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K230" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C231">
         <v>18</v>
@@ -8685,15 +10315,18 @@
         <v>67</v>
       </c>
       <c r="J231" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K231" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -8717,15 +10350,18 @@
         <v>12</v>
       </c>
       <c r="J232" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K232" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C233">
         <v>55</v>
@@ -8749,15 +10385,18 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K233" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C234">
         <v>13</v>
@@ -8781,15 +10420,18 @@
         <v>11</v>
       </c>
       <c r="J234" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K234" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C235">
         <v>2</v>
@@ -8813,15 +10455,18 @@
         <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K235" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -8845,15 +10490,18 @@
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K236" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C237">
         <v>12</v>
@@ -8877,15 +10525,18 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K237" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C238">
         <v>79</v>
@@ -8909,15 +10560,18 @@
         <v>18</v>
       </c>
       <c r="J238" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K238" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -8941,15 +10595,18 @@
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K239" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>247</v>
+        <v>599</v>
       </c>
       <c r="C240">
         <v>11</v>
@@ -8973,15 +10630,18 @@
         <v>34</v>
       </c>
       <c r="J240" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K240" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -9005,15 +10665,18 @@
         <v>0</v>
       </c>
       <c r="J241" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K241" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C242">
         <v>6</v>
@@ -9037,15 +10700,18 @@
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="K242" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C243">
         <v>4</v>
@@ -9069,15 +10735,18 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K243" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C244">
         <v>3</v>
@@ -9101,15 +10770,18 @@
         <v>76</v>
       </c>
       <c r="J244" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K244" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C245">
         <v>26</v>
@@ -9133,15 +10805,18 @@
         <v>4</v>
       </c>
       <c r="J245" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K245" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C246">
         <v>13</v>
@@ -9165,15 +10840,18 @@
         <v>57</v>
       </c>
       <c r="J246" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K246" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C247">
         <v>13</v>
@@ -9197,15 +10875,18 @@
         <v>58</v>
       </c>
       <c r="J247" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K247" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C248">
         <v>98</v>
@@ -9229,15 +10910,18 @@
         <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K248" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -9261,15 +10945,18 @@
         <v>94</v>
       </c>
       <c r="J249" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K249" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C250">
         <v>8</v>
@@ -9293,15 +10980,18 @@
         <v>82</v>
       </c>
       <c r="J250" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K250" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C251">
         <v>2</v>
@@ -9325,15 +11015,18 @@
         <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K251" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C252">
         <v>9</v>
@@ -9357,15 +11050,18 @@
         <v>83</v>
       </c>
       <c r="J252" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K252" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -9389,15 +11085,18 @@
         <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K253" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -9421,15 +11120,18 @@
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K254" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -9453,15 +11155,18 @@
         <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K255" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -9485,15 +11190,18 @@
         <v>89</v>
       </c>
       <c r="J256" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K256" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C257">
         <v>8</v>
@@ -9517,15 +11225,18 @@
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K257" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -9549,15 +11260,18 @@
         <v>99</v>
       </c>
       <c r="J258" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K258" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -9581,15 +11295,18 @@
         <v>89</v>
       </c>
       <c r="J259" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K259" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C260">
         <v>17</v>
@@ -9613,15 +11330,18 @@
         <v>27</v>
       </c>
       <c r="J260" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K260" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C261">
         <v>14</v>
@@ -9645,15 +11365,18 @@
         <v>52</v>
       </c>
       <c r="J261" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K261" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C262">
         <v>95</v>
@@ -9677,15 +11400,18 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K262" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C263">
         <v>4</v>
@@ -9709,15 +11435,18 @@
         <v>32</v>
       </c>
       <c r="J263" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K263" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C264">
         <v>99</v>
@@ -9741,15 +11470,18 @@
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K264" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C265">
         <v>12</v>
@@ -9773,15 +11505,18 @@
         <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K265" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -9805,15 +11540,18 @@
         <v>8</v>
       </c>
       <c r="J266" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="K266" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C267">
         <v>3</v>
@@ -9837,15 +11575,18 @@
         <v>11</v>
       </c>
       <c r="J267" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K267" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C268">
         <v>13</v>
@@ -9869,15 +11610,18 @@
         <v>18</v>
       </c>
       <c r="J268" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K268" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C269">
         <v>42</v>
@@ -9901,15 +11645,18 @@
         <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K269" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C270">
         <v>7</v>
@@ -9933,15 +11680,18 @@
         <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K270" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C271">
         <v>18</v>
@@ -9965,15 +11715,18 @@
         <v>0</v>
       </c>
       <c r="J271" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K271" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C272">
         <v>54</v>
@@ -9997,15 +11750,18 @@
         <v>19</v>
       </c>
       <c r="J272" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K272" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C273">
         <v>8</v>
@@ -10029,15 +11785,18 @@
         <v>31</v>
       </c>
       <c r="J273" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K273" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C274">
         <v>4</v>
@@ -10061,15 +11820,18 @@
         <v>50</v>
       </c>
       <c r="J274" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K274" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -10093,15 +11855,18 @@
         <v>98</v>
       </c>
       <c r="J275" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K275" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C276">
         <v>4</v>
@@ -10125,15 +11890,18 @@
         <v>40</v>
       </c>
       <c r="J276" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K276" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C277">
         <v>2</v>
@@ -10157,15 +11925,18 @@
         <v>33</v>
       </c>
       <c r="J277" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K277" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C278">
         <v>37</v>
@@ -10189,15 +11960,18 @@
         <v>7</v>
       </c>
       <c r="J278" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K278" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C279">
         <v>18</v>
@@ -10221,15 +11995,18 @@
         <v>3</v>
       </c>
       <c r="J279" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K279" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -10253,15 +12030,18 @@
         <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K280" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C281">
         <v>75</v>
@@ -10285,15 +12065,18 @@
         <v>6</v>
       </c>
       <c r="J281" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K281" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C282">
         <v>58</v>
@@ -10317,15 +12100,18 @@
         <v>9</v>
       </c>
       <c r="J282" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K282" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C283">
         <v>46</v>
@@ -10349,15 +12135,18 @@
         <v>14</v>
       </c>
       <c r="J283" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K283" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -10381,15 +12170,18 @@
         <v>99</v>
       </c>
       <c r="J284" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K284" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -10413,15 +12205,18 @@
         <v>4</v>
       </c>
       <c r="J285" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K285" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C286">
         <v>81</v>
@@ -10445,15 +12240,18 @@
         <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K286" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -10477,15 +12275,18 @@
         <v>99</v>
       </c>
       <c r="J287" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="K287" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C288">
         <v>88</v>
@@ -10509,15 +12310,18 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K288" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C289">
         <v>13</v>
@@ -10541,15 +12345,18 @@
         <v>28</v>
       </c>
       <c r="J289" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K289" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C290">
         <v>39</v>
@@ -10573,15 +12380,18 @@
         <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K290" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C291">
         <v>4</v>
@@ -10605,7 +12415,10 @@
         <v>0</v>
       </c>
       <c r="J291" t="s">
-        <v>6</v>
+        <v>300</v>
+      </c>
+      <c r="K291" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/finalPJT/Server/theme/type.xlsx
+++ b/finalPJT/Server/theme/type.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\KB_IT_Academy_4Team\finalPJT\Server\theme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KB_IT_Academy_4Team\finalPJT\Server\theme\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD9DEEC-2AF9-41F8-8F5E-B023DBA8668B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="10380"/>
+    <workbookView xWindow="-16320" yWindow="-10740" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -949,896 +963,897 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>add1</t>
+    <t>asia스테이 까치</t>
+  </si>
+  <si>
+    <t>asia 시호일</t>
+  </si>
+  <si>
+    <t>오소asia</t>
+  </si>
+  <si>
+    <t>아담asia</t>
+  </si>
+  <si>
+    <t>asia에세이 서촌</t>
+  </si>
+  <si>
+    <t>link1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>add92</t>
-  </si>
-  <si>
-    <t>add32</t>
-  </si>
-  <si>
-    <t>add9</t>
-  </si>
-  <si>
-    <t>add2</t>
-  </si>
-  <si>
-    <t>add4</t>
-  </si>
-  <si>
-    <t>add94</t>
-  </si>
-  <si>
-    <t>add5</t>
-  </si>
-  <si>
-    <t>add61</t>
-  </si>
-  <si>
-    <t>add24</t>
-  </si>
-  <si>
-    <t>add6</t>
-  </si>
-  <si>
-    <t>add23</t>
-  </si>
-  <si>
-    <t>add49</t>
-  </si>
-  <si>
-    <t>add3</t>
-  </si>
-  <si>
-    <t>add7</t>
-  </si>
-  <si>
-    <t>add8</t>
-  </si>
-  <si>
-    <t>add10</t>
-  </si>
-  <si>
-    <t>add11</t>
-  </si>
-  <si>
-    <t>add12</t>
-  </si>
-  <si>
-    <t>add13</t>
-  </si>
-  <si>
-    <t>add14</t>
-  </si>
-  <si>
-    <t>add15</t>
-  </si>
-  <si>
-    <t>add16</t>
-  </si>
-  <si>
-    <t>add17</t>
-  </si>
-  <si>
-    <t>add18</t>
-  </si>
-  <si>
-    <t>add19</t>
-  </si>
-  <si>
-    <t>add20</t>
-  </si>
-  <si>
-    <t>add21</t>
-  </si>
-  <si>
-    <t>add22</t>
-  </si>
-  <si>
-    <t>add25</t>
-  </si>
-  <si>
-    <t>add26</t>
-  </si>
-  <si>
-    <t>add27</t>
-  </si>
-  <si>
-    <t>add28</t>
-  </si>
-  <si>
-    <t>add29</t>
-  </si>
-  <si>
-    <t>add30</t>
-  </si>
-  <si>
-    <t>add31</t>
-  </si>
-  <si>
-    <t>add33</t>
-  </si>
-  <si>
-    <t>add34</t>
-  </si>
-  <si>
-    <t>add35</t>
-  </si>
-  <si>
-    <t>add36</t>
-  </si>
-  <si>
-    <t>add37</t>
-  </si>
-  <si>
-    <t>add38</t>
-  </si>
-  <si>
-    <t>add39</t>
-  </si>
-  <si>
-    <t>add40</t>
-  </si>
-  <si>
-    <t>add41</t>
-  </si>
-  <si>
-    <t>add42</t>
-  </si>
-  <si>
-    <t>add43</t>
-  </si>
-  <si>
-    <t>add44</t>
-  </si>
-  <si>
-    <t>add45</t>
-  </si>
-  <si>
-    <t>add46</t>
-  </si>
-  <si>
-    <t>add47</t>
-  </si>
-  <si>
-    <t>add48</t>
-  </si>
-  <si>
-    <t>add50</t>
-  </si>
-  <si>
-    <t>add51</t>
-  </si>
-  <si>
-    <t>add52</t>
-  </si>
-  <si>
-    <t>add53</t>
-  </si>
-  <si>
-    <t>add54</t>
-  </si>
-  <si>
-    <t>add55</t>
-  </si>
-  <si>
-    <t>add56</t>
-  </si>
-  <si>
-    <t>add57</t>
-  </si>
-  <si>
-    <t>add58</t>
-  </si>
-  <si>
-    <t>add59</t>
-  </si>
-  <si>
-    <t>add60</t>
-  </si>
-  <si>
-    <t>add62</t>
-  </si>
-  <si>
-    <t>add63</t>
-  </si>
-  <si>
-    <t>add64</t>
-  </si>
-  <si>
-    <t>add65</t>
-  </si>
-  <si>
-    <t>add66</t>
-  </si>
-  <si>
-    <t>add67</t>
-  </si>
-  <si>
-    <t>add68</t>
-  </si>
-  <si>
-    <t>add69</t>
-  </si>
-  <si>
-    <t>add70</t>
-  </si>
-  <si>
-    <t>add71</t>
-  </si>
-  <si>
-    <t>add72</t>
-  </si>
-  <si>
-    <t>add73</t>
-  </si>
-  <si>
-    <t>add74</t>
-  </si>
-  <si>
-    <t>add75</t>
-  </si>
-  <si>
-    <t>add76</t>
-  </si>
-  <si>
-    <t>add77</t>
-  </si>
-  <si>
-    <t>add78</t>
-  </si>
-  <si>
-    <t>add79</t>
-  </si>
-  <si>
-    <t>add80</t>
-  </si>
-  <si>
-    <t>add81</t>
-  </si>
-  <si>
-    <t>add82</t>
-  </si>
-  <si>
-    <t>add83</t>
-  </si>
-  <si>
-    <t>add84</t>
-  </si>
-  <si>
-    <t>add85</t>
-  </si>
-  <si>
-    <t>add86</t>
-  </si>
-  <si>
-    <t>add87</t>
-  </si>
-  <si>
-    <t>add88</t>
-  </si>
-  <si>
-    <t>add89</t>
-  </si>
-  <si>
-    <t>add90</t>
-  </si>
-  <si>
-    <t>add91</t>
-  </si>
-  <si>
-    <t>add93</t>
-  </si>
-  <si>
-    <t>add95</t>
-  </si>
-  <si>
-    <t>add96</t>
-  </si>
-  <si>
-    <t>add97</t>
-  </si>
-  <si>
-    <t>add98</t>
-  </si>
-  <si>
-    <t>add99</t>
-  </si>
-  <si>
-    <t>add100</t>
-  </si>
-  <si>
-    <t>add101</t>
-  </si>
-  <si>
-    <t>add102</t>
-  </si>
-  <si>
-    <t>add103</t>
-  </si>
-  <si>
-    <t>add104</t>
-  </si>
-  <si>
-    <t>add105</t>
-  </si>
-  <si>
-    <t>add106</t>
-  </si>
-  <si>
-    <t>add107</t>
-  </si>
-  <si>
-    <t>add108</t>
-  </si>
-  <si>
-    <t>add109</t>
-  </si>
-  <si>
-    <t>add110</t>
-  </si>
-  <si>
-    <t>add111</t>
-  </si>
-  <si>
-    <t>add112</t>
-  </si>
-  <si>
-    <t>add113</t>
-  </si>
-  <si>
-    <t>add114</t>
-  </si>
-  <si>
-    <t>add115</t>
-  </si>
-  <si>
-    <t>add116</t>
-  </si>
-  <si>
-    <t>add117</t>
-  </si>
-  <si>
-    <t>add118</t>
-  </si>
-  <si>
-    <t>add119</t>
-  </si>
-  <si>
-    <t>add120</t>
-  </si>
-  <si>
-    <t>add121</t>
-  </si>
-  <si>
-    <t>add122</t>
-  </si>
-  <si>
-    <t>add123</t>
-  </si>
-  <si>
-    <t>add124</t>
-  </si>
-  <si>
-    <t>add125</t>
-  </si>
-  <si>
-    <t>add126</t>
-  </si>
-  <si>
-    <t>add127</t>
-  </si>
-  <si>
-    <t>add128</t>
-  </si>
-  <si>
-    <t>add129</t>
-  </si>
-  <si>
-    <t>add130</t>
-  </si>
-  <si>
-    <t>add131</t>
-  </si>
-  <si>
-    <t>add132</t>
-  </si>
-  <si>
-    <t>add133</t>
-  </si>
-  <si>
-    <t>add134</t>
-  </si>
-  <si>
-    <t>add135</t>
-  </si>
-  <si>
-    <t>add136</t>
-  </si>
-  <si>
-    <t>add137</t>
-  </si>
-  <si>
-    <t>add138</t>
-  </si>
-  <si>
-    <t>add139</t>
-  </si>
-  <si>
-    <t>add140</t>
-  </si>
-  <si>
-    <t>add141</t>
-  </si>
-  <si>
-    <t>add142</t>
-  </si>
-  <si>
-    <t>add143</t>
-  </si>
-  <si>
-    <t>add144</t>
-  </si>
-  <si>
-    <t>add145</t>
-  </si>
-  <si>
-    <t>add146</t>
-  </si>
-  <si>
-    <t>add147</t>
-  </si>
-  <si>
-    <t>add148</t>
-  </si>
-  <si>
-    <t>add149</t>
-  </si>
-  <si>
-    <t>add150</t>
-  </si>
-  <si>
-    <t>add151</t>
-  </si>
-  <si>
-    <t>add152</t>
-  </si>
-  <si>
-    <t>add153</t>
-  </si>
-  <si>
-    <t>add154</t>
-  </si>
-  <si>
-    <t>add155</t>
-  </si>
-  <si>
-    <t>add156</t>
-  </si>
-  <si>
-    <t>add157</t>
-  </si>
-  <si>
-    <t>add158</t>
-  </si>
-  <si>
-    <t>add159</t>
-  </si>
-  <si>
-    <t>add160</t>
-  </si>
-  <si>
-    <t>add161</t>
-  </si>
-  <si>
-    <t>add162</t>
-  </si>
-  <si>
-    <t>add163</t>
-  </si>
-  <si>
-    <t>add164</t>
-  </si>
-  <si>
-    <t>add165</t>
-  </si>
-  <si>
-    <t>add166</t>
-  </si>
-  <si>
-    <t>add167</t>
-  </si>
-  <si>
-    <t>add168</t>
-  </si>
-  <si>
-    <t>add169</t>
-  </si>
-  <si>
-    <t>add170</t>
-  </si>
-  <si>
-    <t>add171</t>
-  </si>
-  <si>
-    <t>add172</t>
-  </si>
-  <si>
-    <t>add173</t>
-  </si>
-  <si>
-    <t>add174</t>
-  </si>
-  <si>
-    <t>add175</t>
-  </si>
-  <si>
-    <t>add176</t>
-  </si>
-  <si>
-    <t>add177</t>
-  </si>
-  <si>
-    <t>add178</t>
-  </si>
-  <si>
-    <t>add179</t>
-  </si>
-  <si>
-    <t>add180</t>
-  </si>
-  <si>
-    <t>add181</t>
-  </si>
-  <si>
-    <t>add182</t>
-  </si>
-  <si>
-    <t>add183</t>
-  </si>
-  <si>
-    <t>add184</t>
-  </si>
-  <si>
-    <t>add185</t>
-  </si>
-  <si>
-    <t>add186</t>
-  </si>
-  <si>
-    <t>add187</t>
-  </si>
-  <si>
-    <t>add188</t>
-  </si>
-  <si>
-    <t>add189</t>
-  </si>
-  <si>
-    <t>add190</t>
-  </si>
-  <si>
-    <t>add191</t>
-  </si>
-  <si>
-    <t>add192</t>
-  </si>
-  <si>
-    <t>add193</t>
-  </si>
-  <si>
-    <t>add194</t>
-  </si>
-  <si>
-    <t>add195</t>
-  </si>
-  <si>
-    <t>add196</t>
-  </si>
-  <si>
-    <t>add197</t>
-  </si>
-  <si>
-    <t>add198</t>
-  </si>
-  <si>
-    <t>add199</t>
-  </si>
-  <si>
-    <t>add200</t>
-  </si>
-  <si>
-    <t>add201</t>
-  </si>
-  <si>
-    <t>add202</t>
-  </si>
-  <si>
-    <t>add203</t>
-  </si>
-  <si>
-    <t>add204</t>
-  </si>
-  <si>
-    <t>add205</t>
-  </si>
-  <si>
-    <t>add206</t>
-  </si>
-  <si>
-    <t>add207</t>
-  </si>
-  <si>
-    <t>add208</t>
-  </si>
-  <si>
-    <t>add209</t>
-  </si>
-  <si>
-    <t>add210</t>
-  </si>
-  <si>
-    <t>add211</t>
-  </si>
-  <si>
-    <t>add212</t>
-  </si>
-  <si>
-    <t>add213</t>
-  </si>
-  <si>
-    <t>add214</t>
-  </si>
-  <si>
-    <t>add215</t>
-  </si>
-  <si>
-    <t>add216</t>
-  </si>
-  <si>
-    <t>add217</t>
-  </si>
-  <si>
-    <t>add218</t>
-  </si>
-  <si>
-    <t>add219</t>
-  </si>
-  <si>
-    <t>add220</t>
-  </si>
-  <si>
-    <t>add221</t>
-  </si>
-  <si>
-    <t>add222</t>
-  </si>
-  <si>
-    <t>add223</t>
-  </si>
-  <si>
-    <t>add224</t>
-  </si>
-  <si>
-    <t>add225</t>
-  </si>
-  <si>
-    <t>add226</t>
-  </si>
-  <si>
-    <t>add227</t>
-  </si>
-  <si>
-    <t>add228</t>
-  </si>
-  <si>
-    <t>add229</t>
-  </si>
-  <si>
-    <t>add230</t>
-  </si>
-  <si>
-    <t>add231</t>
-  </si>
-  <si>
-    <t>add232</t>
-  </si>
-  <si>
-    <t>add233</t>
-  </si>
-  <si>
-    <t>add234</t>
-  </si>
-  <si>
-    <t>add235</t>
-  </si>
-  <si>
-    <t>add236</t>
-  </si>
-  <si>
-    <t>add237</t>
-  </si>
-  <si>
-    <t>add238</t>
-  </si>
-  <si>
-    <t>add239</t>
-  </si>
-  <si>
-    <t>add240</t>
-  </si>
-  <si>
-    <t>add241</t>
-  </si>
-  <si>
-    <t>add242</t>
-  </si>
-  <si>
-    <t>add243</t>
-  </si>
-  <si>
-    <t>add244</t>
-  </si>
-  <si>
-    <t>add245</t>
-  </si>
-  <si>
-    <t>add246</t>
-  </si>
-  <si>
-    <t>add247</t>
-  </si>
-  <si>
-    <t>add248</t>
-  </si>
-  <si>
-    <t>add249</t>
-  </si>
-  <si>
-    <t>add250</t>
-  </si>
-  <si>
-    <t>add251</t>
-  </si>
-  <si>
-    <t>add252</t>
-  </si>
-  <si>
-    <t>add253</t>
-  </si>
-  <si>
-    <t>add254</t>
-  </si>
-  <si>
-    <t>add255</t>
-  </si>
-  <si>
-    <t>add256</t>
-  </si>
-  <si>
-    <t>add257</t>
-  </si>
-  <si>
-    <t>add258</t>
-  </si>
-  <si>
-    <t>add259</t>
-  </si>
-  <si>
-    <t>add260</t>
-  </si>
-  <si>
-    <t>add261</t>
-  </si>
-  <si>
-    <t>add262</t>
-  </si>
-  <si>
-    <t>add263</t>
-  </si>
-  <si>
-    <t>add264</t>
-  </si>
-  <si>
-    <t>add265</t>
-  </si>
-  <si>
-    <t>add266</t>
-  </si>
-  <si>
-    <t>add267</t>
-  </si>
-  <si>
-    <t>add268</t>
-  </si>
-  <si>
-    <t>add269</t>
-  </si>
-  <si>
-    <t>add270</t>
-  </si>
-  <si>
-    <t>add271</t>
-  </si>
-  <si>
-    <t>add272</t>
-  </si>
-  <si>
-    <t>add273</t>
-  </si>
-  <si>
-    <t>add274</t>
-  </si>
-  <si>
-    <t>add275</t>
-  </si>
-  <si>
-    <t>add276</t>
-  </si>
-  <si>
-    <t>add277</t>
-  </si>
-  <si>
-    <t>add278</t>
-  </si>
-  <si>
-    <t>add279</t>
-  </si>
-  <si>
-    <t>add280</t>
-  </si>
-  <si>
-    <t>add281</t>
-  </si>
-  <si>
-    <t>add282</t>
-  </si>
-  <si>
-    <t>add283</t>
-  </si>
-  <si>
-    <t>add284</t>
-  </si>
-  <si>
-    <t>add285</t>
-  </si>
-  <si>
-    <t>add286</t>
-  </si>
-  <si>
-    <t>add287</t>
-  </si>
-  <si>
-    <t>add288</t>
-  </si>
-  <si>
-    <t>add289</t>
-  </si>
-  <si>
-    <t>add290</t>
-  </si>
-  <si>
-    <t>asia스테이 까치</t>
-  </si>
-  <si>
-    <t>asia 시호일</t>
-  </si>
-  <si>
-    <t>오소asia</t>
-  </si>
-  <si>
-    <t>아담asia</t>
-  </si>
-  <si>
-    <t>asia에세이 서촌</t>
+    <t>link92</t>
+  </si>
+  <si>
+    <t>link32</t>
+  </si>
+  <si>
+    <t>link9</t>
+  </si>
+  <si>
+    <t>link4</t>
+  </si>
+  <si>
+    <t>link94</t>
+  </si>
+  <si>
+    <t>link5</t>
+  </si>
+  <si>
+    <t>link61</t>
+  </si>
+  <si>
+    <t>link24</t>
+  </si>
+  <si>
+    <t>link6</t>
+  </si>
+  <si>
+    <t>link23</t>
+  </si>
+  <si>
+    <t>link49</t>
+  </si>
+  <si>
+    <t>link31</t>
+  </si>
+  <si>
+    <t>link3</t>
+  </si>
+  <si>
+    <t>link75</t>
+  </si>
+  <si>
+    <t>link14</t>
+  </si>
+  <si>
+    <t>link18</t>
+  </si>
+  <si>
+    <t>link7</t>
+  </si>
+  <si>
+    <t>link11</t>
+  </si>
+  <si>
+    <t>link10</t>
+  </si>
+  <si>
+    <t>link42</t>
+  </si>
+  <si>
+    <t>link22</t>
+  </si>
+  <si>
+    <t>link74</t>
+  </si>
+  <si>
+    <t>link44</t>
+  </si>
+  <si>
+    <t>link2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>link8</t>
+  </si>
+  <si>
+    <t>link12</t>
+  </si>
+  <si>
+    <t>link13</t>
+  </si>
+  <si>
+    <t>link15</t>
+  </si>
+  <si>
+    <t>link16</t>
+  </si>
+  <si>
+    <t>link17</t>
+  </si>
+  <si>
+    <t>link19</t>
+  </si>
+  <si>
+    <t>link20</t>
+  </si>
+  <si>
+    <t>link21</t>
+  </si>
+  <si>
+    <t>link25</t>
+  </si>
+  <si>
+    <t>link26</t>
+  </si>
+  <si>
+    <t>link27</t>
+  </si>
+  <si>
+    <t>link28</t>
+  </si>
+  <si>
+    <t>link29</t>
+  </si>
+  <si>
+    <t>link30</t>
+  </si>
+  <si>
+    <t>link33</t>
+  </si>
+  <si>
+    <t>link34</t>
+  </si>
+  <si>
+    <t>link35</t>
+  </si>
+  <si>
+    <t>link36</t>
+  </si>
+  <si>
+    <t>link37</t>
+  </si>
+  <si>
+    <t>link38</t>
+  </si>
+  <si>
+    <t>link39</t>
+  </si>
+  <si>
+    <t>link40</t>
+  </si>
+  <si>
+    <t>link41</t>
+  </si>
+  <si>
+    <t>link43</t>
+  </si>
+  <si>
+    <t>link45</t>
+  </si>
+  <si>
+    <t>link46</t>
+  </si>
+  <si>
+    <t>link47</t>
+  </si>
+  <si>
+    <t>link48</t>
+  </si>
+  <si>
+    <t>link50</t>
+  </si>
+  <si>
+    <t>link51</t>
+  </si>
+  <si>
+    <t>link52</t>
+  </si>
+  <si>
+    <t>link53</t>
+  </si>
+  <si>
+    <t>link54</t>
+  </si>
+  <si>
+    <t>link55</t>
+  </si>
+  <si>
+    <t>link56</t>
+  </si>
+  <si>
+    <t>link57</t>
+  </si>
+  <si>
+    <t>link58</t>
+  </si>
+  <si>
+    <t>link59</t>
+  </si>
+  <si>
+    <t>link60</t>
+  </si>
+  <si>
+    <t>link62</t>
+  </si>
+  <si>
+    <t>link63</t>
+  </si>
+  <si>
+    <t>link64</t>
+  </si>
+  <si>
+    <t>link65</t>
+  </si>
+  <si>
+    <t>link66</t>
+  </si>
+  <si>
+    <t>link67</t>
+  </si>
+  <si>
+    <t>link68</t>
+  </si>
+  <si>
+    <t>link69</t>
+  </si>
+  <si>
+    <t>link70</t>
+  </si>
+  <si>
+    <t>link71</t>
+  </si>
+  <si>
+    <t>link72</t>
+  </si>
+  <si>
+    <t>link73</t>
+  </si>
+  <si>
+    <t>link76</t>
+  </si>
+  <si>
+    <t>link77</t>
+  </si>
+  <si>
+    <t>link78</t>
+  </si>
+  <si>
+    <t>link79</t>
+  </si>
+  <si>
+    <t>link80</t>
+  </si>
+  <si>
+    <t>link81</t>
+  </si>
+  <si>
+    <t>link82</t>
+  </si>
+  <si>
+    <t>link83</t>
+  </si>
+  <si>
+    <t>link84</t>
+  </si>
+  <si>
+    <t>link85</t>
+  </si>
+  <si>
+    <t>link86</t>
+  </si>
+  <si>
+    <t>link87</t>
+  </si>
+  <si>
+    <t>link88</t>
+  </si>
+  <si>
+    <t>link89</t>
+  </si>
+  <si>
+    <t>link90</t>
+  </si>
+  <si>
+    <t>link91</t>
+  </si>
+  <si>
+    <t>link93</t>
+  </si>
+  <si>
+    <t>link95</t>
+  </si>
+  <si>
+    <t>link96</t>
+  </si>
+  <si>
+    <t>link97</t>
+  </si>
+  <si>
+    <t>link98</t>
+  </si>
+  <si>
+    <t>link99</t>
+  </si>
+  <si>
+    <t>link100</t>
+  </si>
+  <si>
+    <t>link101</t>
+  </si>
+  <si>
+    <t>link102</t>
+  </si>
+  <si>
+    <t>link103</t>
+  </si>
+  <si>
+    <t>link104</t>
+  </si>
+  <si>
+    <t>link105</t>
+  </si>
+  <si>
+    <t>link106</t>
+  </si>
+  <si>
+    <t>link107</t>
+  </si>
+  <si>
+    <t>link108</t>
+  </si>
+  <si>
+    <t>link109</t>
+  </si>
+  <si>
+    <t>link110</t>
+  </si>
+  <si>
+    <t>link111</t>
+  </si>
+  <si>
+    <t>link112</t>
+  </si>
+  <si>
+    <t>link113</t>
+  </si>
+  <si>
+    <t>link114</t>
+  </si>
+  <si>
+    <t>link115</t>
+  </si>
+  <si>
+    <t>link116</t>
+  </si>
+  <si>
+    <t>link117</t>
+  </si>
+  <si>
+    <t>link118</t>
+  </si>
+  <si>
+    <t>link119</t>
+  </si>
+  <si>
+    <t>link120</t>
+  </si>
+  <si>
+    <t>link121</t>
+  </si>
+  <si>
+    <t>link122</t>
+  </si>
+  <si>
+    <t>link123</t>
+  </si>
+  <si>
+    <t>link124</t>
+  </si>
+  <si>
+    <t>link125</t>
+  </si>
+  <si>
+    <t>link126</t>
+  </si>
+  <si>
+    <t>link127</t>
+  </si>
+  <si>
+    <t>link128</t>
+  </si>
+  <si>
+    <t>link129</t>
+  </si>
+  <si>
+    <t>link130</t>
+  </si>
+  <si>
+    <t>link131</t>
+  </si>
+  <si>
+    <t>link132</t>
+  </si>
+  <si>
+    <t>link133</t>
+  </si>
+  <si>
+    <t>link134</t>
+  </si>
+  <si>
+    <t>link135</t>
+  </si>
+  <si>
+    <t>link136</t>
+  </si>
+  <si>
+    <t>link137</t>
+  </si>
+  <si>
+    <t>link138</t>
+  </si>
+  <si>
+    <t>link139</t>
+  </si>
+  <si>
+    <t>link140</t>
+  </si>
+  <si>
+    <t>link141</t>
+  </si>
+  <si>
+    <t>link142</t>
+  </si>
+  <si>
+    <t>link143</t>
+  </si>
+  <si>
+    <t>link144</t>
+  </si>
+  <si>
+    <t>link145</t>
+  </si>
+  <si>
+    <t>link146</t>
+  </si>
+  <si>
+    <t>link147</t>
+  </si>
+  <si>
+    <t>link148</t>
+  </si>
+  <si>
+    <t>link149</t>
+  </si>
+  <si>
+    <t>link150</t>
+  </si>
+  <si>
+    <t>link151</t>
+  </si>
+  <si>
+    <t>link152</t>
+  </si>
+  <si>
+    <t>link153</t>
+  </si>
+  <si>
+    <t>link154</t>
+  </si>
+  <si>
+    <t>link155</t>
+  </si>
+  <si>
+    <t>link156</t>
+  </si>
+  <si>
+    <t>link157</t>
+  </si>
+  <si>
+    <t>link158</t>
+  </si>
+  <si>
+    <t>link159</t>
+  </si>
+  <si>
+    <t>link160</t>
+  </si>
+  <si>
+    <t>link161</t>
+  </si>
+  <si>
+    <t>link162</t>
+  </si>
+  <si>
+    <t>link163</t>
+  </si>
+  <si>
+    <t>link164</t>
+  </si>
+  <si>
+    <t>link165</t>
+  </si>
+  <si>
+    <t>link166</t>
+  </si>
+  <si>
+    <t>link167</t>
+  </si>
+  <si>
+    <t>link168</t>
+  </si>
+  <si>
+    <t>link169</t>
+  </si>
+  <si>
+    <t>link170</t>
+  </si>
+  <si>
+    <t>link171</t>
+  </si>
+  <si>
+    <t>link172</t>
+  </si>
+  <si>
+    <t>link173</t>
+  </si>
+  <si>
+    <t>link174</t>
+  </si>
+  <si>
+    <t>link175</t>
+  </si>
+  <si>
+    <t>link176</t>
+  </si>
+  <si>
+    <t>link177</t>
+  </si>
+  <si>
+    <t>link178</t>
+  </si>
+  <si>
+    <t>link179</t>
+  </si>
+  <si>
+    <t>link180</t>
+  </si>
+  <si>
+    <t>link181</t>
+  </si>
+  <si>
+    <t>link182</t>
+  </si>
+  <si>
+    <t>link183</t>
+  </si>
+  <si>
+    <t>link184</t>
+  </si>
+  <si>
+    <t>link185</t>
+  </si>
+  <si>
+    <t>link186</t>
+  </si>
+  <si>
+    <t>link187</t>
+  </si>
+  <si>
+    <t>link188</t>
+  </si>
+  <si>
+    <t>link189</t>
+  </si>
+  <si>
+    <t>link190</t>
+  </si>
+  <si>
+    <t>link191</t>
+  </si>
+  <si>
+    <t>link192</t>
+  </si>
+  <si>
+    <t>link193</t>
+  </si>
+  <si>
+    <t>link194</t>
+  </si>
+  <si>
+    <t>link195</t>
+  </si>
+  <si>
+    <t>link196</t>
+  </si>
+  <si>
+    <t>link197</t>
+  </si>
+  <si>
+    <t>link198</t>
+  </si>
+  <si>
+    <t>link199</t>
+  </si>
+  <si>
+    <t>link200</t>
+  </si>
+  <si>
+    <t>link201</t>
+  </si>
+  <si>
+    <t>link202</t>
+  </si>
+  <si>
+    <t>link203</t>
+  </si>
+  <si>
+    <t>link204</t>
+  </si>
+  <si>
+    <t>link205</t>
+  </si>
+  <si>
+    <t>link206</t>
+  </si>
+  <si>
+    <t>link207</t>
+  </si>
+  <si>
+    <t>link208</t>
+  </si>
+  <si>
+    <t>link209</t>
+  </si>
+  <si>
+    <t>link210</t>
+  </si>
+  <si>
+    <t>link211</t>
+  </si>
+  <si>
+    <t>link212</t>
+  </si>
+  <si>
+    <t>link213</t>
+  </si>
+  <si>
+    <t>link214</t>
+  </si>
+  <si>
+    <t>link215</t>
+  </si>
+  <si>
+    <t>link216</t>
+  </si>
+  <si>
+    <t>link217</t>
+  </si>
+  <si>
+    <t>link218</t>
+  </si>
+  <si>
+    <t>link219</t>
+  </si>
+  <si>
+    <t>link220</t>
+  </si>
+  <si>
+    <t>link221</t>
+  </si>
+  <si>
+    <t>link222</t>
+  </si>
+  <si>
+    <t>link223</t>
+  </si>
+  <si>
+    <t>link224</t>
+  </si>
+  <si>
+    <t>link225</t>
+  </si>
+  <si>
+    <t>link226</t>
+  </si>
+  <si>
+    <t>link227</t>
+  </si>
+  <si>
+    <t>link228</t>
+  </si>
+  <si>
+    <t>link229</t>
+  </si>
+  <si>
+    <t>link230</t>
+  </si>
+  <si>
+    <t>link231</t>
+  </si>
+  <si>
+    <t>link232</t>
+  </si>
+  <si>
+    <t>link233</t>
+  </si>
+  <si>
+    <t>link234</t>
+  </si>
+  <si>
+    <t>link235</t>
+  </si>
+  <si>
+    <t>link236</t>
+  </si>
+  <si>
+    <t>link237</t>
+  </si>
+  <si>
+    <t>link238</t>
+  </si>
+  <si>
+    <t>link239</t>
+  </si>
+  <si>
+    <t>link240</t>
+  </si>
+  <si>
+    <t>link241</t>
+  </si>
+  <si>
+    <t>link242</t>
+  </si>
+  <si>
+    <t>link243</t>
+  </si>
+  <si>
+    <t>link244</t>
+  </si>
+  <si>
+    <t>link245</t>
+  </si>
+  <si>
+    <t>link246</t>
+  </si>
+  <si>
+    <t>link247</t>
+  </si>
+  <si>
+    <t>link248</t>
+  </si>
+  <si>
+    <t>link249</t>
+  </si>
+  <si>
+    <t>link250</t>
+  </si>
+  <si>
+    <t>link251</t>
+  </si>
+  <si>
+    <t>link252</t>
+  </si>
+  <si>
+    <t>link253</t>
+  </si>
+  <si>
+    <t>link254</t>
+  </si>
+  <si>
+    <t>link255</t>
+  </si>
+  <si>
+    <t>link256</t>
+  </si>
+  <si>
+    <t>link257</t>
+  </si>
+  <si>
+    <t>link258</t>
+  </si>
+  <si>
+    <t>link259</t>
+  </si>
+  <si>
+    <t>link260</t>
+  </si>
+  <si>
+    <t>link261</t>
+  </si>
+  <si>
+    <t>link262</t>
+  </si>
+  <si>
+    <t>link263</t>
+  </si>
+  <si>
+    <t>link264</t>
+  </si>
+  <si>
+    <t>link265</t>
+  </si>
+  <si>
+    <t>link266</t>
+  </si>
+  <si>
+    <t>link267</t>
+  </si>
+  <si>
+    <t>link268</t>
+  </si>
+  <si>
+    <t>link269</t>
+  </si>
+  <si>
+    <t>link270</t>
+  </si>
+  <si>
+    <t>link271</t>
+  </si>
+  <si>
+    <t>link272</t>
+  </si>
+  <si>
+    <t>link273</t>
+  </si>
+  <si>
+    <t>link274</t>
+  </si>
+  <si>
+    <t>link275</t>
+  </si>
+  <si>
+    <t>link276</t>
+  </si>
+  <si>
+    <t>link277</t>
+  </si>
+  <si>
+    <t>link278</t>
+  </si>
+  <si>
+    <t>link279</t>
+  </si>
+  <si>
+    <t>link280</t>
+  </si>
+  <si>
+    <t>link281</t>
+  </si>
+  <si>
+    <t>link282</t>
+  </si>
+  <si>
+    <t>link283</t>
+  </si>
+  <si>
+    <t>link284</t>
+  </si>
+  <si>
+    <t>link285</t>
+  </si>
+  <si>
+    <t>link286</t>
+  </si>
+  <si>
+    <t>link287</t>
+  </si>
+  <si>
+    <t>link288</t>
+  </si>
+  <si>
+    <t>link289</t>
+  </si>
+  <si>
+    <t>link290</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1870,7 +1885,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1901,21 +1916,33 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2217,20 +2244,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="I283" sqref="I283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>290</v>
       </c>
@@ -2271,8 +2299,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2302,11 +2330,15 @@
       <c r="J2" t="s">
         <v>302</v>
       </c>
-      <c r="K2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <f ca="1">RANDBETWEEN(0,8)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2337,11 +2369,15 @@
       <c r="J3" t="s">
         <v>300</v>
       </c>
-      <c r="K3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <f t="shared" ref="K3:K66" ca="1" si="0">RANDBETWEEN(0,8)</f>
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2372,11 +2408,15 @@
       <c r="J4" t="s">
         <v>293</v>
       </c>
-      <c r="K4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2407,11 +2447,15 @@
       <c r="J5" t="s">
         <v>291</v>
       </c>
-      <c r="K5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2442,11 +2486,15 @@
       <c r="J6" t="s">
         <v>293</v>
       </c>
-      <c r="K6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2477,11 +2525,15 @@
       <c r="J7" t="s">
         <v>302</v>
       </c>
-      <c r="K7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2512,11 +2564,15 @@
       <c r="J8" t="s">
         <v>291</v>
       </c>
-      <c r="K8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2547,16 +2603,20 @@
       <c r="J9" t="s">
         <v>291</v>
       </c>
-      <c r="K9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>595</v>
+        <v>305</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -2582,11 +2642,15 @@
       <c r="J10" t="s">
         <v>298</v>
       </c>
-      <c r="K10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2617,11 +2681,15 @@
       <c r="J11" t="s">
         <v>302</v>
       </c>
-      <c r="K11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2652,11 +2720,15 @@
       <c r="J12" t="s">
         <v>291</v>
       </c>
-      <c r="K12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2687,11 +2759,15 @@
       <c r="J13" t="s">
         <v>300</v>
       </c>
-      <c r="K13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2722,11 +2798,15 @@
       <c r="J14" t="s">
         <v>293</v>
       </c>
-      <c r="K14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2757,11 +2837,15 @@
       <c r="J15" t="s">
         <v>291</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2792,11 +2876,15 @@
       <c r="J16" t="s">
         <v>300</v>
       </c>
-      <c r="K16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2827,11 +2915,15 @@
       <c r="J17" t="s">
         <v>291</v>
       </c>
-      <c r="K17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2862,11 +2954,15 @@
       <c r="J18" t="s">
         <v>302</v>
       </c>
-      <c r="K18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2897,11 +2993,15 @@
       <c r="J19" t="s">
         <v>293</v>
       </c>
-      <c r="K19" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2932,11 +3032,15 @@
       <c r="J20" t="s">
         <v>302</v>
       </c>
-      <c r="K20" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2967,11 +3071,15 @@
       <c r="J21" t="s">
         <v>293</v>
       </c>
-      <c r="K21" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3002,11 +3110,15 @@
       <c r="J22" t="s">
         <v>293</v>
       </c>
-      <c r="K22" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3037,11 +3149,15 @@
       <c r="J23" t="s">
         <v>300</v>
       </c>
-      <c r="K23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3072,11 +3188,15 @@
       <c r="J24" t="s">
         <v>300</v>
       </c>
-      <c r="K24" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3107,11 +3227,15 @@
       <c r="J25" t="s">
         <v>293</v>
       </c>
-      <c r="K25" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3142,11 +3266,15 @@
       <c r="J26" t="s">
         <v>291</v>
       </c>
-      <c r="K26" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L26" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3177,11 +3305,15 @@
       <c r="J27" t="s">
         <v>291</v>
       </c>
-      <c r="K27" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3212,11 +3344,15 @@
       <c r="J28" t="s">
         <v>295</v>
       </c>
-      <c r="K28" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3247,11 +3383,15 @@
       <c r="J29" t="s">
         <v>291</v>
       </c>
-      <c r="K29" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3282,11 +3422,15 @@
       <c r="J30" t="s">
         <v>300</v>
       </c>
-      <c r="K30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3317,11 +3461,15 @@
       <c r="J31" t="s">
         <v>302</v>
       </c>
-      <c r="K31" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3352,11 +3500,15 @@
       <c r="J32" t="s">
         <v>291</v>
       </c>
-      <c r="K32" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3387,11 +3539,15 @@
       <c r="J33" t="s">
         <v>293</v>
       </c>
-      <c r="K33" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3422,11 +3578,15 @@
       <c r="J34" t="s">
         <v>293</v>
       </c>
-      <c r="K34" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L34" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3457,11 +3617,15 @@
       <c r="J35" t="s">
         <v>293</v>
       </c>
-      <c r="K35" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L35" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3492,11 +3656,15 @@
       <c r="J36" t="s">
         <v>293</v>
       </c>
-      <c r="K36" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L36" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3527,11 +3695,15 @@
       <c r="J37" t="s">
         <v>293</v>
       </c>
-      <c r="K37" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3562,11 +3734,15 @@
       <c r="J38" t="s">
         <v>293</v>
       </c>
-      <c r="K38" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3597,11 +3773,15 @@
       <c r="J39" t="s">
         <v>293</v>
       </c>
-      <c r="K39" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3632,11 +3812,15 @@
       <c r="J40" t="s">
         <v>293</v>
       </c>
-      <c r="K40" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L40" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3667,11 +3851,15 @@
       <c r="J41" t="s">
         <v>291</v>
       </c>
-      <c r="K41" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3702,11 +3890,15 @@
       <c r="J42" t="s">
         <v>291</v>
       </c>
-      <c r="K42" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3737,11 +3929,15 @@
       <c r="J43" t="s">
         <v>291</v>
       </c>
-      <c r="K43" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3772,11 +3968,15 @@
       <c r="J44" t="s">
         <v>293</v>
       </c>
-      <c r="K44" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3807,11 +4007,15 @@
       <c r="J45" t="s">
         <v>293</v>
       </c>
-      <c r="K45" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L45" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3842,11 +4046,15 @@
       <c r="J46" t="s">
         <v>293</v>
       </c>
-      <c r="K46" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3877,11 +4085,15 @@
       <c r="J47" t="s">
         <v>295</v>
       </c>
-      <c r="K47" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3912,11 +4124,15 @@
       <c r="J48" t="s">
         <v>293</v>
       </c>
-      <c r="K48" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3947,11 +4163,15 @@
       <c r="J49" t="s">
         <v>293</v>
       </c>
-      <c r="K49" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K49">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L49" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3982,11 +4202,15 @@
       <c r="J50" t="s">
         <v>0</v>
       </c>
-      <c r="K50" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4017,11 +4241,15 @@
       <c r="J51" t="s">
         <v>291</v>
       </c>
-      <c r="K51" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K51">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L51" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4052,11 +4280,15 @@
       <c r="J52" t="s">
         <v>293</v>
       </c>
-      <c r="K52" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K52">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4087,11 +4319,15 @@
       <c r="J53" t="s">
         <v>293</v>
       </c>
-      <c r="K53" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K53">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4122,11 +4358,15 @@
       <c r="J54" t="s">
         <v>302</v>
       </c>
-      <c r="K54" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L54" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4157,11 +4397,15 @@
       <c r="J55" t="s">
         <v>291</v>
       </c>
-      <c r="K55" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K55">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4192,11 +4436,15 @@
       <c r="J56" t="s">
         <v>300</v>
       </c>
-      <c r="K56" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L56" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4227,11 +4475,15 @@
       <c r="J57" t="s">
         <v>293</v>
       </c>
-      <c r="K57" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K57">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L57" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4262,11 +4514,15 @@
       <c r="J58" t="s">
         <v>291</v>
       </c>
-      <c r="K58" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L58" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4297,11 +4553,15 @@
       <c r="J59" t="s">
         <v>293</v>
       </c>
-      <c r="K59" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K59">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L59" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4332,11 +4592,15 @@
       <c r="J60" t="s">
         <v>293</v>
       </c>
-      <c r="K60" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K60">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4367,11 +4631,15 @@
       <c r="J61" t="s">
         <v>291</v>
       </c>
-      <c r="K61" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K61">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4402,11 +4670,15 @@
       <c r="J62" t="s">
         <v>293</v>
       </c>
-      <c r="K62" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K62">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L62" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4437,11 +4709,15 @@
       <c r="J63" t="s">
         <v>302</v>
       </c>
-      <c r="K63" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K63">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L63" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4472,11 +4748,15 @@
       <c r="J64" t="s">
         <v>295</v>
       </c>
-      <c r="K64" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K64">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L64" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4507,11 +4787,15 @@
       <c r="J65" t="s">
         <v>298</v>
       </c>
-      <c r="K65" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K65">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L65" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4542,11 +4826,15 @@
       <c r="J66" t="s">
         <v>300</v>
       </c>
-      <c r="K66" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K66">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4577,11 +4865,15 @@
       <c r="J67" t="s">
         <v>302</v>
       </c>
-      <c r="K67" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <f t="shared" ref="K67:K130" ca="1" si="1">RANDBETWEEN(0,8)</f>
+        <v>7</v>
+      </c>
+      <c r="L67" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4612,11 +4904,15 @@
       <c r="J68" t="s">
         <v>291</v>
       </c>
-      <c r="K68" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K68">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L68" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4647,11 +4943,15 @@
       <c r="J69" t="s">
         <v>291</v>
       </c>
-      <c r="K69" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K69">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L69" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4682,11 +4982,15 @@
       <c r="J70" t="s">
         <v>293</v>
       </c>
-      <c r="K70" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K70">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L70" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4717,11 +5021,15 @@
       <c r="J71" t="s">
         <v>293</v>
       </c>
-      <c r="K71" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K71">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4752,11 +5060,15 @@
       <c r="J72" t="s">
         <v>291</v>
       </c>
-      <c r="K72" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K72">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L72" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4787,16 +5099,20 @@
       <c r="J73" t="s">
         <v>293</v>
       </c>
-      <c r="K73" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K73">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L73" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>596</v>
+        <v>306</v>
       </c>
       <c r="C74">
         <v>38</v>
@@ -4822,11 +5138,15 @@
       <c r="J74" t="s">
         <v>291</v>
       </c>
-      <c r="K74" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K74">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L74" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4857,11 +5177,15 @@
       <c r="J75" t="s">
         <v>291</v>
       </c>
-      <c r="K75" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K75">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L75" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4892,11 +5216,15 @@
       <c r="J76" t="s">
         <v>302</v>
       </c>
-      <c r="K76" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K76">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L76" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4927,11 +5255,15 @@
       <c r="J77" t="s">
         <v>302</v>
       </c>
-      <c r="K77" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L77" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4962,11 +5294,15 @@
       <c r="J78" t="s">
         <v>293</v>
       </c>
-      <c r="K78" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L78" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4997,11 +5333,15 @@
       <c r="J79" t="s">
         <v>293</v>
       </c>
-      <c r="K79" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K79">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L79" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5032,11 +5372,15 @@
       <c r="J80" t="s">
         <v>293</v>
       </c>
-      <c r="K80" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K80">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5067,11 +5411,15 @@
       <c r="J81" t="s">
         <v>302</v>
       </c>
-      <c r="K81" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K81">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L81" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5102,11 +5450,15 @@
       <c r="J82" t="s">
         <v>293</v>
       </c>
-      <c r="K82" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K82">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L82" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5137,11 +5489,15 @@
       <c r="J83" t="s">
         <v>302</v>
       </c>
-      <c r="K83" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K83">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L83" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5172,11 +5528,15 @@
       <c r="J84" t="s">
         <v>293</v>
       </c>
-      <c r="K84" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K84">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L84" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5207,11 +5567,15 @@
       <c r="J85" t="s">
         <v>291</v>
       </c>
-      <c r="K85" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K85">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5242,11 +5606,15 @@
       <c r="J86" t="s">
         <v>293</v>
       </c>
-      <c r="K86" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K86">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L86" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5277,11 +5645,15 @@
       <c r="J87" t="s">
         <v>291</v>
       </c>
-      <c r="K87" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K87">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L87" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5312,11 +5684,15 @@
       <c r="J88" t="s">
         <v>293</v>
       </c>
-      <c r="K88" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K88">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L88" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5347,11 +5723,15 @@
       <c r="J89" t="s">
         <v>302</v>
       </c>
-      <c r="K89" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K89">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L89" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5382,11 +5762,15 @@
       <c r="J90" t="s">
         <v>293</v>
       </c>
-      <c r="K90" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K90">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L90" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5417,11 +5801,15 @@
       <c r="J91" t="s">
         <v>291</v>
       </c>
-      <c r="K91" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K91">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L91" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5452,11 +5840,15 @@
       <c r="J92" t="s">
         <v>291</v>
       </c>
-      <c r="K92" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K92">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L92" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5487,11 +5879,15 @@
       <c r="J93" t="s">
         <v>302</v>
       </c>
-      <c r="K93" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K93">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L93" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5522,16 +5918,20 @@
       <c r="J94" t="s">
         <v>300</v>
       </c>
-      <c r="K94" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K94">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>597</v>
+        <v>307</v>
       </c>
       <c r="C95">
         <v>8</v>
@@ -5557,11 +5957,15 @@
       <c r="J95" t="s">
         <v>293</v>
       </c>
-      <c r="K95" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K95">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L95" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5592,11 +5996,15 @@
       <c r="J96" t="s">
         <v>300</v>
       </c>
-      <c r="K96" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K96">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L96" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5627,11 +6035,15 @@
       <c r="J97" t="s">
         <v>302</v>
       </c>
-      <c r="K97" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K97">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L97" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5662,11 +6074,15 @@
       <c r="J98" t="s">
         <v>293</v>
       </c>
-      <c r="K98" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K98">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L98" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5697,11 +6113,15 @@
       <c r="J99" t="s">
         <v>291</v>
       </c>
-      <c r="K99" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K99">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5732,11 +6152,15 @@
       <c r="J100" t="s">
         <v>293</v>
       </c>
-      <c r="K100" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K100">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L100" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5767,11 +6191,15 @@
       <c r="J101" t="s">
         <v>291</v>
       </c>
-      <c r="K101" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K101">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L101" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5802,11 +6230,15 @@
       <c r="J102" t="s">
         <v>291</v>
       </c>
-      <c r="K102" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K102">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L102" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5837,11 +6269,15 @@
       <c r="J103" t="s">
         <v>302</v>
       </c>
-      <c r="K103" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K103">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L103" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5872,11 +6308,15 @@
       <c r="J104" t="s">
         <v>291</v>
       </c>
-      <c r="K104" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K104">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5907,11 +6347,15 @@
       <c r="J105" t="s">
         <v>302</v>
       </c>
-      <c r="K105" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K105">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L105" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5942,11 +6386,15 @@
       <c r="J106" t="s">
         <v>291</v>
       </c>
-      <c r="K106" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K106">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L106" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5977,11 +6425,15 @@
       <c r="J107" t="s">
         <v>291</v>
       </c>
-      <c r="K107" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K107">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6012,11 +6464,15 @@
       <c r="J108" t="s">
         <v>295</v>
       </c>
-      <c r="K108" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K108">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L108" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6047,11 +6503,15 @@
       <c r="J109" t="s">
         <v>291</v>
       </c>
-      <c r="K109" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K109">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L109" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6082,11 +6542,15 @@
       <c r="J110" t="s">
         <v>302</v>
       </c>
-      <c r="K110" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K110">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L110" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6117,11 +6581,15 @@
       <c r="J111" t="s">
         <v>293</v>
       </c>
-      <c r="K111" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K111">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L111" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6152,11 +6620,15 @@
       <c r="J112" t="s">
         <v>295</v>
       </c>
-      <c r="K112" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K112">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L112" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6187,11 +6659,15 @@
       <c r="J113" t="s">
         <v>291</v>
       </c>
-      <c r="K113" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K113">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L113" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6222,11 +6698,15 @@
       <c r="J114" t="s">
         <v>293</v>
       </c>
-      <c r="K114" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K114">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L114" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6257,11 +6737,15 @@
       <c r="J115" t="s">
         <v>302</v>
       </c>
-      <c r="K115" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K115">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L115" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6292,11 +6776,15 @@
       <c r="J116" t="s">
         <v>0</v>
       </c>
-      <c r="K116" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K116">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L116" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6327,11 +6815,15 @@
       <c r="J117" t="s">
         <v>293</v>
       </c>
-      <c r="K117" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K117">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L117" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6362,11 +6854,15 @@
       <c r="J118" t="s">
         <v>293</v>
       </c>
-      <c r="K118" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K118">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L118" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6397,11 +6893,15 @@
       <c r="J119" t="s">
         <v>291</v>
       </c>
-      <c r="K119" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K119">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L119" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6432,11 +6932,15 @@
       <c r="J120" t="s">
         <v>293</v>
       </c>
-      <c r="K120" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K120">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L120" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6467,11 +6971,15 @@
       <c r="J121" t="s">
         <v>293</v>
       </c>
-      <c r="K121" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K121">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L121" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6502,11 +7010,15 @@
       <c r="J122" t="s">
         <v>293</v>
       </c>
-      <c r="K122" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K122">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L122" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6537,16 +7049,20 @@
       <c r="J123" t="s">
         <v>293</v>
       </c>
-      <c r="K123" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K123">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L123" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>598</v>
+        <v>308</v>
       </c>
       <c r="C124">
         <v>11</v>
@@ -6572,11 +7088,15 @@
       <c r="J124" t="s">
         <v>302</v>
       </c>
-      <c r="K124" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K124">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L124" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6607,11 +7127,15 @@
       <c r="J125" t="s">
         <v>291</v>
       </c>
-      <c r="K125" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K125">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L125" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6642,11 +7166,15 @@
       <c r="J126" t="s">
         <v>293</v>
       </c>
-      <c r="K126" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K126">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L126" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6677,11 +7205,15 @@
       <c r="J127" t="s">
         <v>293</v>
       </c>
-      <c r="K127" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K127">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L127" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6712,11 +7244,15 @@
       <c r="J128" t="s">
         <v>298</v>
       </c>
-      <c r="K128" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K128">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L128" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6747,11 +7283,15 @@
       <c r="J129" t="s">
         <v>293</v>
       </c>
-      <c r="K129" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K129">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L129" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6782,11 +7322,15 @@
       <c r="J130" t="s">
         <v>293</v>
       </c>
-      <c r="K130" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K130">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L130" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -6817,11 +7361,15 @@
       <c r="J131" t="s">
         <v>302</v>
       </c>
-      <c r="K131" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K131">
+        <f t="shared" ref="K131:K194" ca="1" si="2">RANDBETWEEN(0,8)</f>
+        <v>5</v>
+      </c>
+      <c r="L131" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6852,11 +7400,15 @@
       <c r="J132" t="s">
         <v>293</v>
       </c>
-      <c r="K132" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K132">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L132" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6887,11 +7439,15 @@
       <c r="J133" t="s">
         <v>302</v>
       </c>
-      <c r="K133" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K133">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L133" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6922,11 +7478,15 @@
       <c r="J134" t="s">
         <v>293</v>
       </c>
-      <c r="K134" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K134">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L134" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6957,11 +7517,15 @@
       <c r="J135" t="s">
         <v>293</v>
       </c>
-      <c r="K135" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K135">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L135" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6992,11 +7556,15 @@
       <c r="J136" t="s">
         <v>291</v>
       </c>
-      <c r="K136" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K136">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L136" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7027,11 +7595,15 @@
       <c r="J137" t="s">
         <v>293</v>
       </c>
-      <c r="K137" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K137">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L137" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7062,11 +7634,15 @@
       <c r="J138" t="s">
         <v>293</v>
       </c>
-      <c r="K138" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K138">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L138" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7097,11 +7673,15 @@
       <c r="J139" t="s">
         <v>293</v>
       </c>
-      <c r="K139" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K139">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7132,11 +7712,15 @@
       <c r="J140" t="s">
         <v>291</v>
       </c>
-      <c r="K140" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K140">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L140" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7167,11 +7751,15 @@
       <c r="J141" t="s">
         <v>293</v>
       </c>
-      <c r="K141" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K141">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L141" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7202,11 +7790,15 @@
       <c r="J142" t="s">
         <v>293</v>
       </c>
-      <c r="K142" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K142">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L142" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7237,11 +7829,15 @@
       <c r="J143" t="s">
         <v>293</v>
       </c>
-      <c r="K143" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K143">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L143" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7272,11 +7868,15 @@
       <c r="J144" t="s">
         <v>302</v>
       </c>
-      <c r="K144" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K144">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L144" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7307,11 +7907,15 @@
       <c r="J145" t="s">
         <v>291</v>
       </c>
-      <c r="K145" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K145">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L145" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7342,11 +7946,15 @@
       <c r="J146" t="s">
         <v>298</v>
       </c>
-      <c r="K146" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K146">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L146" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7377,11 +7985,15 @@
       <c r="J147" t="s">
         <v>291</v>
       </c>
-      <c r="K147" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K147">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L147" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7412,11 +8024,15 @@
       <c r="J148" t="s">
         <v>293</v>
       </c>
-      <c r="K148" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K148">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L148" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7447,11 +8063,15 @@
       <c r="J149" t="s">
         <v>293</v>
       </c>
-      <c r="K149" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K149">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L149" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7482,11 +8102,15 @@
       <c r="J150" t="s">
         <v>302</v>
       </c>
-      <c r="K150" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K150">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L150" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7517,11 +8141,15 @@
       <c r="J151" t="s">
         <v>295</v>
       </c>
-      <c r="K151" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K151">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L151" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7552,11 +8180,15 @@
       <c r="J152" t="s">
         <v>291</v>
       </c>
-      <c r="K152" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K152">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L152" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7587,11 +8219,15 @@
       <c r="J153" t="s">
         <v>302</v>
       </c>
-      <c r="K153" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K153">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L153" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7622,11 +8258,15 @@
       <c r="J154" t="s">
         <v>291</v>
       </c>
-      <c r="K154" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K154">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L154" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7657,11 +8297,15 @@
       <c r="J155" t="s">
         <v>302</v>
       </c>
-      <c r="K155" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K155">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L155" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -7692,11 +8336,15 @@
       <c r="J156" t="s">
         <v>293</v>
       </c>
-      <c r="K156" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K156">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L156" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -7727,11 +8375,15 @@
       <c r="J157" t="s">
         <v>293</v>
       </c>
-      <c r="K157" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K157">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L157" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -7762,11 +8414,15 @@
       <c r="J158" t="s">
         <v>293</v>
       </c>
-      <c r="K158" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K158">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L158" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -7797,11 +8453,15 @@
       <c r="J159" t="s">
         <v>293</v>
       </c>
-      <c r="K159" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K159">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L159" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -7832,11 +8492,15 @@
       <c r="J160" t="s">
         <v>293</v>
       </c>
-      <c r="K160" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K160">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L160" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -7867,11 +8531,15 @@
       <c r="J161" t="s">
         <v>293</v>
       </c>
-      <c r="K161" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K161">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L161" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -7902,11 +8570,15 @@
       <c r="J162" t="s">
         <v>302</v>
       </c>
-      <c r="K162" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K162">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L162" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -7937,11 +8609,15 @@
       <c r="J163" t="s">
         <v>302</v>
       </c>
-      <c r="K163" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K163">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L163" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -7972,11 +8648,15 @@
       <c r="J164" t="s">
         <v>293</v>
       </c>
-      <c r="K164" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K164">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L164" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -8007,11 +8687,15 @@
       <c r="J165" t="s">
         <v>293</v>
       </c>
-      <c r="K165" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K165">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L165" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -8042,11 +8726,15 @@
       <c r="J166" t="s">
         <v>302</v>
       </c>
-      <c r="K166" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K166">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L166" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -8077,11 +8765,15 @@
       <c r="J167" t="s">
         <v>302</v>
       </c>
-      <c r="K167" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K167">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L167" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -8112,11 +8804,15 @@
       <c r="J168" t="s">
         <v>291</v>
       </c>
-      <c r="K168" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K168">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L168" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -8147,11 +8843,15 @@
       <c r="J169" t="s">
         <v>291</v>
       </c>
-      <c r="K169" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K169">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L169" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -8182,11 +8882,15 @@
       <c r="J170" t="s">
         <v>295</v>
       </c>
-      <c r="K170" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K170">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L170" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -8217,11 +8921,15 @@
       <c r="J171" t="s">
         <v>293</v>
       </c>
-      <c r="K171" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K171">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L171" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -8252,11 +8960,15 @@
       <c r="J172" t="s">
         <v>302</v>
       </c>
-      <c r="K172" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K172">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L172" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -8287,11 +8999,15 @@
       <c r="J173" t="s">
         <v>302</v>
       </c>
-      <c r="K173" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K173">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L173" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -8322,11 +9038,15 @@
       <c r="J174" t="s">
         <v>302</v>
       </c>
-      <c r="K174" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K174">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L174" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -8357,11 +9077,15 @@
       <c r="J175" t="s">
         <v>291</v>
       </c>
-      <c r="K175" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K175">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L175" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8392,11 +9116,15 @@
       <c r="J176" t="s">
         <v>293</v>
       </c>
-      <c r="K176" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K176">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L176" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -8427,11 +9155,15 @@
       <c r="J177" t="s">
         <v>302</v>
       </c>
-      <c r="K177" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K177">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L177" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -8462,11 +9194,15 @@
       <c r="J178" t="s">
         <v>295</v>
       </c>
-      <c r="K178" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K178">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L178" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -8497,11 +9233,15 @@
       <c r="J179" t="s">
         <v>295</v>
       </c>
-      <c r="K179" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K179">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L179" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -8532,11 +9272,15 @@
       <c r="J180" t="s">
         <v>0</v>
       </c>
-      <c r="K180" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K180">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L180" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -8567,11 +9311,15 @@
       <c r="J181" t="s">
         <v>302</v>
       </c>
-      <c r="K181" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K181">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L181" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -8602,11 +9350,15 @@
       <c r="J182" t="s">
         <v>302</v>
       </c>
-      <c r="K182" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K182">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L182" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -8637,11 +9389,15 @@
       <c r="J183" t="s">
         <v>302</v>
       </c>
-      <c r="K183" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K183">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L183" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -8672,11 +9428,15 @@
       <c r="J184" t="s">
         <v>293</v>
       </c>
-      <c r="K184" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K184">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L184" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -8707,11 +9467,15 @@
       <c r="J185" t="s">
         <v>293</v>
       </c>
-      <c r="K185" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K185">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L185" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -8742,11 +9506,15 @@
       <c r="J186" t="s">
         <v>293</v>
       </c>
-      <c r="K186" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K186">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L186" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -8777,11 +9545,15 @@
       <c r="J187" t="s">
         <v>302</v>
       </c>
-      <c r="K187" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K187">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L187" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -8812,11 +9584,15 @@
       <c r="J188" t="s">
         <v>295</v>
       </c>
-      <c r="K188" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K188">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L188" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -8847,11 +9623,15 @@
       <c r="J189" t="s">
         <v>300</v>
       </c>
-      <c r="K189" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K189">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L189" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -8882,11 +9662,15 @@
       <c r="J190" t="s">
         <v>0</v>
       </c>
-      <c r="K190" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K190">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L190" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -8917,11 +9701,15 @@
       <c r="J191" t="s">
         <v>302</v>
       </c>
-      <c r="K191" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K191">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L191" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -8952,11 +9740,15 @@
       <c r="J192" t="s">
         <v>293</v>
       </c>
-      <c r="K192" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K192">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L192" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8987,11 +9779,15 @@
       <c r="J193" t="s">
         <v>293</v>
       </c>
-      <c r="K193" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K193">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L193" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -9022,11 +9818,15 @@
       <c r="J194" t="s">
         <v>302</v>
       </c>
-      <c r="K194" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K194">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L194" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -9057,11 +9857,15 @@
       <c r="J195" t="s">
         <v>298</v>
       </c>
-      <c r="K195" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K195">
+        <f t="shared" ref="K195:K258" ca="1" si="3">RANDBETWEEN(0,8)</f>
+        <v>0</v>
+      </c>
+      <c r="L195" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -9092,11 +9896,15 @@
       <c r="J196" t="s">
         <v>291</v>
       </c>
-      <c r="K196" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K196">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L196" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -9127,11 +9935,15 @@
       <c r="J197" t="s">
         <v>291</v>
       </c>
-      <c r="K197" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K197">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L197" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -9162,11 +9974,15 @@
       <c r="J198" t="s">
         <v>298</v>
       </c>
-      <c r="K198" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K198">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L198" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -9197,11 +10013,15 @@
       <c r="J199" t="s">
         <v>293</v>
       </c>
-      <c r="K199" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K199">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L199" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -9232,11 +10052,15 @@
       <c r="J200" t="s">
         <v>291</v>
       </c>
-      <c r="K200" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K200">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L200" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -9267,11 +10091,15 @@
       <c r="J201" t="s">
         <v>302</v>
       </c>
-      <c r="K201" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K201">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L201" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -9302,11 +10130,15 @@
       <c r="J202" t="s">
         <v>291</v>
       </c>
-      <c r="K202" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K202">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L202" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -9337,11 +10169,15 @@
       <c r="J203" t="s">
         <v>302</v>
       </c>
-      <c r="K203" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K203">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L203" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -9372,11 +10208,15 @@
       <c r="J204" t="s">
         <v>291</v>
       </c>
-      <c r="K204" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K204">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L204" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -9407,11 +10247,15 @@
       <c r="J205" t="s">
         <v>302</v>
       </c>
-      <c r="K205" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K205">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L205" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -9442,11 +10286,15 @@
       <c r="J206" t="s">
         <v>293</v>
       </c>
-      <c r="K206" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K206">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L206" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -9477,11 +10325,15 @@
       <c r="J207" t="s">
         <v>291</v>
       </c>
-      <c r="K207" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K207">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L207" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -9512,11 +10364,15 @@
       <c r="J208" t="s">
         <v>302</v>
       </c>
-      <c r="K208" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K208">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L208" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -9547,11 +10403,15 @@
       <c r="J209" t="s">
         <v>293</v>
       </c>
-      <c r="K209" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K209">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L209" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -9582,11 +10442,15 @@
       <c r="J210" t="s">
         <v>293</v>
       </c>
-      <c r="K210" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K210">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L210" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -9617,11 +10481,15 @@
       <c r="J211" t="s">
         <v>302</v>
       </c>
-      <c r="K211" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K211">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L211" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -9652,11 +10520,15 @@
       <c r="J212" t="s">
         <v>293</v>
       </c>
-      <c r="K212" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K212">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L212" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -9687,11 +10559,15 @@
       <c r="J213" t="s">
         <v>302</v>
       </c>
-      <c r="K213" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K213">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L213" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -9722,11 +10598,15 @@
       <c r="J214" t="s">
         <v>302</v>
       </c>
-      <c r="K214" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K214">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L214" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -9757,11 +10637,15 @@
       <c r="J215" t="s">
         <v>302</v>
       </c>
-      <c r="K215" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K215">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L215" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -9792,11 +10676,15 @@
       <c r="J216" t="s">
         <v>302</v>
       </c>
-      <c r="K216" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K216">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L216" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -9827,11 +10715,15 @@
       <c r="J217" t="s">
         <v>291</v>
       </c>
-      <c r="K217" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K217">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L217" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -9862,11 +10754,15 @@
       <c r="J218" t="s">
         <v>291</v>
       </c>
-      <c r="K218" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K218">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L218" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -9897,11 +10793,15 @@
       <c r="J219" t="s">
         <v>291</v>
       </c>
-      <c r="K219" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K219">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L219" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -9932,11 +10832,15 @@
       <c r="J220" t="s">
         <v>302</v>
       </c>
-      <c r="K220" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K220">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L220" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -9967,11 +10871,15 @@
       <c r="J221" t="s">
         <v>302</v>
       </c>
-      <c r="K221" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K221">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L221" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -10002,11 +10910,15 @@
       <c r="J222" t="s">
         <v>293</v>
       </c>
-      <c r="K222" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K222">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L222" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -10037,11 +10949,15 @@
       <c r="J223" t="s">
         <v>302</v>
       </c>
-      <c r="K223" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K223">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L223" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -10072,11 +10988,15 @@
       <c r="J224" t="s">
         <v>291</v>
       </c>
-      <c r="K224" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K224">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L224" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -10107,11 +11027,15 @@
       <c r="J225" t="s">
         <v>293</v>
       </c>
-      <c r="K225" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K225">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L225" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -10142,11 +11066,15 @@
       <c r="J226" t="s">
         <v>291</v>
       </c>
-      <c r="K226" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K226">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L226" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -10177,11 +11105,15 @@
       <c r="J227" t="s">
         <v>293</v>
       </c>
-      <c r="K227" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K227">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L227" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -10212,11 +11144,15 @@
       <c r="J228" t="s">
         <v>291</v>
       </c>
-      <c r="K228" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K228">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L228" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -10247,11 +11183,15 @@
       <c r="J229" t="s">
         <v>302</v>
       </c>
-      <c r="K229" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K229">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L229" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -10282,11 +11222,15 @@
       <c r="J230" t="s">
         <v>293</v>
       </c>
-      <c r="K230" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K230">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L230" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -10317,11 +11261,15 @@
       <c r="J231" t="s">
         <v>302</v>
       </c>
-      <c r="K231" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K231">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L231" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -10352,11 +11300,15 @@
       <c r="J232" t="s">
         <v>293</v>
       </c>
-      <c r="K232" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K232">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L232" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -10387,11 +11339,15 @@
       <c r="J233" t="s">
         <v>291</v>
       </c>
-      <c r="K233" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K233">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L233" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -10422,11 +11378,15 @@
       <c r="J234" t="s">
         <v>295</v>
       </c>
-      <c r="K234" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K234">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L234" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -10457,11 +11417,15 @@
       <c r="J235" t="s">
         <v>293</v>
       </c>
-      <c r="K235" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K235">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L235" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -10492,11 +11456,15 @@
       <c r="J236" t="s">
         <v>293</v>
       </c>
-      <c r="K236" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K236">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L236" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -10527,11 +11495,15 @@
       <c r="J237" t="s">
         <v>293</v>
       </c>
-      <c r="K237" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K237">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L237" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -10562,11 +11534,15 @@
       <c r="J238" t="s">
         <v>291</v>
       </c>
-      <c r="K238" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K238">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L238" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -10597,16 +11573,20 @@
       <c r="J239" t="s">
         <v>293</v>
       </c>
-      <c r="K239" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K239">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L239" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>599</v>
+        <v>309</v>
       </c>
       <c r="C240">
         <v>11</v>
@@ -10632,11 +11612,15 @@
       <c r="J240" t="s">
         <v>295</v>
       </c>
-      <c r="K240" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K240">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L240" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -10667,11 +11651,15 @@
       <c r="J241" t="s">
         <v>293</v>
       </c>
-      <c r="K241" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K241">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L241" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -10702,11 +11690,15 @@
       <c r="J242" t="s">
         <v>298</v>
       </c>
-      <c r="K242" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K242">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L242" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -10737,11 +11729,15 @@
       <c r="J243" t="s">
         <v>293</v>
       </c>
-      <c r="K243" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K243">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L243" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -10772,11 +11768,15 @@
       <c r="J244" t="s">
         <v>302</v>
       </c>
-      <c r="K244" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K244">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L244" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -10807,11 +11807,15 @@
       <c r="J245" t="s">
         <v>293</v>
       </c>
-      <c r="K245" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K245">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L245" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -10842,11 +11846,15 @@
       <c r="J246" t="s">
         <v>302</v>
       </c>
-      <c r="K246" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K246">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L246" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -10877,11 +11885,15 @@
       <c r="J247" t="s">
         <v>302</v>
       </c>
-      <c r="K247" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K247">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L247" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -10912,11 +11924,15 @@
       <c r="J248" t="s">
         <v>291</v>
       </c>
-      <c r="K248" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K248">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L248" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -10947,11 +11963,15 @@
       <c r="J249" t="s">
         <v>302</v>
       </c>
-      <c r="K249" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K249">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L249" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -10982,11 +12002,15 @@
       <c r="J250" t="s">
         <v>302</v>
       </c>
-      <c r="K250" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K250">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L250" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -11017,11 +12041,15 @@
       <c r="J251" t="s">
         <v>293</v>
       </c>
-      <c r="K251" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K251">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L251" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -11052,11 +12080,15 @@
       <c r="J252" t="s">
         <v>302</v>
       </c>
-      <c r="K252" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K252">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L252" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -11087,11 +12119,15 @@
       <c r="J253" t="s">
         <v>300</v>
       </c>
-      <c r="K253" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K253">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L253" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -11122,11 +12158,15 @@
       <c r="J254" t="s">
         <v>293</v>
       </c>
-      <c r="K254" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K254">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L254" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -11157,11 +12197,15 @@
       <c r="J255" t="s">
         <v>293</v>
       </c>
-      <c r="K255" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K255">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L255" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -11192,11 +12236,15 @@
       <c r="J256" t="s">
         <v>302</v>
       </c>
-      <c r="K256" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K256">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L256" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -11227,11 +12275,15 @@
       <c r="J257" t="s">
         <v>300</v>
       </c>
-      <c r="K257" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K257">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L257" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -11262,11 +12314,15 @@
       <c r="J258" t="s">
         <v>302</v>
       </c>
-      <c r="K258" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K258">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L258" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -11297,11 +12353,15 @@
       <c r="J259" t="s">
         <v>302</v>
       </c>
-      <c r="K259" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K259">
+        <f t="shared" ref="K259:K291" ca="1" si="4">RANDBETWEEN(0,8)</f>
+        <v>8</v>
+      </c>
+      <c r="L259" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -11332,11 +12392,15 @@
       <c r="J260" t="s">
         <v>302</v>
       </c>
-      <c r="K260" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K260">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L260" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -11367,11 +12431,15 @@
       <c r="J261" t="s">
         <v>302</v>
       </c>
-      <c r="K261" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K261">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L261" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -11402,11 +12470,15 @@
       <c r="J262" t="s">
         <v>291</v>
       </c>
-      <c r="K262" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K262">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="L262" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -11437,11 +12509,15 @@
       <c r="J263" t="s">
         <v>300</v>
       </c>
-      <c r="K263" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K263">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="L263" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -11472,11 +12548,15 @@
       <c r="J264" t="s">
         <v>291</v>
       </c>
-      <c r="K264" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K264">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L264" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -11507,11 +12587,15 @@
       <c r="J265" t="s">
         <v>295</v>
       </c>
-      <c r="K265" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K265">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L265" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -11542,11 +12626,15 @@
       <c r="J266" t="s">
         <v>298</v>
       </c>
-      <c r="K266" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K266">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L266" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -11577,11 +12665,15 @@
       <c r="J267" t="s">
         <v>300</v>
       </c>
-      <c r="K267" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K267">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L267" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -11612,11 +12704,15 @@
       <c r="J268" t="s">
         <v>293</v>
       </c>
-      <c r="K268" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K268">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L268" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -11647,11 +12743,15 @@
       <c r="J269" t="s">
         <v>291</v>
       </c>
-      <c r="K269" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K269">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="L269" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -11682,11 +12782,15 @@
       <c r="J270" t="s">
         <v>293</v>
       </c>
-      <c r="K270" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K270">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="L270" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -11717,11 +12821,15 @@
       <c r="J271" t="s">
         <v>293</v>
       </c>
-      <c r="K271" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K271">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="L271" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -11752,11 +12860,15 @@
       <c r="J272" t="s">
         <v>291</v>
       </c>
-      <c r="K272" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K272">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L272" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -11787,11 +12899,15 @@
       <c r="J273" t="s">
         <v>293</v>
       </c>
-      <c r="K273" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K273">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="L273" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -11822,11 +12938,15 @@
       <c r="J274" t="s">
         <v>302</v>
       </c>
-      <c r="K274" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K274">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L274" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -11857,11 +12977,15 @@
       <c r="J275" t="s">
         <v>302</v>
       </c>
-      <c r="K275" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K275">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L275" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -11892,11 +13016,15 @@
       <c r="J276" t="s">
         <v>302</v>
       </c>
-      <c r="K276" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K276">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L276" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -11927,11 +13055,15 @@
       <c r="J277" t="s">
         <v>295</v>
       </c>
-      <c r="K277" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K277">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L277" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -11962,11 +13094,15 @@
       <c r="J278" t="s">
         <v>293</v>
       </c>
-      <c r="K278" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K278">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L278" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -11997,11 +13133,15 @@
       <c r="J279" t="s">
         <v>293</v>
       </c>
-      <c r="K279" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K279">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L279" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -12032,11 +13172,15 @@
       <c r="J280" t="s">
         <v>293</v>
       </c>
-      <c r="K280" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K280">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L280" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -12067,11 +13211,15 @@
       <c r="J281" t="s">
         <v>291</v>
       </c>
-      <c r="K281" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K281">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L281" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -12102,11 +13250,15 @@
       <c r="J282" t="s">
         <v>291</v>
       </c>
-      <c r="K282" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K282">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L282" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -12137,11 +13289,15 @@
       <c r="J283" t="s">
         <v>291</v>
       </c>
-      <c r="K283" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K283">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L283" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -12172,11 +13328,15 @@
       <c r="J284" t="s">
         <v>302</v>
       </c>
-      <c r="K284" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K284">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L284" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -12207,11 +13367,15 @@
       <c r="J285" t="s">
         <v>293</v>
       </c>
-      <c r="K285" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K285">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="L285" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -12242,11 +13406,15 @@
       <c r="J286" t="s">
         <v>291</v>
       </c>
-      <c r="K286" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K286">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L286" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -12277,11 +13445,15 @@
       <c r="J287" t="s">
         <v>302</v>
       </c>
-      <c r="K287" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K287">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L287" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -12312,11 +13484,15 @@
       <c r="J288" t="s">
         <v>291</v>
       </c>
-      <c r="K288" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K288">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L288" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -12347,11 +13523,15 @@
       <c r="J289" t="s">
         <v>293</v>
       </c>
-      <c r="K289" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K289">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L289" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -12382,11 +13562,15 @@
       <c r="J290" t="s">
         <v>291</v>
       </c>
-      <c r="K290" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K290">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L290" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -12417,8 +13601,12 @@
       <c r="J291" t="s">
         <v>300</v>
       </c>
-      <c r="K291" t="s">
-        <v>594</v>
+      <c r="K291">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L291" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/finalPJT/Server/theme/type.xlsx
+++ b/finalPJT/Server/theme/type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KB_IT_Academy_4Team\finalPJT\Server\theme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD9DEEC-2AF9-41F8-8F5E-B023DBA8668B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56220AA-8073-45EF-A17D-58F8DC899405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-10740" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="562">
   <si>
     <t>클래식</t>
   </si>
@@ -978,883 +978,767 @@
     <t>asia에세이 서촌</t>
   </si>
   <si>
-    <t>link1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>link92</t>
-  </si>
-  <si>
-    <t>link32</t>
-  </si>
-  <si>
-    <t>link9</t>
-  </si>
-  <si>
-    <t>link4</t>
-  </si>
-  <si>
-    <t>link94</t>
-  </si>
-  <si>
-    <t>link5</t>
-  </si>
-  <si>
-    <t>link61</t>
-  </si>
-  <si>
-    <t>link24</t>
-  </si>
-  <si>
-    <t>link6</t>
-  </si>
-  <si>
-    <t>link23</t>
-  </si>
-  <si>
-    <t>link49</t>
-  </si>
-  <si>
-    <t>link31</t>
-  </si>
-  <si>
-    <t>link3</t>
-  </si>
-  <si>
-    <t>link75</t>
-  </si>
-  <si>
-    <t>link14</t>
-  </si>
-  <si>
-    <t>link18</t>
-  </si>
-  <si>
-    <t>link7</t>
-  </si>
-  <si>
-    <t>link11</t>
-  </si>
-  <si>
-    <t>link10</t>
-  </si>
-  <si>
-    <t>link42</t>
-  </si>
-  <si>
-    <t>link22</t>
-  </si>
-  <si>
-    <t>link74</t>
-  </si>
-  <si>
-    <t>link44</t>
-  </si>
-  <si>
-    <t>link2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>link8</t>
-  </si>
-  <si>
-    <t>link12</t>
-  </si>
-  <si>
-    <t>link13</t>
-  </si>
-  <si>
-    <t>link15</t>
-  </si>
-  <si>
-    <t>link16</t>
-  </si>
-  <si>
-    <t>link17</t>
-  </si>
-  <si>
-    <t>link19</t>
-  </si>
-  <si>
-    <t>link20</t>
-  </si>
-  <si>
-    <t>link21</t>
-  </si>
-  <si>
-    <t>link25</t>
-  </si>
-  <si>
-    <t>link26</t>
-  </si>
-  <si>
-    <t>link27</t>
-  </si>
-  <si>
-    <t>link28</t>
-  </si>
-  <si>
-    <t>link29</t>
-  </si>
-  <si>
-    <t>link30</t>
-  </si>
-  <si>
-    <t>link33</t>
-  </si>
-  <si>
-    <t>link34</t>
-  </si>
-  <si>
-    <t>link35</t>
-  </si>
-  <si>
-    <t>link36</t>
-  </si>
-  <si>
-    <t>link37</t>
-  </si>
-  <si>
-    <t>link38</t>
-  </si>
-  <si>
-    <t>link39</t>
-  </si>
-  <si>
-    <t>link40</t>
-  </si>
-  <si>
-    <t>link41</t>
-  </si>
-  <si>
-    <t>link43</t>
-  </si>
-  <si>
-    <t>link45</t>
-  </si>
-  <si>
-    <t>link46</t>
-  </si>
-  <si>
-    <t>link47</t>
-  </si>
-  <si>
-    <t>link48</t>
-  </si>
-  <si>
-    <t>link50</t>
-  </si>
-  <si>
-    <t>link51</t>
-  </si>
-  <si>
-    <t>link52</t>
-  </si>
-  <si>
-    <t>link53</t>
-  </si>
-  <si>
-    <t>link54</t>
-  </si>
-  <si>
-    <t>link55</t>
-  </si>
-  <si>
-    <t>link56</t>
-  </si>
-  <si>
-    <t>link57</t>
-  </si>
-  <si>
-    <t>link58</t>
-  </si>
-  <si>
-    <t>link59</t>
-  </si>
-  <si>
-    <t>link60</t>
-  </si>
-  <si>
-    <t>link62</t>
-  </si>
-  <si>
-    <t>link63</t>
-  </si>
-  <si>
-    <t>link64</t>
-  </si>
-  <si>
-    <t>link65</t>
-  </si>
-  <si>
-    <t>link66</t>
-  </si>
-  <si>
-    <t>link67</t>
-  </si>
-  <si>
-    <t>link68</t>
-  </si>
-  <si>
-    <t>link69</t>
-  </si>
-  <si>
-    <t>link70</t>
-  </si>
-  <si>
-    <t>link71</t>
-  </si>
-  <si>
-    <t>link72</t>
-  </si>
-  <si>
-    <t>link73</t>
-  </si>
-  <si>
-    <t>link76</t>
-  </si>
-  <si>
-    <t>link77</t>
-  </si>
-  <si>
-    <t>link78</t>
-  </si>
-  <si>
-    <t>link79</t>
-  </si>
-  <si>
-    <t>link80</t>
-  </si>
-  <si>
-    <t>link81</t>
-  </si>
-  <si>
-    <t>link82</t>
-  </si>
-  <si>
-    <t>link83</t>
-  </si>
-  <si>
-    <t>link84</t>
-  </si>
-  <si>
-    <t>link85</t>
-  </si>
-  <si>
-    <t>link86</t>
-  </si>
-  <si>
-    <t>link87</t>
-  </si>
-  <si>
-    <t>link88</t>
-  </si>
-  <si>
-    <t>link89</t>
-  </si>
-  <si>
-    <t>link90</t>
-  </si>
-  <si>
-    <t>link91</t>
-  </si>
-  <si>
-    <t>link93</t>
-  </si>
-  <si>
-    <t>link95</t>
-  </si>
-  <si>
-    <t>link96</t>
-  </si>
-  <si>
-    <t>link97</t>
-  </si>
-  <si>
-    <t>link98</t>
-  </si>
-  <si>
-    <t>link99</t>
-  </si>
-  <si>
-    <t>link100</t>
-  </si>
-  <si>
-    <t>link101</t>
-  </si>
-  <si>
-    <t>link102</t>
-  </si>
-  <si>
-    <t>link103</t>
-  </si>
-  <si>
-    <t>link104</t>
-  </si>
-  <si>
-    <t>link105</t>
-  </si>
-  <si>
-    <t>link106</t>
-  </si>
-  <si>
-    <t>link107</t>
-  </si>
-  <si>
-    <t>link108</t>
-  </si>
-  <si>
-    <t>link109</t>
-  </si>
-  <si>
-    <t>link110</t>
-  </si>
-  <si>
-    <t>link111</t>
-  </si>
-  <si>
-    <t>link112</t>
-  </si>
-  <si>
-    <t>link113</t>
-  </si>
-  <si>
-    <t>link114</t>
-  </si>
-  <si>
-    <t>link115</t>
-  </si>
-  <si>
-    <t>link116</t>
-  </si>
-  <si>
-    <t>link117</t>
-  </si>
-  <si>
-    <t>link118</t>
-  </si>
-  <si>
-    <t>link119</t>
-  </si>
-  <si>
-    <t>link120</t>
-  </si>
-  <si>
-    <t>link121</t>
-  </si>
-  <si>
-    <t>link122</t>
-  </si>
-  <si>
-    <t>link123</t>
-  </si>
-  <si>
-    <t>link124</t>
-  </si>
-  <si>
-    <t>link125</t>
-  </si>
-  <si>
-    <t>link126</t>
-  </si>
-  <si>
-    <t>link127</t>
-  </si>
-  <si>
-    <t>link128</t>
-  </si>
-  <si>
-    <t>link129</t>
-  </si>
-  <si>
-    <t>link130</t>
-  </si>
-  <si>
-    <t>link131</t>
-  </si>
-  <si>
-    <t>link132</t>
-  </si>
-  <si>
-    <t>link133</t>
-  </si>
-  <si>
-    <t>link134</t>
-  </si>
-  <si>
-    <t>link135</t>
-  </si>
-  <si>
-    <t>link136</t>
-  </si>
-  <si>
-    <t>link137</t>
-  </si>
-  <si>
-    <t>link138</t>
-  </si>
-  <si>
-    <t>link139</t>
-  </si>
-  <si>
-    <t>link140</t>
-  </si>
-  <si>
-    <t>link141</t>
-  </si>
-  <si>
-    <t>link142</t>
-  </si>
-  <si>
-    <t>link143</t>
-  </si>
-  <si>
-    <t>link144</t>
-  </si>
-  <si>
-    <t>link145</t>
-  </si>
-  <si>
-    <t>link146</t>
-  </si>
-  <si>
-    <t>link147</t>
-  </si>
-  <si>
-    <t>link148</t>
-  </si>
-  <si>
-    <t>link149</t>
-  </si>
-  <si>
-    <t>link150</t>
-  </si>
-  <si>
-    <t>link151</t>
-  </si>
-  <si>
-    <t>link152</t>
-  </si>
-  <si>
-    <t>link153</t>
-  </si>
-  <si>
-    <t>link154</t>
-  </si>
-  <si>
-    <t>link155</t>
-  </si>
-  <si>
-    <t>link156</t>
-  </si>
-  <si>
-    <t>link157</t>
-  </si>
-  <si>
-    <t>link158</t>
-  </si>
-  <si>
-    <t>link159</t>
-  </si>
-  <si>
-    <t>link160</t>
-  </si>
-  <si>
-    <t>link161</t>
-  </si>
-  <si>
-    <t>link162</t>
-  </si>
-  <si>
-    <t>link163</t>
-  </si>
-  <si>
-    <t>link164</t>
-  </si>
-  <si>
-    <t>link165</t>
-  </si>
-  <si>
-    <t>link166</t>
-  </si>
-  <si>
-    <t>link167</t>
-  </si>
-  <si>
-    <t>link168</t>
-  </si>
-  <si>
-    <t>link169</t>
-  </si>
-  <si>
-    <t>link170</t>
-  </si>
-  <si>
-    <t>link171</t>
-  </si>
-  <si>
-    <t>link172</t>
-  </si>
-  <si>
-    <t>link173</t>
-  </si>
-  <si>
-    <t>link174</t>
-  </si>
-  <si>
-    <t>link175</t>
-  </si>
-  <si>
-    <t>link176</t>
-  </si>
-  <si>
-    <t>link177</t>
-  </si>
-  <si>
-    <t>link178</t>
-  </si>
-  <si>
-    <t>link179</t>
-  </si>
-  <si>
-    <t>link180</t>
-  </si>
-  <si>
-    <t>link181</t>
-  </si>
-  <si>
-    <t>link182</t>
-  </si>
-  <si>
-    <t>link183</t>
-  </si>
-  <si>
-    <t>link184</t>
-  </si>
-  <si>
-    <t>link185</t>
-  </si>
-  <si>
-    <t>link186</t>
-  </si>
-  <si>
-    <t>link187</t>
-  </si>
-  <si>
-    <t>link188</t>
-  </si>
-  <si>
-    <t>link189</t>
-  </si>
-  <si>
-    <t>link190</t>
-  </si>
-  <si>
-    <t>link191</t>
-  </si>
-  <si>
-    <t>link192</t>
-  </si>
-  <si>
-    <t>link193</t>
-  </si>
-  <si>
-    <t>link194</t>
-  </si>
-  <si>
-    <t>link195</t>
-  </si>
-  <si>
-    <t>link196</t>
-  </si>
-  <si>
-    <t>link197</t>
-  </si>
-  <si>
-    <t>link198</t>
-  </si>
-  <si>
-    <t>link199</t>
-  </si>
-  <si>
-    <t>link200</t>
-  </si>
-  <si>
-    <t>link201</t>
-  </si>
-  <si>
-    <t>link202</t>
-  </si>
-  <si>
-    <t>link203</t>
-  </si>
-  <si>
-    <t>link204</t>
-  </si>
-  <si>
-    <t>link205</t>
-  </si>
-  <si>
-    <t>link206</t>
-  </si>
-  <si>
-    <t>link207</t>
-  </si>
-  <si>
-    <t>link208</t>
-  </si>
-  <si>
-    <t>link209</t>
-  </si>
-  <si>
-    <t>link210</t>
-  </si>
-  <si>
-    <t>link211</t>
-  </si>
-  <si>
-    <t>link212</t>
-  </si>
-  <si>
-    <t>link213</t>
-  </si>
-  <si>
-    <t>link214</t>
-  </si>
-  <si>
-    <t>link215</t>
-  </si>
-  <si>
-    <t>link216</t>
-  </si>
-  <si>
-    <t>link217</t>
-  </si>
-  <si>
-    <t>link218</t>
-  </si>
-  <si>
-    <t>link219</t>
-  </si>
-  <si>
-    <t>link220</t>
-  </si>
-  <si>
-    <t>link221</t>
-  </si>
-  <si>
-    <t>link222</t>
-  </si>
-  <si>
-    <t>link223</t>
-  </si>
-  <si>
-    <t>link224</t>
-  </si>
-  <si>
-    <t>link225</t>
-  </si>
-  <si>
-    <t>link226</t>
-  </si>
-  <si>
-    <t>link227</t>
-  </si>
-  <si>
-    <t>link228</t>
-  </si>
-  <si>
-    <t>link229</t>
-  </si>
-  <si>
-    <t>link230</t>
-  </si>
-  <si>
-    <t>link231</t>
-  </si>
-  <si>
-    <t>link232</t>
-  </si>
-  <si>
-    <t>link233</t>
-  </si>
-  <si>
-    <t>link234</t>
-  </si>
-  <si>
-    <t>link235</t>
-  </si>
-  <si>
-    <t>link236</t>
-  </si>
-  <si>
-    <t>link237</t>
-  </si>
-  <si>
-    <t>link238</t>
-  </si>
-  <si>
-    <t>link239</t>
-  </si>
-  <si>
-    <t>link240</t>
-  </si>
-  <si>
-    <t>link241</t>
-  </si>
-  <si>
-    <t>link242</t>
-  </si>
-  <si>
-    <t>link243</t>
-  </si>
-  <si>
-    <t>link244</t>
-  </si>
-  <si>
-    <t>link245</t>
-  </si>
-  <si>
-    <t>link246</t>
-  </si>
-  <si>
-    <t>link247</t>
-  </si>
-  <si>
-    <t>link248</t>
-  </si>
-  <si>
-    <t>link249</t>
-  </si>
-  <si>
-    <t>link250</t>
-  </si>
-  <si>
-    <t>link251</t>
-  </si>
-  <si>
-    <t>link252</t>
-  </si>
-  <si>
-    <t>link253</t>
-  </si>
-  <si>
-    <t>link254</t>
-  </si>
-  <si>
-    <t>link255</t>
-  </si>
-  <si>
-    <t>link256</t>
-  </si>
-  <si>
-    <t>link257</t>
-  </si>
-  <si>
-    <t>link258</t>
-  </si>
-  <si>
-    <t>link259</t>
-  </si>
-  <si>
-    <t>link260</t>
-  </si>
-  <si>
-    <t>link261</t>
-  </si>
-  <si>
-    <t>link262</t>
-  </si>
-  <si>
-    <t>link263</t>
-  </si>
-  <si>
-    <t>link264</t>
-  </si>
-  <si>
-    <t>link265</t>
-  </si>
-  <si>
-    <t>link266</t>
-  </si>
-  <si>
-    <t>link267</t>
-  </si>
-  <si>
-    <t>link268</t>
-  </si>
-  <si>
-    <t>link269</t>
-  </si>
-  <si>
-    <t>link270</t>
-  </si>
-  <si>
-    <t>link271</t>
-  </si>
-  <si>
-    <t>link272</t>
-  </si>
-  <si>
-    <t>link273</t>
-  </si>
-  <si>
-    <t>link274</t>
-  </si>
-  <si>
-    <t>link275</t>
-  </si>
-  <si>
-    <t>link276</t>
-  </si>
-  <si>
-    <t>link277</t>
-  </si>
-  <si>
-    <t>link278</t>
-  </si>
-  <si>
-    <t>link279</t>
-  </si>
-  <si>
-    <t>link280</t>
-  </si>
-  <si>
-    <t>link281</t>
-  </si>
-  <si>
-    <t>link282</t>
-  </si>
-  <si>
-    <t>link283</t>
-  </si>
-  <si>
-    <t>link284</t>
-  </si>
-  <si>
-    <t>link285</t>
-  </si>
-  <si>
-    <t>link286</t>
-  </si>
-  <si>
-    <t>link287</t>
-  </si>
-  <si>
-    <t>link288</t>
-  </si>
-  <si>
-    <t>link289</t>
-  </si>
-  <si>
-    <t>link290</t>
+    <t>https://images.stayfolio.com/system/pictures/images/000/145/097/original/25ecac0446aa890c783a5b5087b4a0ec6098303b.jpg?1664330113</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/120/878/original/a4376e48ee77fc748f74e9ab6c23d4535958b735.jpg?1651459089</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/111/565/original/5beda53be181bd3a5b623f0a432329ab0dba29d8.jpg?1642983238</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/131/375/original/9582ce73b539784b069d12c60f5005772fea7265.jpg?1658197419</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/088/455/original/6ef1cf1e598b05f0ae32781f8db3439080abb8e3.jpg?1628907222</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/114/666/original/42ff3ed406f61de7073d23e837abd8b05664f2cf.jpg?1645581609</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/049/241/original/09857d6a1e7093228762389fe08fb479b50fa632.jpg?1593175733</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/134/083/original/51582e6729f0ebc5c2ab11f117abe42aecd2678d.jpg?1659489776</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/132/436/original/dddb772c0eca1064ab51fcae440ddd1af0ab6200.jpg?1658453709</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/120/710/original/e612eaaf3ba7d51493cfa48360af530f7c6c2f47.jpg?1651131459</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/126/179/original/da26682e4c62d4605149213da5402b49c634e007.jpg?1655197612</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/121/707/original/b33378c02b6864d9ebd15bb3df3ecb4313a81123.jpg?1652088198</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/136/827/original/e7c5472afaedad630eb5b63e74f5d4c24acd5ec1.jpg?1660790940</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/017/454/original/e662dba3538ede67e0db5671e269e596b164aa6b.jpg?1500019827</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/104/514/original/82075fdab1a728cbd527137959ef8db96d35e87c.jpg?1639469856</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/044/895/original/c25d33545048dae7a7b4b0f7925a2e3a04478608.jpg?1585185991</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/120/362/original/4f3ed261a395f0a7a0d390362922872810cc3540.jpg?1651039662</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/066/713/original/b11ddcdb4134d9d3af28c570e587e392ebbe84dd.jpg?1617259682</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/039/432/original/85f90279b0d4218f5c812264f7a8466813f45448.jpg?1573350232</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/119/787/original/3df1c49713ddd7848fc31966bcc7cc54ada60b38.jpg?1650804510</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/065/174/original/034c29d0bc3546d5ff2daea17958581d398b5f66.jpg?1615769824</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/071/153/original/398fc023b4d4a54f01a091109974ea3d2137dd86.jpg?1620613209</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/086/618/original/aea654afdce892eb8b0dc6f20428c7dae7d17836.jpg?1627974099</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/008/858/original/ba8e1611e1328aaf224062824d94107ac2043cab.jpg?1457002225</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/125/384/original/ad2931d68a514e212cdd44d6a4f4408e00ef4fca.jpg?1654595877</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/124/302/original/25244c87e94525d7184f3989831b4b9df81633e6.jpg?1653635457</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/112/016/original/22e6c5767ba5d991633054efaa8cd5dcc9817fd4.JPG?1643288042</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/142/650/original/220977c2120e2a649b09ef1009fcc90929027c4f.jpg?1663563526</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/129/686/original/68e7a1c6495cb555ac48f5e161ee9ad905992ce9.jpg?1657331992</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/109/739/original/1f98a54d3bc852b5b78c94ccb1d055020ab55ea6.jpg?1642052122</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/142/352/original/8d46cfe0b1d7d8aa18bec344037905997d88b2a0.jpg?1663293211</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/055/223/original/b4a124b5d4740bf8e7a891d424c2d2c65bca27cf.jpg?1601948932</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/134/289/original/67e19b9509243da847185ea6a3a2e507da25e572.jpg?1659580048</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/081/644/original/ecc706f15172735cd35e79e284ce9d5608ffa74c.jpg?1626065472</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/123/449/original/5c3018bec1bde49a19cbc4b2cb0d12211b8f59e0.jpg?1652946551</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/130/063/original/03c6df40c03eef69f52074c181db5eff215c8eec.jpg?1657590034</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/052/526/original/5627b02f003cc05e304c0e96787706cd0dbe2262.jpg?1597198141</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/122/932/original/9c7ff911e5613a87ec789a1c6aec147845864f69.jpg?1652775996</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/128/927/original/b48ca1f0b4c39f0a347087890a3c4122a2768b5e.jpg?1657005347</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/017/353/original/e47a78e6f6926b326ef7ea6171b62e807a84a802.jpg?1500002727</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/073/400/original/2f02b86c3370e5b419d7c070160b362c11b39b1b.jpeg?1621952349</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/144/554/original/c4194ba65d717b86d00637bcddef0835d7bd40ab.jpg?1664155711</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/045/640/original/aed5376151bf29d56876d62e146aee9273343ee8.jpg?1586486582</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/142/559/original/44f3a92eb2492fb50b6b3471e1cb4007ebc53d79.jpg?1663558044</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/059/932/original/9837deaf5c362d64d6a53dcb8951ce29084dd01b.jpg?1607918913</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/034/257/original/c7e88d2665ebd5fc4d2a8e134d2cd381bff6f0a6.jpg?1559121158</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/125/985/original/21ed8e3e9645c90bb279a9f2facad892b0572f78.jpg?1655104403</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/125/208/original/e4fb568ee6f4909cde866f607a4b729d655ee19a.jpg?1654584148</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/018/430/original/45edc02c57d80575cca16282f1244fd331fff9e1.jpg?1500914120</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/096/609/original/0edc493fcb78c9c4b87de0e49176a4fb40f4aeca.jpg?1634027946</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/144/484/original/aa4b5050385f6610ed157db73b5b2089058ac962.jpg?1663916288</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/054/104/original/e240bafe5804b1b01834aedb38d4a6ff6b934976.jpg?1599976670</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/118/607/original/8dfa4800dade2761bb8b48bb822fcc8401a2ca0a.jpg?1649310623</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/054/472/original/3fded26a7e7ab43665e5f2f95723d6a7872db2ac.jpg?1600667472</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/098/957/original/413c431d2ae1246a3770a5d5125f426d22d4521e.jpg?1635304588</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/037/109/original/f12bbf92fa531263afd311c62241acac96cb5b40.jpg?1565584428</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/126/957/original/b62993a3c3124bf540374f7b7e393299abfe0f50.jpg?1655886982</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/073/665/original/325b1ed451261991e746897ab2648bc1624cc945.jpg?1622021939</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/139/086/original/2475ccd3d33ce400ad6a100e957e8109429920de.jpg?1661743865</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/033/445/original/e14b4d5a59317802ad5baa313c57cdc578dc81a9.jpg?1556700195</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/058/161/original/71b5460abb9fa0bc66b8f6bcd652d5af700408fd.jpg?1605763589</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/062/024/original/ef3c52c8dac8c09c1fa832cb18275195e352ff13.jpg?1611199083</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/042/728/original/003c10bd922f0cf4a7fd18cc994ba34ab8436fa1.jpg?1580881418</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/080/718/original/5cd0a32f8fcee10aec81fe3ed0d788bb35fe35e3.jpg?1625619214</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/035/103/original/7b32034ebcc961dbc329793517fa9f735c33feeb.jpg?1562149815</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/062/692/original/c84c9e29ca2a24df52ef92b8e0a0270d0e58d807.jpg?1612428871</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/053/269/original/29d7166a861067747ce54f14999330de88cc58de.jpg?1598264730</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/141/481/original/b76998e21ac94a9d3cc8912bfcbf5877d9f595b3.jpg?1663036255</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/052/241/original/3f8beb83504b7cdb1dad19010082462fe183c4eb.jpg?1597042625</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/135/376/original/ed2536e81baea2a777a6f877ce6641637df8f519.jpg?1660289909</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/073/425/original/ee3c62f350ec28fced1746e392ffe98a0625570b.jpeg?1621952681</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/060/904/original/9fc00983394f3ad6123d914025392a9ad35bba97.jpg?1609329590</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/104/607/original/9bb0fd4b97ecf0d97aa932b01de3adcde4f62797.jpg?1639473075</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/129/294/original/a79cae5d57761bf19f786f3332c039eae2d1ca2f.jpg?1657032283</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/146/936/original/d482d99722619f7bac7e279fca3088dc037db123.jpg?1665103899</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/091/538/original/0e23d9a2192c064ba39c2afa3b68e91fd49654bf.jpg?1630652156</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/118/260/original/ea942bbf072440d723588426b652e6b7179eed4b.jpg?1649135751</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/128/996/original/4fa0eeb7c6092fbc2185e87d9a0b195d233dc584.jpg?1657006403</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/037/634/original/859b6a9af31aea23173cca5bb7c4ea8242260e99.jpg?1566639283</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/011/946/original/3af126a0d414709c45082855be6a624622975799.jpg?1473982454</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/103/727/original/892c89543f85b2f36e8f8cb1a44bf737e9e6251a.jpg?1638856634</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/138/540/original/e13470d48f17b8b5f36e4bb8dcac27a8a14db1b6.jpg?1661478565</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/006/565/original/bcf737228f0bfc448cfc290843a63580bc38ca97.jpg?1442163408</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/105/465/original/b6be7ce52bc17c7de77723e7982ad14671037746.jpg?1640077646</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/135/178/original/f32fdef247cc689fc779f0415959f4cc431a70a4.jpg?1660200895</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/099/429/original/0dc3184a901ba65a5a1f947a3451c9590b6893e8.jpg?1635512586</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/101/588/original/213c9d7d489c73a129b434610859afc6f8937292.jpg?1637563188</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/134/870/original/98a7c31015f990ad420cbbe1c9253f9a42884a5d.jpeg?1659936044</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/037/715/original/139bb9feb23f7ba935e724cffb17115a44e006db.jpg?1567391473</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/024/376/original/1ff06d37ab6f0e6a3efec18af159364d5257dbfb.jpg?1513833067</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/133/184/original/4450a4b727748487989e8962a1ce8be1620c4e6f.jpg?1658969706</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/030/317/original/53eaf1afc21ab9ba54ab7bf82ef337adfae3ff6e.jpg?1542161493</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/056/085/original/7d7e5f300c8c67c6d867df1475af85394c36e32c.jpg?1602752306</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/065/112/original/716638094765bce2f924391bc87ad8db3a41fbb6.jpg?1615701308</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/054/714/original/8de6b4f8225e48dd193c7fe9fd263dd5ad4a49c5.jpg?1601348632</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/133/316/original/05f91350b6e2f09ea1f33fad7bd98cfee799199c.jpg?1658998016</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/078/427/original/2050cbf5591d7404fe00a69fdf8af1b7c3f28452.jpg?1624412617</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/145/783/original/3da37cc6ffccaa6d707fbfa5550a874c4f6b9062.jpeg?1664466878</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/057/420/original/fe4edeaf65e2c9de9e9d04d1fbf2cff48111743a.jpg?1604307174</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/141/821/original/62d7554da4f97416397dc026c1aec0af737e4381.jpg?1663122709</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/129/973/original/1cecc19dec140fd66521aca00006b8d3f8e7c74e.jpg?1657588581</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/065/708/original/7a44b9ee75a9c89ec9b7ad3c080293680fea0b23.jpg?1616119345</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/124/967/original/4297e0fee0b59e30e50fc1c2bd0c1a46b701e573.jpg?1654417614</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/025/978/original/7f85722ec22466110601912e6724074e8c43459d.jpg?1523098545</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/031/383/original/bdc20cdb50cb17a03592278b24120a6544a5593c.jpg?1548407973</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/116/569/original/4dcd898f236570788c59c64282f0a2ef9fc32ea7.jpg?1647854249</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/043/281/original/410685aeff2dbf12d4c2169d1e6022bd9879fcee.jpg?1581928034</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/121/948/original/c0a3fd232da547fd20c7aaaa994d61c59886aa23.jpg?1652233339</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/130/433/original/30bddbb9ebeb8b103b7f2cc9ed8242d4eb4058ab.jpg?1657708635</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/135/659/original/c18cd6c454a842bfa2e66b87c3144f185f8909c2.jpg?1660615644</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/099/218/original/3f9212878ee22cf862cdc9a64b6a13144c01595e.jpg?1635485992</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/144/441/original/6d1b6284707f762ec44d5e0e2703e6db7b21edbe.jpg?1663911400</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/022/365/original/bcb68c76b67c78347bb22b27468757349e60ac7e.jpg?1508738354</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/081/602/original/ef400f4987602ed558bce19b708d59653eefa298.jpg?1626011238</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/094/597/original/ec91cd3d67a85ee45e500ddddbe9b6f0f5ba2e0d.jpg?1632903075</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/065/532/original/eb4d0123c058b7e4709689b1d6e2bafeb4a7615b.jpg?1616033465</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/115/730/original/2b8505c95658b6397656186b217fbf6341995a4e.jpg?1647249909</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/054/474/original/fd412741b367abf6083819cd66a7df46649cf76e.jpg?1600831634</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/052/795/original/94a02677fc99e76e1ae5e04d9643a96b37ea86d2.jpg?1597734544</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/116/154/original/364fca1c91caba6ec8f15ccd231fa04eaa5c63a2.jpg?1647494444</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/090/919/original/04789edbb28402914f747cc992129dda698f5dcc.jpg?1630392589</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/098/099/original/a0922005edafdfd5fb1ba7ff301e3ad42b49a90f.jpg?1634708224</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/081/063/original/224dc06d50e33c8918b77e2e483a8f628b25dd3b.jpg?1625640137</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/023/121/original/c2cb1571b8c233d4276f559a11532419210f2a2d.jpg?1510114965</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/106/448/original/53c53d5678c6f58656c7cbec5386ef54dc158459.jpg?1640661978</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/029/418/original/350cc26fe7c35127a2ab7e09ce28fa577c6cf4d9.jpg?1539159716</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/013/965/original/5fca8f6b275bd82c9da9d6933345b78fcfb4517c.jpg?1481682808</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/072/714/original/ca79c9e5c8169527ad18226be61534ce1c4900bb.jpg?1621745323</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/022/464/original/2640b97be70008b4d082bb8347ddc0951d542370.jpg?1508813058</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/117/941/original/d3b27b91672f4fadcf949bb14f68afde968147a6.jpg?1649050522</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/027/677/original/887f69376be081ab7123126905ea130d1859568a.jpg?1530179294</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/075/385/original/26d97a9a5a4fe2558b327fb1c1a16a6a86382274.JPG?1623037796</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/103/766/original/bb602a0ecdedb4e784ce7c2ec617b03bfb24e437.jpg?1638944294</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/118/218/original/c90ed43524195f649bedb4b061e503c357308194.jpg?1649065941</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/034/521/original/2e34b3cf856dde47f4be5caae327efe7ab0a69b0.jpg?1559725536</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/100/806/original/2d48bbb04de8368cbedb9ef73e00654b38d14778.jpg?1637028970</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/135/764/original/5d45eb64c3ad32d9d686c9c47eeda97d500455e8.jpg?1660619555</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/048/592/original/e9da6b7e34a723c31f9558666d4eafaaf2c9959c.jpg?1591838936</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/140/926/original/75604294c29a94cdb78c869fa729c282e369acf4.jpg?1662444774</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/059/009/original/c0ba6f097cc572a31c6fca23722fd3034f1935bc.jpg?1606719059</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/129/260/original/db4970e033bb74154b0092fe83a24ed17214c31f.jpg?1657013705</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/013/626/original/d1f8882e131d97d15017bc0c7e2ede7f51fd6a9d.jpg?1479803219</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/035/379/original/442e113fccd0ffede470161ca5521bc076660333.jpg?1562510287</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/058/639/original/79a0b4513bb271cc4ff952a7bdec85047316bd6f.jpg?1606269543</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/139/494/original/ed40e4becee7622658a2802641c03da27aca8e12.jpg?1662001617</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/063/224/original/08c9a282ee08214b60d09716cd2d626fb1429f37.jpg?1613457020</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/116/223/original/cec07a1943533e95540b729cb344069cecc61440.jpg?1647566392</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/140/062/original/ac80cfcbfdd480fff609082cff6f1a0cd6e0b45d.jpg?1662255547</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/078/119/original/104cbf1c997014f6baf404f1a24c9d20845422bb.jpg?1624259737</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/067/811/original/12415e301c364999bba943561d5ea809475e9bb2.jpg?1618309330</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/092/025/original/bfb20d64844593c2d8ef162c7f9117cf96d682e6.jpg?1630997581</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/055/647/original/0d18953142cbf67f8422b4b3ffae7f1f0ba5ab73.jpg?1602467646</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/139/424/original/2d319bfb32274417c02846c0e984437fd1f01a05.jpg?1662000074</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/066/906/original/1e5619b381543cbd958d328c46d633297513deda.jpg?1617347545</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/089/397/original/66361e5411b3b50aec06bdf413ed6c9a4cf95604.jpg?1629454627</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/095/955/original/6d91fbb84e619450ae84f61bc18a3ded5e4a5487.jpg?1633584414</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/035/942/original/95ac77665d835ad5038ed515ff3600cafe208136.jpg?1563684265</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/040/775/original/d21ed8026ac9b14d9deae5d9e81d0a9db252fd7e.jpg?1577333255</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/030/581/original/32a5e51980528b7549ac4537ba820a814a05382a.jpg?1543555596</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/095/586/original/2b60ca0bcf59ef212add8e55717bc79ba61341e3.jpg?1633489056</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/043/251/original/f2ad827dad59fcf96d0187fe15a1a6a389bb19bf.jpg?1581924966</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/056/267/original/8fc467cd08a9fd2be30490a072a3c513e051d2ef.jpg?1603072548</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/138/994/original/fbf850b792f249657d069b16ceeb9e47aaa6c0f4.jpg?1661737863</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/110/184/original/efe3dd64223569433e9c39eaab89708311d0f6b4.jpg?1642391000</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/102/280/original/aac5fe1100444bdba2b7574d3946c2d0f3490e42.jpg?1638170968</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/123/681/original/8cb1ca48825393633e266efbabc768de8c45873f.jpg?1653283297</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/048/138/original/888a28007e3cb5e05b8acedb06fbe6f12ae29f68.jpg?1590997707</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/099/944/original/012ae6dd2f10ee38c965024685fd2101e167dd63.jpg?1636091895</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/026/243/original/3b27ac6b5f3a3e23460a047289deb987d0b25f48.jpg?1523607721</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/092/549/original/4d20e8f3d9412d04d8b8d0c1c72c62d01a2d9b61.jpg?1631511022</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/056/636/original/a32a38f149ba4954231419a3739024f7b4c2b33a.jpg?1603328772</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/126/533/original/ffd71dcdc6c2aeb15e286f47b2791683429bba5e.jpg?1655706697</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/039/864/original/2d5949adb592f0e4463e4767b85f967dca73a56a.JPG?1574413758</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/104/213/original/fd9a6983ed541192079cfafdde8374cf43ff725d.jpg?1639128893</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/101/785/original/6ad6e46e1e81db7bf15eb42e267f2adc1e5ed4d2.jpg?1637659881</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/109/582/original/f00089220eb2b1e7e3a96dcbd3b75a4678a08d2c.jpg?1641954473</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/119/577/original/8076f2f1aa6bc044c3afef349104cb946511a836.jpg?1650357214</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/058/339/original/1acce91494d4aba1497467614e4a57d0f6d4e4b8.jpg?1606093460</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/034/764/original/7e34b81403e9833f49103e818bbbb995c39c0539.jpg?1560676223</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/114/491/original/668f08f85dd936ff07c06e5bfabd38e3c3ed9058.jpg?1645507557</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/045/485/original/d4530b720a8e16d5b1646072b2701a1ade9c4165.jpg?1586481621</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/029/963/original/d91f31b15b351f89bf4cf8a321df129f298625a2.jpg?1541321742</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/048/659/original/bc32e4463e9b441357baab789efd48126700e08d.jpg?1591868417</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/048/037/original/d0ee0936da5c33b552ba2987a3d25e82aad4c453.jpg?1590983194</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/110/641/original/e51deabcef5f63d341b47c9565bea5eb0668dfa2.jpg?1642556326</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/120/574/original/79f2ebc0f9afa8ee7e8e4fee8a8a9e97270e111e.jpg?1651045616</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/099/783/original/343193ae6d33eef4210fdaafe540a65e688934ea.jpg?1635932456</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/144/718/original/f5ae81733e02174260bd7bb0dbfb53378d33068d.jpg?1664245941</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/108/654/original/9a7cf9b304937df3a0cbd013ad32860a42be7aff.jpg?1641539522</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/120/363/original/d96004459bdc2bf3c85e454c4d92653cb93bed2f.jpg?1651039663</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/059/487/original/3c795e1cf9ffa1f64440af20de0692deac2e657b.jpg?1607060782</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/055/979/original/6b51d05dda65d4f0cd07b45ecf0ec0eba98944c4.jpg?1602729698</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/117/502/original/dacd8071ca5393a66acec86df6db9aa3278b1268.jpg?1648778545</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/124/606/original/c9f47584df9542cd07b3843c858743094ef38f50.jpg?1653891946</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/082/699/original/e7dbf1df99111b8335f623b201e0ad7eb52a300f.jpg?1626312689</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/077/474/original/8a861fe0b4726d18be2459342a9958ded9f54732.jpg?1623896128</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/045/173/original/8657d85b995df27eaf91a353e3195026af997bdc.jpg?1585728882</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/131/810/original/0bec048f97090b5acb398318153c83844d08de93.jpg?1658291243</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/111/165/original/eac5c1be400e040027616c66c999489c4d34c974.jpg?1642733554</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/133/553/original/07f35508df2bd7fe7425ac4eee49b4213c874378.jpg?1659076851</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/046/594/original/8e84fbc6dc7b328762c1bf118f8358783cb110bb.jpg?1588136350</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/137/951/original/770a6ee6ac003cd29010c375548c00e766c1844a.jpg?1661247717</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/122/494/original/116875594a20f517a60b262aa46b251194274cb4.jpg?1652423216</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/057/955/original/9a3a743635e46647098f163a6d516b2e0881c990.jpg?1605234437</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/145/959/original/f413714fe408aff781fed5c233b5b0518057a733.jpg?1664521390</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/064/648/original/b6502d58c85923312e7f2474e713e7dc524a6551.jpg?1615424360</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/136/722/original/07eee093ff475e5136ac5f079b321ed38ac80682.jpg?1660789416</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/054/244/original/ee50b56a9469e3b75d3c96870a36a922a1aadccc.jpg?1600059514</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/128/039/original/6704fbcd8555181408274c74b841d464354401c5.jpg?1656434037</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/071/711/original/9356d0b3ea7423748c7ee8e2115fb2edc0ec011c.jpg?1621214459</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/113/058/original/345ff7f07be0476ed3e6144fe72bf47b1a0d7d99.jpg?1644569520</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/041/635/original/2e62ca8a23b853cb22c68cca6907c948e4df061e.jpg?1579052220</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/132/690/original/0e7628312f71f0d7f38883d31eda56625ebe994a.jpg?1658714144</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/036/727/original/02a7d7cacf18acb1d282ae74c6eb4d4dfbc9defb.jpg?1565225731</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/061/089/original/0be8d77f5f7637d3abe0a410b8afc930e2f4d29a.jpg?1609720831</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/024/091/original/7b796d02fa423532a990a7ea6f7809d65181dcbf.jpg?1513164569</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/103/385/original/d9da99331f6390c12e8010f62a2fa19641db5432.jpg?1638760373</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/108/102/original/b1002c712ab9e5a2b15c3fa25d14c7ab8805775a.jpg?1641264346</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/025/137/original/7f7c8f37cfeea170da12ac357410f870a0a3d501.jpg?1518166446</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/028/751/original/0502705f8a7059c85f4fb8441b3e1e159a71eff4.jpg?1536054276</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/117/670/original/07da093f2bba07d6f2be1bcd624b98a2f95dddc1.jpg?1648801840</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/116/766/original/36421b0a92751d6c2fac6b8994eda70650ca07a5.jpg?1648003249</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/121/077/original/5f75b19482145b5464b2a3f14327f19681dbbe7f.jpg?1651562423</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/031/838/original/db1007daa99e8f8961fd40a6671b2ab0b91534b6.jpg?1550141263</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/062/968/original/4ddd65e8b111c24a06dcd4fc9c040937154591a9.jpg?1612918398</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/060/976/original/c19a34c6e8e81090140d24a4e5e704a0bb6f1b0d.jpg?1609678017</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/125/051/original/870ee8ce869904f25be6ca69248159ee04b3f7ef.jpg?1654565355</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/084/128/original/25335b9c8a6f1a840618b42072a40166a72f8a8e.jpg?1626775791</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/134/146/original/8ed2d986114bb1b719c11afb652839723ea52d40.jpg?1659494426</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/121/387/original/588b090be3d6f6ac8bed80c19185605ac3723596.jpg?1651654919</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/127/681/original/4550da026e837cfdd34c89b7c3004b3e4c810423.jpg?1656321245</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/061/775/original/d7bf37b6b66efea915cfe0b48b1473edc2614342.jpg?1611036770</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/100/265/original/9da5130e1ccf0f5f345834823ea820d52b150ff7.jpg?1636619568</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/146/861/original/797e0463b9a64cccbb8ef6d5e587daadd39fbf11.jpg?1665048729</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/121/043/original/78ede9dbd4f22c29364064f8a601fbe851229b91.jpg?1651546304</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/060/347/original/065b7bddacf3ae0e87c850c6fa8dada9d201228a.jpg?1608275026</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/128/850/original/eb4c3417b3ed50b6501e641ecb919b03010d64b2.jpg?1656999853</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/131/649/original/b8956b6e6b1a8e121541dab4721892b793b0e689.jpg?1658224852</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/043/641/original/590f363290da25f232017063d33f3aafd079721d.jpg?1583300744</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/114/152/original/02a398a690efe9552e331841424092a8363a591f.jpg?1645176483</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/064/883/original/b2a3784ffb5090b4d203c1f445609ea61b18ef3d.jpg?1615527353</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/125/819/original/80b29cf574b4cbb83f74276229dc72c567e8ee4f.jpg?1654839309</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/057/219/original/af582ede2e8e185f417df385dd435abbd391d22f.jpg?1604020349</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/111/405/original/efe07aae9da677b838fbd5ba97d82d46bcf9300a.jpg?1642755861</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/088/859/original/a0aa75a3cda2766183cb9856e13c162f8710f92c.jpg?1629335640</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/080/031/original/d9222732ee8a15f851114786ad9cff7bbcf2a9cd.jpg?1625044840</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/070/186/original/d14ea12fae762e3b639cec198c2446f58191a0a7.jpg?1619598087</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/069/835/original/a487bd70014588d7fefc83044d209db2d155e199.jpg?1619416577</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/074/018/original/a31a7da3f7c601984c30820f598bf1541affd7ae.jpg?1622351350</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/048/404/original/818d5937c5f6a4ea52bedd066f2ada3341ce4421.jpg?1591594549</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/090/091/original/4f97a9c356986721c21977c0704e4c6b8856e7a6.jpg?1630047469</t>
+  </si>
+  <si>
+    <t>https://images.stayfolio.com/system/pictures/images/000/127/752/original/1b42050451141d8886995c823e0db1d191b34406.jpg?1656385551</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1874,6 +1758,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1931,10 +1823,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1943,9 +1836,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2245,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N291"/>
+  <dimension ref="A1:N294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="I283" sqref="I283"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2332,9 +2227,9 @@
       </c>
       <c r="K2">
         <f ca="1">RANDBETWEEN(0,8)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>310</v>
       </c>
     </row>
@@ -2371,10 +2266,10 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K66" ca="1" si="0">RANDBETWEEN(0,8)</f>
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>334</v>
+        <v>3</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -2410,10 +2305,10 @@
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>323</v>
+        <v>5</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -2449,10 +2344,10 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>314</v>
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
@@ -2488,10 +2383,10 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L6" t="s">
-        <v>316</v>
+        <v>6</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
@@ -2527,10 +2422,10 @@
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L7" t="s">
-        <v>319</v>
+        <v>2</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
@@ -2566,10 +2461,10 @@
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L8" t="s">
-        <v>327</v>
+        <v>7</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
@@ -2605,10 +2500,10 @@
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L9" t="s">
-        <v>335</v>
+        <v>6</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -2644,10 +2539,10 @@
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L10" t="s">
-        <v>313</v>
+        <v>2</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
@@ -2683,10 +2578,10 @@
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>329</v>
+        <v>7</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -2722,10 +2617,10 @@
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L12" t="s">
-        <v>328</v>
+        <v>1</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -2763,8 +2658,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="L13" t="s">
-        <v>336</v>
+      <c r="L13" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
@@ -2800,10 +2695,10 @@
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L14" t="s">
-        <v>337</v>
+        <v>1</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
@@ -2841,8 +2736,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="L15" t="s">
-        <v>325</v>
+      <c r="L15" s="4" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -2878,10 +2773,10 @@
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L16" t="s">
-        <v>338</v>
+        <v>6</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
@@ -2917,10 +2812,10 @@
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L17" t="s">
-        <v>339</v>
+        <v>6</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
@@ -2958,8 +2853,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="L18" t="s">
-        <v>340</v>
+      <c r="L18" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
@@ -2995,10 +2890,10 @@
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L19" t="s">
-        <v>326</v>
+        <v>6</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -3034,10 +2929,10 @@
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L20" t="s">
-        <v>341</v>
+        <v>4</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
@@ -3073,10 +2968,10 @@
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L21" t="s">
-        <v>342</v>
+        <v>6</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
@@ -3112,10 +3007,10 @@
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L22" t="s">
-        <v>343</v>
+        <v>5</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
@@ -3151,9 +3046,9 @@
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3190,10 +3085,10 @@
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L24" t="s">
-        <v>320</v>
+        <v>8</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
@@ -3229,10 +3124,10 @@
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L25" t="s">
-        <v>318</v>
+        <v>4</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
@@ -3268,10 +3163,10 @@
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L26" t="s">
-        <v>344</v>
+        <v>0</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
@@ -3307,10 +3202,10 @@
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L27" t="s">
-        <v>345</v>
+        <v>7</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
@@ -3346,10 +3241,10 @@
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L28" t="s">
-        <v>346</v>
+        <v>6</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
@@ -3387,8 +3282,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" t="s">
-        <v>347</v>
+      <c r="L29" s="4" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
@@ -3424,10 +3319,10 @@
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L30" t="s">
-        <v>348</v>
+        <v>6</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
@@ -3463,10 +3358,10 @@
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L31" t="s">
-        <v>349</v>
+        <v>8</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
@@ -3502,10 +3397,10 @@
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
-        <v>322</v>
+        <v>8</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
@@ -3541,10 +3436,10 @@
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L33" t="s">
-        <v>312</v>
+        <v>8</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
@@ -3580,10 +3475,10 @@
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L34" t="s">
-        <v>350</v>
+        <v>6</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
@@ -3619,10 +3514,10 @@
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L35" t="s">
-        <v>351</v>
+        <v>8</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
@@ -3658,10 +3553,10 @@
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L36" t="s">
-        <v>352</v>
+        <v>4</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
@@ -3697,10 +3592,10 @@
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L37" t="s">
-        <v>353</v>
+        <v>6</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
@@ -3736,10 +3631,10 @@
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L38" t="s">
-        <v>354</v>
+        <v>7</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
@@ -3775,10 +3670,10 @@
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L39" t="s">
-        <v>355</v>
+        <v>3</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
@@ -3814,10 +3709,10 @@
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L40" t="s">
-        <v>356</v>
+        <v>1</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
@@ -3853,10 +3748,10 @@
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L41" t="s">
-        <v>357</v>
+        <v>4</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
@@ -3892,10 +3787,10 @@
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L42" t="s">
-        <v>358</v>
+        <v>3</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
@@ -3931,10 +3826,10 @@
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L43" t="s">
-        <v>330</v>
+        <v>7</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
@@ -3970,10 +3865,10 @@
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L44" t="s">
-        <v>359</v>
+        <v>4</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
@@ -4011,8 +3906,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="L45" t="s">
-        <v>333</v>
+      <c r="L45" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
@@ -4048,10 +3943,10 @@
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L46" t="s">
-        <v>360</v>
+        <v>2</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
@@ -4087,10 +3982,10 @@
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L47" t="s">
-        <v>361</v>
+        <v>4</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
@@ -4126,10 +4021,10 @@
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L48" t="s">
-        <v>362</v>
+        <v>6</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
@@ -4165,10 +4060,10 @@
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L49" t="s">
-        <v>363</v>
+        <v>6</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
@@ -4204,10 +4099,10 @@
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L50" t="s">
-        <v>321</v>
+        <v>5</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
@@ -4243,10 +4138,10 @@
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L51" t="s">
-        <v>364</v>
+        <v>4</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
@@ -4282,10 +4177,10 @@
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L52" t="s">
-        <v>365</v>
+        <v>2</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
@@ -4321,10 +4216,10 @@
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L53" t="s">
-        <v>366</v>
+        <v>5</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
@@ -4360,10 +4255,10 @@
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L54" t="s">
-        <v>367</v>
+        <v>6</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
@@ -4399,10 +4294,10 @@
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L55" t="s">
-        <v>368</v>
+        <v>3</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
@@ -4438,10 +4333,10 @@
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L56" t="s">
-        <v>369</v>
+        <v>1</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
@@ -4477,10 +4372,10 @@
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L57" t="s">
-        <v>370</v>
+        <v>1</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
@@ -4516,10 +4411,10 @@
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L58" t="s">
-        <v>371</v>
+        <v>7</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
@@ -4555,10 +4450,10 @@
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L59" t="s">
-        <v>372</v>
+        <v>6</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
@@ -4594,10 +4489,10 @@
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L60" t="s">
-        <v>373</v>
+        <v>7</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
@@ -4633,10 +4528,10 @@
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>374</v>
+        <v>5</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
@@ -4672,10 +4567,10 @@
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L62" t="s">
-        <v>317</v>
+        <v>6</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
@@ -4711,10 +4606,10 @@
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L63" t="s">
-        <v>375</v>
+        <v>0</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
@@ -4750,10 +4645,10 @@
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L64" t="s">
-        <v>376</v>
+        <v>8</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
@@ -4789,10 +4684,10 @@
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L65" t="s">
-        <v>377</v>
+        <v>8</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
@@ -4828,10 +4723,10 @@
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L66" t="s">
-        <v>378</v>
+        <v>4</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
@@ -4867,10 +4762,10 @@
       </c>
       <c r="K67">
         <f t="shared" ref="K67:K130" ca="1" si="1">RANDBETWEEN(0,8)</f>
-        <v>7</v>
-      </c>
-      <c r="L67" t="s">
-        <v>379</v>
+        <v>6</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
@@ -4906,10 +4801,10 @@
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L68" t="s">
-        <v>380</v>
+        <v>7</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
@@ -4945,10 +4840,10 @@
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L69" t="s">
-        <v>381</v>
+        <v>8</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
@@ -4984,10 +4879,10 @@
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L70" t="s">
-        <v>382</v>
+        <v>4</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
@@ -5023,10 +4918,10 @@
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L71" t="s">
-        <v>383</v>
+        <v>6</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
@@ -5062,10 +4957,10 @@
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L72" t="s">
-        <v>384</v>
+        <v>8</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
@@ -5101,10 +4996,10 @@
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L73" t="s">
-        <v>385</v>
+        <v>8</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
@@ -5140,10 +5035,10 @@
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L74" t="s">
-        <v>386</v>
+        <v>1</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
@@ -5179,10 +5074,10 @@
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L75" t="s">
-        <v>332</v>
+        <v>8</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
@@ -5218,10 +5113,10 @@
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L76" t="s">
-        <v>324</v>
+        <v>5</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
@@ -5257,10 +5152,10 @@
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="L77" t="s">
-        <v>387</v>
+        <v>6</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
@@ -5296,10 +5191,10 @@
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L78" t="s">
-        <v>388</v>
+        <v>8</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
@@ -5335,10 +5230,10 @@
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="L79" t="s">
-        <v>389</v>
+        <v>0</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
@@ -5374,10 +5269,10 @@
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L80" t="s">
-        <v>390</v>
+        <v>7</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
@@ -5413,10 +5308,10 @@
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L81" t="s">
-        <v>391</v>
+        <v>4</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
@@ -5454,8 +5349,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="L82" t="s">
-        <v>392</v>
+      <c r="L82" s="4" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
@@ -5493,8 +5388,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="L83" t="s">
-        <v>393</v>
+      <c r="L83" s="4" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
@@ -5530,10 +5425,10 @@
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L84" t="s">
-        <v>394</v>
+        <v>1</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
@@ -5569,10 +5464,10 @@
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L85" t="s">
-        <v>395</v>
+        <v>4</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
@@ -5608,10 +5503,10 @@
       </c>
       <c r="K86">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L86" t="s">
-        <v>396</v>
+        <v>8</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
@@ -5647,10 +5542,10 @@
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L87" t="s">
-        <v>397</v>
+        <v>1</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
@@ -5686,10 +5581,10 @@
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L88" t="s">
-        <v>398</v>
+        <v>4</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
@@ -5725,10 +5620,10 @@
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L89" t="s">
-        <v>399</v>
+        <v>2</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
@@ -5764,10 +5659,10 @@
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L90" t="s">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
@@ -5803,10 +5698,10 @@
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="L91" t="s">
-        <v>401</v>
+        <v>8</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
@@ -5842,10 +5737,10 @@
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L92" t="s">
-        <v>402</v>
+        <v>1</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
@@ -5881,10 +5776,10 @@
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L93" t="s">
-        <v>311</v>
+        <v>5</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.4">
@@ -5920,10 +5815,10 @@
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L94" t="s">
-        <v>403</v>
+        <v>5</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.4">
@@ -5961,8 +5856,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="L95" t="s">
-        <v>315</v>
+      <c r="L95" s="4" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.4">
@@ -5998,9 +5893,9 @@
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L96" t="s">
+        <v>8</v>
+      </c>
+      <c r="L96" s="4" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6037,9 +5932,9 @@
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L97" t="s">
+        <v>7</v>
+      </c>
+      <c r="L97" s="4" t="s">
         <v>405</v>
       </c>
     </row>
@@ -6076,9 +5971,9 @@
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L98" t="s">
+        <v>4</v>
+      </c>
+      <c r="L98" s="4" t="s">
         <v>406</v>
       </c>
     </row>
@@ -6115,9 +6010,9 @@
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L99" t="s">
+        <v>7</v>
+      </c>
+      <c r="L99" s="4" t="s">
         <v>407</v>
       </c>
     </row>
@@ -6154,9 +6049,9 @@
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L100" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="4" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6193,9 +6088,9 @@
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="L101" t="s">
+        <v>2</v>
+      </c>
+      <c r="L101" s="4" t="s">
         <v>409</v>
       </c>
     </row>
@@ -6232,9 +6127,9 @@
       </c>
       <c r="K102">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L102" t="s">
+        <v>7</v>
+      </c>
+      <c r="L102" s="4" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6271,9 +6166,9 @@
       </c>
       <c r="K103">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L103" t="s">
+        <v>2</v>
+      </c>
+      <c r="L103" s="4" t="s">
         <v>411</v>
       </c>
     </row>
@@ -6310,9 +6205,9 @@
       </c>
       <c r="K104">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L104" t="s">
+        <v>4</v>
+      </c>
+      <c r="L104" s="4" t="s">
         <v>412</v>
       </c>
     </row>
@@ -6349,9 +6244,9 @@
       </c>
       <c r="K105">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L105" t="s">
+        <v>8</v>
+      </c>
+      <c r="L105" s="4" t="s">
         <v>413</v>
       </c>
     </row>
@@ -6388,9 +6283,9 @@
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L106" t="s">
+        <v>7</v>
+      </c>
+      <c r="L106" s="4" t="s">
         <v>414</v>
       </c>
     </row>
@@ -6429,7 +6324,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="L107" t="s">
+      <c r="L107" s="4" t="s">
         <v>415</v>
       </c>
     </row>
@@ -6466,9 +6361,9 @@
       </c>
       <c r="K108">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L108" t="s">
+        <v>8</v>
+      </c>
+      <c r="L108" s="4" t="s">
         <v>416</v>
       </c>
     </row>
@@ -6507,7 +6402,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="L109" t="s">
+      <c r="L109" s="4" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6546,7 +6441,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="L110" t="s">
+      <c r="L110" s="4" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6583,9 +6478,9 @@
       </c>
       <c r="K111">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="L111" t="s">
+        <v>8</v>
+      </c>
+      <c r="L111" s="4" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6622,9 +6517,9 @@
       </c>
       <c r="K112">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L112" t="s">
+        <v>0</v>
+      </c>
+      <c r="L112" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6661,9 +6556,9 @@
       </c>
       <c r="K113">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L113" t="s">
+        <v>0</v>
+      </c>
+      <c r="L113" s="4" t="s">
         <v>421</v>
       </c>
     </row>
@@ -6700,9 +6595,9 @@
       </c>
       <c r="K114">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L114" t="s">
+        <v>0</v>
+      </c>
+      <c r="L114" s="4" t="s">
         <v>422</v>
       </c>
     </row>
@@ -6739,9 +6634,9 @@
       </c>
       <c r="K115">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L115" t="s">
+        <v>2</v>
+      </c>
+      <c r="L115" s="4" t="s">
         <v>423</v>
       </c>
     </row>
@@ -6778,9 +6673,9 @@
       </c>
       <c r="K116">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L116" t="s">
+        <v>3</v>
+      </c>
+      <c r="L116" s="4" t="s">
         <v>424</v>
       </c>
     </row>
@@ -6817,9 +6712,9 @@
       </c>
       <c r="K117">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L117" t="s">
+        <v>1</v>
+      </c>
+      <c r="L117" s="4" t="s">
         <v>425</v>
       </c>
     </row>
@@ -6856,9 +6751,9 @@
       </c>
       <c r="K118">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L118" t="s">
+        <v>4</v>
+      </c>
+      <c r="L118" s="4" t="s">
         <v>426</v>
       </c>
     </row>
@@ -6895,9 +6790,9 @@
       </c>
       <c r="K119">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L119" t="s">
+        <v>6</v>
+      </c>
+      <c r="L119" s="4" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6934,9 +6829,9 @@
       </c>
       <c r="K120">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L120" t="s">
+        <v>4</v>
+      </c>
+      <c r="L120" s="4" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6973,9 +6868,9 @@
       </c>
       <c r="K121">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L121" t="s">
+        <v>4</v>
+      </c>
+      <c r="L121" s="4" t="s">
         <v>429</v>
       </c>
     </row>
@@ -7012,9 +6907,9 @@
       </c>
       <c r="K122">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="L122" t="s">
+        <v>0</v>
+      </c>
+      <c r="L122" s="4" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7051,9 +6946,9 @@
       </c>
       <c r="K123">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L123" t="s">
+        <v>0</v>
+      </c>
+      <c r="L123" s="4" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7090,9 +6985,9 @@
       </c>
       <c r="K124">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L124" t="s">
+        <v>1</v>
+      </c>
+      <c r="L124" s="4" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7129,9 +7024,9 @@
       </c>
       <c r="K125">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L125" t="s">
+        <v>5</v>
+      </c>
+      <c r="L125" s="4" t="s">
         <v>433</v>
       </c>
     </row>
@@ -7168,9 +7063,9 @@
       </c>
       <c r="K126">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="L126" t="s">
+        <v>3</v>
+      </c>
+      <c r="L126" s="4" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7207,9 +7102,9 @@
       </c>
       <c r="K127">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L127" t="s">
+        <v>6</v>
+      </c>
+      <c r="L127" s="4" t="s">
         <v>435</v>
       </c>
     </row>
@@ -7246,9 +7141,9 @@
       </c>
       <c r="K128">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L128" t="s">
+        <v>5</v>
+      </c>
+      <c r="L128" s="4" t="s">
         <v>436</v>
       </c>
     </row>
@@ -7285,9 +7180,9 @@
       </c>
       <c r="K129">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L129" t="s">
+        <v>8</v>
+      </c>
+      <c r="L129" s="4" t="s">
         <v>437</v>
       </c>
     </row>
@@ -7324,9 +7219,9 @@
       </c>
       <c r="K130">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L130" t="s">
+        <v>7</v>
+      </c>
+      <c r="L130" s="4" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7363,9 +7258,9 @@
       </c>
       <c r="K131">
         <f t="shared" ref="K131:K194" ca="1" si="2">RANDBETWEEN(0,8)</f>
-        <v>5</v>
-      </c>
-      <c r="L131" t="s">
+        <v>8</v>
+      </c>
+      <c r="L131" s="4" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7402,9 +7297,9 @@
       </c>
       <c r="K132">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L132" t="s">
+        <v>1</v>
+      </c>
+      <c r="L132" s="4" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7441,9 +7336,9 @@
       </c>
       <c r="K133">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L133" t="s">
+        <v>5</v>
+      </c>
+      <c r="L133" s="4" t="s">
         <v>441</v>
       </c>
     </row>
@@ -7480,9 +7375,9 @@
       </c>
       <c r="K134">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="L134" t="s">
+        <v>2</v>
+      </c>
+      <c r="L134" s="4" t="s">
         <v>442</v>
       </c>
     </row>
@@ -7521,7 +7416,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>7</v>
       </c>
-      <c r="L135" t="s">
+      <c r="L135" s="4" t="s">
         <v>443</v>
       </c>
     </row>
@@ -7558,9 +7453,9 @@
       </c>
       <c r="K136">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L136" t="s">
+        <v>1</v>
+      </c>
+      <c r="L136" s="4" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7597,9 +7492,9 @@
       </c>
       <c r="K137">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L137" t="s">
+        <v>0</v>
+      </c>
+      <c r="L137" s="4" t="s">
         <v>445</v>
       </c>
     </row>
@@ -7638,8 +7533,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>7</v>
       </c>
-      <c r="L138" t="s">
-        <v>446</v>
+      <c r="L138" s="4" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.4">
@@ -7675,10 +7570,10 @@
       </c>
       <c r="K139">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L139" t="s">
-        <v>447</v>
+        <v>4</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.4">
@@ -7714,10 +7609,10 @@
       </c>
       <c r="K140">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="L140" t="s">
-        <v>448</v>
+        <v>0</v>
+      </c>
+      <c r="L140" s="4" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.4">
@@ -7753,10 +7648,10 @@
       </c>
       <c r="K141">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L141" t="s">
-        <v>449</v>
+        <v>6</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.4">
@@ -7792,10 +7687,10 @@
       </c>
       <c r="K142">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L142" t="s">
-        <v>450</v>
+        <v>3</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.4">
@@ -7833,8 +7728,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>7</v>
       </c>
-      <c r="L143" t="s">
-        <v>451</v>
+      <c r="L143" s="4" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.4">
@@ -7870,10 +7765,10 @@
       </c>
       <c r="K144">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L144" t="s">
-        <v>452</v>
+        <v>5</v>
+      </c>
+      <c r="L144" s="4" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.4">
@@ -7909,10 +7804,10 @@
       </c>
       <c r="K145">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L145" t="s">
-        <v>453</v>
+        <v>2</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.4">
@@ -7948,10 +7843,10 @@
       </c>
       <c r="K146">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L146" t="s">
-        <v>454</v>
+        <v>0</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.4">
@@ -7987,10 +7882,10 @@
       </c>
       <c r="K147">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="L147" t="s">
-        <v>455</v>
+        <v>6</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.4">
@@ -8026,10 +7921,10 @@
       </c>
       <c r="K148">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L148" t="s">
-        <v>456</v>
+        <v>8</v>
+      </c>
+      <c r="L148" s="4" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.4">
@@ -8067,8 +7962,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-      <c r="L149" t="s">
-        <v>457</v>
+      <c r="L149" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.4">
@@ -8104,10 +7999,10 @@
       </c>
       <c r="K150">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L150" t="s">
-        <v>458</v>
+        <v>5</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.4">
@@ -8143,10 +8038,10 @@
       </c>
       <c r="K151">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L151" t="s">
-        <v>459</v>
+        <v>8</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.4">
@@ -8182,10 +8077,10 @@
       </c>
       <c r="K152">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L152" t="s">
-        <v>460</v>
+        <v>1</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.4">
@@ -8221,10 +8116,10 @@
       </c>
       <c r="K153">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L153" t="s">
-        <v>461</v>
+        <v>8</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.4">
@@ -8260,10 +8155,10 @@
       </c>
       <c r="K154">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="L154" t="s">
-        <v>462</v>
+        <v>1</v>
+      </c>
+      <c r="L154" s="4" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.4">
@@ -8299,10 +8194,10 @@
       </c>
       <c r="K155">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L155" t="s">
-        <v>463</v>
+        <v>6</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.4">
@@ -8338,10 +8233,10 @@
       </c>
       <c r="K156">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="L156" t="s">
-        <v>464</v>
+        <v>3</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.4">
@@ -8377,10 +8272,10 @@
       </c>
       <c r="K157">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="L157" t="s">
-        <v>465</v>
+        <v>0</v>
+      </c>
+      <c r="L157" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.4">
@@ -8416,10 +8311,10 @@
       </c>
       <c r="K158">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L158" t="s">
-        <v>466</v>
+        <v>8</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.4">
@@ -8455,10 +8350,10 @@
       </c>
       <c r="K159">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="L159" t="s">
-        <v>467</v>
+        <v>2</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.4">
@@ -8494,10 +8389,10 @@
       </c>
       <c r="K160">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L160" t="s">
-        <v>468</v>
+        <v>1</v>
+      </c>
+      <c r="L160" s="4" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.4">
@@ -8533,10 +8428,10 @@
       </c>
       <c r="K161">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="L161" t="s">
-        <v>469</v>
+        <v>0</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.4">
@@ -8572,10 +8467,10 @@
       </c>
       <c r="K162">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L162" t="s">
-        <v>470</v>
+        <v>6</v>
+      </c>
+      <c r="L162" s="4" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.4">
@@ -8611,10 +8506,10 @@
       </c>
       <c r="K163">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="L163" t="s">
-        <v>471</v>
+        <v>8</v>
+      </c>
+      <c r="L163" s="4" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.4">
@@ -8650,10 +8545,10 @@
       </c>
       <c r="K164">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L164" t="s">
-        <v>472</v>
+        <v>3</v>
+      </c>
+      <c r="L164" s="4" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.4">
@@ -8689,10 +8584,10 @@
       </c>
       <c r="K165">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L165" t="s">
-        <v>473</v>
+        <v>8</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.4">
@@ -8728,10 +8623,10 @@
       </c>
       <c r="K166">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="L166" t="s">
-        <v>474</v>
+        <v>7</v>
+      </c>
+      <c r="L166" s="4" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.4">
@@ -8767,10 +8662,10 @@
       </c>
       <c r="K167">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L167" t="s">
-        <v>475</v>
+        <v>8</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.4">
@@ -8806,10 +8701,10 @@
       </c>
       <c r="K168">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L168" t="s">
-        <v>476</v>
+        <v>3</v>
+      </c>
+      <c r="L168" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.4">
@@ -8845,10 +8740,10 @@
       </c>
       <c r="K169">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L169" t="s">
-        <v>477</v>
+        <v>7</v>
+      </c>
+      <c r="L169" s="4" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.4">
@@ -8884,10 +8779,10 @@
       </c>
       <c r="K170">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L170" t="s">
-        <v>478</v>
+        <v>6</v>
+      </c>
+      <c r="L170" s="4" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.4">
@@ -8923,10 +8818,10 @@
       </c>
       <c r="K171">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L171" t="s">
-        <v>479</v>
+        <v>6</v>
+      </c>
+      <c r="L171" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.4">
@@ -8962,10 +8857,10 @@
       </c>
       <c r="K172">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="L172" t="s">
-        <v>480</v>
+        <v>3</v>
+      </c>
+      <c r="L172" s="4" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.4">
@@ -9001,10 +8896,10 @@
       </c>
       <c r="K173">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L173" t="s">
-        <v>481</v>
+        <v>4</v>
+      </c>
+      <c r="L173" s="4" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.4">
@@ -9040,10 +8935,10 @@
       </c>
       <c r="K174">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L174" t="s">
-        <v>482</v>
+        <v>2</v>
+      </c>
+      <c r="L174" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.4">
@@ -9079,10 +8974,10 @@
       </c>
       <c r="K175">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L175" t="s">
-        <v>483</v>
+        <v>7</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.4">
@@ -9118,10 +9013,10 @@
       </c>
       <c r="K176">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L176" t="s">
-        <v>484</v>
+        <v>2</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.4">
@@ -9157,10 +9052,10 @@
       </c>
       <c r="K177">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L177" t="s">
-        <v>485</v>
+        <v>5</v>
+      </c>
+      <c r="L177" s="4" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.4">
@@ -9198,8 +9093,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
-      <c r="L178" t="s">
-        <v>486</v>
+      <c r="L178" s="4" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.4">
@@ -9235,10 +9130,10 @@
       </c>
       <c r="K179">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L179" t="s">
-        <v>487</v>
+        <v>7</v>
+      </c>
+      <c r="L179" s="4" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.4">
@@ -9274,10 +9169,10 @@
       </c>
       <c r="K180">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L180" t="s">
-        <v>488</v>
+        <v>6</v>
+      </c>
+      <c r="L180" s="4" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.4">
@@ -9313,10 +9208,10 @@
       </c>
       <c r="K181">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L181" t="s">
-        <v>489</v>
+        <v>3</v>
+      </c>
+      <c r="L181" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.4">
@@ -9352,10 +9247,10 @@
       </c>
       <c r="K182">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L182" t="s">
-        <v>490</v>
+        <v>7</v>
+      </c>
+      <c r="L182" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.4">
@@ -9393,8 +9288,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>7</v>
       </c>
-      <c r="L183" t="s">
-        <v>491</v>
+      <c r="L183" s="4" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.4">
@@ -9430,10 +9325,10 @@
       </c>
       <c r="K184">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L184" t="s">
-        <v>492</v>
+        <v>0</v>
+      </c>
+      <c r="L184" s="4" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.4">
@@ -9469,10 +9364,10 @@
       </c>
       <c r="K185">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L185" t="s">
-        <v>493</v>
+        <v>8</v>
+      </c>
+      <c r="L185" s="4" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.4">
@@ -9508,10 +9403,10 @@
       </c>
       <c r="K186">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L186" t="s">
-        <v>494</v>
+        <v>7</v>
+      </c>
+      <c r="L186" s="4" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.4">
@@ -9547,10 +9442,10 @@
       </c>
       <c r="K187">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="L187" t="s">
-        <v>495</v>
+        <v>4</v>
+      </c>
+      <c r="L187" s="4" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.4">
@@ -9586,10 +9481,10 @@
       </c>
       <c r="K188">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L188" t="s">
-        <v>496</v>
+        <v>0</v>
+      </c>
+      <c r="L188" s="4" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.4">
@@ -9625,10 +9520,10 @@
       </c>
       <c r="K189">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L189" t="s">
-        <v>497</v>
+        <v>7</v>
+      </c>
+      <c r="L189" s="4" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.4">
@@ -9664,10 +9559,10 @@
       </c>
       <c r="K190">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L190" t="s">
-        <v>498</v>
+        <v>7</v>
+      </c>
+      <c r="L190" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.4">
@@ -9703,10 +9598,10 @@
       </c>
       <c r="K191">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L191" t="s">
-        <v>499</v>
+        <v>1</v>
+      </c>
+      <c r="L191" s="4" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.4">
@@ -9742,10 +9637,10 @@
       </c>
       <c r="K192">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L192" t="s">
-        <v>500</v>
+        <v>7</v>
+      </c>
+      <c r="L192" s="4" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.4">
@@ -9781,10 +9676,10 @@
       </c>
       <c r="K193">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L193" t="s">
-        <v>501</v>
+        <v>3</v>
+      </c>
+      <c r="L193" s="4" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.4">
@@ -9820,10 +9715,10 @@
       </c>
       <c r="K194">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L194" t="s">
-        <v>502</v>
+        <v>6</v>
+      </c>
+      <c r="L194" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.4">
@@ -9861,8 +9756,8 @@
         <f t="shared" ref="K195:K258" ca="1" si="3">RANDBETWEEN(0,8)</f>
         <v>0</v>
       </c>
-      <c r="L195" t="s">
-        <v>503</v>
+      <c r="L195" s="4" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.4">
@@ -9900,8 +9795,8 @@
         <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
-      <c r="L196" t="s">
-        <v>504</v>
+      <c r="L196" s="4" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.4">
@@ -9937,10 +9832,10 @@
       </c>
       <c r="K197">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L197" t="s">
-        <v>505</v>
+        <v>4</v>
+      </c>
+      <c r="L197" s="4" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.4">
@@ -9976,10 +9871,10 @@
       </c>
       <c r="K198">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L198" t="s">
-        <v>506</v>
+        <v>1</v>
+      </c>
+      <c r="L198" s="4" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.4">
@@ -10017,8 +9912,8 @@
         <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
-      <c r="L199" t="s">
-        <v>507</v>
+      <c r="L199" s="4" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.4">
@@ -10054,10 +9949,10 @@
       </c>
       <c r="K200">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L200" t="s">
-        <v>508</v>
+        <v>5</v>
+      </c>
+      <c r="L200" s="4" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.4">
@@ -10093,10 +9988,10 @@
       </c>
       <c r="K201">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L201" t="s">
-        <v>509</v>
+        <v>0</v>
+      </c>
+      <c r="L201" s="4" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.4">
@@ -10132,10 +10027,10 @@
       </c>
       <c r="K202">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L202" t="s">
-        <v>510</v>
+        <v>4</v>
+      </c>
+      <c r="L202" s="4" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.4">
@@ -10171,10 +10066,10 @@
       </c>
       <c r="K203">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L203" t="s">
-        <v>511</v>
+        <v>0</v>
+      </c>
+      <c r="L203" s="4" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.4">
@@ -10210,10 +10105,10 @@
       </c>
       <c r="K204">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L204" t="s">
-        <v>512</v>
+        <v>7</v>
+      </c>
+      <c r="L204" s="4" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.4">
@@ -10249,10 +10144,10 @@
       </c>
       <c r="K205">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L205" t="s">
-        <v>513</v>
+        <v>8</v>
+      </c>
+      <c r="L205" s="4" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.4">
@@ -10288,10 +10183,10 @@
       </c>
       <c r="K206">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L206" t="s">
-        <v>514</v>
+        <v>1</v>
+      </c>
+      <c r="L206" s="4" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.4">
@@ -10327,10 +10222,10 @@
       </c>
       <c r="K207">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L207" t="s">
-        <v>515</v>
+        <v>3</v>
+      </c>
+      <c r="L207" s="4" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.4">
@@ -10368,8 +10263,8 @@
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="L208" t="s">
-        <v>516</v>
+      <c r="L208" s="4" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.4">
@@ -10405,10 +10300,10 @@
       </c>
       <c r="K209">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L209" t="s">
-        <v>517</v>
+        <v>8</v>
+      </c>
+      <c r="L209" s="4" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.4">
@@ -10444,10 +10339,10 @@
       </c>
       <c r="K210">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L210" t="s">
-        <v>518</v>
+        <v>8</v>
+      </c>
+      <c r="L210" s="4" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.4">
@@ -10483,10 +10378,10 @@
       </c>
       <c r="K211">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L211" t="s">
-        <v>519</v>
+        <v>7</v>
+      </c>
+      <c r="L211" s="4" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.4">
@@ -10522,10 +10417,10 @@
       </c>
       <c r="K212">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L212" t="s">
-        <v>520</v>
+        <v>7</v>
+      </c>
+      <c r="L212" s="4" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.4">
@@ -10561,10 +10456,10 @@
       </c>
       <c r="K213">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L213" t="s">
-        <v>521</v>
+        <v>7</v>
+      </c>
+      <c r="L213" s="4" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.4">
@@ -10600,10 +10495,10 @@
       </c>
       <c r="K214">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L214" t="s">
-        <v>522</v>
+        <v>6</v>
+      </c>
+      <c r="L214" s="4" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.4">
@@ -10639,10 +10534,10 @@
       </c>
       <c r="K215">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L215" t="s">
-        <v>523</v>
+        <v>1</v>
+      </c>
+      <c r="L215" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.4">
@@ -10678,10 +10573,10 @@
       </c>
       <c r="K216">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L216" t="s">
-        <v>524</v>
+        <v>3</v>
+      </c>
+      <c r="L216" s="4" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.4">
@@ -10717,10 +10612,10 @@
       </c>
       <c r="K217">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L217" t="s">
-        <v>525</v>
+        <v>2</v>
+      </c>
+      <c r="L217" s="4" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.4">
@@ -10758,8 +10653,8 @@
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
-      <c r="L218" t="s">
-        <v>526</v>
+      <c r="L218" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.4">
@@ -10797,8 +10692,8 @@
         <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
-      <c r="L219" t="s">
-        <v>527</v>
+      <c r="L219" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.4">
@@ -10834,10 +10729,10 @@
       </c>
       <c r="K220">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L220" t="s">
-        <v>528</v>
+        <v>5</v>
+      </c>
+      <c r="L220" s="4" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.4">
@@ -10873,10 +10768,10 @@
       </c>
       <c r="K221">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L221" t="s">
-        <v>529</v>
+        <v>8</v>
+      </c>
+      <c r="L221" s="4" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.4">
@@ -10912,10 +10807,10 @@
       </c>
       <c r="K222">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L222" t="s">
-        <v>530</v>
+        <v>3</v>
+      </c>
+      <c r="L222" s="4" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.4">
@@ -10951,10 +10846,10 @@
       </c>
       <c r="K223">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L223" t="s">
-        <v>531</v>
+        <v>4</v>
+      </c>
+      <c r="L223" s="4" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.4">
@@ -10990,10 +10885,10 @@
       </c>
       <c r="K224">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L224" t="s">
-        <v>532</v>
+        <v>6</v>
+      </c>
+      <c r="L224" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.4">
@@ -11029,10 +10924,10 @@
       </c>
       <c r="K225">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L225" t="s">
-        <v>533</v>
+        <v>4</v>
+      </c>
+      <c r="L225" s="4" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.4">
@@ -11068,10 +10963,10 @@
       </c>
       <c r="K226">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L226" t="s">
-        <v>534</v>
+        <v>6</v>
+      </c>
+      <c r="L226" s="4" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.4">
@@ -11107,10 +11002,10 @@
       </c>
       <c r="K227">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L227" t="s">
-        <v>535</v>
+        <v>5</v>
+      </c>
+      <c r="L227" s="4" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.4">
@@ -11146,10 +11041,10 @@
       </c>
       <c r="K228">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L228" t="s">
-        <v>536</v>
+        <v>1</v>
+      </c>
+      <c r="L228" s="4" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.4">
@@ -11185,10 +11080,10 @@
       </c>
       <c r="K229">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L229" t="s">
-        <v>537</v>
+        <v>1</v>
+      </c>
+      <c r="L229" s="4" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.4">
@@ -11226,8 +11121,8 @@
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
-      <c r="L230" t="s">
-        <v>538</v>
+      <c r="L230" s="4" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.4">
@@ -11263,10 +11158,10 @@
       </c>
       <c r="K231">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L231" t="s">
-        <v>539</v>
+        <v>2</v>
+      </c>
+      <c r="L231" s="4" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.4">
@@ -11302,10 +11197,10 @@
       </c>
       <c r="K232">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L232" t="s">
-        <v>540</v>
+        <v>5</v>
+      </c>
+      <c r="L232" s="4" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.4">
@@ -11341,10 +11236,10 @@
       </c>
       <c r="K233">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L233" t="s">
-        <v>541</v>
+        <v>4</v>
+      </c>
+      <c r="L233" s="4" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.4">
@@ -11380,10 +11275,10 @@
       </c>
       <c r="K234">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L234" t="s">
-        <v>542</v>
+        <v>4</v>
+      </c>
+      <c r="L234" s="4" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.4">
@@ -11419,10 +11314,10 @@
       </c>
       <c r="K235">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L235" t="s">
-        <v>543</v>
+        <v>8</v>
+      </c>
+      <c r="L235" s="4" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.4">
@@ -11458,10 +11353,10 @@
       </c>
       <c r="K236">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L236" t="s">
-        <v>544</v>
+        <v>2</v>
+      </c>
+      <c r="L236" s="4" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.4">
@@ -11497,10 +11392,10 @@
       </c>
       <c r="K237">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L237" t="s">
-        <v>545</v>
+        <v>2</v>
+      </c>
+      <c r="L237" s="4" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.4">
@@ -11536,10 +11431,10 @@
       </c>
       <c r="K238">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L238" t="s">
-        <v>546</v>
+        <v>3</v>
+      </c>
+      <c r="L238" s="4" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.4">
@@ -11575,10 +11470,10 @@
       </c>
       <c r="K239">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L239" t="s">
-        <v>547</v>
+        <v>3</v>
+      </c>
+      <c r="L239" s="4" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.4">
@@ -11616,8 +11511,8 @@
         <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
-      <c r="L240" t="s">
-        <v>548</v>
+      <c r="L240" s="4" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.4">
@@ -11653,10 +11548,10 @@
       </c>
       <c r="K241">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L241" t="s">
-        <v>549</v>
+        <v>0</v>
+      </c>
+      <c r="L241" s="4" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.4">
@@ -11692,10 +11587,10 @@
       </c>
       <c r="K242">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L242" t="s">
-        <v>550</v>
+        <v>0</v>
+      </c>
+      <c r="L242" s="4" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.4">
@@ -11731,10 +11626,10 @@
       </c>
       <c r="K243">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L243" t="s">
-        <v>551</v>
+        <v>3</v>
+      </c>
+      <c r="L243" s="4" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.4">
@@ -11770,10 +11665,10 @@
       </c>
       <c r="K244">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L244" t="s">
-        <v>552</v>
+        <v>2</v>
+      </c>
+      <c r="L244" s="4" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.4">
@@ -11809,10 +11704,10 @@
       </c>
       <c r="K245">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L245" t="s">
-        <v>553</v>
+        <v>8</v>
+      </c>
+      <c r="L245" s="4" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.4">
@@ -11848,10 +11743,10 @@
       </c>
       <c r="K246">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L246" t="s">
-        <v>554</v>
+        <v>3</v>
+      </c>
+      <c r="L246" s="4" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.4">
@@ -11889,8 +11784,8 @@
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L247" t="s">
-        <v>555</v>
+      <c r="L247" s="4" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.4">
@@ -11928,8 +11823,8 @@
         <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
-      <c r="L248" t="s">
-        <v>556</v>
+      <c r="L248" s="4" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.4">
@@ -11965,10 +11860,10 @@
       </c>
       <c r="K249">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L249" t="s">
-        <v>557</v>
+        <v>3</v>
+      </c>
+      <c r="L249" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.4">
@@ -12004,10 +11899,10 @@
       </c>
       <c r="K250">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L250" t="s">
-        <v>558</v>
+        <v>3</v>
+      </c>
+      <c r="L250" s="4" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.4">
@@ -12043,10 +11938,10 @@
       </c>
       <c r="K251">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L251" t="s">
-        <v>559</v>
+        <v>6</v>
+      </c>
+      <c r="L251" s="4" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.4">
@@ -12082,10 +11977,10 @@
       </c>
       <c r="K252">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L252" t="s">
-        <v>560</v>
+        <v>5</v>
+      </c>
+      <c r="L252" s="4" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.4">
@@ -12123,8 +12018,8 @@
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
-      <c r="L253" t="s">
-        <v>561</v>
+      <c r="L253" s="4" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.4">
@@ -12160,10 +12055,10 @@
       </c>
       <c r="K254">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L254" t="s">
-        <v>562</v>
+        <v>2</v>
+      </c>
+      <c r="L254" s="4" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.4">
@@ -12199,10 +12094,10 @@
       </c>
       <c r="K255">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L255" t="s">
-        <v>563</v>
+        <v>0</v>
+      </c>
+      <c r="L255" s="4" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.4">
@@ -12238,10 +12133,10 @@
       </c>
       <c r="K256">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L256" t="s">
-        <v>564</v>
+        <v>8</v>
+      </c>
+      <c r="L256" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.4">
@@ -12277,10 +12172,10 @@
       </c>
       <c r="K257">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L257" t="s">
-        <v>565</v>
+        <v>7</v>
+      </c>
+      <c r="L257" s="4" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.4">
@@ -12316,10 +12211,10 @@
       </c>
       <c r="K258">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L258" t="s">
-        <v>566</v>
+        <v>1</v>
+      </c>
+      <c r="L258" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.4">
@@ -12355,10 +12250,10 @@
       </c>
       <c r="K259">
         <f t="shared" ref="K259:K291" ca="1" si="4">RANDBETWEEN(0,8)</f>
-        <v>8</v>
-      </c>
-      <c r="L259" t="s">
-        <v>567</v>
+        <v>2</v>
+      </c>
+      <c r="L259" s="4" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.4">
@@ -12394,10 +12289,10 @@
       </c>
       <c r="K260">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L260" t="s">
-        <v>568</v>
+        <v>3</v>
+      </c>
+      <c r="L260" s="4" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.4">
@@ -12433,10 +12328,10 @@
       </c>
       <c r="K261">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="L261" t="s">
-        <v>569</v>
+        <v>2</v>
+      </c>
+      <c r="L261" s="4" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.4">
@@ -12472,10 +12367,10 @@
       </c>
       <c r="K262">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="L262" t="s">
-        <v>570</v>
+        <v>7</v>
+      </c>
+      <c r="L262" s="4" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.4">
@@ -12511,10 +12406,10 @@
       </c>
       <c r="K263">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="L263" t="s">
-        <v>571</v>
+        <v>4</v>
+      </c>
+      <c r="L263" s="4" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.4">
@@ -12550,10 +12445,10 @@
       </c>
       <c r="K264">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L264" t="s">
-        <v>572</v>
+        <v>7</v>
+      </c>
+      <c r="L264" s="4" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.4">
@@ -12589,10 +12484,10 @@
       </c>
       <c r="K265">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="L265" t="s">
-        <v>573</v>
+        <v>3</v>
+      </c>
+      <c r="L265" s="4" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.4">
@@ -12628,10 +12523,10 @@
       </c>
       <c r="K266">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L266" t="s">
-        <v>574</v>
+        <v>1</v>
+      </c>
+      <c r="L266" s="4" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.4">
@@ -12667,10 +12562,10 @@
       </c>
       <c r="K267">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L267" t="s">
-        <v>575</v>
+        <v>5</v>
+      </c>
+      <c r="L267" s="4" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.4">
@@ -12706,10 +12601,10 @@
       </c>
       <c r="K268">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L268" t="s">
-        <v>576</v>
+        <v>0</v>
+      </c>
+      <c r="L268" s="4" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.4">
@@ -12745,10 +12640,10 @@
       </c>
       <c r="K269">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="L269" t="s">
-        <v>577</v>
+        <v>4</v>
+      </c>
+      <c r="L269" s="4" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.4">
@@ -12784,10 +12679,10 @@
       </c>
       <c r="K270">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="L270" t="s">
-        <v>578</v>
+        <v>4</v>
+      </c>
+      <c r="L270" s="4" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.4">
@@ -12823,10 +12718,10 @@
       </c>
       <c r="K271">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="L271" t="s">
-        <v>579</v>
+        <v>1</v>
+      </c>
+      <c r="L271" s="4" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.4">
@@ -12862,10 +12757,10 @@
       </c>
       <c r="K272">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="L272" t="s">
-        <v>580</v>
+        <v>4</v>
+      </c>
+      <c r="L272" s="4" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.4">
@@ -12901,10 +12796,10 @@
       </c>
       <c r="K273">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="L273" t="s">
-        <v>581</v>
+        <v>1</v>
+      </c>
+      <c r="L273" s="4" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.4">
@@ -12940,10 +12835,10 @@
       </c>
       <c r="K274">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="L274" t="s">
-        <v>582</v>
+        <v>4</v>
+      </c>
+      <c r="L274" s="4" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.4">
@@ -12979,10 +12874,10 @@
       </c>
       <c r="K275">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L275" t="s">
-        <v>583</v>
+        <v>2</v>
+      </c>
+      <c r="L275" s="4" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.4">
@@ -13018,10 +12913,10 @@
       </c>
       <c r="K276">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L276" t="s">
-        <v>584</v>
+        <v>2</v>
+      </c>
+      <c r="L276" s="4" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.4">
@@ -13057,10 +12952,10 @@
       </c>
       <c r="K277">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="L277" t="s">
-        <v>585</v>
+        <v>5</v>
+      </c>
+      <c r="L277" s="4" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.4">
@@ -13096,10 +12991,10 @@
       </c>
       <c r="K278">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="L278" t="s">
-        <v>586</v>
+        <v>3</v>
+      </c>
+      <c r="L278" s="4" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.4">
@@ -13135,10 +13030,10 @@
       </c>
       <c r="K279">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L279" t="s">
-        <v>587</v>
+        <v>8</v>
+      </c>
+      <c r="L279" s="4" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.4">
@@ -13174,10 +13069,10 @@
       </c>
       <c r="K280">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="L280" t="s">
-        <v>588</v>
+        <v>4</v>
+      </c>
+      <c r="L280" s="4" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.4">
@@ -13213,10 +13108,10 @@
       </c>
       <c r="K281">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L281" t="s">
-        <v>589</v>
+        <v>1</v>
+      </c>
+      <c r="L281" s="4" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.4">
@@ -13252,10 +13147,10 @@
       </c>
       <c r="K282">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L282" t="s">
-        <v>590</v>
+        <v>8</v>
+      </c>
+      <c r="L282" s="4" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.4">
@@ -13291,10 +13186,10 @@
       </c>
       <c r="K283">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="L283" t="s">
-        <v>591</v>
+        <v>7</v>
+      </c>
+      <c r="L283" s="4" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.4">
@@ -13330,10 +13225,10 @@
       </c>
       <c r="K284">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L284" t="s">
-        <v>592</v>
+        <v>7</v>
+      </c>
+      <c r="L284" s="4" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.4">
@@ -13369,10 +13264,10 @@
       </c>
       <c r="K285">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="L285" t="s">
-        <v>593</v>
+        <v>3</v>
+      </c>
+      <c r="L285" s="4" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.4">
@@ -13408,10 +13303,10 @@
       </c>
       <c r="K286">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L286" t="s">
-        <v>594</v>
+        <v>3</v>
+      </c>
+      <c r="L286" s="4" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.4">
@@ -13447,10 +13342,10 @@
       </c>
       <c r="K287">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L287" t="s">
-        <v>595</v>
+        <v>1</v>
+      </c>
+      <c r="L287" s="4" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.4">
@@ -13486,10 +13381,10 @@
       </c>
       <c r="K288">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L288" t="s">
-        <v>596</v>
+        <v>0</v>
+      </c>
+      <c r="L288" s="4" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.4">
@@ -13525,10 +13420,10 @@
       </c>
       <c r="K289">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="L289" t="s">
-        <v>597</v>
+        <v>4</v>
+      </c>
+      <c r="L289" s="4" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.4">
@@ -13564,10 +13459,10 @@
       </c>
       <c r="K290">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L290" t="s">
-        <v>598</v>
+        <v>5</v>
+      </c>
+      <c r="L290" s="4" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.4">
@@ -13603,15 +13498,325 @@
       </c>
       <c r="K291">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="L291" t="s">
-        <v>599</v>
+        <v>4</v>
+      </c>
+      <c r="L291" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L292" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L293" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L294" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{D9B23830-63CA-4454-A4C9-6B089E7F6DB4}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{8F0B5A82-A170-4097-8E04-55C2E60A98EE}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{5ABCB0D5-C942-4D0A-AFAA-934551539B05}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{875FBE01-0552-4B99-870F-F847BDFDF956}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{453929C5-BF21-450E-8E98-D7E2A22EC536}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{B4ADE16C-20D7-4BF7-8DBF-34851FA30446}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{ED741004-7F6E-4C7D-A0B5-19998B8289E8}"/>
+    <hyperlink ref="L9" r:id="rId8" xr:uid="{742D2A32-91B3-4939-9FBC-1930A315F8FF}"/>
+    <hyperlink ref="L10" r:id="rId9" xr:uid="{ACAD1D05-FE9E-48DB-A4D0-3806A01A9B3E}"/>
+    <hyperlink ref="L11" r:id="rId10" xr:uid="{BB2D937B-63AD-44A7-B649-152EF3C3E1EF}"/>
+    <hyperlink ref="L12" r:id="rId11" xr:uid="{E15A62EC-265B-481E-BBB5-2B06C47BC04C}"/>
+    <hyperlink ref="L13" r:id="rId12" xr:uid="{F851BEF7-D38A-4AE7-A951-1EC16FC0EB2E}"/>
+    <hyperlink ref="L14" r:id="rId13" xr:uid="{EF97934C-0BA9-4DF3-90A9-FECE35EEE14E}"/>
+    <hyperlink ref="L15" r:id="rId14" xr:uid="{B6A1BED8-383E-421E-8D03-CC2C413BFCBF}"/>
+    <hyperlink ref="L16" r:id="rId15" xr:uid="{B38657CD-B5C9-41AC-9DDB-7FBBC06EDC51}"/>
+    <hyperlink ref="L17" r:id="rId16" xr:uid="{3367F5C0-F436-422F-BD49-04BC3FC3AFF7}"/>
+    <hyperlink ref="L18" r:id="rId17" xr:uid="{387D5F16-B341-4752-9AC1-FE0A45D0428B}"/>
+    <hyperlink ref="L19" r:id="rId18" xr:uid="{B2F60B90-4BBF-4CDD-9673-129D6DB7A4B1}"/>
+    <hyperlink ref="L20" r:id="rId19" xr:uid="{BE7760C2-B220-4871-8543-2976B7AD57F8}"/>
+    <hyperlink ref="L21" r:id="rId20" xr:uid="{D3556488-57D7-4F21-BABD-3FC4B639FF7B}"/>
+    <hyperlink ref="L22" r:id="rId21" xr:uid="{58B11D88-23CE-454F-960B-17E3F949ECD2}"/>
+    <hyperlink ref="L23" r:id="rId22" xr:uid="{752555F4-BB40-4098-A855-7FABF35EE407}"/>
+    <hyperlink ref="L24" r:id="rId23" xr:uid="{340ECB4F-4140-494E-BBA7-1CE3A3BA8D66}"/>
+    <hyperlink ref="L25" r:id="rId24" xr:uid="{0F19A718-80F5-44E5-B93B-324D0DF00C70}"/>
+    <hyperlink ref="L26" r:id="rId25" xr:uid="{B80175A2-309C-445A-9251-A92969275D20}"/>
+    <hyperlink ref="L27" r:id="rId26" xr:uid="{A1BA1EC1-2004-48A8-A522-7A33B16CAC78}"/>
+    <hyperlink ref="L28" r:id="rId27" xr:uid="{EF1AB91D-D839-4152-AE99-573447637280}"/>
+    <hyperlink ref="L29" r:id="rId28" xr:uid="{D4A9E3C9-D618-436B-8E58-D581AD2740E5}"/>
+    <hyperlink ref="L30" r:id="rId29" xr:uid="{D45BC06C-8ECC-42BD-AFF1-0ADE8192AE06}"/>
+    <hyperlink ref="L31" r:id="rId30" xr:uid="{0E4D8F6F-A123-4D40-909C-2E19C2A59E5F}"/>
+    <hyperlink ref="L32" r:id="rId31" xr:uid="{FC5309FA-8257-4FD7-AC5D-F91B9B6D1A56}"/>
+    <hyperlink ref="L33" r:id="rId32" xr:uid="{EA976655-72ED-4D39-959B-100A800EC202}"/>
+    <hyperlink ref="L34" r:id="rId33" xr:uid="{21DABE16-3E64-496F-BFA7-87C8E3936978}"/>
+    <hyperlink ref="L35" r:id="rId34" xr:uid="{811B273E-C1A7-46DF-B0D8-35D814CA4904}"/>
+    <hyperlink ref="L36" r:id="rId35" xr:uid="{652D082C-50F1-450F-9533-F0BE3CFCDC47}"/>
+    <hyperlink ref="L37" r:id="rId36" xr:uid="{00F329E8-A75D-4586-997D-C074B508968B}"/>
+    <hyperlink ref="L38" r:id="rId37" xr:uid="{A414212E-CC7C-4868-A2E8-53850541EBD0}"/>
+    <hyperlink ref="L39" r:id="rId38" xr:uid="{E4BFA7E1-BFA3-4EF8-9505-8234869C2A9A}"/>
+    <hyperlink ref="L40" r:id="rId39" xr:uid="{BF6EC38C-BD53-4410-94AF-24D954C735D8}"/>
+    <hyperlink ref="L41" r:id="rId40" xr:uid="{1ABC150B-E575-4DED-90E1-971B7A83C7B9}"/>
+    <hyperlink ref="L42" r:id="rId41" xr:uid="{90D711F1-6600-4E45-A1FB-9A09A0B7E126}"/>
+    <hyperlink ref="L43" r:id="rId42" xr:uid="{E005320B-B52B-492D-9CAB-65B279269932}"/>
+    <hyperlink ref="L44" r:id="rId43" xr:uid="{84647CF2-2174-497C-8A55-C7BFA6BF1005}"/>
+    <hyperlink ref="L45" r:id="rId44" xr:uid="{ED6FE5CC-749A-4393-9C39-6AAE8B70C307}"/>
+    <hyperlink ref="L46" r:id="rId45" xr:uid="{13AE8740-2952-401F-843F-42A7AB40FA0B}"/>
+    <hyperlink ref="L47" r:id="rId46" xr:uid="{79D44935-C6BA-4727-ADE4-68EE9B54C61D}"/>
+    <hyperlink ref="L48" r:id="rId47" xr:uid="{6845A04D-1771-47EA-A5D2-935495A4E3AB}"/>
+    <hyperlink ref="L49" r:id="rId48" xr:uid="{22D6465B-7C2E-4A8D-93FA-07244521EAA4}"/>
+    <hyperlink ref="L50" r:id="rId49" xr:uid="{F4683C50-5A3A-43E6-B305-9C1D56BB18C2}"/>
+    <hyperlink ref="L51" r:id="rId50" xr:uid="{24D45EBB-5047-40F0-A86D-0B9BB81EA21D}"/>
+    <hyperlink ref="L52" r:id="rId51" xr:uid="{27C53276-8446-4995-BF99-DFBBE094C503}"/>
+    <hyperlink ref="L53" r:id="rId52" xr:uid="{E808D43D-315E-4105-B310-1A2CECB4F274}"/>
+    <hyperlink ref="L54" r:id="rId53" xr:uid="{2BBC9B2F-B4F3-41F6-86B6-A9E17AF74D6B}"/>
+    <hyperlink ref="L55" r:id="rId54" xr:uid="{1F82C3CE-46D3-4889-9AD3-955D1680CB0F}"/>
+    <hyperlink ref="L56" r:id="rId55" xr:uid="{C11D9E22-C9D7-48A8-8FE8-1A0EE6954E2E}"/>
+    <hyperlink ref="L57" r:id="rId56" xr:uid="{33A75E77-E7A7-42BB-B51E-5858FBA7D1BC}"/>
+    <hyperlink ref="L58" r:id="rId57" xr:uid="{5239F681-07E9-49DF-ACE4-7160FBC8BF12}"/>
+    <hyperlink ref="L59" r:id="rId58" xr:uid="{7582E8ED-B015-4F25-AB84-4687527760AB}"/>
+    <hyperlink ref="L60" r:id="rId59" xr:uid="{9B3F47CB-FA7C-41E1-BCB2-40A011564DCE}"/>
+    <hyperlink ref="L61" r:id="rId60" xr:uid="{F6906E90-1F37-4E95-A7AD-4A24B0549809}"/>
+    <hyperlink ref="L62" r:id="rId61" xr:uid="{70C63408-533E-4943-9B27-73974BE8E7EB}"/>
+    <hyperlink ref="L63" r:id="rId62" xr:uid="{65323C88-B692-4E7C-8926-B1EA54143140}"/>
+    <hyperlink ref="L64" r:id="rId63" xr:uid="{5FB46917-EA6F-48A7-8A53-C3A45C6AB3BD}"/>
+    <hyperlink ref="L65" r:id="rId64" xr:uid="{E426518A-DA72-4E29-97E5-CBE13AE70A4F}"/>
+    <hyperlink ref="L66" r:id="rId65" xr:uid="{02557F10-9AF7-443A-8DC5-E4802E6038AF}"/>
+    <hyperlink ref="L67" r:id="rId66" xr:uid="{BAFC2B58-B868-4DC4-BFEF-5255B08E70D5}"/>
+    <hyperlink ref="L68" r:id="rId67" xr:uid="{FE4D59EE-EB34-4241-93D1-B19D9CA2F0FB}"/>
+    <hyperlink ref="L69" r:id="rId68" xr:uid="{102705EF-07F4-4BCE-9FEB-C07DEBA28165}"/>
+    <hyperlink ref="L70" r:id="rId69" xr:uid="{D9AC0693-6AE5-4B17-8F14-19F968D283F9}"/>
+    <hyperlink ref="L71" r:id="rId70" xr:uid="{6F04B5ED-B2D8-485D-821E-2BE9702C56CA}"/>
+    <hyperlink ref="L72" r:id="rId71" xr:uid="{978A7E59-4B28-4266-A0AC-288471162493}"/>
+    <hyperlink ref="L73" r:id="rId72" xr:uid="{4638B213-F42C-4223-AD0B-04E8161FB8C1}"/>
+    <hyperlink ref="L74" r:id="rId73" xr:uid="{35E98455-40C0-4AF8-B7E9-B39074F0AB0E}"/>
+    <hyperlink ref="L75" r:id="rId74" xr:uid="{BC844B36-2DDF-4E17-A2A7-29EAFDAB74FF}"/>
+    <hyperlink ref="L76" r:id="rId75" xr:uid="{A0BB91D8-F221-46F8-82DA-4B1C10B8425F}"/>
+    <hyperlink ref="L77" r:id="rId76" xr:uid="{4E161846-6A57-496D-AA15-18A4A90409D7}"/>
+    <hyperlink ref="L78" r:id="rId77" xr:uid="{92ED880B-BB65-421B-AE66-8647D1732EDA}"/>
+    <hyperlink ref="L79" r:id="rId78" xr:uid="{6102EC74-F6E7-428B-9752-1DDA51704DB3}"/>
+    <hyperlink ref="L80" r:id="rId79" xr:uid="{E69E2EA2-1AF3-4744-91DB-A901F3F74F9F}"/>
+    <hyperlink ref="L81" r:id="rId80" xr:uid="{A0D09BC6-0BDA-4B2E-94B6-6E58C039D231}"/>
+    <hyperlink ref="L82" r:id="rId81" xr:uid="{3740DF17-B8C8-4CB9-A5D2-813BF82B0B0F}"/>
+    <hyperlink ref="L83" r:id="rId82" xr:uid="{F2CC14F3-7601-453E-9256-49ED822DE6CA}"/>
+    <hyperlink ref="L84" r:id="rId83" xr:uid="{F22D6599-9497-4955-BEAC-B8C5032EB212}"/>
+    <hyperlink ref="L85" r:id="rId84" xr:uid="{6602281A-76E4-4D24-B932-6A53B738D191}"/>
+    <hyperlink ref="L86" r:id="rId85" xr:uid="{BFB47641-13C2-4515-846C-3FD1E0CD0ECC}"/>
+    <hyperlink ref="L87" r:id="rId86" xr:uid="{4E7A393C-D557-430E-ACCE-78EDCA1BF29A}"/>
+    <hyperlink ref="L88" r:id="rId87" xr:uid="{6ADDB794-AAF0-483C-A120-E51FF1245ABC}"/>
+    <hyperlink ref="L89" r:id="rId88" xr:uid="{14124D50-A671-4735-B4FE-301BC1B229E8}"/>
+    <hyperlink ref="L90" r:id="rId89" xr:uid="{48B4122C-EE5C-44C2-AD6E-9B8850C6E193}"/>
+    <hyperlink ref="L91" r:id="rId90" xr:uid="{E3944C27-CC98-46F5-82C2-13E280781565}"/>
+    <hyperlink ref="L92" r:id="rId91" xr:uid="{E277BD82-1031-4D72-AA2B-C4F5C6B2D66A}"/>
+    <hyperlink ref="L93" r:id="rId92" xr:uid="{437E526A-F338-4610-9E2D-B666FD6F5C9C}"/>
+    <hyperlink ref="L94" r:id="rId93" xr:uid="{104578F0-55D1-46DF-833B-554D34EFA27A}"/>
+    <hyperlink ref="L95" r:id="rId94" xr:uid="{B8F97873-2DEB-463B-A423-299915145A33}"/>
+    <hyperlink ref="L96" r:id="rId95" xr:uid="{70944713-ECEC-43F7-9E92-44B751B18A64}"/>
+    <hyperlink ref="L97" r:id="rId96" xr:uid="{FD25AD22-DA43-478B-B414-E5086595E308}"/>
+    <hyperlink ref="L98" r:id="rId97" xr:uid="{9A9E4ADA-2062-4372-A547-3C63200D2DE4}"/>
+    <hyperlink ref="L99" r:id="rId98" xr:uid="{0DB021B0-00A9-43DD-98A1-798EB9A6AA12}"/>
+    <hyperlink ref="L100" r:id="rId99" xr:uid="{4133F7EA-61AF-449E-9010-3875DB2D8B50}"/>
+    <hyperlink ref="L101" r:id="rId100" xr:uid="{A5F78585-1A58-437C-A75E-57227152AE88}"/>
+    <hyperlink ref="L102" r:id="rId101" xr:uid="{8ED071A4-166E-4416-861B-8BDBFE95E316}"/>
+    <hyperlink ref="L103" r:id="rId102" xr:uid="{BED277FF-D914-443D-8EA4-884BEBC29458}"/>
+    <hyperlink ref="L104" r:id="rId103" xr:uid="{DBE8AD99-35DA-4BAF-A53A-29746ED395B5}"/>
+    <hyperlink ref="L105" r:id="rId104" xr:uid="{9E12DA8C-4168-40A5-ABF7-D7F837EF5D33}"/>
+    <hyperlink ref="L106" r:id="rId105" xr:uid="{5B9DF5E3-55C4-4518-AF86-8A937648DF9D}"/>
+    <hyperlink ref="L107" r:id="rId106" xr:uid="{CB73A142-51F4-4192-B985-B4D0A04466DE}"/>
+    <hyperlink ref="L108" r:id="rId107" xr:uid="{C15A9B79-CF11-4A38-9124-93AF270A9645}"/>
+    <hyperlink ref="L109" r:id="rId108" xr:uid="{29890B9C-9786-4225-A0CB-F9DEECCD3B20}"/>
+    <hyperlink ref="L110" r:id="rId109" xr:uid="{B6ED0F15-B58D-4607-B85D-30E3F2547CC3}"/>
+    <hyperlink ref="L111" r:id="rId110" xr:uid="{249B4E1E-A076-479D-BB59-8B04C72A5564}"/>
+    <hyperlink ref="L112" r:id="rId111" xr:uid="{A0704214-1162-4058-80DE-B8FBCBFD3CE5}"/>
+    <hyperlink ref="L113" r:id="rId112" xr:uid="{89BAFA7B-176A-4153-B8A2-04823E4776FF}"/>
+    <hyperlink ref="L114" r:id="rId113" xr:uid="{CFC81F9C-02AB-404C-83C4-555E15A63467}"/>
+    <hyperlink ref="L115" r:id="rId114" xr:uid="{77ACE160-B0C7-49A2-8E15-463BFDFC85F5}"/>
+    <hyperlink ref="L116" r:id="rId115" xr:uid="{A05F1D16-23BC-476B-9836-2182D62A299B}"/>
+    <hyperlink ref="L117" r:id="rId116" xr:uid="{71C44BF7-763F-47D7-9C0D-292D571E97AF}"/>
+    <hyperlink ref="L118" r:id="rId117" xr:uid="{EDE74F11-155C-4C04-BC7A-3B6A15BC51D5}"/>
+    <hyperlink ref="L119" r:id="rId118" xr:uid="{4FD3C01A-A936-4ACD-916F-8E7BB0224F59}"/>
+    <hyperlink ref="L120" r:id="rId119" xr:uid="{6A7F713F-1E23-4C54-823C-D18F4986A75C}"/>
+    <hyperlink ref="L121" r:id="rId120" xr:uid="{4E904FC6-F3AD-4881-AC69-9B497416D16C}"/>
+    <hyperlink ref="L122" r:id="rId121" xr:uid="{B5609FD1-0AC1-4657-ABEB-D50AB11B645F}"/>
+    <hyperlink ref="L123" r:id="rId122" xr:uid="{D7C8F6A3-9C25-46EE-929C-964EE1E51A6E}"/>
+    <hyperlink ref="L124" r:id="rId123" xr:uid="{362A2A37-B63D-4CBE-BA8A-9B03E4342978}"/>
+    <hyperlink ref="L125" r:id="rId124" xr:uid="{F53368D0-C469-4B88-89F9-1229A4785714}"/>
+    <hyperlink ref="L126" r:id="rId125" xr:uid="{BE72199E-E850-44D7-8FD9-47B53DC38539}"/>
+    <hyperlink ref="L127" r:id="rId126" xr:uid="{D9A5AFBE-2A4C-40DA-B87E-BEE7C55DEFD0}"/>
+    <hyperlink ref="L128" r:id="rId127" xr:uid="{8BA3F52A-9C76-4B1A-8392-C67F8D22756E}"/>
+    <hyperlink ref="L129" r:id="rId128" xr:uid="{92F8E586-2CCB-4800-9E6A-7E75F78A228A}"/>
+    <hyperlink ref="L130" r:id="rId129" xr:uid="{98FA77AF-9091-43DD-9AE0-ADE8E7725D8F}"/>
+    <hyperlink ref="L131" r:id="rId130" xr:uid="{8F52F402-AA6E-436C-B6FE-654960BF7D3B}"/>
+    <hyperlink ref="L132" r:id="rId131" xr:uid="{601CBA55-4979-405A-AEA8-0FF0B3942AC6}"/>
+    <hyperlink ref="L133" r:id="rId132" xr:uid="{4038D7BA-0A4C-4F76-B284-CE17F5967087}"/>
+    <hyperlink ref="L134" r:id="rId133" xr:uid="{614F8C2B-8104-4606-B7E2-57D65B924B49}"/>
+    <hyperlink ref="L135" r:id="rId134" xr:uid="{2C9FEA32-C30B-4D0E-A2B6-4FAB809C1E1A}"/>
+    <hyperlink ref="L136" r:id="rId135" xr:uid="{4DB5043B-28E3-428A-8A55-75B4107F68CF}"/>
+    <hyperlink ref="L137" r:id="rId136" xr:uid="{DB731C0F-7DB7-4764-9D7D-14EAA8DAD8F4}"/>
+    <hyperlink ref="L138" r:id="rId137" xr:uid="{38F7B123-81F8-403D-BA15-16E0DE54C391}"/>
+    <hyperlink ref="L139" r:id="rId138" xr:uid="{C0221353-D93E-4FBB-943E-7143ED5A106C}"/>
+    <hyperlink ref="L140" r:id="rId139" xr:uid="{6FCCD756-824E-43EF-BFD1-661888A05DD8}"/>
+    <hyperlink ref="L141" r:id="rId140" xr:uid="{C1D6F64C-D31E-4F8C-8ACD-E417DC78E37D}"/>
+    <hyperlink ref="L142" r:id="rId141" xr:uid="{13AF50A3-1125-4341-B5C1-13C8FBC5A1A1}"/>
+    <hyperlink ref="L143" r:id="rId142" xr:uid="{52ADEC63-EB64-40F7-938A-89F66EF6EACD}"/>
+    <hyperlink ref="L144" r:id="rId143" xr:uid="{04A1D38E-C60A-44BB-A1CD-DEB88962C474}"/>
+    <hyperlink ref="L145" r:id="rId144" xr:uid="{CA135228-1788-416D-9E2A-3315AF71D8B6}"/>
+    <hyperlink ref="L146" r:id="rId145" xr:uid="{48A7ECFD-D9C2-4D71-9CC4-14F0E4115CBA}"/>
+    <hyperlink ref="L147" r:id="rId146" xr:uid="{E4C47370-B2D5-4E29-9915-BE81F1C34C9D}"/>
+    <hyperlink ref="L148" r:id="rId147" xr:uid="{C7FB0FB4-5C4A-4673-AD8B-947E9D3260B2}"/>
+    <hyperlink ref="L149" r:id="rId148" xr:uid="{D86BCA3D-DA8B-4657-A54C-F2B0A73121C4}"/>
+    <hyperlink ref="L150" r:id="rId149" xr:uid="{ACA559F6-A0A9-4F76-8FE2-3C7BC63E7B5D}"/>
+    <hyperlink ref="L151" r:id="rId150" xr:uid="{380D79D9-D540-4A32-98F7-9A2B582F3A00}"/>
+    <hyperlink ref="L152" r:id="rId151" xr:uid="{251EDC00-7C1E-4DEC-827F-A80682248315}"/>
+    <hyperlink ref="L153" r:id="rId152" xr:uid="{E74428E5-0365-468A-8CF5-B12347579150}"/>
+    <hyperlink ref="L154" r:id="rId153" xr:uid="{5A4329F0-6CA4-4057-8F1E-0EC0EA6F3032}"/>
+    <hyperlink ref="L155" r:id="rId154" xr:uid="{0F96C611-9C94-440C-ADA6-A18449A9FCB7}"/>
+    <hyperlink ref="L156" r:id="rId155" xr:uid="{C20C8185-0CE9-42DA-9E44-9A2B50EF1F55}"/>
+    <hyperlink ref="L157" r:id="rId156" xr:uid="{E8E04507-CE41-4DC4-A98E-1BD25ADB3BEC}"/>
+    <hyperlink ref="L158" r:id="rId157" xr:uid="{FEC2DBAA-E16D-418C-8DBF-D20BD50601A5}"/>
+    <hyperlink ref="L159" r:id="rId158" xr:uid="{46FF75FB-8ACB-4250-8CD7-982E55EC35FE}"/>
+    <hyperlink ref="L160" r:id="rId159" xr:uid="{3178C9D9-FEB5-4FDC-A1BD-8DDC6A60AE77}"/>
+    <hyperlink ref="L161" r:id="rId160" xr:uid="{361C0477-B04F-498B-92B9-A6BC8236D9BF}"/>
+    <hyperlink ref="L162" r:id="rId161" xr:uid="{E466B05A-C240-4DCA-9FB5-9FAA6AB7300F}"/>
+    <hyperlink ref="L163" r:id="rId162" xr:uid="{678030D9-7A80-4927-A6C2-E1F0B053041A}"/>
+    <hyperlink ref="L164" r:id="rId163" xr:uid="{F9BCE2D5-D7E2-486E-A5CC-C5584EDA67DB}"/>
+    <hyperlink ref="L165" r:id="rId164" xr:uid="{C3A2ED90-88B3-4633-B12D-92FD9C447C15}"/>
+    <hyperlink ref="L166" r:id="rId165" xr:uid="{0CE16FCD-4E99-4E98-92E1-C309C79BDE6C}"/>
+    <hyperlink ref="L167" r:id="rId166" xr:uid="{0A4777C6-1409-4082-9CA9-D411C7851A49}"/>
+    <hyperlink ref="L168" r:id="rId167" xr:uid="{445998B2-A8D1-4CF7-A865-F47E89E70822}"/>
+    <hyperlink ref="L169" r:id="rId168" xr:uid="{C85609A2-91E8-40C5-B365-EFD207DD1B6B}"/>
+    <hyperlink ref="L170" r:id="rId169" xr:uid="{40F0BFBE-7855-4341-968B-89CBBDC391F0}"/>
+    <hyperlink ref="L171" r:id="rId170" xr:uid="{ECC4C18B-1AEF-487C-BFF0-6E019EB86933}"/>
+    <hyperlink ref="L172" r:id="rId171" xr:uid="{3C18C174-5BE1-4E03-8072-DC829FD64D57}"/>
+    <hyperlink ref="L173" r:id="rId172" xr:uid="{128E8663-D22A-49B5-A7C6-9A2807B5CAF4}"/>
+    <hyperlink ref="L174" r:id="rId173" xr:uid="{BB6B47EA-E971-4635-85D5-AAB531D47D8F}"/>
+    <hyperlink ref="L175" r:id="rId174" xr:uid="{0A929821-8020-4FC4-B9AE-CEA5C5AC4D61}"/>
+    <hyperlink ref="L176" r:id="rId175" xr:uid="{0B0930C7-ED4B-4B47-90F0-28586CC68703}"/>
+    <hyperlink ref="L177" r:id="rId176" xr:uid="{3D81544E-3743-415C-9FA1-78A3BDD25D9D}"/>
+    <hyperlink ref="L178" r:id="rId177" xr:uid="{03226DC2-572C-4477-98E1-3404422F54BF}"/>
+    <hyperlink ref="L179" r:id="rId178" xr:uid="{5BDC18EC-FA3B-4806-803F-6415DDB7A7FE}"/>
+    <hyperlink ref="L180" r:id="rId179" xr:uid="{FD9C5C0E-F1C8-4B37-B8F1-1BB7EE882B94}"/>
+    <hyperlink ref="L181" r:id="rId180" xr:uid="{934034F3-5091-4AE3-8139-CA29C775D980}"/>
+    <hyperlink ref="L182" r:id="rId181" xr:uid="{820F94A5-4317-4535-8501-BF8EF0E68700}"/>
+    <hyperlink ref="L183" r:id="rId182" xr:uid="{9073F1B8-19F4-40DF-ADA5-1BFBF1A1AF6C}"/>
+    <hyperlink ref="L184" r:id="rId183" xr:uid="{DB261F81-EF87-4F97-B37D-04231E72B98A}"/>
+    <hyperlink ref="L185" r:id="rId184" xr:uid="{6109D0A5-62BB-48D3-ADB3-9D0789282337}"/>
+    <hyperlink ref="L186" r:id="rId185" xr:uid="{1312C058-2E9E-49DD-B5B6-C43B6F0ECE06}"/>
+    <hyperlink ref="L187" r:id="rId186" xr:uid="{304DF05D-82EB-410D-A258-272A579BE4B9}"/>
+    <hyperlink ref="L188" r:id="rId187" xr:uid="{13622566-E97E-4002-A1E5-9C2653DCE6FE}"/>
+    <hyperlink ref="L189" r:id="rId188" xr:uid="{5CB35FC8-4BFA-4F57-83D2-63F84239CA7A}"/>
+    <hyperlink ref="L190" r:id="rId189" xr:uid="{20DE469A-6741-48FC-8FBF-AF88C9A870B7}"/>
+    <hyperlink ref="L191" r:id="rId190" xr:uid="{549317BA-70D6-432B-88BC-E42AE5AEF245}"/>
+    <hyperlink ref="L192" r:id="rId191" xr:uid="{5838D1E8-62A3-4A2C-A73A-0122FEE2EBAC}"/>
+    <hyperlink ref="L193" r:id="rId192" xr:uid="{6F818F04-FF47-4582-B43B-C9505EC01DC1}"/>
+    <hyperlink ref="L194" r:id="rId193" xr:uid="{EA149B7C-ABF8-4651-AFF0-54C3DFD30BB0}"/>
+    <hyperlink ref="L195" r:id="rId194" xr:uid="{8D0BEB61-C19A-4956-BA4D-4F6A1ADDADBC}"/>
+    <hyperlink ref="L196" r:id="rId195" xr:uid="{5DB668DA-CBA1-404E-B85F-52D3CEEB4E30}"/>
+    <hyperlink ref="L197" r:id="rId196" xr:uid="{773AA721-996B-468D-BCC5-EB3EB968700A}"/>
+    <hyperlink ref="L198" r:id="rId197" xr:uid="{3CF3A855-5A52-4174-A75D-0DCA25F32646}"/>
+    <hyperlink ref="L199" r:id="rId198" xr:uid="{E140F18A-8A3F-4464-9603-1E34D7B4F283}"/>
+    <hyperlink ref="L200" r:id="rId199" xr:uid="{979D2CF9-C5FC-469C-B6B2-F86BB29DD22E}"/>
+    <hyperlink ref="L201" r:id="rId200" xr:uid="{B373C666-0130-4761-815A-2F40218B73D9}"/>
+    <hyperlink ref="L202" r:id="rId201" xr:uid="{E40E7CF0-B294-4EB1-A8C4-6B9A8C3A212F}"/>
+    <hyperlink ref="L203" r:id="rId202" xr:uid="{50CA396C-A579-4AF8-8278-582C2DFC161C}"/>
+    <hyperlink ref="L204" r:id="rId203" xr:uid="{500E940C-E1DF-498B-A122-A9CB2CA3E12E}"/>
+    <hyperlink ref="L205" r:id="rId204" xr:uid="{AAAB352C-7D8C-4BA0-BC5E-7292A9877889}"/>
+    <hyperlink ref="L206" r:id="rId205" xr:uid="{A4BE3110-B45B-4108-AA02-9F058FDB4E4C}"/>
+    <hyperlink ref="L207" r:id="rId206" xr:uid="{B6837831-3451-4C42-845E-0183951E47B1}"/>
+    <hyperlink ref="L208" r:id="rId207" xr:uid="{68111FF8-591B-48C9-BB24-9E3B4C82E45B}"/>
+    <hyperlink ref="L209" r:id="rId208" xr:uid="{6DFF2739-C285-478A-AC3D-E389143A9443}"/>
+    <hyperlink ref="L210" r:id="rId209" xr:uid="{62C8F77C-979A-4C60-B7D0-61C9B2D6E987}"/>
+    <hyperlink ref="L211" r:id="rId210" xr:uid="{1BC98588-640A-43CE-899C-7F70360D13C3}"/>
+    <hyperlink ref="L212" r:id="rId211" xr:uid="{C97E9114-612C-4DD0-A612-86FB1618BCB7}"/>
+    <hyperlink ref="L213" r:id="rId212" xr:uid="{449F102A-2741-45B3-9F0B-D737CB1A7225}"/>
+    <hyperlink ref="L214" r:id="rId213" xr:uid="{9B34E7DC-F439-4614-BFA7-F159DD8E6BCB}"/>
+    <hyperlink ref="L215" r:id="rId214" xr:uid="{591B63A5-AAAC-4813-8636-EF488AFD6635}"/>
+    <hyperlink ref="L216" r:id="rId215" xr:uid="{7C038523-0018-4642-8967-6E73ED964E1D}"/>
+    <hyperlink ref="L217" r:id="rId216" xr:uid="{FBED0242-CE17-4BF0-BEE2-DB7122862CC3}"/>
+    <hyperlink ref="L218" r:id="rId217" xr:uid="{49160F2B-3B95-4F57-8889-C6514319E5AC}"/>
+    <hyperlink ref="L219" r:id="rId218" xr:uid="{8FEF4001-06D4-4250-A058-664C24458518}"/>
+    <hyperlink ref="L220" r:id="rId219" xr:uid="{4AABF942-E1FF-4969-A7D5-6BF46DFE6259}"/>
+    <hyperlink ref="L221" r:id="rId220" xr:uid="{A83B90C1-6E6B-4B20-B527-08541CC72B26}"/>
+    <hyperlink ref="L222" r:id="rId221" xr:uid="{89454053-E5AB-426F-B477-CBE0CAF10661}"/>
+    <hyperlink ref="L223" r:id="rId222" xr:uid="{5D156FBE-5916-446D-AB53-4F70A83E30A2}"/>
+    <hyperlink ref="L224" r:id="rId223" xr:uid="{80FF60D4-3891-4468-83EE-858CE382E4D9}"/>
+    <hyperlink ref="L225" r:id="rId224" xr:uid="{0D37A04E-6459-4CEF-9EBE-312C428FD4A2}"/>
+    <hyperlink ref="L226" r:id="rId225" xr:uid="{227E0093-7525-4085-B4E8-9D425039F3BD}"/>
+    <hyperlink ref="L227" r:id="rId226" xr:uid="{AB49F61D-B76F-4547-B39E-2B7D2E8B7744}"/>
+    <hyperlink ref="L228" r:id="rId227" xr:uid="{81CE0D8E-C813-4855-B447-0766B8BAC967}"/>
+    <hyperlink ref="L229" r:id="rId228" xr:uid="{55D2D4B0-A163-4E14-A8FB-57B44558E2FA}"/>
+    <hyperlink ref="L230" r:id="rId229" xr:uid="{AEC9D5F7-DF9F-40FE-BDB5-81168A66FC40}"/>
+    <hyperlink ref="L231" r:id="rId230" xr:uid="{514F7CDD-58DA-40A4-B6A2-45D824D82DAB}"/>
+    <hyperlink ref="L232" r:id="rId231" xr:uid="{96883600-12B7-410A-A858-E511E5601E12}"/>
+    <hyperlink ref="L233" r:id="rId232" xr:uid="{6780EF96-6C03-41E2-86D6-EDF80DF1747F}"/>
+    <hyperlink ref="L234" r:id="rId233" xr:uid="{136D8DDB-3253-4BB2-A0F1-359D002A3F5B}"/>
+    <hyperlink ref="L235" r:id="rId234" xr:uid="{CFBF6570-774F-4B84-A0C0-E3C19ACAF85F}"/>
+    <hyperlink ref="L236" r:id="rId235" xr:uid="{AA6948C7-EFF7-433A-AC25-06A09C1FD23C}"/>
+    <hyperlink ref="L237" r:id="rId236" xr:uid="{CFCDEB53-9E22-4364-BC17-0CF4B82952AE}"/>
+    <hyperlink ref="L238" r:id="rId237" xr:uid="{A31CD004-D383-445B-AD8C-E7BEA52DC7B2}"/>
+    <hyperlink ref="L239" r:id="rId238" xr:uid="{3A210C93-F503-4F93-AAD5-89894A1D0F74}"/>
+    <hyperlink ref="L240" r:id="rId239" xr:uid="{DF08EA10-357B-4911-ADBA-33DCFE0527BD}"/>
+    <hyperlink ref="L241" r:id="rId240" xr:uid="{93512B99-0455-424B-9D66-CFB6E700680A}"/>
+    <hyperlink ref="L242" r:id="rId241" xr:uid="{69C5395A-D657-40E8-8911-4E7A3ECCF084}"/>
+    <hyperlink ref="L243" r:id="rId242" xr:uid="{974D1A58-50F4-49F0-A236-477FC0A37ACA}"/>
+    <hyperlink ref="L244" r:id="rId243" xr:uid="{CDF29005-1923-47DA-B696-2107777B560A}"/>
+    <hyperlink ref="L245" r:id="rId244" xr:uid="{A32C8037-BAF7-4C27-9D46-297728C91DE4}"/>
+    <hyperlink ref="L246" r:id="rId245" xr:uid="{15E21B0A-4783-41A2-88E4-3429269CE803}"/>
+    <hyperlink ref="L247" r:id="rId246" xr:uid="{CD1A2E48-36AF-4760-A691-595E5E28C2FF}"/>
+    <hyperlink ref="L248" r:id="rId247" xr:uid="{7806EAF1-77D1-4640-B600-25A35C36CEDB}"/>
+    <hyperlink ref="L249" r:id="rId248" xr:uid="{E5C96FD7-A245-4075-8397-ECBD813D16BC}"/>
+    <hyperlink ref="L250" r:id="rId249" xr:uid="{F9A212A0-BDB9-428E-8A03-FA25BDDC8806}"/>
+    <hyperlink ref="L251" r:id="rId250" xr:uid="{408D0874-DAD4-4B9D-A891-B75D0B6C020F}"/>
+    <hyperlink ref="L252" r:id="rId251" xr:uid="{1CA604CB-5229-4A42-8319-2147A5F4E84F}"/>
+    <hyperlink ref="L253" r:id="rId252" xr:uid="{95FA96D8-32A7-49F6-946D-B65A621E9185}"/>
+    <hyperlink ref="L254" r:id="rId253" xr:uid="{61ECF08F-0475-4BF2-9346-47E1DD49FF5F}"/>
+    <hyperlink ref="L255" r:id="rId254" xr:uid="{956D9FDA-6D56-4ACC-B98B-D081B08732D4}"/>
+    <hyperlink ref="L256" r:id="rId255" xr:uid="{1E39D898-E2A7-4599-BEA5-7D7B3F035F78}"/>
+    <hyperlink ref="L257" r:id="rId256" xr:uid="{50F4842D-8901-4534-99B7-9F72EDC6ADB5}"/>
+    <hyperlink ref="L258" r:id="rId257" xr:uid="{39611D4A-F9E1-4675-B1B3-CFE45706D329}"/>
+    <hyperlink ref="L259" r:id="rId258" xr:uid="{A1D8E244-161C-4326-B50C-28B9412601A9}"/>
+    <hyperlink ref="L260" r:id="rId259" xr:uid="{C04CDC42-708C-449A-B4DB-A80E4E13249A}"/>
+    <hyperlink ref="L261" r:id="rId260" xr:uid="{33A4598B-D013-4930-9818-AB31823A1F90}"/>
+    <hyperlink ref="L262" r:id="rId261" xr:uid="{B3524E22-1710-4FDF-9F84-6F1D85C2D2E1}"/>
+    <hyperlink ref="L263" r:id="rId262" xr:uid="{F1BA365C-F2B0-4FCF-8409-C48780F13C8B}"/>
+    <hyperlink ref="L264" r:id="rId263" xr:uid="{5887CAD5-17DF-4345-B969-1B60DAEDE3E6}"/>
+    <hyperlink ref="L265" r:id="rId264" xr:uid="{CB9C8D3D-2D2C-4BB1-AD50-69ADBF2D0F22}"/>
+    <hyperlink ref="L266" r:id="rId265" xr:uid="{326B3784-D42E-4C8C-8106-BEC6DF4D71F6}"/>
+    <hyperlink ref="L267" r:id="rId266" xr:uid="{11ECBAB5-536D-4E58-B286-C375A5E03C40}"/>
+    <hyperlink ref="L268" r:id="rId267" xr:uid="{5106A027-5F2C-452E-84D8-F169C6644A15}"/>
+    <hyperlink ref="L269" r:id="rId268" xr:uid="{FF957DA7-2D66-4CE0-A09C-547EA4ECE3B3}"/>
+    <hyperlink ref="L270" r:id="rId269" xr:uid="{976DED34-E730-4244-9BEE-A5509950ABDF}"/>
+    <hyperlink ref="L271" r:id="rId270" xr:uid="{4E96A8DB-7ED2-4024-9B49-E0D0F47B5E00}"/>
+    <hyperlink ref="L272" r:id="rId271" xr:uid="{19F144E0-6E3A-4FA2-A8E7-2F9450FA1A51}"/>
+    <hyperlink ref="L273" r:id="rId272" xr:uid="{7FBAB48E-43CD-45B5-A70F-DD95B77078E7}"/>
+    <hyperlink ref="L274" r:id="rId273" xr:uid="{A2E8C308-08E5-4A2E-8774-1EC741D8CAC3}"/>
+    <hyperlink ref="L275" r:id="rId274" xr:uid="{22F2ADA4-AC55-4BBF-9102-746FD62ACA1F}"/>
+    <hyperlink ref="L276" r:id="rId275" xr:uid="{43BDCE8A-D005-4783-98FB-5CDEAD66C4BE}"/>
+    <hyperlink ref="L277" r:id="rId276" xr:uid="{E17361AA-EF65-49CB-8BC7-93CED11BEC17}"/>
+    <hyperlink ref="L278" r:id="rId277" xr:uid="{1E88AE44-6960-4623-9F65-6ECCA73EE49F}"/>
+    <hyperlink ref="L279" r:id="rId278" xr:uid="{83EC36EF-DED5-4B10-AF5F-30D6DEE2396C}"/>
+    <hyperlink ref="L280" r:id="rId279" xr:uid="{0F3BF3BF-8DD4-4910-96DB-81E9D1E70C97}"/>
+    <hyperlink ref="L281" r:id="rId280" xr:uid="{BE974F28-3D57-4647-ACE8-19BA6A42DFF3}"/>
+    <hyperlink ref="L282" r:id="rId281" xr:uid="{B3770E11-ACC5-4154-9A45-8F02DD063EA6}"/>
+    <hyperlink ref="L283" r:id="rId282" xr:uid="{17BD2392-D16B-44BC-94C6-07F1157DC911}"/>
+    <hyperlink ref="L284" r:id="rId283" xr:uid="{24D1DEE2-CE4D-4C77-AE9A-43A77443F781}"/>
+    <hyperlink ref="L285" r:id="rId284" xr:uid="{B742A456-7C6C-4D33-9735-663A10A00694}"/>
+    <hyperlink ref="L286" r:id="rId285" xr:uid="{B34A5248-1D14-4DB8-9D6A-2977BF56EA23}"/>
+    <hyperlink ref="L287" r:id="rId286" xr:uid="{7D69053E-E6D5-4D9A-A8AA-556205B19D9B}"/>
+    <hyperlink ref="L288" r:id="rId287" xr:uid="{595A2851-FA15-420E-9187-E03763C88F7C}"/>
+    <hyperlink ref="L289" r:id="rId288" xr:uid="{F52D289D-C695-4D38-A6B2-A06A869DC995}"/>
+    <hyperlink ref="L290" r:id="rId289" xr:uid="{BB2511D7-F7A1-49B8-931D-3713F5C05605}"/>
+    <hyperlink ref="L291" r:id="rId290" xr:uid="{2DF8C128-451B-4E88-ADD4-75CD47DC2C00}"/>
+    <hyperlink ref="L292" r:id="rId291" xr:uid="{C1D40992-1361-407B-8F41-DD3CF3523394}"/>
+    <hyperlink ref="L293" r:id="rId292" xr:uid="{66085101-0465-4F44-BF7E-05DE9771421D}"/>
+    <hyperlink ref="L294" r:id="rId293" xr:uid="{1A58E308-D62B-44E7-A86E-BE2AC51B33D3}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId294"/>
 </worksheet>
 </file>
--- a/finalPJT/Server/theme/type.xlsx
+++ b/finalPJT/Server/theme/type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KB_IT_Academy_4Team\finalPJT\Server\theme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56220AA-8073-45EF-A17D-58F8DC899405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8942A7-C334-43FE-B03F-66E0FC93D0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="559">
   <si>
     <t>클래식</t>
   </si>
@@ -1723,15 +1723,6 @@
   </si>
   <si>
     <t>https://images.stayfolio.com/system/pictures/images/000/074/018/original/a31a7da3f7c601984c30820f598bf1541affd7ae.jpg?1622351350</t>
-  </si>
-  <si>
-    <t>https://images.stayfolio.com/system/pictures/images/000/048/404/original/818d5937c5f6a4ea52bedd066f2ada3341ce4421.jpg?1591594549</t>
-  </si>
-  <si>
-    <t>https://images.stayfolio.com/system/pictures/images/000/090/091/original/4f97a9c356986721c21977c0704e4c6b8856e7a6.jpg?1630047469</t>
-  </si>
-  <si>
-    <t>https://images.stayfolio.com/system/pictures/images/000/127/752/original/1b42050451141d8886995c823e0db1d191b34406.jpg?1656385551</t>
   </si>
 </sst>
 </file>
@@ -2140,16 +2131,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N294"/>
+  <dimension ref="A1:N291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L294"/>
+    <sheetView tabSelected="1" topLeftCell="H265" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="22.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
@@ -2225,9 +2217,9 @@
       <c r="J2" t="s">
         <v>302</v>
       </c>
-      <c r="K2">
-        <f ca="1">RANDBETWEEN(0,8)</f>
-        <v>8</v>
+      <c r="K2" t="str">
+        <f ca="1">TEXT(RANDBETWEEN(0,8), "000주소")</f>
+        <v>006주소</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>310</v>
@@ -2264,9 +2256,9 @@
       <c r="J3" t="s">
         <v>300</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K66" ca="1" si="0">RANDBETWEEN(0,8)</f>
-        <v>3</v>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" ca="1" si="0">TEXT(RANDBETWEEN(0,8), "000주소")</f>
+        <v>005주소</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>311</v>
@@ -2303,9 +2295,9 @@
       <c r="J4" t="s">
         <v>293</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>005주소</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>312</v>
@@ -2342,9 +2334,9 @@
       <c r="J5" t="s">
         <v>291</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>008주소</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>313</v>
@@ -2381,9 +2373,9 @@
       <c r="J6" t="s">
         <v>293</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>003주소</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>314</v>
@@ -2420,9 +2412,9 @@
       <c r="J7" t="s">
         <v>302</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>006주소</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>315</v>
@@ -2459,9 +2451,9 @@
       <c r="J8" t="s">
         <v>291</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>005주소</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>316</v>
@@ -2498,9 +2490,9 @@
       <c r="J9" t="s">
         <v>291</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>004주소</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>317</v>
@@ -2537,9 +2529,9 @@
       <c r="J10" t="s">
         <v>298</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>005주소</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>318</v>
@@ -2576,9 +2568,9 @@
       <c r="J11" t="s">
         <v>302</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>005주소</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>319</v>
@@ -2615,9 +2607,9 @@
       <c r="J12" t="s">
         <v>291</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>007주소</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>320</v>
@@ -2654,9 +2646,9 @@
       <c r="J13" t="s">
         <v>300</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>000주소</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>321</v>
@@ -2693,9 +2685,9 @@
       <c r="J14" t="s">
         <v>293</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>001주소</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>322</v>
@@ -2732,9 +2724,9 @@
       <c r="J15" t="s">
         <v>291</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>002주소</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>323</v>
@@ -2771,9 +2763,9 @@
       <c r="J16" t="s">
         <v>300</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>001주소</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>324</v>
@@ -2810,9 +2802,9 @@
       <c r="J17" t="s">
         <v>291</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>002주소</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>325</v>
@@ -2849,9 +2841,9 @@
       <c r="J18" t="s">
         <v>302</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>005주소</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>326</v>
@@ -2888,9 +2880,9 @@
       <c r="J19" t="s">
         <v>293</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>007주소</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>327</v>
@@ -2927,9 +2919,9 @@
       <c r="J20" t="s">
         <v>302</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>000주소</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>328</v>
@@ -2966,9 +2958,9 @@
       <c r="J21" t="s">
         <v>293</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>004주소</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>329</v>
@@ -3005,9 +2997,9 @@
       <c r="J22" t="s">
         <v>293</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>002주소</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>330</v>
@@ -3044,9 +3036,9 @@
       <c r="J23" t="s">
         <v>300</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>008주소</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>331</v>
@@ -3083,9 +3075,9 @@
       <c r="J24" t="s">
         <v>300</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>008주소</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>332</v>
@@ -3122,9 +3114,9 @@
       <c r="J25" t="s">
         <v>293</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>007주소</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>333</v>
@@ -3161,9 +3153,9 @@
       <c r="J26" t="s">
         <v>291</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>004주소</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>334</v>
@@ -3200,9 +3192,9 @@
       <c r="J27" t="s">
         <v>291</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>005주소</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>335</v>
@@ -3239,9 +3231,9 @@
       <c r="J28" t="s">
         <v>295</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>004주소</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>336</v>
@@ -3278,9 +3270,9 @@
       <c r="J29" t="s">
         <v>291</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>006주소</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>337</v>
@@ -3317,9 +3309,9 @@
       <c r="J30" t="s">
         <v>300</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>003주소</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>338</v>
@@ -3356,9 +3348,9 @@
       <c r="J31" t="s">
         <v>302</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>003주소</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>339</v>
@@ -3395,9 +3387,9 @@
       <c r="J32" t="s">
         <v>291</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>000주소</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>340</v>
@@ -3434,9 +3426,9 @@
       <c r="J33" t="s">
         <v>293</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>006주소</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>341</v>
@@ -3473,9 +3465,9 @@
       <c r="J34" t="s">
         <v>293</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>003주소</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>342</v>
@@ -3512,9 +3504,9 @@
       <c r="J35" t="s">
         <v>293</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>003주소</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>343</v>
@@ -3551,9 +3543,9 @@
       <c r="J36" t="s">
         <v>293</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>005주소</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>344</v>
@@ -3590,9 +3582,9 @@
       <c r="J37" t="s">
         <v>293</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>001주소</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>345</v>
@@ -3629,9 +3621,9 @@
       <c r="J38" t="s">
         <v>293</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>008주소</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>346</v>
@@ -3668,9 +3660,9 @@
       <c r="J39" t="s">
         <v>293</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>000주소</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>347</v>
@@ -3707,9 +3699,9 @@
       <c r="J40" t="s">
         <v>293</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>004주소</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>348</v>
@@ -3746,9 +3738,9 @@
       <c r="J41" t="s">
         <v>291</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>004주소</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>349</v>
@@ -3785,9 +3777,9 @@
       <c r="J42" t="s">
         <v>291</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>003주소</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>350</v>
@@ -3824,9 +3816,9 @@
       <c r="J43" t="s">
         <v>291</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>001주소</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>351</v>
@@ -3863,9 +3855,9 @@
       <c r="J44" t="s">
         <v>293</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>006주소</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>352</v>
@@ -3902,9 +3894,9 @@
       <c r="J45" t="s">
         <v>293</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>004주소</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>353</v>
@@ -3941,9 +3933,9 @@
       <c r="J46" t="s">
         <v>293</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>006주소</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>354</v>
@@ -3980,9 +3972,9 @@
       <c r="J47" t="s">
         <v>295</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>000주소</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>355</v>
@@ -4019,9 +4011,9 @@
       <c r="J48" t="s">
         <v>293</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>000주소</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>356</v>
@@ -4058,9 +4050,9 @@
       <c r="J49" t="s">
         <v>293</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>003주소</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>357</v>
@@ -4097,9 +4089,9 @@
       <c r="J50" t="s">
         <v>0</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>003주소</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>358</v>
@@ -4136,9 +4128,9 @@
       <c r="J51" t="s">
         <v>291</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>000주소</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>359</v>
@@ -4175,9 +4167,9 @@
       <c r="J52" t="s">
         <v>293</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>003주소</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>360</v>
@@ -4214,9 +4206,9 @@
       <c r="J53" t="s">
         <v>293</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>006주소</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>361</v>
@@ -4253,9 +4245,9 @@
       <c r="J54" t="s">
         <v>302</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>004주소</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>362</v>
@@ -4292,9 +4284,9 @@
       <c r="J55" t="s">
         <v>291</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>005주소</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>363</v>
@@ -4331,9 +4323,9 @@
       <c r="J56" t="s">
         <v>300</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>008주소</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>364</v>
@@ -4370,9 +4362,9 @@
       <c r="J57" t="s">
         <v>293</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>004주소</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>365</v>
@@ -4409,9 +4401,9 @@
       <c r="J58" t="s">
         <v>291</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>000주소</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>366</v>
@@ -4448,9 +4440,9 @@
       <c r="J59" t="s">
         <v>293</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>008주소</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>367</v>
@@ -4487,9 +4479,9 @@
       <c r="J60" t="s">
         <v>293</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>003주소</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>368</v>
@@ -4526,9 +4518,9 @@
       <c r="J61" t="s">
         <v>291</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>001주소</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>369</v>
@@ -4565,9 +4557,9 @@
       <c r="J62" t="s">
         <v>293</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>007주소</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>370</v>
@@ -4604,9 +4596,9 @@
       <c r="J63" t="s">
         <v>302</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>007주소</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>371</v>
@@ -4643,9 +4635,9 @@
       <c r="J64" t="s">
         <v>295</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>006주소</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>372</v>
@@ -4682,9 +4674,9 @@
       <c r="J65" t="s">
         <v>298</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>005주소</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>373</v>
@@ -4721,9 +4713,9 @@
       <c r="J66" t="s">
         <v>300</v>
       </c>
-      <c r="K66">
+      <c r="K66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>006주소</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>374</v>
@@ -4760,9 +4752,9 @@
       <c r="J67" t="s">
         <v>302</v>
       </c>
-      <c r="K67">
-        <f t="shared" ref="K67:K130" ca="1" si="1">RANDBETWEEN(0,8)</f>
-        <v>6</v>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K130" ca="1" si="1">TEXT(RANDBETWEEN(0,8), "000주소")</f>
+        <v>001주소</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>375</v>
@@ -4799,9 +4791,9 @@
       <c r="J68" t="s">
         <v>291</v>
       </c>
-      <c r="K68">
+      <c r="K68" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>000주소</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>376</v>
@@ -4838,9 +4830,9 @@
       <c r="J69" t="s">
         <v>291</v>
       </c>
-      <c r="K69">
+      <c r="K69" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>000주소</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>377</v>
@@ -4877,9 +4869,9 @@
       <c r="J70" t="s">
         <v>293</v>
       </c>
-      <c r="K70">
+      <c r="K70" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>005주소</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>378</v>
@@ -4916,9 +4908,9 @@
       <c r="J71" t="s">
         <v>293</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>004주소</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>379</v>
@@ -4955,9 +4947,9 @@
       <c r="J72" t="s">
         <v>291</v>
       </c>
-      <c r="K72">
+      <c r="K72" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>001주소</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>380</v>
@@ -4994,9 +4986,9 @@
       <c r="J73" t="s">
         <v>293</v>
       </c>
-      <c r="K73">
+      <c r="K73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>005주소</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>381</v>
@@ -5033,9 +5025,9 @@
       <c r="J74" t="s">
         <v>291</v>
       </c>
-      <c r="K74">
+      <c r="K74" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>007주소</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>382</v>
@@ -5072,9 +5064,9 @@
       <c r="J75" t="s">
         <v>291</v>
       </c>
-      <c r="K75">
+      <c r="K75" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>005주소</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>383</v>
@@ -5111,9 +5103,9 @@
       <c r="J76" t="s">
         <v>302</v>
       </c>
-      <c r="K76">
+      <c r="K76" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>000주소</v>
       </c>
       <c r="L76" s="4" t="s">
         <v>384</v>
@@ -5150,9 +5142,9 @@
       <c r="J77" t="s">
         <v>302</v>
       </c>
-      <c r="K77">
+      <c r="K77" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>006주소</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>385</v>
@@ -5189,9 +5181,9 @@
       <c r="J78" t="s">
         <v>293</v>
       </c>
-      <c r="K78">
+      <c r="K78" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>004주소</v>
       </c>
       <c r="L78" s="4" t="s">
         <v>386</v>
@@ -5228,9 +5220,9 @@
       <c r="J79" t="s">
         <v>293</v>
       </c>
-      <c r="K79">
+      <c r="K79" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>008주소</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>387</v>
@@ -5267,9 +5259,9 @@
       <c r="J80" t="s">
         <v>293</v>
       </c>
-      <c r="K80">
+      <c r="K80" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>002주소</v>
       </c>
       <c r="L80" s="4" t="s">
         <v>388</v>
@@ -5306,9 +5298,9 @@
       <c r="J81" t="s">
         <v>302</v>
       </c>
-      <c r="K81">
+      <c r="K81" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>000주소</v>
       </c>
       <c r="L81" s="4" t="s">
         <v>389</v>
@@ -5345,9 +5337,9 @@
       <c r="J82" t="s">
         <v>293</v>
       </c>
-      <c r="K82">
+      <c r="K82" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>006주소</v>
       </c>
       <c r="L82" s="4" t="s">
         <v>390</v>
@@ -5384,9 +5376,9 @@
       <c r="J83" t="s">
         <v>302</v>
       </c>
-      <c r="K83">
+      <c r="K83" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>004주소</v>
       </c>
       <c r="L83" s="4" t="s">
         <v>391</v>
@@ -5423,9 +5415,9 @@
       <c r="J84" t="s">
         <v>293</v>
       </c>
-      <c r="K84">
+      <c r="K84" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>005주소</v>
       </c>
       <c r="L84" s="4" t="s">
         <v>392</v>
@@ -5462,9 +5454,9 @@
       <c r="J85" t="s">
         <v>291</v>
       </c>
-      <c r="K85">
+      <c r="K85" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>008주소</v>
       </c>
       <c r="L85" s="4" t="s">
         <v>393</v>
@@ -5501,9 +5493,9 @@
       <c r="J86" t="s">
         <v>293</v>
       </c>
-      <c r="K86">
+      <c r="K86" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>006주소</v>
       </c>
       <c r="L86" s="4" t="s">
         <v>394</v>
@@ -5540,9 +5532,9 @@
       <c r="J87" t="s">
         <v>291</v>
       </c>
-      <c r="K87">
+      <c r="K87" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>006주소</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>395</v>
@@ -5579,9 +5571,9 @@
       <c r="J88" t="s">
         <v>293</v>
       </c>
-      <c r="K88">
+      <c r="K88" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>004주소</v>
       </c>
       <c r="L88" s="4" t="s">
         <v>396</v>
@@ -5618,9 +5610,9 @@
       <c r="J89" t="s">
         <v>302</v>
       </c>
-      <c r="K89">
+      <c r="K89" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>008주소</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>397</v>
@@ -5657,9 +5649,9 @@
       <c r="J90" t="s">
         <v>293</v>
       </c>
-      <c r="K90">
+      <c r="K90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>008주소</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>398</v>
@@ -5696,9 +5688,9 @@
       <c r="J91" t="s">
         <v>291</v>
       </c>
-      <c r="K91">
+      <c r="K91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>004주소</v>
       </c>
       <c r="L91" s="4" t="s">
         <v>399</v>
@@ -5735,9 +5727,9 @@
       <c r="J92" t="s">
         <v>291</v>
       </c>
-      <c r="K92">
+      <c r="K92" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>004주소</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>400</v>
@@ -5774,9 +5766,9 @@
       <c r="J93" t="s">
         <v>302</v>
       </c>
-      <c r="K93">
+      <c r="K93" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>005주소</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>401</v>
@@ -5813,9 +5805,9 @@
       <c r="J94" t="s">
         <v>300</v>
       </c>
-      <c r="K94">
+      <c r="K94" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>006주소</v>
       </c>
       <c r="L94" s="4" t="s">
         <v>402</v>
@@ -5852,9 +5844,9 @@
       <c r="J95" t="s">
         <v>293</v>
       </c>
-      <c r="K95">
+      <c r="K95" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>004주소</v>
       </c>
       <c r="L95" s="4" t="s">
         <v>403</v>
@@ -5891,9 +5883,9 @@
       <c r="J96" t="s">
         <v>300</v>
       </c>
-      <c r="K96">
+      <c r="K96" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>008주소</v>
       </c>
       <c r="L96" s="4" t="s">
         <v>404</v>
@@ -5930,9 +5922,9 @@
       <c r="J97" t="s">
         <v>302</v>
       </c>
-      <c r="K97">
+      <c r="K97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>007주소</v>
       </c>
       <c r="L97" s="4" t="s">
         <v>405</v>
@@ -5969,9 +5961,9 @@
       <c r="J98" t="s">
         <v>293</v>
       </c>
-      <c r="K98">
+      <c r="K98" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>004주소</v>
       </c>
       <c r="L98" s="4" t="s">
         <v>406</v>
@@ -6008,9 +6000,9 @@
       <c r="J99" t="s">
         <v>291</v>
       </c>
-      <c r="K99">
+      <c r="K99" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>004주소</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>407</v>
@@ -6047,9 +6039,9 @@
       <c r="J100" t="s">
         <v>293</v>
       </c>
-      <c r="K100">
+      <c r="K100" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>007주소</v>
       </c>
       <c r="L100" s="4" t="s">
         <v>408</v>
@@ -6086,9 +6078,9 @@
       <c r="J101" t="s">
         <v>291</v>
       </c>
-      <c r="K101">
+      <c r="K101" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>004주소</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>409</v>
@@ -6125,9 +6117,9 @@
       <c r="J102" t="s">
         <v>291</v>
       </c>
-      <c r="K102">
+      <c r="K102" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>007주소</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>410</v>
@@ -6164,9 +6156,9 @@
       <c r="J103" t="s">
         <v>302</v>
       </c>
-      <c r="K103">
+      <c r="K103" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>002주소</v>
       </c>
       <c r="L103" s="4" t="s">
         <v>411</v>
@@ -6203,9 +6195,9 @@
       <c r="J104" t="s">
         <v>291</v>
       </c>
-      <c r="K104">
+      <c r="K104" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>007주소</v>
       </c>
       <c r="L104" s="4" t="s">
         <v>412</v>
@@ -6242,9 +6234,9 @@
       <c r="J105" t="s">
         <v>302</v>
       </c>
-      <c r="K105">
+      <c r="K105" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>008주소</v>
       </c>
       <c r="L105" s="4" t="s">
         <v>413</v>
@@ -6281,9 +6273,9 @@
       <c r="J106" t="s">
         <v>291</v>
       </c>
-      <c r="K106">
+      <c r="K106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>000주소</v>
       </c>
       <c r="L106" s="4" t="s">
         <v>414</v>
@@ -6320,9 +6312,9 @@
       <c r="J107" t="s">
         <v>291</v>
       </c>
-      <c r="K107">
+      <c r="K107" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>003주소</v>
       </c>
       <c r="L107" s="4" t="s">
         <v>415</v>
@@ -6359,9 +6351,9 @@
       <c r="J108" t="s">
         <v>295</v>
       </c>
-      <c r="K108">
+      <c r="K108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>002주소</v>
       </c>
       <c r="L108" s="4" t="s">
         <v>416</v>
@@ -6398,9 +6390,9 @@
       <c r="J109" t="s">
         <v>291</v>
       </c>
-      <c r="K109">
+      <c r="K109" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>006주소</v>
       </c>
       <c r="L109" s="4" t="s">
         <v>417</v>
@@ -6437,9 +6429,9 @@
       <c r="J110" t="s">
         <v>302</v>
       </c>
-      <c r="K110">
+      <c r="K110" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>002주소</v>
       </c>
       <c r="L110" s="4" t="s">
         <v>418</v>
@@ -6476,9 +6468,9 @@
       <c r="J111" t="s">
         <v>293</v>
       </c>
-      <c r="K111">
+      <c r="K111" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>000주소</v>
       </c>
       <c r="L111" s="4" t="s">
         <v>419</v>
@@ -6515,9 +6507,9 @@
       <c r="J112" t="s">
         <v>295</v>
       </c>
-      <c r="K112">
+      <c r="K112" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>008주소</v>
       </c>
       <c r="L112" s="4" t="s">
         <v>420</v>
@@ -6554,9 +6546,9 @@
       <c r="J113" t="s">
         <v>291</v>
       </c>
-      <c r="K113">
+      <c r="K113" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>000주소</v>
       </c>
       <c r="L113" s="4" t="s">
         <v>421</v>
@@ -6593,9 +6585,9 @@
       <c r="J114" t="s">
         <v>293</v>
       </c>
-      <c r="K114">
+      <c r="K114" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>008주소</v>
       </c>
       <c r="L114" s="4" t="s">
         <v>422</v>
@@ -6632,9 +6624,9 @@
       <c r="J115" t="s">
         <v>302</v>
       </c>
-      <c r="K115">
+      <c r="K115" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>002주소</v>
       </c>
       <c r="L115" s="4" t="s">
         <v>423</v>
@@ -6671,9 +6663,9 @@
       <c r="J116" t="s">
         <v>0</v>
       </c>
-      <c r="K116">
+      <c r="K116" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>005주소</v>
       </c>
       <c r="L116" s="4" t="s">
         <v>424</v>
@@ -6710,9 +6702,9 @@
       <c r="J117" t="s">
         <v>293</v>
       </c>
-      <c r="K117">
+      <c r="K117" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>004주소</v>
       </c>
       <c r="L117" s="4" t="s">
         <v>425</v>
@@ -6749,9 +6741,9 @@
       <c r="J118" t="s">
         <v>293</v>
       </c>
-      <c r="K118">
+      <c r="K118" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>003주소</v>
       </c>
       <c r="L118" s="4" t="s">
         <v>426</v>
@@ -6788,9 +6780,9 @@
       <c r="J119" t="s">
         <v>291</v>
       </c>
-      <c r="K119">
+      <c r="K119" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>007주소</v>
       </c>
       <c r="L119" s="4" t="s">
         <v>427</v>
@@ -6827,9 +6819,9 @@
       <c r="J120" t="s">
         <v>293</v>
       </c>
-      <c r="K120">
+      <c r="K120" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>001주소</v>
       </c>
       <c r="L120" s="4" t="s">
         <v>428</v>
@@ -6866,9 +6858,9 @@
       <c r="J121" t="s">
         <v>293</v>
       </c>
-      <c r="K121">
+      <c r="K121" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>007주소</v>
       </c>
       <c r="L121" s="4" t="s">
         <v>429</v>
@@ -6905,9 +6897,9 @@
       <c r="J122" t="s">
         <v>293</v>
       </c>
-      <c r="K122">
+      <c r="K122" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>002주소</v>
       </c>
       <c r="L122" s="4" t="s">
         <v>430</v>
@@ -6944,9 +6936,9 @@
       <c r="J123" t="s">
         <v>293</v>
       </c>
-      <c r="K123">
+      <c r="K123" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>005주소</v>
       </c>
       <c r="L123" s="4" t="s">
         <v>431</v>
@@ -6983,9 +6975,9 @@
       <c r="J124" t="s">
         <v>302</v>
       </c>
-      <c r="K124">
+      <c r="K124" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>006주소</v>
       </c>
       <c r="L124" s="4" t="s">
         <v>432</v>
@@ -7022,9 +7014,9 @@
       <c r="J125" t="s">
         <v>291</v>
       </c>
-      <c r="K125">
+      <c r="K125" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>002주소</v>
       </c>
       <c r="L125" s="4" t="s">
         <v>433</v>
@@ -7061,9 +7053,9 @@
       <c r="J126" t="s">
         <v>293</v>
       </c>
-      <c r="K126">
+      <c r="K126" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>003주소</v>
       </c>
       <c r="L126" s="4" t="s">
         <v>434</v>
@@ -7100,9 +7092,9 @@
       <c r="J127" t="s">
         <v>293</v>
       </c>
-      <c r="K127">
+      <c r="K127" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>001주소</v>
       </c>
       <c r="L127" s="4" t="s">
         <v>435</v>
@@ -7139,9 +7131,9 @@
       <c r="J128" t="s">
         <v>298</v>
       </c>
-      <c r="K128">
+      <c r="K128" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>004주소</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>436</v>
@@ -7178,9 +7170,9 @@
       <c r="J129" t="s">
         <v>293</v>
       </c>
-      <c r="K129">
+      <c r="K129" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>005주소</v>
       </c>
       <c r="L129" s="4" t="s">
         <v>437</v>
@@ -7217,9 +7209,9 @@
       <c r="J130" t="s">
         <v>293</v>
       </c>
-      <c r="K130">
+      <c r="K130" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>008주소</v>
       </c>
       <c r="L130" s="4" t="s">
         <v>438</v>
@@ -7256,9 +7248,9 @@
       <c r="J131" t="s">
         <v>302</v>
       </c>
-      <c r="K131">
-        <f t="shared" ref="K131:K194" ca="1" si="2">RANDBETWEEN(0,8)</f>
-        <v>8</v>
+      <c r="K131" t="str">
+        <f t="shared" ref="K131:K194" ca="1" si="2">TEXT(RANDBETWEEN(0,8), "000주소")</f>
+        <v>006주소</v>
       </c>
       <c r="L131" s="4" t="s">
         <v>439</v>
@@ -7295,9 +7287,9 @@
       <c r="J132" t="s">
         <v>293</v>
       </c>
-      <c r="K132">
+      <c r="K132" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>008주소</v>
       </c>
       <c r="L132" s="4" t="s">
         <v>440</v>
@@ -7334,9 +7326,9 @@
       <c r="J133" t="s">
         <v>302</v>
       </c>
-      <c r="K133">
+      <c r="K133" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>008주소</v>
       </c>
       <c r="L133" s="4" t="s">
         <v>441</v>
@@ -7373,9 +7365,9 @@
       <c r="J134" t="s">
         <v>293</v>
       </c>
-      <c r="K134">
+      <c r="K134" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>007주소</v>
       </c>
       <c r="L134" s="4" t="s">
         <v>442</v>
@@ -7412,9 +7404,9 @@
       <c r="J135" t="s">
         <v>293</v>
       </c>
-      <c r="K135">
+      <c r="K135" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>008주소</v>
       </c>
       <c r="L135" s="4" t="s">
         <v>443</v>
@@ -7451,9 +7443,9 @@
       <c r="J136" t="s">
         <v>291</v>
       </c>
-      <c r="K136">
+      <c r="K136" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>008주소</v>
       </c>
       <c r="L136" s="4" t="s">
         <v>444</v>
@@ -7490,9 +7482,9 @@
       <c r="J137" t="s">
         <v>293</v>
       </c>
-      <c r="K137">
+      <c r="K137" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>007주소</v>
       </c>
       <c r="L137" s="4" t="s">
         <v>445</v>
@@ -7529,9 +7521,9 @@
       <c r="J138" t="s">
         <v>293</v>
       </c>
-      <c r="K138">
+      <c r="K138" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>002주소</v>
       </c>
       <c r="L138" s="4" t="s">
         <v>367</v>
@@ -7568,9 +7560,9 @@
       <c r="J139" t="s">
         <v>293</v>
       </c>
-      <c r="K139">
+      <c r="K139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>003주소</v>
       </c>
       <c r="L139" s="4" t="s">
         <v>352</v>
@@ -7607,9 +7599,9 @@
       <c r="J140" t="s">
         <v>291</v>
       </c>
-      <c r="K140">
+      <c r="K140" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>005주소</v>
       </c>
       <c r="L140" s="4" t="s">
         <v>410</v>
@@ -7646,9 +7638,9 @@
       <c r="J141" t="s">
         <v>293</v>
       </c>
-      <c r="K141">
+      <c r="K141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>007주소</v>
       </c>
       <c r="L141" s="4" t="s">
         <v>446</v>
@@ -7685,9 +7677,9 @@
       <c r="J142" t="s">
         <v>293</v>
       </c>
-      <c r="K142">
+      <c r="K142" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>001주소</v>
       </c>
       <c r="L142" s="4" t="s">
         <v>447</v>
@@ -7724,9 +7716,9 @@
       <c r="J143" t="s">
         <v>293</v>
       </c>
-      <c r="K143">
+      <c r="K143" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>006주소</v>
       </c>
       <c r="L143" s="4" t="s">
         <v>338</v>
@@ -7763,9 +7755,9 @@
       <c r="J144" t="s">
         <v>302</v>
       </c>
-      <c r="K144">
+      <c r="K144" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>001주소</v>
       </c>
       <c r="L144" s="4" t="s">
         <v>448</v>
@@ -7802,9 +7794,9 @@
       <c r="J145" t="s">
         <v>291</v>
       </c>
-      <c r="K145">
+      <c r="K145" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>006주소</v>
       </c>
       <c r="L145" s="4" t="s">
         <v>420</v>
@@ -7841,9 +7833,9 @@
       <c r="J146" t="s">
         <v>298</v>
       </c>
-      <c r="K146">
+      <c r="K146" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>004주소</v>
       </c>
       <c r="L146" s="4" t="s">
         <v>385</v>
@@ -7880,9 +7872,9 @@
       <c r="J147" t="s">
         <v>291</v>
       </c>
-      <c r="K147">
+      <c r="K147" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>001주소</v>
       </c>
       <c r="L147" s="4" t="s">
         <v>360</v>
@@ -7919,9 +7911,9 @@
       <c r="J148" t="s">
         <v>293</v>
       </c>
-      <c r="K148">
+      <c r="K148" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>002주소</v>
       </c>
       <c r="L148" s="4" t="s">
         <v>406</v>
@@ -7958,9 +7950,9 @@
       <c r="J149" t="s">
         <v>293</v>
       </c>
-      <c r="K149">
+      <c r="K149" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>005주소</v>
       </c>
       <c r="L149" s="4" t="s">
         <v>358</v>
@@ -7997,9 +7989,9 @@
       <c r="J150" t="s">
         <v>302</v>
       </c>
-      <c r="K150">
+      <c r="K150" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>000주소</v>
       </c>
       <c r="L150" s="4" t="s">
         <v>345</v>
@@ -8036,9 +8028,9 @@
       <c r="J151" t="s">
         <v>295</v>
       </c>
-      <c r="K151">
+      <c r="K151" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>004주소</v>
       </c>
       <c r="L151" s="4" t="s">
         <v>318</v>
@@ -8075,9 +8067,9 @@
       <c r="J152" t="s">
         <v>291</v>
       </c>
-      <c r="K152">
+      <c r="K152" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>002주소</v>
       </c>
       <c r="L152" s="4" t="s">
         <v>449</v>
@@ -8114,9 +8106,9 @@
       <c r="J153" t="s">
         <v>302</v>
       </c>
-      <c r="K153">
+      <c r="K153" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>005주소</v>
       </c>
       <c r="L153" s="4" t="s">
         <v>450</v>
@@ -8153,9 +8145,9 @@
       <c r="J154" t="s">
         <v>291</v>
       </c>
-      <c r="K154">
+      <c r="K154" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>001주소</v>
       </c>
       <c r="L154" s="4" t="s">
         <v>451</v>
@@ -8192,9 +8184,9 @@
       <c r="J155" t="s">
         <v>302</v>
       </c>
-      <c r="K155">
+      <c r="K155" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>001주소</v>
       </c>
       <c r="L155" s="4" t="s">
         <v>452</v>
@@ -8231,9 +8223,9 @@
       <c r="J156" t="s">
         <v>293</v>
       </c>
-      <c r="K156">
+      <c r="K156" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>002주소</v>
       </c>
       <c r="L156" s="4" t="s">
         <v>453</v>
@@ -8270,9 +8262,9 @@
       <c r="J157" t="s">
         <v>293</v>
       </c>
-      <c r="K157">
+      <c r="K157" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>004주소</v>
       </c>
       <c r="L157" s="4" t="s">
         <v>321</v>
@@ -8309,9 +8301,9 @@
       <c r="J158" t="s">
         <v>293</v>
       </c>
-      <c r="K158">
+      <c r="K158" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>002주소</v>
       </c>
       <c r="L158" s="4" t="s">
         <v>454</v>
@@ -8348,9 +8340,9 @@
       <c r="J159" t="s">
         <v>293</v>
       </c>
-      <c r="K159">
+      <c r="K159" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>003주소</v>
       </c>
       <c r="L159" s="4" t="s">
         <v>455</v>
@@ -8387,9 +8379,9 @@
       <c r="J160" t="s">
         <v>293</v>
       </c>
-      <c r="K160">
+      <c r="K160" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>002주소</v>
       </c>
       <c r="L160" s="4" t="s">
         <v>456</v>
@@ -8426,9 +8418,9 @@
       <c r="J161" t="s">
         <v>293</v>
       </c>
-      <c r="K161">
+      <c r="K161" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>006주소</v>
       </c>
       <c r="L161" s="4" t="s">
         <v>330</v>
@@ -8465,9 +8457,9 @@
       <c r="J162" t="s">
         <v>302</v>
       </c>
-      <c r="K162">
+      <c r="K162" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>002주소</v>
       </c>
       <c r="L162" s="4" t="s">
         <v>436</v>
@@ -8504,9 +8496,9 @@
       <c r="J163" t="s">
         <v>302</v>
       </c>
-      <c r="K163">
+      <c r="K163" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>006주소</v>
       </c>
       <c r="L163" s="4" t="s">
         <v>457</v>
@@ -8543,9 +8535,9 @@
       <c r="J164" t="s">
         <v>293</v>
       </c>
-      <c r="K164">
+      <c r="K164" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>003주소</v>
       </c>
       <c r="L164" s="4" t="s">
         <v>458</v>
@@ -8582,9 +8574,9 @@
       <c r="J165" t="s">
         <v>293</v>
       </c>
-      <c r="K165">
+      <c r="K165" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>000주소</v>
       </c>
       <c r="L165" s="4" t="s">
         <v>444</v>
@@ -8621,9 +8613,9 @@
       <c r="J166" t="s">
         <v>302</v>
       </c>
-      <c r="K166">
+      <c r="K166" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>007주소</v>
       </c>
       <c r="L166" s="4" t="s">
         <v>459</v>
@@ -8660,9 +8652,9 @@
       <c r="J167" t="s">
         <v>302</v>
       </c>
-      <c r="K167">
+      <c r="K167" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>006주소</v>
       </c>
       <c r="L167" s="4" t="s">
         <v>460</v>
@@ -8699,9 +8691,9 @@
       <c r="J168" t="s">
         <v>291</v>
       </c>
-      <c r="K168">
+      <c r="K168" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>003주소</v>
       </c>
       <c r="L168" s="4" t="s">
         <v>384</v>
@@ -8738,9 +8730,9 @@
       <c r="J169" t="s">
         <v>291</v>
       </c>
-      <c r="K169">
+      <c r="K169" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>001주소</v>
       </c>
       <c r="L169" s="4" t="s">
         <v>361</v>
@@ -8777,9 +8769,9 @@
       <c r="J170" t="s">
         <v>295</v>
       </c>
-      <c r="K170">
+      <c r="K170" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>003주소</v>
       </c>
       <c r="L170" s="4" t="s">
         <v>461</v>
@@ -8816,9 +8808,9 @@
       <c r="J171" t="s">
         <v>293</v>
       </c>
-      <c r="K171">
+      <c r="K171" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>003주소</v>
       </c>
       <c r="L171" s="4" t="s">
         <v>375</v>
@@ -8855,9 +8847,9 @@
       <c r="J172" t="s">
         <v>302</v>
       </c>
-      <c r="K172">
+      <c r="K172" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>006주소</v>
       </c>
       <c r="L172" s="4" t="s">
         <v>347</v>
@@ -8894,9 +8886,9 @@
       <c r="J173" t="s">
         <v>302</v>
       </c>
-      <c r="K173">
+      <c r="K173" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>005주소</v>
       </c>
       <c r="L173" s="4" t="s">
         <v>462</v>
@@ -8933,9 +8925,9 @@
       <c r="J174" t="s">
         <v>302</v>
       </c>
-      <c r="K174">
+      <c r="K174" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>006주소</v>
       </c>
       <c r="L174" s="4" t="s">
         <v>392</v>
@@ -8972,9 +8964,9 @@
       <c r="J175" t="s">
         <v>291</v>
       </c>
-      <c r="K175">
+      <c r="K175" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>006주소</v>
       </c>
       <c r="L175" s="4" t="s">
         <v>463</v>
@@ -9011,9 +9003,9 @@
       <c r="J176" t="s">
         <v>293</v>
       </c>
-      <c r="K176">
+      <c r="K176" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>006주소</v>
       </c>
       <c r="L176" s="4" t="s">
         <v>464</v>
@@ -9050,9 +9042,9 @@
       <c r="J177" t="s">
         <v>302</v>
       </c>
-      <c r="K177">
+      <c r="K177" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>007주소</v>
       </c>
       <c r="L177" s="4" t="s">
         <v>413</v>
@@ -9089,9 +9081,9 @@
       <c r="J178" t="s">
         <v>295</v>
       </c>
-      <c r="K178">
+      <c r="K178" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>004주소</v>
       </c>
       <c r="L178" s="4" t="s">
         <v>399</v>
@@ -9128,9 +9120,9 @@
       <c r="J179" t="s">
         <v>295</v>
       </c>
-      <c r="K179">
+      <c r="K179" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>006주소</v>
       </c>
       <c r="L179" s="4" t="s">
         <v>443</v>
@@ -9167,9 +9159,9 @@
       <c r="J180" t="s">
         <v>0</v>
       </c>
-      <c r="K180">
+      <c r="K180" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>003주소</v>
       </c>
       <c r="L180" s="4" t="s">
         <v>440</v>
@@ -9206,9 +9198,9 @@
       <c r="J181" t="s">
         <v>302</v>
       </c>
-      <c r="K181">
+      <c r="K181" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>004주소</v>
       </c>
       <c r="L181" s="4" t="s">
         <v>465</v>
@@ -9245,9 +9237,9 @@
       <c r="J182" t="s">
         <v>302</v>
       </c>
-      <c r="K182">
+      <c r="K182" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>005주소</v>
       </c>
       <c r="L182" s="4" t="s">
         <v>359</v>
@@ -9284,9 +9276,9 @@
       <c r="J183" t="s">
         <v>302</v>
       </c>
-      <c r="K183">
+      <c r="K183" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>004주소</v>
       </c>
       <c r="L183" s="4" t="s">
         <v>466</v>
@@ -9323,9 +9315,9 @@
       <c r="J184" t="s">
         <v>293</v>
       </c>
-      <c r="K184">
+      <c r="K184" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>004주소</v>
       </c>
       <c r="L184" s="4" t="s">
         <v>405</v>
@@ -9362,9 +9354,9 @@
       <c r="J185" t="s">
         <v>293</v>
       </c>
-      <c r="K185">
+      <c r="K185" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>006주소</v>
       </c>
       <c r="L185" s="4" t="s">
         <v>467</v>
@@ -9401,9 +9393,9 @@
       <c r="J186" t="s">
         <v>293</v>
       </c>
-      <c r="K186">
+      <c r="K186" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>003주소</v>
       </c>
       <c r="L186" s="4" t="s">
         <v>468</v>
@@ -9440,9 +9432,9 @@
       <c r="J187" t="s">
         <v>302</v>
       </c>
-      <c r="K187">
+      <c r="K187" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>002주소</v>
       </c>
       <c r="L187" s="4" t="s">
         <v>469</v>
@@ -9479,9 +9471,9 @@
       <c r="J188" t="s">
         <v>295</v>
       </c>
-      <c r="K188">
+      <c r="K188" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>001주소</v>
       </c>
       <c r="L188" s="4" t="s">
         <v>470</v>
@@ -9518,9 +9510,9 @@
       <c r="J189" t="s">
         <v>300</v>
       </c>
-      <c r="K189">
+      <c r="K189" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>002주소</v>
       </c>
       <c r="L189" s="4" t="s">
         <v>471</v>
@@ -9557,9 +9549,9 @@
       <c r="J190" t="s">
         <v>0</v>
       </c>
-      <c r="K190">
+      <c r="K190" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>003주소</v>
       </c>
       <c r="L190" s="4" t="s">
         <v>396</v>
@@ -9596,9 +9588,9 @@
       <c r="J191" t="s">
         <v>302</v>
       </c>
-      <c r="K191">
+      <c r="K191" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>007주소</v>
       </c>
       <c r="L191" s="4" t="s">
         <v>472</v>
@@ -9635,9 +9627,9 @@
       <c r="J192" t="s">
         <v>293</v>
       </c>
-      <c r="K192">
+      <c r="K192" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>004주소</v>
       </c>
       <c r="L192" s="4" t="s">
         <v>473</v>
@@ -9674,9 +9666,9 @@
       <c r="J193" t="s">
         <v>293</v>
       </c>
-      <c r="K193">
+      <c r="K193" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>002주소</v>
       </c>
       <c r="L193" s="4" t="s">
         <v>435</v>
@@ -9713,9 +9705,9 @@
       <c r="J194" t="s">
         <v>302</v>
       </c>
-      <c r="K194">
+      <c r="K194" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>001주소</v>
       </c>
       <c r="L194" s="4" t="s">
         <v>374</v>
@@ -9752,9 +9744,9 @@
       <c r="J195" t="s">
         <v>298</v>
       </c>
-      <c r="K195">
-        <f t="shared" ref="K195:K258" ca="1" si="3">RANDBETWEEN(0,8)</f>
-        <v>0</v>
+      <c r="K195" t="str">
+        <f t="shared" ref="K195:K258" ca="1" si="3">TEXT(RANDBETWEEN(0,8), "000주소")</f>
+        <v>003주소</v>
       </c>
       <c r="L195" s="4" t="s">
         <v>316</v>
@@ -9791,9 +9783,9 @@
       <c r="J196" t="s">
         <v>291</v>
       </c>
-      <c r="K196">
+      <c r="K196" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>005주소</v>
       </c>
       <c r="L196" s="4" t="s">
         <v>339</v>
@@ -9830,9 +9822,9 @@
       <c r="J197" t="s">
         <v>291</v>
       </c>
-      <c r="K197">
+      <c r="K197" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>001주소</v>
       </c>
       <c r="L197" s="4" t="s">
         <v>474</v>
@@ -9869,9 +9861,9 @@
       <c r="J198" t="s">
         <v>298</v>
       </c>
-      <c r="K198">
+      <c r="K198" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>002주소</v>
       </c>
       <c r="L198" s="4" t="s">
         <v>475</v>
@@ -9908,9 +9900,9 @@
       <c r="J199" t="s">
         <v>293</v>
       </c>
-      <c r="K199">
+      <c r="K199" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>006주소</v>
       </c>
       <c r="L199" s="4" t="s">
         <v>476</v>
@@ -9947,9 +9939,9 @@
       <c r="J200" t="s">
         <v>291</v>
       </c>
-      <c r="K200">
+      <c r="K200" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>007주소</v>
       </c>
       <c r="L200" s="4" t="s">
         <v>477</v>
@@ -9986,9 +9978,9 @@
       <c r="J201" t="s">
         <v>302</v>
       </c>
-      <c r="K201">
+      <c r="K201" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>007주소</v>
       </c>
       <c r="L201" s="4" t="s">
         <v>478</v>
@@ -10025,9 +10017,9 @@
       <c r="J202" t="s">
         <v>291</v>
       </c>
-      <c r="K202">
+      <c r="K202" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>000주소</v>
       </c>
       <c r="L202" s="4" t="s">
         <v>479</v>
@@ -10064,9 +10056,9 @@
       <c r="J203" t="s">
         <v>302</v>
       </c>
-      <c r="K203">
+      <c r="K203" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>005주소</v>
       </c>
       <c r="L203" s="4" t="s">
         <v>480</v>
@@ -10103,9 +10095,9 @@
       <c r="J204" t="s">
         <v>291</v>
       </c>
-      <c r="K204">
+      <c r="K204" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>007주소</v>
       </c>
       <c r="L204" s="4" t="s">
         <v>481</v>
@@ -10142,9 +10134,9 @@
       <c r="J205" t="s">
         <v>302</v>
       </c>
-      <c r="K205">
+      <c r="K205" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>008주소</v>
       </c>
       <c r="L205" s="4" t="s">
         <v>482</v>
@@ -10181,9 +10173,9 @@
       <c r="J206" t="s">
         <v>293</v>
       </c>
-      <c r="K206">
+      <c r="K206" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>007주소</v>
       </c>
       <c r="L206" s="4" t="s">
         <v>483</v>
@@ -10220,9 +10212,9 @@
       <c r="J207" t="s">
         <v>291</v>
       </c>
-      <c r="K207">
+      <c r="K207" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>000주소</v>
       </c>
       <c r="L207" s="4" t="s">
         <v>484</v>
@@ -10259,9 +10251,9 @@
       <c r="J208" t="s">
         <v>302</v>
       </c>
-      <c r="K208">
+      <c r="K208" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>004주소</v>
       </c>
       <c r="L208" s="4" t="s">
         <v>336</v>
@@ -10298,9 +10290,9 @@
       <c r="J209" t="s">
         <v>293</v>
       </c>
-      <c r="K209">
+      <c r="K209" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>006주소</v>
       </c>
       <c r="L209" s="4" t="s">
         <v>485</v>
@@ -10337,9 +10329,9 @@
       <c r="J210" t="s">
         <v>293</v>
       </c>
-      <c r="K210">
+      <c r="K210" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>005주소</v>
       </c>
       <c r="L210" s="4" t="s">
         <v>486</v>
@@ -10376,9 +10368,9 @@
       <c r="J211" t="s">
         <v>302</v>
       </c>
-      <c r="K211">
+      <c r="K211" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>000주소</v>
       </c>
       <c r="L211" s="4" t="s">
         <v>487</v>
@@ -10415,9 +10407,9 @@
       <c r="J212" t="s">
         <v>293</v>
       </c>
-      <c r="K212">
+      <c r="K212" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>006주소</v>
       </c>
       <c r="L212" s="4" t="s">
         <v>488</v>
@@ -10454,9 +10446,9 @@
       <c r="J213" t="s">
         <v>302</v>
       </c>
-      <c r="K213">
+      <c r="K213" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>006주소</v>
       </c>
       <c r="L213" s="4" t="s">
         <v>489</v>
@@ -10493,9 +10485,9 @@
       <c r="J214" t="s">
         <v>302</v>
       </c>
-      <c r="K214">
+      <c r="K214" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>003주소</v>
       </c>
       <c r="L214" s="4" t="s">
         <v>490</v>
@@ -10532,9 +10524,9 @@
       <c r="J215" t="s">
         <v>302</v>
       </c>
-      <c r="K215">
+      <c r="K215" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>008주소</v>
       </c>
       <c r="L215" s="4" t="s">
         <v>423</v>
@@ -10571,9 +10563,9 @@
       <c r="J216" t="s">
         <v>302</v>
       </c>
-      <c r="K216">
+      <c r="K216" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>002주소</v>
       </c>
       <c r="L216" s="4" t="s">
         <v>433</v>
@@ -10610,9 +10602,9 @@
       <c r="J217" t="s">
         <v>291</v>
       </c>
-      <c r="K217">
+      <c r="K217" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>002주소</v>
       </c>
       <c r="L217" s="4" t="s">
         <v>491</v>
@@ -10649,9 +10641,9 @@
       <c r="J218" t="s">
         <v>291</v>
       </c>
-      <c r="K218">
+      <c r="K218" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>002주소</v>
       </c>
       <c r="L218" s="4" t="s">
         <v>492</v>
@@ -10688,9 +10680,9 @@
       <c r="J219" t="s">
         <v>291</v>
       </c>
-      <c r="K219">
+      <c r="K219" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>008주소</v>
       </c>
       <c r="L219" s="4" t="s">
         <v>493</v>
@@ -10727,9 +10719,9 @@
       <c r="J220" t="s">
         <v>302</v>
       </c>
-      <c r="K220">
+      <c r="K220" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>003주소</v>
       </c>
       <c r="L220" s="4" t="s">
         <v>434</v>
@@ -10766,9 +10758,9 @@
       <c r="J221" t="s">
         <v>302</v>
       </c>
-      <c r="K221">
+      <c r="K221" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>000주소</v>
       </c>
       <c r="L221" s="4" t="s">
         <v>494</v>
@@ -10805,9 +10797,9 @@
       <c r="J222" t="s">
         <v>293</v>
       </c>
-      <c r="K222">
+      <c r="K222" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>007주소</v>
       </c>
       <c r="L222" s="4" t="s">
         <v>495</v>
@@ -10844,9 +10836,9 @@
       <c r="J223" t="s">
         <v>302</v>
       </c>
-      <c r="K223">
+      <c r="K223" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>000주소</v>
       </c>
       <c r="L223" s="4" t="s">
         <v>496</v>
@@ -10883,9 +10875,9 @@
       <c r="J224" t="s">
         <v>291</v>
       </c>
-      <c r="K224">
+      <c r="K224" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>007주소</v>
       </c>
       <c r="L224" s="4" t="s">
         <v>497</v>
@@ -10922,9 +10914,9 @@
       <c r="J225" t="s">
         <v>293</v>
       </c>
-      <c r="K225">
+      <c r="K225" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>008주소</v>
       </c>
       <c r="L225" s="4" t="s">
         <v>426</v>
@@ -10961,9 +10953,9 @@
       <c r="J226" t="s">
         <v>291</v>
       </c>
-      <c r="K226">
+      <c r="K226" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>008주소</v>
       </c>
       <c r="L226" s="4" t="s">
         <v>498</v>
@@ -11000,9 +10992,9 @@
       <c r="J227" t="s">
         <v>293</v>
       </c>
-      <c r="K227">
+      <c r="K227" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>004주소</v>
       </c>
       <c r="L227" s="4" t="s">
         <v>499</v>
@@ -11039,9 +11031,9 @@
       <c r="J228" t="s">
         <v>291</v>
       </c>
-      <c r="K228">
+      <c r="K228" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>005주소</v>
       </c>
       <c r="L228" s="4" t="s">
         <v>500</v>
@@ -11078,9 +11070,9 @@
       <c r="J229" t="s">
         <v>302</v>
       </c>
-      <c r="K229">
+      <c r="K229" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>008주소</v>
       </c>
       <c r="L229" s="4" t="s">
         <v>501</v>
@@ -11117,9 +11109,9 @@
       <c r="J230" t="s">
         <v>293</v>
       </c>
-      <c r="K230">
+      <c r="K230" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>001주소</v>
       </c>
       <c r="L230" s="4" t="s">
         <v>502</v>
@@ -11156,9 +11148,9 @@
       <c r="J231" t="s">
         <v>302</v>
       </c>
-      <c r="K231">
+      <c r="K231" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>005주소</v>
       </c>
       <c r="L231" s="4" t="s">
         <v>503</v>
@@ -11195,9 +11187,9 @@
       <c r="J232" t="s">
         <v>293</v>
       </c>
-      <c r="K232">
+      <c r="K232" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>008주소</v>
       </c>
       <c r="L232" s="4" t="s">
         <v>441</v>
@@ -11234,9 +11226,9 @@
       <c r="J233" t="s">
         <v>291</v>
       </c>
-      <c r="K233">
+      <c r="K233" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>002주소</v>
       </c>
       <c r="L233" s="4" t="s">
         <v>504</v>
@@ -11273,9 +11265,9 @@
       <c r="J234" t="s">
         <v>295</v>
       </c>
-      <c r="K234">
+      <c r="K234" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>004주소</v>
       </c>
       <c r="L234" s="4" t="s">
         <v>505</v>
@@ -11312,9 +11304,9 @@
       <c r="J235" t="s">
         <v>293</v>
       </c>
-      <c r="K235">
+      <c r="K235" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>004주소</v>
       </c>
       <c r="L235" s="4" t="s">
         <v>506</v>
@@ -11351,9 +11343,9 @@
       <c r="J236" t="s">
         <v>293</v>
       </c>
-      <c r="K236">
+      <c r="K236" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>001주소</v>
       </c>
       <c r="L236" s="4" t="s">
         <v>507</v>
@@ -11390,9 +11382,9 @@
       <c r="J237" t="s">
         <v>293</v>
       </c>
-      <c r="K237">
+      <c r="K237" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>004주소</v>
       </c>
       <c r="L237" s="4" t="s">
         <v>508</v>
@@ -11429,9 +11421,9 @@
       <c r="J238" t="s">
         <v>291</v>
       </c>
-      <c r="K238">
+      <c r="K238" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>001주소</v>
       </c>
       <c r="L238" s="4" t="s">
         <v>442</v>
@@ -11468,9 +11460,9 @@
       <c r="J239" t="s">
         <v>293</v>
       </c>
-      <c r="K239">
+      <c r="K239" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>008주소</v>
       </c>
       <c r="L239" s="4" t="s">
         <v>509</v>
@@ -11507,9 +11499,9 @@
       <c r="J240" t="s">
         <v>295</v>
       </c>
-      <c r="K240">
+      <c r="K240" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>005주소</v>
       </c>
       <c r="L240" s="4" t="s">
         <v>383</v>
@@ -11546,9 +11538,9 @@
       <c r="J241" t="s">
         <v>293</v>
       </c>
-      <c r="K241">
+      <c r="K241" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>001주소</v>
       </c>
       <c r="L241" s="4" t="s">
         <v>510</v>
@@ -11585,9 +11577,9 @@
       <c r="J242" t="s">
         <v>298</v>
       </c>
-      <c r="K242">
+      <c r="K242" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>001주소</v>
       </c>
       <c r="L242" s="4" t="s">
         <v>511</v>
@@ -11624,9 +11616,9 @@
       <c r="J243" t="s">
         <v>293</v>
       </c>
-      <c r="K243">
+      <c r="K243" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>003주소</v>
       </c>
       <c r="L243" s="4" t="s">
         <v>512</v>
@@ -11663,9 +11655,9 @@
       <c r="J244" t="s">
         <v>302</v>
       </c>
-      <c r="K244">
+      <c r="K244" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>008주소</v>
       </c>
       <c r="L244" s="4" t="s">
         <v>513</v>
@@ -11702,9 +11694,9 @@
       <c r="J245" t="s">
         <v>293</v>
       </c>
-      <c r="K245">
+      <c r="K245" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>003주소</v>
       </c>
       <c r="L245" s="4" t="s">
         <v>514</v>
@@ -11741,9 +11733,9 @@
       <c r="J246" t="s">
         <v>302</v>
       </c>
-      <c r="K246">
+      <c r="K246" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>003주소</v>
       </c>
       <c r="L246" s="4" t="s">
         <v>515</v>
@@ -11780,9 +11772,9 @@
       <c r="J247" t="s">
         <v>302</v>
       </c>
-      <c r="K247">
+      <c r="K247" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>008주소</v>
       </c>
       <c r="L247" s="4" t="s">
         <v>516</v>
@@ -11819,9 +11811,9 @@
       <c r="J248" t="s">
         <v>291</v>
       </c>
-      <c r="K248">
+      <c r="K248" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>000주소</v>
       </c>
       <c r="L248" s="4" t="s">
         <v>517</v>
@@ -11858,9 +11850,9 @@
       <c r="J249" t="s">
         <v>302</v>
       </c>
-      <c r="K249">
+      <c r="K249" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>006주소</v>
       </c>
       <c r="L249" s="4" t="s">
         <v>518</v>
@@ -11897,9 +11889,9 @@
       <c r="J250" t="s">
         <v>302</v>
       </c>
-      <c r="K250">
+      <c r="K250" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>003주소</v>
       </c>
       <c r="L250" s="4" t="s">
         <v>519</v>
@@ -11936,9 +11928,9 @@
       <c r="J251" t="s">
         <v>293</v>
       </c>
-      <c r="K251">
+      <c r="K251" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>007주소</v>
       </c>
       <c r="L251" s="4" t="s">
         <v>424</v>
@@ -11975,9 +11967,9 @@
       <c r="J252" t="s">
         <v>302</v>
       </c>
-      <c r="K252">
+      <c r="K252" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>006주소</v>
       </c>
       <c r="L252" s="4" t="s">
         <v>520</v>
@@ -12014,9 +12006,9 @@
       <c r="J253" t="s">
         <v>300</v>
       </c>
-      <c r="K253">
+      <c r="K253" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>008주소</v>
       </c>
       <c r="L253" s="4" t="s">
         <v>521</v>
@@ -12053,9 +12045,9 @@
       <c r="J254" t="s">
         <v>293</v>
       </c>
-      <c r="K254">
+      <c r="K254" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>001주소</v>
       </c>
       <c r="L254" s="4" t="s">
         <v>522</v>
@@ -12092,9 +12084,9 @@
       <c r="J255" t="s">
         <v>293</v>
       </c>
-      <c r="K255">
+      <c r="K255" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>000주소</v>
       </c>
       <c r="L255" s="4" t="s">
         <v>523</v>
@@ -12131,9 +12123,9 @@
       <c r="J256" t="s">
         <v>302</v>
       </c>
-      <c r="K256">
+      <c r="K256" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>008주소</v>
       </c>
       <c r="L256" s="4" t="s">
         <v>524</v>
@@ -12170,9 +12162,9 @@
       <c r="J257" t="s">
         <v>300</v>
       </c>
-      <c r="K257">
+      <c r="K257" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>003주소</v>
       </c>
       <c r="L257" s="4" t="s">
         <v>525</v>
@@ -12209,9 +12201,9 @@
       <c r="J258" t="s">
         <v>302</v>
       </c>
-      <c r="K258">
+      <c r="K258" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>006주소</v>
       </c>
       <c r="L258" s="4" t="s">
         <v>526</v>
@@ -12248,9 +12240,9 @@
       <c r="J259" t="s">
         <v>302</v>
       </c>
-      <c r="K259">
-        <f t="shared" ref="K259:K291" ca="1" si="4">RANDBETWEEN(0,8)</f>
-        <v>2</v>
+      <c r="K259" t="str">
+        <f t="shared" ref="K259:K291" ca="1" si="4">TEXT(RANDBETWEEN(0,8), "000주소")</f>
+        <v>002주소</v>
       </c>
       <c r="L259" s="4" t="s">
         <v>527</v>
@@ -12287,9 +12279,9 @@
       <c r="J260" t="s">
         <v>302</v>
       </c>
-      <c r="K260">
+      <c r="K260" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>002주소</v>
       </c>
       <c r="L260" s="4" t="s">
         <v>408</v>
@@ -12326,9 +12318,9 @@
       <c r="J261" t="s">
         <v>302</v>
       </c>
-      <c r="K261">
+      <c r="K261" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>000주소</v>
       </c>
       <c r="L261" s="4" t="s">
         <v>528</v>
@@ -12365,9 +12357,9 @@
       <c r="J262" t="s">
         <v>291</v>
       </c>
-      <c r="K262">
+      <c r="K262" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>004주소</v>
       </c>
       <c r="L262" s="4" t="s">
         <v>529</v>
@@ -12404,9 +12396,9 @@
       <c r="J263" t="s">
         <v>300</v>
       </c>
-      <c r="K263">
+      <c r="K263" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>004주소</v>
       </c>
       <c r="L263" s="4" t="s">
         <v>530</v>
@@ -12443,9 +12435,9 @@
       <c r="J264" t="s">
         <v>291</v>
       </c>
-      <c r="K264">
+      <c r="K264" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>003주소</v>
       </c>
       <c r="L264" s="4" t="s">
         <v>531</v>
@@ -12482,9 +12474,9 @@
       <c r="J265" t="s">
         <v>295</v>
       </c>
-      <c r="K265">
+      <c r="K265" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>007주소</v>
       </c>
       <c r="L265" s="4" t="s">
         <v>532</v>
@@ -12521,9 +12513,9 @@
       <c r="J266" t="s">
         <v>298</v>
       </c>
-      <c r="K266">
+      <c r="K266" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>006주소</v>
       </c>
       <c r="L266" s="4" t="s">
         <v>533</v>
@@ -12560,9 +12552,9 @@
       <c r="J267" t="s">
         <v>300</v>
       </c>
-      <c r="K267">
+      <c r="K267" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>008주소</v>
       </c>
       <c r="L267" s="4" t="s">
         <v>534</v>
@@ -12599,9 +12591,9 @@
       <c r="J268" t="s">
         <v>293</v>
       </c>
-      <c r="K268">
+      <c r="K268" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>001주소</v>
       </c>
       <c r="L268" s="4" t="s">
         <v>535</v>
@@ -12638,9 +12630,9 @@
       <c r="J269" t="s">
         <v>291</v>
       </c>
-      <c r="K269">
+      <c r="K269" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>005주소</v>
       </c>
       <c r="L269" s="4" t="s">
         <v>536</v>
@@ -12677,9 +12669,9 @@
       <c r="J270" t="s">
         <v>293</v>
       </c>
-      <c r="K270">
+      <c r="K270" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>003주소</v>
       </c>
       <c r="L270" s="4" t="s">
         <v>537</v>
@@ -12716,9 +12708,9 @@
       <c r="J271" t="s">
         <v>293</v>
       </c>
-      <c r="K271">
+      <c r="K271" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>003주소</v>
       </c>
       <c r="L271" s="4" t="s">
         <v>538</v>
@@ -12755,9 +12747,9 @@
       <c r="J272" t="s">
         <v>291</v>
       </c>
-      <c r="K272">
+      <c r="K272" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>001주소</v>
       </c>
       <c r="L272" s="4" t="s">
         <v>539</v>
@@ -12794,9 +12786,9 @@
       <c r="J273" t="s">
         <v>293</v>
       </c>
-      <c r="K273">
+      <c r="K273" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>008주소</v>
       </c>
       <c r="L273" s="4" t="s">
         <v>540</v>
@@ -12833,9 +12825,9 @@
       <c r="J274" t="s">
         <v>302</v>
       </c>
-      <c r="K274">
+      <c r="K274" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>004주소</v>
       </c>
       <c r="L274" s="4" t="s">
         <v>541</v>
@@ -12872,9 +12864,9 @@
       <c r="J275" t="s">
         <v>302</v>
       </c>
-      <c r="K275">
+      <c r="K275" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>007주소</v>
       </c>
       <c r="L275" s="4" t="s">
         <v>542</v>
@@ -12911,9 +12903,9 @@
       <c r="J276" t="s">
         <v>302</v>
       </c>
-      <c r="K276">
+      <c r="K276" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>006주소</v>
       </c>
       <c r="L276" s="4" t="s">
         <v>543</v>
@@ -12950,9 +12942,9 @@
       <c r="J277" t="s">
         <v>295</v>
       </c>
-      <c r="K277">
+      <c r="K277" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>003주소</v>
       </c>
       <c r="L277" s="4" t="s">
         <v>544</v>
@@ -12989,9 +12981,9 @@
       <c r="J278" t="s">
         <v>293</v>
       </c>
-      <c r="K278">
+      <c r="K278" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>008주소</v>
       </c>
       <c r="L278" s="4" t="s">
         <v>545</v>
@@ -13028,9 +13020,9 @@
       <c r="J279" t="s">
         <v>293</v>
       </c>
-      <c r="K279">
+      <c r="K279" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>000주소</v>
       </c>
       <c r="L279" s="4" t="s">
         <v>546</v>
@@ -13067,9 +13059,9 @@
       <c r="J280" t="s">
         <v>293</v>
       </c>
-      <c r="K280">
+      <c r="K280" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>007주소</v>
       </c>
       <c r="L280" s="4" t="s">
         <v>547</v>
@@ -13106,9 +13098,9 @@
       <c r="J281" t="s">
         <v>291</v>
       </c>
-      <c r="K281">
+      <c r="K281" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>001주소</v>
       </c>
       <c r="L281" s="4" t="s">
         <v>548</v>
@@ -13145,9 +13137,9 @@
       <c r="J282" t="s">
         <v>291</v>
       </c>
-      <c r="K282">
+      <c r="K282" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>005주소</v>
       </c>
       <c r="L282" s="4" t="s">
         <v>549</v>
@@ -13184,9 +13176,9 @@
       <c r="J283" t="s">
         <v>291</v>
       </c>
-      <c r="K283">
+      <c r="K283" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>008주소</v>
       </c>
       <c r="L283" s="4" t="s">
         <v>550</v>
@@ -13223,9 +13215,9 @@
       <c r="J284" t="s">
         <v>302</v>
       </c>
-      <c r="K284">
+      <c r="K284" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>006주소</v>
       </c>
       <c r="L284" s="4" t="s">
         <v>551</v>
@@ -13262,9 +13254,9 @@
       <c r="J285" t="s">
         <v>293</v>
       </c>
-      <c r="K285">
+      <c r="K285" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>008주소</v>
       </c>
       <c r="L285" s="4" t="s">
         <v>552</v>
@@ -13301,9 +13293,9 @@
       <c r="J286" t="s">
         <v>291</v>
       </c>
-      <c r="K286">
+      <c r="K286" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>007주소</v>
       </c>
       <c r="L286" s="4" t="s">
         <v>553</v>
@@ -13340,9 +13332,9 @@
       <c r="J287" t="s">
         <v>302</v>
       </c>
-      <c r="K287">
+      <c r="K287" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>004주소</v>
       </c>
       <c r="L287" s="4" t="s">
         <v>554</v>
@@ -13379,9 +13371,9 @@
       <c r="J288" t="s">
         <v>291</v>
       </c>
-      <c r="K288">
+      <c r="K288" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>007주소</v>
       </c>
       <c r="L288" s="4" t="s">
         <v>555</v>
@@ -13418,9 +13410,9 @@
       <c r="J289" t="s">
         <v>293</v>
       </c>
-      <c r="K289">
+      <c r="K289" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>007주소</v>
       </c>
       <c r="L289" s="4" t="s">
         <v>556</v>
@@ -13457,9 +13449,9 @@
       <c r="J290" t="s">
         <v>291</v>
       </c>
-      <c r="K290">
+      <c r="K290" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>001주소</v>
       </c>
       <c r="L290" s="4" t="s">
         <v>557</v>
@@ -13496,27 +13488,12 @@
       <c r="J291" t="s">
         <v>300</v>
       </c>
-      <c r="K291">
+      <c r="K291" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>008주소</v>
       </c>
       <c r="L291" s="4" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L292" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L293" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L294" s="4" t="s">
-        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -13812,11 +13789,8 @@
     <hyperlink ref="L289" r:id="rId288" xr:uid="{F52D289D-C695-4D38-A6B2-A06A869DC995}"/>
     <hyperlink ref="L290" r:id="rId289" xr:uid="{BB2511D7-F7A1-49B8-931D-3713F5C05605}"/>
     <hyperlink ref="L291" r:id="rId290" xr:uid="{2DF8C128-451B-4E88-ADD4-75CD47DC2C00}"/>
-    <hyperlink ref="L292" r:id="rId291" xr:uid="{C1D40992-1361-407B-8F41-DD3CF3523394}"/>
-    <hyperlink ref="L293" r:id="rId292" xr:uid="{66085101-0465-4F44-BF7E-05DE9771421D}"/>
-    <hyperlink ref="L294" r:id="rId293" xr:uid="{1A58E308-D62B-44E7-A86E-BE2AC51B33D3}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId294"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId291"/>
 </worksheet>
 </file>
--- a/finalPJT/Server/theme/type.xlsx
+++ b/finalPJT/Server/theme/type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KB_IT_Academy_4Team\finalPJT\Server\theme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8942A7-C334-43FE-B03F-66E0FC93D0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E065C9-2A74-4FFE-854A-0AA198188256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="572">
   <si>
     <t>클래식</t>
   </si>
@@ -1723,13 +1723,52 @@
   </si>
   <si>
     <t>https://images.stayfolio.com/system/pictures/images/000/074/018/original/a31a7da3f7c601984c30820f598bf1541affd7ae.jpg?1622351350</t>
+  </si>
+  <si>
+    <t>강원</t>
+  </si>
+  <si>
+    <t>제주</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>전라</t>
+  </si>
+  <si>
+    <t>부산</t>
+  </si>
+  <si>
+    <t>충청</t>
+  </si>
+  <si>
+    <t>광주</t>
+  </si>
+  <si>
+    <t>울산</t>
+  </si>
+  <si>
+    <t>경상</t>
+  </si>
+  <si>
+    <t>인천</t>
+  </si>
+  <si>
+    <t>경기</t>
+  </si>
+  <si>
+    <t>전북</t>
+  </si>
+  <si>
+    <t>전남</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1755,6 +1794,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1818,7 +1865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1828,6 +1875,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2133,15 +2183,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H265" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K291"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="E296" sqref="E296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="22.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
@@ -2173,7 +2223,7 @@
       <c r="J1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>287</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -2217,9 +2267,8 @@
       <c r="J2" t="s">
         <v>302</v>
       </c>
-      <c r="K2" t="str">
-        <f ca="1">TEXT(RANDBETWEEN(0,8), "000주소")</f>
-        <v>006주소</v>
+      <c r="K2" t="s">
+        <v>559</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>310</v>
@@ -2256,9 +2305,8 @@
       <c r="J3" t="s">
         <v>300</v>
       </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" ca="1" si="0">TEXT(RANDBETWEEN(0,8), "000주소")</f>
-        <v>005주소</v>
+      <c r="K3" t="s">
+        <v>559</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>311</v>
@@ -2295,9 +2343,8 @@
       <c r="J4" t="s">
         <v>293</v>
       </c>
-      <c r="K4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>005주소</v>
+      <c r="K4" t="s">
+        <v>560</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>312</v>
@@ -2334,9 +2381,8 @@
       <c r="J5" t="s">
         <v>291</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>008주소</v>
+      <c r="K5" t="s">
+        <v>560</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>313</v>
@@ -2373,9 +2419,8 @@
       <c r="J6" t="s">
         <v>293</v>
       </c>
-      <c r="K6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>003주소</v>
+      <c r="K6" t="s">
+        <v>559</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>314</v>
@@ -2412,9 +2457,8 @@
       <c r="J7" t="s">
         <v>302</v>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>006주소</v>
+      <c r="K7" t="s">
+        <v>560</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>315</v>
@@ -2451,9 +2495,8 @@
       <c r="J8" t="s">
         <v>291</v>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>005주소</v>
+      <c r="K8" t="s">
+        <v>561</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>316</v>
@@ -2490,9 +2533,8 @@
       <c r="J9" t="s">
         <v>291</v>
       </c>
-      <c r="K9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>004주소</v>
+      <c r="K9" t="s">
+        <v>560</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>317</v>
@@ -2529,9 +2571,8 @@
       <c r="J10" t="s">
         <v>298</v>
       </c>
-      <c r="K10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>005주소</v>
+      <c r="K10" t="s">
+        <v>562</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>318</v>
@@ -2568,9 +2609,8 @@
       <c r="J11" t="s">
         <v>302</v>
       </c>
-      <c r="K11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>005주소</v>
+      <c r="K11" t="s">
+        <v>559</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>319</v>
@@ -2607,9 +2647,8 @@
       <c r="J12" t="s">
         <v>291</v>
       </c>
-      <c r="K12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>007주소</v>
+      <c r="K12" t="s">
+        <v>559</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>320</v>
@@ -2646,9 +2685,8 @@
       <c r="J13" t="s">
         <v>300</v>
       </c>
-      <c r="K13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>000주소</v>
+      <c r="K13" t="s">
+        <v>560</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>321</v>
@@ -2685,9 +2723,8 @@
       <c r="J14" t="s">
         <v>293</v>
       </c>
-      <c r="K14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>001주소</v>
+      <c r="K14" t="s">
+        <v>563</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>322</v>
@@ -2724,9 +2761,8 @@
       <c r="J15" t="s">
         <v>291</v>
       </c>
-      <c r="K15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>002주소</v>
+      <c r="K15" t="s">
+        <v>560</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>323</v>
@@ -2763,9 +2799,8 @@
       <c r="J16" t="s">
         <v>300</v>
       </c>
-      <c r="K16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>001주소</v>
+      <c r="K16" t="s">
+        <v>564</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>324</v>
@@ -2802,9 +2837,8 @@
       <c r="J17" t="s">
         <v>291</v>
       </c>
-      <c r="K17" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>002주소</v>
+      <c r="K17" t="s">
+        <v>560</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>325</v>
@@ -2841,9 +2875,8 @@
       <c r="J18" t="s">
         <v>302</v>
       </c>
-      <c r="K18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>005주소</v>
+      <c r="K18" t="s">
+        <v>565</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>326</v>
@@ -2880,9 +2913,8 @@
       <c r="J19" t="s">
         <v>293</v>
       </c>
-      <c r="K19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>007주소</v>
+      <c r="K19" t="s">
+        <v>560</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>327</v>
@@ -2919,9 +2951,8 @@
       <c r="J20" t="s">
         <v>302</v>
       </c>
-      <c r="K20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>000주소</v>
+      <c r="K20" t="s">
+        <v>561</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>328</v>
@@ -2958,9 +2989,8 @@
       <c r="J21" t="s">
         <v>293</v>
       </c>
-      <c r="K21" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>004주소</v>
+      <c r="K21" t="s">
+        <v>564</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>329</v>
@@ -2997,9 +3027,8 @@
       <c r="J22" t="s">
         <v>293</v>
       </c>
-      <c r="K22" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>002주소</v>
+      <c r="K22" t="s">
+        <v>562</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>330</v>
@@ -3036,9 +3065,8 @@
       <c r="J23" t="s">
         <v>300</v>
       </c>
-      <c r="K23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>008주소</v>
+      <c r="K23" t="s">
+        <v>566</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>331</v>
@@ -3075,9 +3103,8 @@
       <c r="J24" t="s">
         <v>300</v>
       </c>
-      <c r="K24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>008주소</v>
+      <c r="K24" t="s">
+        <v>559</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>332</v>
@@ -3114,9 +3141,8 @@
       <c r="J25" t="s">
         <v>293</v>
       </c>
-      <c r="K25" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>007주소</v>
+      <c r="K25" t="s">
+        <v>560</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>333</v>
@@ -3153,9 +3179,8 @@
       <c r="J26" t="s">
         <v>291</v>
       </c>
-      <c r="K26" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>004주소</v>
+      <c r="K26" t="s">
+        <v>559</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>334</v>
@@ -3192,9 +3217,8 @@
       <c r="J27" t="s">
         <v>291</v>
       </c>
-      <c r="K27" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>005주소</v>
+      <c r="K27" t="s">
+        <v>567</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>335</v>
@@ -3231,9 +3255,8 @@
       <c r="J28" t="s">
         <v>295</v>
       </c>
-      <c r="K28" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>004주소</v>
+      <c r="K28" t="s">
+        <v>563</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>336</v>
@@ -3270,9 +3293,8 @@
       <c r="J29" t="s">
         <v>291</v>
       </c>
-      <c r="K29" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>006주소</v>
+      <c r="K29" t="s">
+        <v>560</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>337</v>
@@ -3309,9 +3331,8 @@
       <c r="J30" t="s">
         <v>300</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>003주소</v>
+      <c r="K30" t="s">
+        <v>560</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>338</v>
@@ -3348,9 +3369,8 @@
       <c r="J31" t="s">
         <v>302</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>003주소</v>
+      <c r="K31" t="s">
+        <v>560</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>339</v>
@@ -3387,9 +3407,8 @@
       <c r="J32" t="s">
         <v>291</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>000주소</v>
+      <c r="K32" t="s">
+        <v>567</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>340</v>
@@ -3426,9 +3445,8 @@
       <c r="J33" t="s">
         <v>293</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>006주소</v>
+      <c r="K33" t="s">
+        <v>560</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>341</v>
@@ -3465,9 +3483,8 @@
       <c r="J34" t="s">
         <v>293</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>003주소</v>
+      <c r="K34" t="s">
+        <v>560</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>342</v>
@@ -3504,9 +3521,8 @@
       <c r="J35" t="s">
         <v>293</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>003주소</v>
+      <c r="K35" t="s">
+        <v>561</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>343</v>
@@ -3543,9 +3559,8 @@
       <c r="J36" t="s">
         <v>293</v>
       </c>
-      <c r="K36" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>005주소</v>
+      <c r="K36" t="s">
+        <v>559</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>344</v>
@@ -3582,9 +3597,8 @@
       <c r="J37" t="s">
         <v>293</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>001주소</v>
+      <c r="K37" t="s">
+        <v>560</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>345</v>
@@ -3621,9 +3635,8 @@
       <c r="J38" t="s">
         <v>293</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>008주소</v>
+      <c r="K38" t="s">
+        <v>568</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>346</v>
@@ -3660,9 +3673,8 @@
       <c r="J39" t="s">
         <v>293</v>
       </c>
-      <c r="K39" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>000주소</v>
+      <c r="K39" t="s">
+        <v>560</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>347</v>
@@ -3699,9 +3711,8 @@
       <c r="J40" t="s">
         <v>293</v>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>004주소</v>
+      <c r="K40" t="s">
+        <v>560</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>348</v>
@@ -3738,9 +3749,8 @@
       <c r="J41" t="s">
         <v>291</v>
       </c>
-      <c r="K41" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>004주소</v>
+      <c r="K41" t="s">
+        <v>560</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>349</v>
@@ -3777,9 +3787,8 @@
       <c r="J42" t="s">
         <v>291</v>
       </c>
-      <c r="K42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>003주소</v>
+      <c r="K42" t="s">
+        <v>560</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>350</v>
@@ -3816,9 +3825,8 @@
       <c r="J43" t="s">
         <v>291</v>
       </c>
-      <c r="K43" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>001주소</v>
+      <c r="K43" t="s">
+        <v>560</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>351</v>
@@ -3855,9 +3863,8 @@
       <c r="J44" t="s">
         <v>293</v>
       </c>
-      <c r="K44" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>006주소</v>
+      <c r="K44" t="s">
+        <v>563</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>352</v>
@@ -3894,9 +3901,8 @@
       <c r="J45" t="s">
         <v>293</v>
       </c>
-      <c r="K45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>004주소</v>
+      <c r="K45" t="s">
+        <v>559</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>353</v>
@@ -3933,9 +3939,8 @@
       <c r="J46" t="s">
         <v>293</v>
       </c>
-      <c r="K46" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>006주소</v>
+      <c r="K46" t="s">
+        <v>559</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>354</v>
@@ -3972,9 +3977,8 @@
       <c r="J47" t="s">
         <v>295</v>
       </c>
-      <c r="K47" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>000주소</v>
+      <c r="K47" t="s">
+        <v>560</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>355</v>
@@ -4011,9 +4015,8 @@
       <c r="J48" t="s">
         <v>293</v>
       </c>
-      <c r="K48" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>000주소</v>
+      <c r="K48" t="s">
+        <v>564</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>356</v>
@@ -4050,9 +4053,8 @@
       <c r="J49" t="s">
         <v>293</v>
       </c>
-      <c r="K49" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>003주소</v>
+      <c r="K49" t="s">
+        <v>560</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>357</v>
@@ -4089,9 +4091,8 @@
       <c r="J50" t="s">
         <v>0</v>
       </c>
-      <c r="K50" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>003주소</v>
+      <c r="K50" t="s">
+        <v>560</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>358</v>
@@ -4128,9 +4129,8 @@
       <c r="J51" t="s">
         <v>291</v>
       </c>
-      <c r="K51" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>000주소</v>
+      <c r="K51" t="s">
+        <v>560</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>359</v>
@@ -4167,9 +4167,8 @@
       <c r="J52" t="s">
         <v>293</v>
       </c>
-      <c r="K52" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>003주소</v>
+      <c r="K52" t="s">
+        <v>567</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>360</v>
@@ -4206,9 +4205,8 @@
       <c r="J53" t="s">
         <v>293</v>
       </c>
-      <c r="K53" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>006주소</v>
+      <c r="K53" t="s">
+        <v>569</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>361</v>
@@ -4245,9 +4243,8 @@
       <c r="J54" t="s">
         <v>302</v>
       </c>
-      <c r="K54" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>004주소</v>
+      <c r="K54" t="s">
+        <v>567</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>362</v>
@@ -4284,9 +4281,8 @@
       <c r="J55" t="s">
         <v>291</v>
       </c>
-      <c r="K55" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>005주소</v>
+      <c r="K55" t="s">
+        <v>562</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>363</v>
@@ -4323,9 +4319,8 @@
       <c r="J56" t="s">
         <v>300</v>
       </c>
-      <c r="K56" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>008주소</v>
+      <c r="K56" t="s">
+        <v>560</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>364</v>
@@ -4362,9 +4357,8 @@
       <c r="J57" t="s">
         <v>293</v>
       </c>
-      <c r="K57" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>004주소</v>
+      <c r="K57" t="s">
+        <v>560</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>365</v>
@@ -4401,9 +4395,8 @@
       <c r="J58" t="s">
         <v>291</v>
       </c>
-      <c r="K58" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>000주소</v>
+      <c r="K58" t="s">
+        <v>559</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>366</v>
@@ -4440,9 +4433,8 @@
       <c r="J59" t="s">
         <v>293</v>
       </c>
-      <c r="K59" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>008주소</v>
+      <c r="K59" t="s">
+        <v>560</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>367</v>
@@ -4479,9 +4471,8 @@
       <c r="J60" t="s">
         <v>293</v>
       </c>
-      <c r="K60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>003주소</v>
+      <c r="K60" t="s">
+        <v>560</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>368</v>
@@ -4518,9 +4509,8 @@
       <c r="J61" t="s">
         <v>291</v>
       </c>
-      <c r="K61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>001주소</v>
+      <c r="K61" t="s">
+        <v>559</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>369</v>
@@ -4557,9 +4547,8 @@
       <c r="J62" t="s">
         <v>293</v>
       </c>
-      <c r="K62" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>007주소</v>
+      <c r="K62" t="s">
+        <v>562</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>370</v>
@@ -4596,9 +4585,8 @@
       <c r="J63" t="s">
         <v>302</v>
       </c>
-      <c r="K63" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>007주소</v>
+      <c r="K63" t="s">
+        <v>560</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>371</v>
@@ -4635,9 +4623,8 @@
       <c r="J64" t="s">
         <v>295</v>
       </c>
-      <c r="K64" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>006주소</v>
+      <c r="K64" t="s">
+        <v>560</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>372</v>
@@ -4674,9 +4661,8 @@
       <c r="J65" t="s">
         <v>298</v>
       </c>
-      <c r="K65" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>005주소</v>
+      <c r="K65" t="s">
+        <v>560</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>373</v>
@@ -4713,9 +4699,8 @@
       <c r="J66" t="s">
         <v>300</v>
       </c>
-      <c r="K66" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>006주소</v>
+      <c r="K66" t="s">
+        <v>560</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>374</v>
@@ -4752,9 +4737,8 @@
       <c r="J67" t="s">
         <v>302</v>
       </c>
-      <c r="K67" t="str">
-        <f t="shared" ref="K67:K130" ca="1" si="1">TEXT(RANDBETWEEN(0,8), "000주소")</f>
-        <v>001주소</v>
+      <c r="K67" t="s">
+        <v>559</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>375</v>
@@ -4791,9 +4775,8 @@
       <c r="J68" t="s">
         <v>291</v>
       </c>
-      <c r="K68" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>000주소</v>
+      <c r="K68" t="s">
+        <v>559</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>376</v>
@@ -4830,9 +4813,8 @@
       <c r="J69" t="s">
         <v>291</v>
       </c>
-      <c r="K69" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>000주소</v>
+      <c r="K69" t="s">
+        <v>560</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>377</v>
@@ -4869,9 +4851,8 @@
       <c r="J70" t="s">
         <v>293</v>
       </c>
-      <c r="K70" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>005주소</v>
+      <c r="K70" t="s">
+        <v>560</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>378</v>
@@ -4908,9 +4889,8 @@
       <c r="J71" t="s">
         <v>293</v>
       </c>
-      <c r="K71" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>004주소</v>
+      <c r="K71" t="s">
+        <v>567</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>379</v>
@@ -4947,9 +4927,8 @@
       <c r="J72" t="s">
         <v>291</v>
       </c>
-      <c r="K72" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>001주소</v>
+      <c r="K72" t="s">
+        <v>560</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>380</v>
@@ -4986,9 +4965,8 @@
       <c r="J73" t="s">
         <v>293</v>
       </c>
-      <c r="K73" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>005주소</v>
+      <c r="K73" t="s">
+        <v>561</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>381</v>
@@ -5025,9 +5003,8 @@
       <c r="J74" t="s">
         <v>291</v>
       </c>
-      <c r="K74" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>007주소</v>
+      <c r="K74" t="s">
+        <v>567</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>382</v>
@@ -5064,9 +5041,8 @@
       <c r="J75" t="s">
         <v>291</v>
       </c>
-      <c r="K75" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>005주소</v>
+      <c r="K75" t="s">
+        <v>559</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>383</v>
@@ -5103,9 +5079,8 @@
       <c r="J76" t="s">
         <v>302</v>
       </c>
-      <c r="K76" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>000주소</v>
+      <c r="K76" t="s">
+        <v>560</v>
       </c>
       <c r="L76" s="4" t="s">
         <v>384</v>
@@ -5142,9 +5117,8 @@
       <c r="J77" t="s">
         <v>302</v>
       </c>
-      <c r="K77" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>006주소</v>
+      <c r="K77" t="s">
+        <v>567</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>385</v>
@@ -5181,9 +5155,8 @@
       <c r="J78" t="s">
         <v>293</v>
       </c>
-      <c r="K78" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>004주소</v>
+      <c r="K78" t="s">
+        <v>567</v>
       </c>
       <c r="L78" s="4" t="s">
         <v>386</v>
@@ -5220,9 +5193,8 @@
       <c r="J79" t="s">
         <v>293</v>
       </c>
-      <c r="K79" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>008주소</v>
+      <c r="K79" t="s">
+        <v>559</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>387</v>
@@ -5259,9 +5231,8 @@
       <c r="J80" t="s">
         <v>293</v>
       </c>
-      <c r="K80" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>002주소</v>
+      <c r="K80" t="s">
+        <v>564</v>
       </c>
       <c r="L80" s="4" t="s">
         <v>388</v>
@@ -5298,9 +5269,8 @@
       <c r="J81" t="s">
         <v>302</v>
       </c>
-      <c r="K81" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>000주소</v>
+      <c r="K81" t="s">
+        <v>564</v>
       </c>
       <c r="L81" s="4" t="s">
         <v>389</v>
@@ -5337,9 +5307,8 @@
       <c r="J82" t="s">
         <v>293</v>
       </c>
-      <c r="K82" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>006주소</v>
+      <c r="K82" t="s">
+        <v>562</v>
       </c>
       <c r="L82" s="4" t="s">
         <v>390</v>
@@ -5376,9 +5345,8 @@
       <c r="J83" t="s">
         <v>302</v>
       </c>
-      <c r="K83" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>004주소</v>
+      <c r="K83" t="s">
+        <v>567</v>
       </c>
       <c r="L83" s="4" t="s">
         <v>391</v>
@@ -5415,9 +5383,8 @@
       <c r="J84" t="s">
         <v>293</v>
       </c>
-      <c r="K84" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>005주소</v>
+      <c r="K84" t="s">
+        <v>560</v>
       </c>
       <c r="L84" s="4" t="s">
         <v>392</v>
@@ -5454,9 +5421,8 @@
       <c r="J85" t="s">
         <v>291</v>
       </c>
-      <c r="K85" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>008주소</v>
+      <c r="K85" t="s">
+        <v>563</v>
       </c>
       <c r="L85" s="4" t="s">
         <v>393</v>
@@ -5493,9 +5459,8 @@
       <c r="J86" t="s">
         <v>293</v>
       </c>
-      <c r="K86" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>006주소</v>
+      <c r="K86" t="s">
+        <v>570</v>
       </c>
       <c r="L86" s="4" t="s">
         <v>394</v>
@@ -5532,9 +5497,8 @@
       <c r="J87" t="s">
         <v>291</v>
       </c>
-      <c r="K87" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>006주소</v>
+      <c r="K87" t="s">
+        <v>567</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>395</v>
@@ -5571,9 +5535,8 @@
       <c r="J88" t="s">
         <v>293</v>
       </c>
-      <c r="K88" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>004주소</v>
+      <c r="K88" t="s">
+        <v>562</v>
       </c>
       <c r="L88" s="4" t="s">
         <v>396</v>
@@ -5610,9 +5573,8 @@
       <c r="J89" t="s">
         <v>302</v>
       </c>
-      <c r="K89" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>008주소</v>
+      <c r="K89" t="s">
+        <v>567</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>397</v>
@@ -5649,9 +5611,8 @@
       <c r="J90" t="s">
         <v>293</v>
       </c>
-      <c r="K90" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>008주소</v>
+      <c r="K90" t="s">
+        <v>560</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>398</v>
@@ -5688,9 +5649,8 @@
       <c r="J91" t="s">
         <v>291</v>
       </c>
-      <c r="K91" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>004주소</v>
+      <c r="K91" t="s">
+        <v>562</v>
       </c>
       <c r="L91" s="4" t="s">
         <v>399</v>
@@ -5727,9 +5687,8 @@
       <c r="J92" t="s">
         <v>291</v>
       </c>
-      <c r="K92" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>004주소</v>
+      <c r="K92" t="s">
+        <v>559</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>400</v>
@@ -5766,9 +5725,8 @@
       <c r="J93" t="s">
         <v>302</v>
       </c>
-      <c r="K93" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>005주소</v>
+      <c r="K93" t="s">
+        <v>560</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>401</v>
@@ -5805,9 +5763,8 @@
       <c r="J94" t="s">
         <v>300</v>
       </c>
-      <c r="K94" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>006주소</v>
+      <c r="K94" t="s">
+        <v>559</v>
       </c>
       <c r="L94" s="4" t="s">
         <v>402</v>
@@ -5844,9 +5801,8 @@
       <c r="J95" t="s">
         <v>293</v>
       </c>
-      <c r="K95" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>004주소</v>
+      <c r="K95" t="s">
+        <v>561</v>
       </c>
       <c r="L95" s="4" t="s">
         <v>403</v>
@@ -5883,9 +5839,8 @@
       <c r="J96" t="s">
         <v>300</v>
       </c>
-      <c r="K96" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>008주소</v>
+      <c r="K96" t="s">
+        <v>567</v>
       </c>
       <c r="L96" s="4" t="s">
         <v>404</v>
@@ -5922,9 +5877,8 @@
       <c r="J97" t="s">
         <v>302</v>
       </c>
-      <c r="K97" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>007주소</v>
+      <c r="K97" t="s">
+        <v>560</v>
       </c>
       <c r="L97" s="4" t="s">
         <v>405</v>
@@ -5961,9 +5915,8 @@
       <c r="J98" t="s">
         <v>293</v>
       </c>
-      <c r="K98" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>004주소</v>
+      <c r="K98" t="s">
+        <v>561</v>
       </c>
       <c r="L98" s="4" t="s">
         <v>406</v>
@@ -6000,9 +5953,8 @@
       <c r="J99" t="s">
         <v>291</v>
       </c>
-      <c r="K99" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>004주소</v>
+      <c r="K99" t="s">
+        <v>560</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>407</v>
@@ -6039,9 +5991,8 @@
       <c r="J100" t="s">
         <v>293</v>
       </c>
-      <c r="K100" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>007주소</v>
+      <c r="K100" t="s">
+        <v>559</v>
       </c>
       <c r="L100" s="4" t="s">
         <v>408</v>
@@ -6078,9 +6029,8 @@
       <c r="J101" t="s">
         <v>291</v>
       </c>
-      <c r="K101" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>004주소</v>
+      <c r="K101" t="s">
+        <v>559</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>409</v>
@@ -6117,9 +6067,8 @@
       <c r="J102" t="s">
         <v>291</v>
       </c>
-      <c r="K102" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>007주소</v>
+      <c r="K102" t="s">
+        <v>567</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>410</v>
@@ -6156,9 +6105,8 @@
       <c r="J103" t="s">
         <v>302</v>
       </c>
-      <c r="K103" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>002주소</v>
+      <c r="K103" t="s">
+        <v>567</v>
       </c>
       <c r="L103" s="4" t="s">
         <v>411</v>
@@ -6195,9 +6143,8 @@
       <c r="J104" t="s">
         <v>291</v>
       </c>
-      <c r="K104" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>007주소</v>
+      <c r="K104" t="s">
+        <v>561</v>
       </c>
       <c r="L104" s="4" t="s">
         <v>412</v>
@@ -6234,9 +6181,8 @@
       <c r="J105" t="s">
         <v>302</v>
       </c>
-      <c r="K105" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>008주소</v>
+      <c r="K105" t="s">
+        <v>560</v>
       </c>
       <c r="L105" s="4" t="s">
         <v>413</v>
@@ -6273,9 +6219,8 @@
       <c r="J106" t="s">
         <v>291</v>
       </c>
-      <c r="K106" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>000주소</v>
+      <c r="K106" t="s">
+        <v>560</v>
       </c>
       <c r="L106" s="4" t="s">
         <v>414</v>
@@ -6312,9 +6257,8 @@
       <c r="J107" t="s">
         <v>291</v>
       </c>
-      <c r="K107" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>003주소</v>
+      <c r="K107" t="s">
+        <v>562</v>
       </c>
       <c r="L107" s="4" t="s">
         <v>415</v>
@@ -6351,9 +6295,8 @@
       <c r="J108" t="s">
         <v>295</v>
       </c>
-      <c r="K108" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>002주소</v>
+      <c r="K108" t="s">
+        <v>560</v>
       </c>
       <c r="L108" s="4" t="s">
         <v>416</v>
@@ -6390,9 +6333,8 @@
       <c r="J109" t="s">
         <v>291</v>
       </c>
-      <c r="K109" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>006주소</v>
+      <c r="K109" t="s">
+        <v>559</v>
       </c>
       <c r="L109" s="4" t="s">
         <v>417</v>
@@ -6429,9 +6371,8 @@
       <c r="J110" t="s">
         <v>302</v>
       </c>
-      <c r="K110" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>002주소</v>
+      <c r="K110" t="s">
+        <v>567</v>
       </c>
       <c r="L110" s="4" t="s">
         <v>418</v>
@@ -6468,9 +6409,8 @@
       <c r="J111" t="s">
         <v>293</v>
       </c>
-      <c r="K111" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>000주소</v>
+      <c r="K111" t="s">
+        <v>562</v>
       </c>
       <c r="L111" s="4" t="s">
         <v>419</v>
@@ -6507,9 +6447,8 @@
       <c r="J112" t="s">
         <v>295</v>
       </c>
-      <c r="K112" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>008주소</v>
+      <c r="K112" t="s">
+        <v>567</v>
       </c>
       <c r="L112" s="4" t="s">
         <v>420</v>
@@ -6546,9 +6485,8 @@
       <c r="J113" t="s">
         <v>291</v>
       </c>
-      <c r="K113" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>000주소</v>
+      <c r="K113" t="s">
+        <v>571</v>
       </c>
       <c r="L113" s="4" t="s">
         <v>421</v>
@@ -6585,9 +6523,8 @@
       <c r="J114" t="s">
         <v>293</v>
       </c>
-      <c r="K114" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>008주소</v>
+      <c r="K114" t="s">
+        <v>567</v>
       </c>
       <c r="L114" s="4" t="s">
         <v>422</v>
@@ -6624,9 +6561,8 @@
       <c r="J115" t="s">
         <v>302</v>
       </c>
-      <c r="K115" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>002주소</v>
+      <c r="K115" t="s">
+        <v>561</v>
       </c>
       <c r="L115" s="4" t="s">
         <v>423</v>
@@ -6663,9 +6599,8 @@
       <c r="J116" t="s">
         <v>0</v>
       </c>
-      <c r="K116" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>005주소</v>
+      <c r="K116" t="s">
+        <v>560</v>
       </c>
       <c r="L116" s="4" t="s">
         <v>424</v>
@@ -6702,9 +6637,8 @@
       <c r="J117" t="s">
         <v>293</v>
       </c>
-      <c r="K117" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>004주소</v>
+      <c r="K117" t="s">
+        <v>560</v>
       </c>
       <c r="L117" s="4" t="s">
         <v>425</v>
@@ -6741,9 +6675,8 @@
       <c r="J118" t="s">
         <v>293</v>
       </c>
-      <c r="K118" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>003주소</v>
+      <c r="K118" t="s">
+        <v>559</v>
       </c>
       <c r="L118" s="4" t="s">
         <v>426</v>
@@ -6780,9 +6713,8 @@
       <c r="J119" t="s">
         <v>291</v>
       </c>
-      <c r="K119" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>007주소</v>
+      <c r="K119" t="s">
+        <v>560</v>
       </c>
       <c r="L119" s="4" t="s">
         <v>427</v>
@@ -6819,9 +6751,8 @@
       <c r="J120" t="s">
         <v>293</v>
       </c>
-      <c r="K120" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>001주소</v>
+      <c r="K120" t="s">
+        <v>559</v>
       </c>
       <c r="L120" s="4" t="s">
         <v>428</v>
@@ -6858,9 +6789,8 @@
       <c r="J121" t="s">
         <v>293</v>
       </c>
-      <c r="K121" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>007주소</v>
+      <c r="K121" t="s">
+        <v>560</v>
       </c>
       <c r="L121" s="4" t="s">
         <v>429</v>
@@ -6897,9 +6827,8 @@
       <c r="J122" t="s">
         <v>293</v>
       </c>
-      <c r="K122" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>002주소</v>
+      <c r="K122" t="s">
+        <v>567</v>
       </c>
       <c r="L122" s="4" t="s">
         <v>430</v>
@@ -6936,9 +6865,8 @@
       <c r="J123" t="s">
         <v>293</v>
       </c>
-      <c r="K123" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>005주소</v>
+      <c r="K123" t="s">
+        <v>560</v>
       </c>
       <c r="L123" s="4" t="s">
         <v>431</v>
@@ -6975,9 +6903,8 @@
       <c r="J124" t="s">
         <v>302</v>
       </c>
-      <c r="K124" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>006주소</v>
+      <c r="K124" t="s">
+        <v>561</v>
       </c>
       <c r="L124" s="4" t="s">
         <v>432</v>
@@ -7014,9 +6941,8 @@
       <c r="J125" t="s">
         <v>291</v>
       </c>
-      <c r="K125" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>002주소</v>
+      <c r="K125" t="s">
+        <v>561</v>
       </c>
       <c r="L125" s="4" t="s">
         <v>433</v>
@@ -7053,9 +6979,8 @@
       <c r="J126" t="s">
         <v>293</v>
       </c>
-      <c r="K126" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>003주소</v>
+      <c r="K126" t="s">
+        <v>561</v>
       </c>
       <c r="L126" s="4" t="s">
         <v>434</v>
@@ -7092,9 +7017,8 @@
       <c r="J127" t="s">
         <v>293</v>
       </c>
-      <c r="K127" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>001주소</v>
+      <c r="K127" t="s">
+        <v>560</v>
       </c>
       <c r="L127" s="4" t="s">
         <v>435</v>
@@ -7131,9 +7055,8 @@
       <c r="J128" t="s">
         <v>298</v>
       </c>
-      <c r="K128" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>004주소</v>
+      <c r="K128" t="s">
+        <v>560</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>436</v>
@@ -7170,9 +7093,8 @@
       <c r="J129" t="s">
         <v>293</v>
       </c>
-      <c r="K129" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>005주소</v>
+      <c r="K129" t="s">
+        <v>560</v>
       </c>
       <c r="L129" s="4" t="s">
         <v>437</v>
@@ -7209,9 +7131,8 @@
       <c r="J130" t="s">
         <v>293</v>
       </c>
-      <c r="K130" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>008주소</v>
+      <c r="K130" t="s">
+        <v>560</v>
       </c>
       <c r="L130" s="4" t="s">
         <v>438</v>
@@ -7248,9 +7169,8 @@
       <c r="J131" t="s">
         <v>302</v>
       </c>
-      <c r="K131" t="str">
-        <f t="shared" ref="K131:K194" ca="1" si="2">TEXT(RANDBETWEEN(0,8), "000주소")</f>
-        <v>006주소</v>
+      <c r="K131" t="s">
+        <v>567</v>
       </c>
       <c r="L131" s="4" t="s">
         <v>439</v>
@@ -7287,9 +7207,8 @@
       <c r="J132" t="s">
         <v>293</v>
       </c>
-      <c r="K132" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>008주소</v>
+      <c r="K132" t="s">
+        <v>560</v>
       </c>
       <c r="L132" s="4" t="s">
         <v>440</v>
@@ -7326,9 +7245,8 @@
       <c r="J133" t="s">
         <v>302</v>
       </c>
-      <c r="K133" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>008주소</v>
+      <c r="K133" t="s">
+        <v>560</v>
       </c>
       <c r="L133" s="4" t="s">
         <v>441</v>
@@ -7365,9 +7283,8 @@
       <c r="J134" t="s">
         <v>293</v>
       </c>
-      <c r="K134" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>007주소</v>
+      <c r="K134" t="s">
+        <v>562</v>
       </c>
       <c r="L134" s="4" t="s">
         <v>442</v>
@@ -7404,9 +7321,8 @@
       <c r="J135" t="s">
         <v>293</v>
       </c>
-      <c r="K135" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>008주소</v>
+      <c r="K135" t="s">
+        <v>559</v>
       </c>
       <c r="L135" s="4" t="s">
         <v>443</v>
@@ -7443,9 +7359,8 @@
       <c r="J136" t="s">
         <v>291</v>
       </c>
-      <c r="K136" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>008주소</v>
+      <c r="K136" t="s">
+        <v>560</v>
       </c>
       <c r="L136" s="4" t="s">
         <v>444</v>
@@ -7482,9 +7397,8 @@
       <c r="J137" t="s">
         <v>293</v>
       </c>
-      <c r="K137" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>007주소</v>
+      <c r="K137" t="s">
+        <v>560</v>
       </c>
       <c r="L137" s="4" t="s">
         <v>445</v>
@@ -7521,9 +7435,8 @@
       <c r="J138" t="s">
         <v>293</v>
       </c>
-      <c r="K138" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>002주소</v>
+      <c r="K138" t="s">
+        <v>560</v>
       </c>
       <c r="L138" s="4" t="s">
         <v>367</v>
@@ -7560,9 +7473,8 @@
       <c r="J139" t="s">
         <v>293</v>
       </c>
-      <c r="K139" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>003주소</v>
+      <c r="K139" t="s">
+        <v>563</v>
       </c>
       <c r="L139" s="4" t="s">
         <v>352</v>
@@ -7599,9 +7511,8 @@
       <c r="J140" t="s">
         <v>291</v>
       </c>
-      <c r="K140" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>005주소</v>
+      <c r="K140" t="s">
+        <v>567</v>
       </c>
       <c r="L140" s="4" t="s">
         <v>410</v>
@@ -7638,9 +7549,8 @@
       <c r="J141" t="s">
         <v>293</v>
       </c>
-      <c r="K141" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>007주소</v>
+      <c r="K141" t="s">
+        <v>560</v>
       </c>
       <c r="L141" s="4" t="s">
         <v>446</v>
@@ -7677,9 +7587,8 @@
       <c r="J142" t="s">
         <v>293</v>
       </c>
-      <c r="K142" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>001주소</v>
+      <c r="K142" t="s">
+        <v>560</v>
       </c>
       <c r="L142" s="4" t="s">
         <v>447</v>
@@ -7716,9 +7625,8 @@
       <c r="J143" t="s">
         <v>293</v>
       </c>
-      <c r="K143" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>006주소</v>
+      <c r="K143" t="s">
+        <v>560</v>
       </c>
       <c r="L143" s="4" t="s">
         <v>338</v>
@@ -7755,9 +7663,8 @@
       <c r="J144" t="s">
         <v>302</v>
       </c>
-      <c r="K144" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>001주소</v>
+      <c r="K144" t="s">
+        <v>561</v>
       </c>
       <c r="L144" s="4" t="s">
         <v>448</v>
@@ -7794,9 +7701,8 @@
       <c r="J145" t="s">
         <v>291</v>
       </c>
-      <c r="K145" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>006주소</v>
+      <c r="K145" t="s">
+        <v>567</v>
       </c>
       <c r="L145" s="4" t="s">
         <v>420</v>
@@ -7833,9 +7739,8 @@
       <c r="J146" t="s">
         <v>298</v>
       </c>
-      <c r="K146" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>004주소</v>
+      <c r="K146" t="s">
+        <v>567</v>
       </c>
       <c r="L146" s="4" t="s">
         <v>385</v>
@@ -7872,9 +7777,8 @@
       <c r="J147" t="s">
         <v>291</v>
       </c>
-      <c r="K147" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>001주소</v>
+      <c r="K147" t="s">
+        <v>567</v>
       </c>
       <c r="L147" s="4" t="s">
         <v>360</v>
@@ -7911,9 +7815,8 @@
       <c r="J148" t="s">
         <v>293</v>
       </c>
-      <c r="K148" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>002주소</v>
+      <c r="K148" t="s">
+        <v>561</v>
       </c>
       <c r="L148" s="4" t="s">
         <v>406</v>
@@ -7950,9 +7853,8 @@
       <c r="J149" t="s">
         <v>293</v>
       </c>
-      <c r="K149" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>005주소</v>
+      <c r="K149" t="s">
+        <v>560</v>
       </c>
       <c r="L149" s="4" t="s">
         <v>358</v>
@@ -7989,9 +7891,8 @@
       <c r="J150" t="s">
         <v>302</v>
       </c>
-      <c r="K150" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>000주소</v>
+      <c r="K150" t="s">
+        <v>560</v>
       </c>
       <c r="L150" s="4" t="s">
         <v>345</v>
@@ -8028,9 +7929,8 @@
       <c r="J151" t="s">
         <v>295</v>
       </c>
-      <c r="K151" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>004주소</v>
+      <c r="K151" t="s">
+        <v>562</v>
       </c>
       <c r="L151" s="4" t="s">
         <v>318</v>
@@ -8067,9 +7967,8 @@
       <c r="J152" t="s">
         <v>291</v>
       </c>
-      <c r="K152" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>002주소</v>
+      <c r="K152" t="s">
+        <v>562</v>
       </c>
       <c r="L152" s="4" t="s">
         <v>449</v>
@@ -8106,9 +8005,8 @@
       <c r="J153" t="s">
         <v>302</v>
       </c>
-      <c r="K153" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>005주소</v>
+      <c r="K153" t="s">
+        <v>559</v>
       </c>
       <c r="L153" s="4" t="s">
         <v>450</v>
@@ -8145,9 +8043,8 @@
       <c r="J154" t="s">
         <v>291</v>
       </c>
-      <c r="K154" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>001주소</v>
+      <c r="K154" t="s">
+        <v>560</v>
       </c>
       <c r="L154" s="4" t="s">
         <v>451</v>
@@ -8184,9 +8081,8 @@
       <c r="J155" t="s">
         <v>302</v>
       </c>
-      <c r="K155" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>001주소</v>
+      <c r="K155" t="s">
+        <v>560</v>
       </c>
       <c r="L155" s="4" t="s">
         <v>452</v>
@@ -8223,9 +8119,8 @@
       <c r="J156" t="s">
         <v>293</v>
       </c>
-      <c r="K156" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>002주소</v>
+      <c r="K156" t="s">
+        <v>559</v>
       </c>
       <c r="L156" s="4" t="s">
         <v>453</v>
@@ -8262,9 +8157,8 @@
       <c r="J157" t="s">
         <v>293</v>
       </c>
-      <c r="K157" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>004주소</v>
+      <c r="K157" t="s">
+        <v>560</v>
       </c>
       <c r="L157" s="4" t="s">
         <v>321</v>
@@ -8301,9 +8195,8 @@
       <c r="J158" t="s">
         <v>293</v>
       </c>
-      <c r="K158" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>002주소</v>
+      <c r="K158" t="s">
+        <v>560</v>
       </c>
       <c r="L158" s="4" t="s">
         <v>454</v>
@@ -8340,9 +8233,8 @@
       <c r="J159" t="s">
         <v>293</v>
       </c>
-      <c r="K159" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>003주소</v>
+      <c r="K159" t="s">
+        <v>560</v>
       </c>
       <c r="L159" s="4" t="s">
         <v>455</v>
@@ -8379,9 +8271,8 @@
       <c r="J160" t="s">
         <v>293</v>
       </c>
-      <c r="K160" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>002주소</v>
+      <c r="K160" t="s">
+        <v>560</v>
       </c>
       <c r="L160" s="4" t="s">
         <v>456</v>
@@ -8418,9 +8309,8 @@
       <c r="J161" t="s">
         <v>293</v>
       </c>
-      <c r="K161" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>006주소</v>
+      <c r="K161" t="s">
+        <v>562</v>
       </c>
       <c r="L161" s="4" t="s">
         <v>330</v>
@@ -8457,9 +8347,8 @@
       <c r="J162" t="s">
         <v>302</v>
       </c>
-      <c r="K162" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>002주소</v>
+      <c r="K162" t="s">
+        <v>560</v>
       </c>
       <c r="L162" s="4" t="s">
         <v>436</v>
@@ -8496,9 +8385,8 @@
       <c r="J163" t="s">
         <v>302</v>
       </c>
-      <c r="K163" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>006주소</v>
+      <c r="K163" t="s">
+        <v>560</v>
       </c>
       <c r="L163" s="4" t="s">
         <v>457</v>
@@ -8535,9 +8423,8 @@
       <c r="J164" t="s">
         <v>293</v>
       </c>
-      <c r="K164" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>003주소</v>
+      <c r="K164" t="s">
+        <v>559</v>
       </c>
       <c r="L164" s="4" t="s">
         <v>458</v>
@@ -8574,9 +8461,8 @@
       <c r="J165" t="s">
         <v>293</v>
       </c>
-      <c r="K165" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>000주소</v>
+      <c r="K165" t="s">
+        <v>560</v>
       </c>
       <c r="L165" s="4" t="s">
         <v>444</v>
@@ -8613,9 +8499,8 @@
       <c r="J166" t="s">
         <v>302</v>
       </c>
-      <c r="K166" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>007주소</v>
+      <c r="K166" t="s">
+        <v>562</v>
       </c>
       <c r="L166" s="4" t="s">
         <v>459</v>
@@ -8652,9 +8537,8 @@
       <c r="J167" t="s">
         <v>302</v>
       </c>
-      <c r="K167" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>006주소</v>
+      <c r="K167" t="s">
+        <v>560</v>
       </c>
       <c r="L167" s="4" t="s">
         <v>460</v>
@@ -8691,9 +8575,8 @@
       <c r="J168" t="s">
         <v>291</v>
       </c>
-      <c r="K168" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>003주소</v>
+      <c r="K168" t="s">
+        <v>560</v>
       </c>
       <c r="L168" s="4" t="s">
         <v>384</v>
@@ -8730,9 +8613,8 @@
       <c r="J169" t="s">
         <v>291</v>
       </c>
-      <c r="K169" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>001주소</v>
+      <c r="K169" t="s">
+        <v>569</v>
       </c>
       <c r="L169" s="4" t="s">
         <v>361</v>
@@ -8769,9 +8651,8 @@
       <c r="J170" t="s">
         <v>295</v>
       </c>
-      <c r="K170" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>003주소</v>
+      <c r="K170" t="s">
+        <v>561</v>
       </c>
       <c r="L170" s="4" t="s">
         <v>461</v>
@@ -8808,9 +8689,8 @@
       <c r="J171" t="s">
         <v>293</v>
       </c>
-      <c r="K171" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>003주소</v>
+      <c r="K171" t="s">
+        <v>559</v>
       </c>
       <c r="L171" s="4" t="s">
         <v>375</v>
@@ -8847,9 +8727,8 @@
       <c r="J172" t="s">
         <v>302</v>
       </c>
-      <c r="K172" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>006주소</v>
+      <c r="K172" t="s">
+        <v>560</v>
       </c>
       <c r="L172" s="4" t="s">
         <v>347</v>
@@ -8886,9 +8765,8 @@
       <c r="J173" t="s">
         <v>302</v>
       </c>
-      <c r="K173" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>005주소</v>
+      <c r="K173" t="s">
+        <v>560</v>
       </c>
       <c r="L173" s="4" t="s">
         <v>462</v>
@@ -8925,9 +8803,8 @@
       <c r="J174" t="s">
         <v>302</v>
       </c>
-      <c r="K174" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>006주소</v>
+      <c r="K174" t="s">
+        <v>560</v>
       </c>
       <c r="L174" s="4" t="s">
         <v>392</v>
@@ -8964,9 +8841,8 @@
       <c r="J175" t="s">
         <v>291</v>
       </c>
-      <c r="K175" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>006주소</v>
+      <c r="K175" t="s">
+        <v>560</v>
       </c>
       <c r="L175" s="4" t="s">
         <v>463</v>
@@ -9003,9 +8879,8 @@
       <c r="J176" t="s">
         <v>293</v>
       </c>
-      <c r="K176" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>006주소</v>
+      <c r="K176" t="s">
+        <v>561</v>
       </c>
       <c r="L176" s="4" t="s">
         <v>464</v>
@@ -9042,9 +8917,8 @@
       <c r="J177" t="s">
         <v>302</v>
       </c>
-      <c r="K177" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>007주소</v>
+      <c r="K177" t="s">
+        <v>560</v>
       </c>
       <c r="L177" s="4" t="s">
         <v>413</v>
@@ -9081,9 +8955,8 @@
       <c r="J178" t="s">
         <v>295</v>
       </c>
-      <c r="K178" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>004주소</v>
+      <c r="K178" t="s">
+        <v>562</v>
       </c>
       <c r="L178" s="4" t="s">
         <v>399</v>
@@ -9120,9 +8993,8 @@
       <c r="J179" t="s">
         <v>295</v>
       </c>
-      <c r="K179" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>006주소</v>
+      <c r="K179" t="s">
+        <v>559</v>
       </c>
       <c r="L179" s="4" t="s">
         <v>443</v>
@@ -9159,9 +9031,8 @@
       <c r="J180" t="s">
         <v>0</v>
       </c>
-      <c r="K180" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>003주소</v>
+      <c r="K180" t="s">
+        <v>560</v>
       </c>
       <c r="L180" s="4" t="s">
         <v>440</v>
@@ -9198,9 +9069,8 @@
       <c r="J181" t="s">
         <v>302</v>
       </c>
-      <c r="K181" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>004주소</v>
+      <c r="K181" t="s">
+        <v>560</v>
       </c>
       <c r="L181" s="4" t="s">
         <v>465</v>
@@ -9237,9 +9107,8 @@
       <c r="J182" t="s">
         <v>302</v>
       </c>
-      <c r="K182" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>005주소</v>
+      <c r="K182" t="s">
+        <v>560</v>
       </c>
       <c r="L182" s="4" t="s">
         <v>359</v>
@@ -9276,9 +9145,8 @@
       <c r="J183" t="s">
         <v>302</v>
       </c>
-      <c r="K183" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>004주소</v>
+      <c r="K183" t="s">
+        <v>559</v>
       </c>
       <c r="L183" s="4" t="s">
         <v>466</v>
@@ -9315,9 +9183,8 @@
       <c r="J184" t="s">
         <v>293</v>
       </c>
-      <c r="K184" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>004주소</v>
+      <c r="K184" t="s">
+        <v>560</v>
       </c>
       <c r="L184" s="4" t="s">
         <v>405</v>
@@ -9354,9 +9221,8 @@
       <c r="J185" t="s">
         <v>293</v>
       </c>
-      <c r="K185" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>006주소</v>
+      <c r="K185" t="s">
+        <v>560</v>
       </c>
       <c r="L185" s="4" t="s">
         <v>467</v>
@@ -9393,9 +9259,8 @@
       <c r="J186" t="s">
         <v>293</v>
       </c>
-      <c r="K186" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>003주소</v>
+      <c r="K186" t="s">
+        <v>560</v>
       </c>
       <c r="L186" s="4" t="s">
         <v>468</v>
@@ -9432,9 +9297,8 @@
       <c r="J187" t="s">
         <v>302</v>
       </c>
-      <c r="K187" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>002주소</v>
+      <c r="K187" t="s">
+        <v>560</v>
       </c>
       <c r="L187" s="4" t="s">
         <v>469</v>
@@ -9471,9 +9335,8 @@
       <c r="J188" t="s">
         <v>295</v>
       </c>
-      <c r="K188" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>001주소</v>
+      <c r="K188" t="s">
+        <v>560</v>
       </c>
       <c r="L188" s="4" t="s">
         <v>470</v>
@@ -9510,9 +9373,8 @@
       <c r="J189" t="s">
         <v>300</v>
       </c>
-      <c r="K189" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>002주소</v>
+      <c r="K189" t="s">
+        <v>560</v>
       </c>
       <c r="L189" s="4" t="s">
         <v>471</v>
@@ -9549,9 +9411,8 @@
       <c r="J190" t="s">
         <v>0</v>
       </c>
-      <c r="K190" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>003주소</v>
+      <c r="K190" t="s">
+        <v>562</v>
       </c>
       <c r="L190" s="4" t="s">
         <v>396</v>
@@ -9588,9 +9449,8 @@
       <c r="J191" t="s">
         <v>302</v>
       </c>
-      <c r="K191" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>007주소</v>
+      <c r="K191" t="s">
+        <v>560</v>
       </c>
       <c r="L191" s="4" t="s">
         <v>472</v>
@@ -9627,9 +9487,8 @@
       <c r="J192" t="s">
         <v>293</v>
       </c>
-      <c r="K192" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>004주소</v>
+      <c r="K192" t="s">
+        <v>567</v>
       </c>
       <c r="L192" s="4" t="s">
         <v>473</v>
@@ -9666,9 +9525,8 @@
       <c r="J193" t="s">
         <v>293</v>
       </c>
-      <c r="K193" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>002주소</v>
+      <c r="K193" t="s">
+        <v>560</v>
       </c>
       <c r="L193" s="4" t="s">
         <v>435</v>
@@ -9705,9 +9563,8 @@
       <c r="J194" t="s">
         <v>302</v>
       </c>
-      <c r="K194" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>001주소</v>
+      <c r="K194" t="s">
+        <v>560</v>
       </c>
       <c r="L194" s="4" t="s">
         <v>374</v>
@@ -9744,9 +9601,8 @@
       <c r="J195" t="s">
         <v>298</v>
       </c>
-      <c r="K195" t="str">
-        <f t="shared" ref="K195:K258" ca="1" si="3">TEXT(RANDBETWEEN(0,8), "000주소")</f>
-        <v>003주소</v>
+      <c r="K195" t="s">
+        <v>561</v>
       </c>
       <c r="L195" s="4" t="s">
         <v>316</v>
@@ -9783,9 +9639,8 @@
       <c r="J196" t="s">
         <v>291</v>
       </c>
-      <c r="K196" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>005주소</v>
+      <c r="K196" t="s">
+        <v>560</v>
       </c>
       <c r="L196" s="4" t="s">
         <v>339</v>
@@ -9822,9 +9677,8 @@
       <c r="J197" t="s">
         <v>291</v>
       </c>
-      <c r="K197" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>001주소</v>
+      <c r="K197" t="s">
+        <v>562</v>
       </c>
       <c r="L197" s="4" t="s">
         <v>474</v>
@@ -9861,9 +9715,8 @@
       <c r="J198" t="s">
         <v>298</v>
       </c>
-      <c r="K198" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>002주소</v>
+      <c r="K198" t="s">
+        <v>560</v>
       </c>
       <c r="L198" s="4" t="s">
         <v>475</v>
@@ -9900,9 +9753,8 @@
       <c r="J199" t="s">
         <v>293</v>
       </c>
-      <c r="K199" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>006주소</v>
+      <c r="K199" t="s">
+        <v>560</v>
       </c>
       <c r="L199" s="4" t="s">
         <v>476</v>
@@ -9939,9 +9791,8 @@
       <c r="J200" t="s">
         <v>291</v>
       </c>
-      <c r="K200" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>007주소</v>
+      <c r="K200" t="s">
+        <v>559</v>
       </c>
       <c r="L200" s="4" t="s">
         <v>477</v>
@@ -9978,9 +9829,8 @@
       <c r="J201" t="s">
         <v>302</v>
       </c>
-      <c r="K201" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>007주소</v>
+      <c r="K201" t="s">
+        <v>560</v>
       </c>
       <c r="L201" s="4" t="s">
         <v>478</v>
@@ -10017,9 +9867,8 @@
       <c r="J202" t="s">
         <v>291</v>
       </c>
-      <c r="K202" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>000주소</v>
+      <c r="K202" t="s">
+        <v>568</v>
       </c>
       <c r="L202" s="4" t="s">
         <v>479</v>
@@ -10056,9 +9905,8 @@
       <c r="J203" t="s">
         <v>302</v>
       </c>
-      <c r="K203" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>005주소</v>
+      <c r="K203" t="s">
+        <v>561</v>
       </c>
       <c r="L203" s="4" t="s">
         <v>480</v>
@@ -10095,9 +9943,8 @@
       <c r="J204" t="s">
         <v>291</v>
       </c>
-      <c r="K204" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>007주소</v>
+      <c r="K204" t="s">
+        <v>567</v>
       </c>
       <c r="L204" s="4" t="s">
         <v>481</v>
@@ -10134,9 +9981,8 @@
       <c r="J205" t="s">
         <v>302</v>
       </c>
-      <c r="K205" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>008주소</v>
+      <c r="K205" t="s">
+        <v>560</v>
       </c>
       <c r="L205" s="4" t="s">
         <v>482</v>
@@ -10173,9 +10019,8 @@
       <c r="J206" t="s">
         <v>293</v>
       </c>
-      <c r="K206" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>007주소</v>
+      <c r="K206" t="s">
+        <v>561</v>
       </c>
       <c r="L206" s="4" t="s">
         <v>483</v>
@@ -10212,9 +10057,8 @@
       <c r="J207" t="s">
         <v>291</v>
       </c>
-      <c r="K207" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>000주소</v>
+      <c r="K207" t="s">
+        <v>559</v>
       </c>
       <c r="L207" s="4" t="s">
         <v>484</v>
@@ -10251,9 +10095,8 @@
       <c r="J208" t="s">
         <v>302</v>
       </c>
-      <c r="K208" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>004주소</v>
+      <c r="K208" t="s">
+        <v>563</v>
       </c>
       <c r="L208" s="4" t="s">
         <v>336</v>
@@ -10290,9 +10133,8 @@
       <c r="J209" t="s">
         <v>293</v>
       </c>
-      <c r="K209" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>006주소</v>
+      <c r="K209" t="s">
+        <v>560</v>
       </c>
       <c r="L209" s="4" t="s">
         <v>485</v>
@@ -10329,9 +10171,8 @@
       <c r="J210" t="s">
         <v>293</v>
       </c>
-      <c r="K210" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>005주소</v>
+      <c r="K210" t="s">
+        <v>569</v>
       </c>
       <c r="L210" s="4" t="s">
         <v>486</v>
@@ -10368,9 +10209,8 @@
       <c r="J211" t="s">
         <v>302</v>
       </c>
-      <c r="K211" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>000주소</v>
+      <c r="K211" t="s">
+        <v>562</v>
       </c>
       <c r="L211" s="4" t="s">
         <v>487</v>
@@ -10407,9 +10247,8 @@
       <c r="J212" t="s">
         <v>293</v>
       </c>
-      <c r="K212" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>006주소</v>
+      <c r="K212" t="s">
+        <v>560</v>
       </c>
       <c r="L212" s="4" t="s">
         <v>488</v>
@@ -10446,9 +10285,8 @@
       <c r="J213" t="s">
         <v>302</v>
       </c>
-      <c r="K213" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>006주소</v>
+      <c r="K213" t="s">
+        <v>567</v>
       </c>
       <c r="L213" s="4" t="s">
         <v>489</v>
@@ -10485,9 +10323,8 @@
       <c r="J214" t="s">
         <v>302</v>
       </c>
-      <c r="K214" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>003주소</v>
+      <c r="K214" t="s">
+        <v>563</v>
       </c>
       <c r="L214" s="4" t="s">
         <v>490</v>
@@ -10524,9 +10361,8 @@
       <c r="J215" t="s">
         <v>302</v>
       </c>
-      <c r="K215" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>008주소</v>
+      <c r="K215" t="s">
+        <v>561</v>
       </c>
       <c r="L215" s="4" t="s">
         <v>423</v>
@@ -10563,9 +10399,8 @@
       <c r="J216" t="s">
         <v>302</v>
       </c>
-      <c r="K216" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>002주소</v>
+      <c r="K216" t="s">
+        <v>561</v>
       </c>
       <c r="L216" s="4" t="s">
         <v>433</v>
@@ -10602,9 +10437,8 @@
       <c r="J217" t="s">
         <v>291</v>
       </c>
-      <c r="K217" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>002주소</v>
+      <c r="K217" t="s">
+        <v>560</v>
       </c>
       <c r="L217" s="4" t="s">
         <v>491</v>
@@ -10641,9 +10475,8 @@
       <c r="J218" t="s">
         <v>291</v>
       </c>
-      <c r="K218" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>002주소</v>
+      <c r="K218" t="s">
+        <v>561</v>
       </c>
       <c r="L218" s="4" t="s">
         <v>492</v>
@@ -10680,9 +10513,8 @@
       <c r="J219" t="s">
         <v>291</v>
       </c>
-      <c r="K219" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>008주소</v>
+      <c r="K219" t="s">
+        <v>561</v>
       </c>
       <c r="L219" s="4" t="s">
         <v>493</v>
@@ -10719,9 +10551,8 @@
       <c r="J220" t="s">
         <v>302</v>
       </c>
-      <c r="K220" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>003주소</v>
+      <c r="K220" t="s">
+        <v>561</v>
       </c>
       <c r="L220" s="4" t="s">
         <v>434</v>
@@ -10758,9 +10589,8 @@
       <c r="J221" t="s">
         <v>302</v>
       </c>
-      <c r="K221" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>000주소</v>
+      <c r="K221" t="s">
+        <v>559</v>
       </c>
       <c r="L221" s="4" t="s">
         <v>494</v>
@@ -10797,9 +10627,8 @@
       <c r="J222" t="s">
         <v>293</v>
       </c>
-      <c r="K222" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>007주소</v>
+      <c r="K222" t="s">
+        <v>560</v>
       </c>
       <c r="L222" s="4" t="s">
         <v>495</v>
@@ -10836,9 +10665,8 @@
       <c r="J223" t="s">
         <v>302</v>
       </c>
-      <c r="K223" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>000주소</v>
+      <c r="K223" t="s">
+        <v>569</v>
       </c>
       <c r="L223" s="4" t="s">
         <v>496</v>
@@ -10875,9 +10703,8 @@
       <c r="J224" t="s">
         <v>291</v>
       </c>
-      <c r="K224" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>007주소</v>
+      <c r="K224" t="s">
+        <v>567</v>
       </c>
       <c r="L224" s="4" t="s">
         <v>497</v>
@@ -10914,9 +10741,8 @@
       <c r="J225" t="s">
         <v>293</v>
       </c>
-      <c r="K225" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>008주소</v>
+      <c r="K225" t="s">
+        <v>559</v>
       </c>
       <c r="L225" s="4" t="s">
         <v>426</v>
@@ -10953,9 +10779,8 @@
       <c r="J226" t="s">
         <v>291</v>
       </c>
-      <c r="K226" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>008주소</v>
+      <c r="K226" t="s">
+        <v>564</v>
       </c>
       <c r="L226" s="4" t="s">
         <v>498</v>
@@ -10992,9 +10817,8 @@
       <c r="J227" t="s">
         <v>293</v>
       </c>
-      <c r="K227" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>004주소</v>
+      <c r="K227" t="s">
+        <v>560</v>
       </c>
       <c r="L227" s="4" t="s">
         <v>499</v>
@@ -11031,9 +10855,8 @@
       <c r="J228" t="s">
         <v>291</v>
       </c>
-      <c r="K228" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>005주소</v>
+      <c r="K228" t="s">
+        <v>559</v>
       </c>
       <c r="L228" s="4" t="s">
         <v>500</v>
@@ -11070,9 +10893,8 @@
       <c r="J229" t="s">
         <v>302</v>
       </c>
-      <c r="K229" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>008주소</v>
+      <c r="K229" t="s">
+        <v>561</v>
       </c>
       <c r="L229" s="4" t="s">
         <v>501</v>
@@ -11109,9 +10931,8 @@
       <c r="J230" t="s">
         <v>293</v>
       </c>
-      <c r="K230" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>001주소</v>
+      <c r="K230" t="s">
+        <v>568</v>
       </c>
       <c r="L230" s="4" t="s">
         <v>502</v>
@@ -11148,9 +10969,8 @@
       <c r="J231" t="s">
         <v>302</v>
       </c>
-      <c r="K231" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>005주소</v>
+      <c r="K231" t="s">
+        <v>567</v>
       </c>
       <c r="L231" s="4" t="s">
         <v>503</v>
@@ -11187,9 +11007,8 @@
       <c r="J232" t="s">
         <v>293</v>
       </c>
-      <c r="K232" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>008주소</v>
+      <c r="K232" t="s">
+        <v>560</v>
       </c>
       <c r="L232" s="4" t="s">
         <v>441</v>
@@ -11226,9 +11045,8 @@
       <c r="J233" t="s">
         <v>291</v>
       </c>
-      <c r="K233" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>002주소</v>
+      <c r="K233" t="s">
+        <v>561</v>
       </c>
       <c r="L233" s="4" t="s">
         <v>504</v>
@@ -11265,9 +11083,8 @@
       <c r="J234" t="s">
         <v>295</v>
       </c>
-      <c r="K234" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>004주소</v>
+      <c r="K234" t="s">
+        <v>559</v>
       </c>
       <c r="L234" s="4" t="s">
         <v>505</v>
@@ -11304,9 +11121,8 @@
       <c r="J235" t="s">
         <v>293</v>
       </c>
-      <c r="K235" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>004주소</v>
+      <c r="K235" t="s">
+        <v>559</v>
       </c>
       <c r="L235" s="4" t="s">
         <v>506</v>
@@ -11343,9 +11159,8 @@
       <c r="J236" t="s">
         <v>293</v>
       </c>
-      <c r="K236" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>001주소</v>
+      <c r="K236" t="s">
+        <v>560</v>
       </c>
       <c r="L236" s="4" t="s">
         <v>507</v>
@@ -11382,9 +11197,8 @@
       <c r="J237" t="s">
         <v>293</v>
       </c>
-      <c r="K237" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>004주소</v>
+      <c r="K237" t="s">
+        <v>559</v>
       </c>
       <c r="L237" s="4" t="s">
         <v>508</v>
@@ -11421,9 +11235,8 @@
       <c r="J238" t="s">
         <v>291</v>
       </c>
-      <c r="K238" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>001주소</v>
+      <c r="K238" t="s">
+        <v>562</v>
       </c>
       <c r="L238" s="4" t="s">
         <v>442</v>
@@ -11460,9 +11273,8 @@
       <c r="J239" t="s">
         <v>293</v>
       </c>
-      <c r="K239" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>008주소</v>
+      <c r="K239" t="s">
+        <v>561</v>
       </c>
       <c r="L239" s="4" t="s">
         <v>509</v>
@@ -11499,9 +11311,8 @@
       <c r="J240" t="s">
         <v>295</v>
       </c>
-      <c r="K240" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>005주소</v>
+      <c r="K240" t="s">
+        <v>559</v>
       </c>
       <c r="L240" s="4" t="s">
         <v>383</v>
@@ -11538,9 +11349,8 @@
       <c r="J241" t="s">
         <v>293</v>
       </c>
-      <c r="K241" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>001주소</v>
+      <c r="K241" t="s">
+        <v>569</v>
       </c>
       <c r="L241" s="4" t="s">
         <v>510</v>
@@ -11577,9 +11387,8 @@
       <c r="J242" t="s">
         <v>298</v>
       </c>
-      <c r="K242" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>001주소</v>
+      <c r="K242" t="s">
+        <v>562</v>
       </c>
       <c r="L242" s="4" t="s">
         <v>511</v>
@@ -11616,9 +11425,8 @@
       <c r="J243" t="s">
         <v>293</v>
       </c>
-      <c r="K243" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>003주소</v>
+      <c r="K243" t="s">
+        <v>567</v>
       </c>
       <c r="L243" s="4" t="s">
         <v>512</v>
@@ -11655,9 +11463,8 @@
       <c r="J244" t="s">
         <v>302</v>
       </c>
-      <c r="K244" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>008주소</v>
+      <c r="K244" t="s">
+        <v>565</v>
       </c>
       <c r="L244" s="4" t="s">
         <v>513</v>
@@ -11694,9 +11501,8 @@
       <c r="J245" t="s">
         <v>293</v>
       </c>
-      <c r="K245" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>003주소</v>
+      <c r="K245" t="s">
+        <v>559</v>
       </c>
       <c r="L245" s="4" t="s">
         <v>514</v>
@@ -11733,9 +11539,8 @@
       <c r="J246" t="s">
         <v>302</v>
       </c>
-      <c r="K246" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>003주소</v>
+      <c r="K246" t="s">
+        <v>561</v>
       </c>
       <c r="L246" s="4" t="s">
         <v>515</v>
@@ -11772,9 +11577,8 @@
       <c r="J247" t="s">
         <v>302</v>
       </c>
-      <c r="K247" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>008주소</v>
+      <c r="K247" t="s">
+        <v>560</v>
       </c>
       <c r="L247" s="4" t="s">
         <v>516</v>
@@ -11811,9 +11615,8 @@
       <c r="J248" t="s">
         <v>291</v>
       </c>
-      <c r="K248" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>000주소</v>
+      <c r="K248" t="s">
+        <v>561</v>
       </c>
       <c r="L248" s="4" t="s">
         <v>517</v>
@@ -11850,9 +11653,8 @@
       <c r="J249" t="s">
         <v>302</v>
       </c>
-      <c r="K249" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>006주소</v>
+      <c r="K249" t="s">
+        <v>560</v>
       </c>
       <c r="L249" s="4" t="s">
         <v>518</v>
@@ -11889,9 +11691,8 @@
       <c r="J250" t="s">
         <v>302</v>
       </c>
-      <c r="K250" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>003주소</v>
+      <c r="K250" t="s">
+        <v>561</v>
       </c>
       <c r="L250" s="4" t="s">
         <v>519</v>
@@ -11928,9 +11729,8 @@
       <c r="J251" t="s">
         <v>293</v>
       </c>
-      <c r="K251" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>007주소</v>
+      <c r="K251" t="s">
+        <v>560</v>
       </c>
       <c r="L251" s="4" t="s">
         <v>424</v>
@@ -11967,9 +11767,8 @@
       <c r="J252" t="s">
         <v>302</v>
       </c>
-      <c r="K252" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>006주소</v>
+      <c r="K252" t="s">
+        <v>561</v>
       </c>
       <c r="L252" s="4" t="s">
         <v>520</v>
@@ -12006,9 +11805,8 @@
       <c r="J253" t="s">
         <v>300</v>
       </c>
-      <c r="K253" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>008주소</v>
+      <c r="K253" t="s">
+        <v>562</v>
       </c>
       <c r="L253" s="4" t="s">
         <v>521</v>
@@ -12045,9 +11843,8 @@
       <c r="J254" t="s">
         <v>293</v>
       </c>
-      <c r="K254" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>001주소</v>
+      <c r="K254" t="s">
+        <v>560</v>
       </c>
       <c r="L254" s="4" t="s">
         <v>522</v>
@@ -12084,9 +11881,8 @@
       <c r="J255" t="s">
         <v>293</v>
       </c>
-      <c r="K255" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>000주소</v>
+      <c r="K255" t="s">
+        <v>561</v>
       </c>
       <c r="L255" s="4" t="s">
         <v>523</v>
@@ -12123,9 +11919,8 @@
       <c r="J256" t="s">
         <v>302</v>
       </c>
-      <c r="K256" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>008주소</v>
+      <c r="K256" t="s">
+        <v>560</v>
       </c>
       <c r="L256" s="4" t="s">
         <v>524</v>
@@ -12162,9 +11957,8 @@
       <c r="J257" t="s">
         <v>300</v>
       </c>
-      <c r="K257" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>003주소</v>
+      <c r="K257" t="s">
+        <v>560</v>
       </c>
       <c r="L257" s="4" t="s">
         <v>525</v>
@@ -12201,9 +11995,8 @@
       <c r="J258" t="s">
         <v>302</v>
       </c>
-      <c r="K258" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>006주소</v>
+      <c r="K258" t="s">
+        <v>560</v>
       </c>
       <c r="L258" s="4" t="s">
         <v>526</v>
@@ -12240,9 +12033,8 @@
       <c r="J259" t="s">
         <v>302</v>
       </c>
-      <c r="K259" t="str">
-        <f t="shared" ref="K259:K291" ca="1" si="4">TEXT(RANDBETWEEN(0,8), "000주소")</f>
-        <v>002주소</v>
+      <c r="K259" t="s">
+        <v>567</v>
       </c>
       <c r="L259" s="4" t="s">
         <v>527</v>
@@ -12279,9 +12071,8 @@
       <c r="J260" t="s">
         <v>302</v>
       </c>
-      <c r="K260" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>002주소</v>
+      <c r="K260" t="s">
+        <v>559</v>
       </c>
       <c r="L260" s="4" t="s">
         <v>408</v>
@@ -12318,9 +12109,8 @@
       <c r="J261" t="s">
         <v>302</v>
       </c>
-      <c r="K261" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>000주소</v>
+      <c r="K261" t="s">
+        <v>561</v>
       </c>
       <c r="L261" s="4" t="s">
         <v>528</v>
@@ -12357,9 +12147,8 @@
       <c r="J262" t="s">
         <v>291</v>
       </c>
-      <c r="K262" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>004주소</v>
+      <c r="K262" t="s">
+        <v>560</v>
       </c>
       <c r="L262" s="4" t="s">
         <v>529</v>
@@ -12396,9 +12185,8 @@
       <c r="J263" t="s">
         <v>300</v>
       </c>
-      <c r="K263" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>004주소</v>
+      <c r="K263" t="s">
+        <v>562</v>
       </c>
       <c r="L263" s="4" t="s">
         <v>530</v>
@@ -12435,9 +12223,8 @@
       <c r="J264" t="s">
         <v>291</v>
       </c>
-      <c r="K264" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>003주소</v>
+      <c r="K264" t="s">
+        <v>567</v>
       </c>
       <c r="L264" s="4" t="s">
         <v>531</v>
@@ -12474,9 +12261,8 @@
       <c r="J265" t="s">
         <v>295</v>
       </c>
-      <c r="K265" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>007주소</v>
+      <c r="K265" t="s">
+        <v>560</v>
       </c>
       <c r="L265" s="4" t="s">
         <v>532</v>
@@ -12513,9 +12299,8 @@
       <c r="J266" t="s">
         <v>298</v>
       </c>
-      <c r="K266" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>006주소</v>
+      <c r="K266" t="s">
+        <v>561</v>
       </c>
       <c r="L266" s="4" t="s">
         <v>533</v>
@@ -12552,9 +12337,8 @@
       <c r="J267" t="s">
         <v>300</v>
       </c>
-      <c r="K267" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>008주소</v>
+      <c r="K267" t="s">
+        <v>559</v>
       </c>
       <c r="L267" s="4" t="s">
         <v>534</v>
@@ -12591,9 +12375,8 @@
       <c r="J268" t="s">
         <v>293</v>
       </c>
-      <c r="K268" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>001주소</v>
+      <c r="K268" t="s">
+        <v>561</v>
       </c>
       <c r="L268" s="4" t="s">
         <v>535</v>
@@ -12630,9 +12413,8 @@
       <c r="J269" t="s">
         <v>291</v>
       </c>
-      <c r="K269" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>005주소</v>
+      <c r="K269" t="s">
+        <v>559</v>
       </c>
       <c r="L269" s="4" t="s">
         <v>536</v>
@@ -12669,9 +12451,8 @@
       <c r="J270" t="s">
         <v>293</v>
       </c>
-      <c r="K270" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>003주소</v>
+      <c r="K270" t="s">
+        <v>561</v>
       </c>
       <c r="L270" s="4" t="s">
         <v>537</v>
@@ -12708,9 +12489,8 @@
       <c r="J271" t="s">
         <v>293</v>
       </c>
-      <c r="K271" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>003주소</v>
+      <c r="K271" t="s">
+        <v>563</v>
       </c>
       <c r="L271" s="4" t="s">
         <v>538</v>
@@ -12747,9 +12527,8 @@
       <c r="J272" t="s">
         <v>291</v>
       </c>
-      <c r="K272" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>001주소</v>
+      <c r="K272" t="s">
+        <v>567</v>
       </c>
       <c r="L272" s="4" t="s">
         <v>539</v>
@@ -12786,9 +12565,8 @@
       <c r="J273" t="s">
         <v>293</v>
       </c>
-      <c r="K273" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>008주소</v>
+      <c r="K273" t="s">
+        <v>560</v>
       </c>
       <c r="L273" s="4" t="s">
         <v>540</v>
@@ -12825,9 +12603,8 @@
       <c r="J274" t="s">
         <v>302</v>
       </c>
-      <c r="K274" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>004주소</v>
+      <c r="K274" t="s">
+        <v>561</v>
       </c>
       <c r="L274" s="4" t="s">
         <v>541</v>
@@ -12864,9 +12641,8 @@
       <c r="J275" t="s">
         <v>302</v>
       </c>
-      <c r="K275" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>007주소</v>
+      <c r="K275" t="s">
+        <v>559</v>
       </c>
       <c r="L275" s="4" t="s">
         <v>542</v>
@@ -12903,9 +12679,8 @@
       <c r="J276" t="s">
         <v>302</v>
       </c>
-      <c r="K276" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>006주소</v>
+      <c r="K276" t="s">
+        <v>562</v>
       </c>
       <c r="L276" s="4" t="s">
         <v>543</v>
@@ -12942,9 +12717,8 @@
       <c r="J277" t="s">
         <v>295</v>
       </c>
-      <c r="K277" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>003주소</v>
+      <c r="K277" t="s">
+        <v>567</v>
       </c>
       <c r="L277" s="4" t="s">
         <v>544</v>
@@ -12981,9 +12755,8 @@
       <c r="J278" t="s">
         <v>293</v>
       </c>
-      <c r="K278" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>008주소</v>
+      <c r="K278" t="s">
+        <v>560</v>
       </c>
       <c r="L278" s="4" t="s">
         <v>545</v>
@@ -13020,9 +12793,8 @@
       <c r="J279" t="s">
         <v>293</v>
       </c>
-      <c r="K279" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>000주소</v>
+      <c r="K279" t="s">
+        <v>560</v>
       </c>
       <c r="L279" s="4" t="s">
         <v>546</v>
@@ -13059,9 +12831,8 @@
       <c r="J280" t="s">
         <v>293</v>
       </c>
-      <c r="K280" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>007주소</v>
+      <c r="K280" t="s">
+        <v>562</v>
       </c>
       <c r="L280" s="4" t="s">
         <v>547</v>
@@ -13098,9 +12869,8 @@
       <c r="J281" t="s">
         <v>291</v>
       </c>
-      <c r="K281" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>001주소</v>
+      <c r="K281" t="s">
+        <v>562</v>
       </c>
       <c r="L281" s="4" t="s">
         <v>548</v>
@@ -13137,9 +12907,8 @@
       <c r="J282" t="s">
         <v>291</v>
       </c>
-      <c r="K282" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>005주소</v>
+      <c r="K282" t="s">
+        <v>567</v>
       </c>
       <c r="L282" s="4" t="s">
         <v>549</v>
@@ -13176,9 +12945,8 @@
       <c r="J283" t="s">
         <v>291</v>
       </c>
-      <c r="K283" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>008주소</v>
+      <c r="K283" t="s">
+        <v>567</v>
       </c>
       <c r="L283" s="4" t="s">
         <v>550</v>
@@ -13215,9 +12983,8 @@
       <c r="J284" t="s">
         <v>302</v>
       </c>
-      <c r="K284" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>006주소</v>
+      <c r="K284" t="s">
+        <v>560</v>
       </c>
       <c r="L284" s="4" t="s">
         <v>551</v>
@@ -13254,9 +13021,8 @@
       <c r="J285" t="s">
         <v>293</v>
       </c>
-      <c r="K285" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>008주소</v>
+      <c r="K285" t="s">
+        <v>561</v>
       </c>
       <c r="L285" s="4" t="s">
         <v>552</v>
@@ -13293,9 +13059,8 @@
       <c r="J286" t="s">
         <v>291</v>
       </c>
-      <c r="K286" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>007주소</v>
+      <c r="K286" t="s">
+        <v>559</v>
       </c>
       <c r="L286" s="4" t="s">
         <v>553</v>
@@ -13332,9 +13097,8 @@
       <c r="J287" t="s">
         <v>302</v>
       </c>
-      <c r="K287" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>004주소</v>
+      <c r="K287" t="s">
+        <v>559</v>
       </c>
       <c r="L287" s="4" t="s">
         <v>554</v>
@@ -13371,9 +13135,8 @@
       <c r="J288" t="s">
         <v>291</v>
       </c>
-      <c r="K288" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>007주소</v>
+      <c r="K288" t="s">
+        <v>560</v>
       </c>
       <c r="L288" s="4" t="s">
         <v>555</v>
@@ -13410,9 +13173,8 @@
       <c r="J289" t="s">
         <v>293</v>
       </c>
-      <c r="K289" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>007주소</v>
+      <c r="K289" t="s">
+        <v>561</v>
       </c>
       <c r="L289" s="4" t="s">
         <v>556</v>
@@ -13449,9 +13211,8 @@
       <c r="J290" t="s">
         <v>291</v>
       </c>
-      <c r="K290" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>001주소</v>
+      <c r="K290" t="s">
+        <v>559</v>
       </c>
       <c r="L290" s="4" t="s">
         <v>557</v>
@@ -13488,9 +13249,8 @@
       <c r="J291" t="s">
         <v>300</v>
       </c>
-      <c r="K291" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>008주소</v>
+      <c r="K291" t="s">
+        <v>559</v>
       </c>
       <c r="L291" s="4" t="s">
         <v>558</v>

--- a/finalPJT/Server/theme/type.xlsx
+++ b/finalPJT/Server/theme/type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KB_IT_Academy_4Team\finalPJT\Server\theme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E065C9-2A74-4FFE-854A-0AA198188256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5798FE32-26EF-4A68-9F87-F28AE171D219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="572">
   <si>
     <t>클래식</t>
   </si>
@@ -2183,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="E296" sqref="E296"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2273,6 +2273,12 @@
       <c r="L2" s="4" t="s">
         <v>310</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
@@ -2309,6 +2315,12 @@
         <v>559</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>311</v>
       </c>
     </row>
@@ -2349,6 +2361,12 @@
       <c r="L4" s="4" t="s">
         <v>312</v>
       </c>
+      <c r="M4" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -2387,6 +2405,12 @@
       <c r="L5" s="4" t="s">
         <v>313</v>
       </c>
+      <c r="M5" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
@@ -2425,6 +2449,12 @@
       <c r="L6" s="4" t="s">
         <v>314</v>
       </c>
+      <c r="M6" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
@@ -2463,6 +2493,12 @@
       <c r="L7" s="4" t="s">
         <v>315</v>
       </c>
+      <c r="M7" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -2501,6 +2537,12 @@
       <c r="L8" s="4" t="s">
         <v>316</v>
       </c>
+      <c r="M8" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
@@ -2539,6 +2581,12 @@
       <c r="L9" s="4" t="s">
         <v>317</v>
       </c>
+      <c r="M9" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
@@ -2577,6 +2625,12 @@
       <c r="L10" s="4" t="s">
         <v>318</v>
       </c>
+      <c r="M10" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
@@ -2615,6 +2669,12 @@
       <c r="L11" s="4" t="s">
         <v>319</v>
       </c>
+      <c r="M11" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
@@ -2653,6 +2713,12 @@
       <c r="L12" s="4" t="s">
         <v>320</v>
       </c>
+      <c r="M12" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
@@ -2691,6 +2757,12 @@
       <c r="L13" s="4" t="s">
         <v>321</v>
       </c>
+      <c r="M13" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
@@ -2729,6 +2801,12 @@
       <c r="L14" s="4" t="s">
         <v>322</v>
       </c>
+      <c r="M14" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
@@ -2767,6 +2845,12 @@
       <c r="L15" s="4" t="s">
         <v>323</v>
       </c>
+      <c r="M15" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
@@ -2805,8 +2889,14 @@
       <c r="L16" s="4" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M16" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2843,8 +2933,14 @@
       <c r="L17" s="4" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M17" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2881,8 +2977,14 @@
       <c r="L18" s="4" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M18" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2919,8 +3021,14 @@
       <c r="L19" s="4" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M19" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2957,8 +3065,14 @@
       <c r="L20" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M20" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2995,8 +3109,14 @@
       <c r="L21" s="4" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M21" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3033,8 +3153,14 @@
       <c r="L22" s="4" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M22" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3071,8 +3197,14 @@
       <c r="L23" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M23" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3109,8 +3241,14 @@
       <c r="L24" s="4" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M24" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3147,8 +3285,14 @@
       <c r="L25" s="4" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M25" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3185,8 +3329,14 @@
       <c r="L26" s="4" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M26" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3223,8 +3373,14 @@
       <c r="L27" s="4" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M27" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3261,8 +3417,14 @@
       <c r="L28" s="4" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M28" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3299,8 +3461,14 @@
       <c r="L29" s="4" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M29" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3337,8 +3505,14 @@
       <c r="L30" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M30" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3375,8 +3549,14 @@
       <c r="L31" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M31" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3413,8 +3593,14 @@
       <c r="L32" s="4" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M32" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3451,8 +3637,14 @@
       <c r="L33" s="4" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M33" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3489,8 +3681,14 @@
       <c r="L34" s="4" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M34" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3527,8 +3725,14 @@
       <c r="L35" s="4" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M35" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3565,8 +3769,14 @@
       <c r="L36" s="4" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M36" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3603,8 +3813,14 @@
       <c r="L37" s="4" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M37" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3641,8 +3857,14 @@
       <c r="L38" s="4" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M38" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3679,8 +3901,14 @@
       <c r="L39" s="4" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M39" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3717,8 +3945,14 @@
       <c r="L40" s="4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M40" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3755,8 +3989,14 @@
       <c r="L41" s="4" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M41" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3793,8 +4033,14 @@
       <c r="L42" s="4" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M42" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3831,8 +4077,14 @@
       <c r="L43" s="4" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M43" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3869,8 +4121,14 @@
       <c r="L44" s="4" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M44" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3907,8 +4165,14 @@
       <c r="L45" s="4" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M45" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3945,8 +4209,14 @@
       <c r="L46" s="4" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M46" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3983,8 +4253,14 @@
       <c r="L47" s="4" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M47" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4021,8 +4297,14 @@
       <c r="L48" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M48" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4059,8 +4341,14 @@
       <c r="L49" s="4" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M49" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4097,8 +4385,14 @@
       <c r="L50" s="4" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M50" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4135,8 +4429,14 @@
       <c r="L51" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M51" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4173,8 +4473,14 @@
       <c r="L52" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M52" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4211,8 +4517,14 @@
       <c r="L53" s="4" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M53" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4249,8 +4561,14 @@
       <c r="L54" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M54" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4287,8 +4605,14 @@
       <c r="L55" s="4" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M55" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4325,8 +4649,14 @@
       <c r="L56" s="4" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M56" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4363,8 +4693,14 @@
       <c r="L57" s="4" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M57" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4401,8 +4737,14 @@
       <c r="L58" s="4" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M58" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4439,8 +4781,14 @@
       <c r="L59" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M59" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4477,8 +4825,14 @@
       <c r="L60" s="4" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M60" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4515,8 +4869,14 @@
       <c r="L61" s="4" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M61" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4553,8 +4913,14 @@
       <c r="L62" s="4" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M62" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4591,8 +4957,14 @@
       <c r="L63" s="4" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M63" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4629,8 +5001,14 @@
       <c r="L64" s="4" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M64" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4667,8 +5045,14 @@
       <c r="L65" s="4" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M65" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4705,8 +5089,14 @@
       <c r="L66" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M66" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4743,8 +5133,14 @@
       <c r="L67" s="4" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M67" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4781,8 +5177,14 @@
       <c r="L68" s="4" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M68" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4819,8 +5221,14 @@
       <c r="L69" s="4" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M69" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4857,8 +5265,14 @@
       <c r="L70" s="4" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M70" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4895,8 +5309,14 @@
       <c r="L71" s="4" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M71" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4933,8 +5353,14 @@
       <c r="L72" s="4" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M72" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4971,8 +5397,14 @@
       <c r="L73" s="4" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M73" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5009,8 +5441,14 @@
       <c r="L74" s="4" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M74" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5047,8 +5485,14 @@
       <c r="L75" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M75" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5085,8 +5529,14 @@
       <c r="L76" s="4" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M76" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5123,8 +5573,14 @@
       <c r="L77" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M77" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5161,8 +5617,14 @@
       <c r="L78" s="4" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M78" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5199,8 +5661,14 @@
       <c r="L79" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M79" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5237,8 +5705,14 @@
       <c r="L80" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M80" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5275,8 +5749,14 @@
       <c r="L81" s="4" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M81" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5313,8 +5793,14 @@
       <c r="L82" s="4" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M82" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5351,8 +5837,14 @@
       <c r="L83" s="4" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M83" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5389,8 +5881,14 @@
       <c r="L84" s="4" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M84" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5427,8 +5925,14 @@
       <c r="L85" s="4" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M85" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5465,8 +5969,14 @@
       <c r="L86" s="4" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M86" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5503,8 +6013,14 @@
       <c r="L87" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M87" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5541,8 +6057,14 @@
       <c r="L88" s="4" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M88" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5579,8 +6101,14 @@
       <c r="L89" s="4" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M89" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5617,8 +6145,14 @@
       <c r="L90" s="4" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M90" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5655,8 +6189,14 @@
       <c r="L91" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M91" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5693,8 +6233,14 @@
       <c r="L92" s="4" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M92" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5731,8 +6277,14 @@
       <c r="L93" s="4" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M93" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5769,8 +6321,14 @@
       <c r="L94" s="4" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M94" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5807,8 +6365,14 @@
       <c r="L95" s="4" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M95" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5845,8 +6409,14 @@
       <c r="L96" s="4" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M96" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5883,8 +6453,14 @@
       <c r="L97" s="4" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M97" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5921,8 +6497,14 @@
       <c r="L98" s="4" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M98" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5959,8 +6541,14 @@
       <c r="L99" s="4" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M99" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5997,8 +6585,14 @@
       <c r="L100" s="4" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M100" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6035,8 +6629,14 @@
       <c r="L101" s="4" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M101" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6073,8 +6673,14 @@
       <c r="L102" s="4" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M102" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6111,8 +6717,14 @@
       <c r="L103" s="4" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M103" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6149,8 +6761,14 @@
       <c r="L104" s="4" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M104" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6187,8 +6805,14 @@
       <c r="L105" s="4" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M105" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6225,8 +6849,14 @@
       <c r="L106" s="4" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M106" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6263,8 +6893,14 @@
       <c r="L107" s="4" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M107" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6301,8 +6937,14 @@
       <c r="L108" s="4" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M108" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6339,8 +6981,14 @@
       <c r="L109" s="4" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M109" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6377,8 +7025,14 @@
       <c r="L110" s="4" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M110" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6415,8 +7069,14 @@
       <c r="L111" s="4" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M111" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6453,8 +7113,14 @@
       <c r="L112" s="4" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M112" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6491,8 +7157,14 @@
       <c r="L113" s="4" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M113" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6529,8 +7201,14 @@
       <c r="L114" s="4" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M114" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6567,8 +7245,14 @@
       <c r="L115" s="4" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M115" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6605,8 +7289,14 @@
       <c r="L116" s="4" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M116" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6643,8 +7333,14 @@
       <c r="L117" s="4" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M117" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="N117" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6681,8 +7377,14 @@
       <c r="L118" s="4" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M118" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="N118" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6719,8 +7421,14 @@
       <c r="L119" s="4" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M119" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6757,8 +7465,14 @@
       <c r="L120" s="4" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M120" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="N120" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6795,8 +7509,14 @@
       <c r="L121" s="4" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M121" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="N121" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6833,8 +7553,14 @@
       <c r="L122" s="4" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M122" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6871,8 +7597,14 @@
       <c r="L123" s="4" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M123" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="N123" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6909,8 +7641,14 @@
       <c r="L124" s="4" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M124" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="N124" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6947,8 +7685,14 @@
       <c r="L125" s="4" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M125" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="N125" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6985,8 +7729,14 @@
       <c r="L126" s="4" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M126" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="N126" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7023,8 +7773,14 @@
       <c r="L127" s="4" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M127" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7061,8 +7817,14 @@
       <c r="L128" s="4" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M128" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7099,8 +7861,14 @@
       <c r="L129" s="4" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M129" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="N129" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7137,8 +7905,14 @@
       <c r="L130" s="4" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M130" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7175,8 +7949,14 @@
       <c r="L131" s="4" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M131" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="N131" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7213,8 +7993,14 @@
       <c r="L132" s="4" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M132" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7251,8 +8037,14 @@
       <c r="L133" s="4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M133" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="N133" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7289,8 +8081,14 @@
       <c r="L134" s="4" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M134" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="N134" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7327,8 +8125,14 @@
       <c r="L135" s="4" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M135" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="N135" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7365,8 +8169,14 @@
       <c r="L136" s="4" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M136" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7403,8 +8213,14 @@
       <c r="L137" s="4" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M137" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="N137" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7441,8 +8257,14 @@
       <c r="L138" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M138" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="N138" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7479,8 +8301,14 @@
       <c r="L139" s="4" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M139" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="N139" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7517,8 +8345,14 @@
       <c r="L140" s="4" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M140" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="N140" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7555,8 +8389,14 @@
       <c r="L141" s="4" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M141" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="N141" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7593,8 +8433,14 @@
       <c r="L142" s="4" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M142" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="N142" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7631,8 +8477,14 @@
       <c r="L143" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M143" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N143" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7669,8 +8521,14 @@
       <c r="L144" s="4" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M144" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="N144" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7707,8 +8565,14 @@
       <c r="L145" s="4" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M145" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="N145" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7745,8 +8609,14 @@
       <c r="L146" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M146" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="N146" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7783,8 +8653,14 @@
       <c r="L147" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M147" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="N147" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7821,8 +8697,14 @@
       <c r="L148" s="4" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M148" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="N148" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7859,8 +8741,14 @@
       <c r="L149" s="4" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M149" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="N149" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7897,8 +8785,14 @@
       <c r="L150" s="4" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M150" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="N150" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7935,8 +8829,14 @@
       <c r="L151" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M151" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="N151" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7973,8 +8873,14 @@
       <c r="L152" s="4" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M152" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="N152" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8011,8 +8917,14 @@
       <c r="L153" s="4" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M153" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="N153" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8049,8 +8961,14 @@
       <c r="L154" s="4" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M154" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="N154" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8087,8 +9005,14 @@
       <c r="L155" s="4" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M155" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="N155" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8125,8 +9049,14 @@
       <c r="L156" s="4" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M156" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="N156" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8163,8 +9093,14 @@
       <c r="L157" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M157" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="N157" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -8201,8 +9137,14 @@
       <c r="L158" s="4" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M158" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N158" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8239,8 +9181,14 @@
       <c r="L159" s="4" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M159" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="N159" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -8277,8 +9225,14 @@
       <c r="L160" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M160" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="N160" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -8315,8 +9269,14 @@
       <c r="L161" s="4" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M161" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="N161" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -8353,8 +9313,14 @@
       <c r="L162" s="4" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M162" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="N162" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -8391,8 +9357,14 @@
       <c r="L163" s="4" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M163" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="N163" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8429,8 +9401,14 @@
       <c r="L164" s="4" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M164" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="N164" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -8467,8 +9445,14 @@
       <c r="L165" s="4" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M165" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="N165" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -8505,8 +9489,14 @@
       <c r="L166" s="4" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M166" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="N166" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -8543,8 +9533,14 @@
       <c r="L167" s="4" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M167" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="N167" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -8581,8 +9577,14 @@
       <c r="L168" s="4" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M168" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="N168" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -8619,8 +9621,14 @@
       <c r="L169" s="4" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M169" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="N169" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -8657,8 +9665,14 @@
       <c r="L170" s="4" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M170" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="N170" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -8695,8 +9709,14 @@
       <c r="L171" s="4" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M171" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="N171" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -8733,8 +9753,14 @@
       <c r="L172" s="4" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M172" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N172" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -8771,8 +9797,14 @@
       <c r="L173" s="4" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M173" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="N173" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -8809,8 +9841,14 @@
       <c r="L174" s="4" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M174" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="N174" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -8847,8 +9885,14 @@
       <c r="L175" s="4" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M175" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="N175" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8885,8 +9929,14 @@
       <c r="L176" s="4" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M176" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="N176" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -8923,8 +9973,14 @@
       <c r="L177" s="4" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M177" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="N177" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -8961,8 +10017,14 @@
       <c r="L178" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M178" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="N178" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -8999,8 +10061,14 @@
       <c r="L179" s="4" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M179" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="N179" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -9037,8 +10105,14 @@
       <c r="L180" s="4" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M180" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="N180" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -9075,8 +10149,14 @@
       <c r="L181" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M181" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="N181" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -9113,8 +10193,14 @@
       <c r="L182" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M182" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N182" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -9151,8 +10237,14 @@
       <c r="L183" s="4" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M183" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="N183" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -9189,8 +10281,14 @@
       <c r="L184" s="4" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M184" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="N184" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -9227,8 +10325,14 @@
       <c r="L185" s="4" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M185" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="N185" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -9265,8 +10369,14 @@
       <c r="L186" s="4" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M186" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="N186" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -9303,8 +10413,14 @@
       <c r="L187" s="4" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M187" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="N187" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -9341,8 +10457,14 @@
       <c r="L188" s="4" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M188" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="N188" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -9379,8 +10501,14 @@
       <c r="L189" s="4" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M189" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="N189" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -9417,8 +10545,14 @@
       <c r="L190" s="4" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M190" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="N190" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -9455,8 +10589,14 @@
       <c r="L191" s="4" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M191" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="N191" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -9493,8 +10633,14 @@
       <c r="L192" s="4" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M192" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="N192" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -9531,8 +10677,14 @@
       <c r="L193" s="4" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M193" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="N193" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -9569,8 +10721,14 @@
       <c r="L194" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M194" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="N194" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -9607,8 +10765,14 @@
       <c r="L195" s="4" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M195" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="N195" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -9645,8 +10809,14 @@
       <c r="L196" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M196" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="N196" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -9683,8 +10853,14 @@
       <c r="L197" s="4" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M197" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="N197" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -9721,8 +10897,14 @@
       <c r="L198" s="4" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M198" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="N198" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -9759,8 +10941,14 @@
       <c r="L199" s="4" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M199" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="N199" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -9797,8 +10985,14 @@
       <c r="L200" s="4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M200" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="N200" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -9835,8 +11029,14 @@
       <c r="L201" s="4" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M201" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="N201" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -9873,8 +11073,14 @@
       <c r="L202" s="4" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M202" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="N202" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -9911,8 +11117,14 @@
       <c r="L203" s="4" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M203" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="N203" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -9949,8 +11161,14 @@
       <c r="L204" s="4" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M204" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="N204" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -9987,8 +11205,14 @@
       <c r="L205" s="4" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M205" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="N205" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -10025,8 +11249,14 @@
       <c r="L206" s="4" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M206" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="N206" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -10063,8 +11293,14 @@
       <c r="L207" s="4" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M207" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="N207" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -10101,8 +11337,14 @@
       <c r="L208" s="4" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M208" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N208" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -10139,8 +11381,14 @@
       <c r="L209" s="4" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M209" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="N209" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -10177,8 +11425,14 @@
       <c r="L210" s="4" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M210" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="N210" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -10215,8 +11469,14 @@
       <c r="L211" s="4" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M211" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="N211" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -10253,8 +11513,14 @@
       <c r="L212" s="4" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M212" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="N212" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -10291,8 +11557,14 @@
       <c r="L213" s="4" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M213" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="N213" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -10329,8 +11601,14 @@
       <c r="L214" s="4" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M214" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="N214" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -10367,8 +11645,14 @@
       <c r="L215" s="4" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M215" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="N215" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -10405,8 +11689,14 @@
       <c r="L216" s="4" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M216" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="N216" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -10443,8 +11733,14 @@
       <c r="L217" s="4" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M217" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="N217" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -10481,8 +11777,14 @@
       <c r="L218" s="4" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M218" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="N218" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -10519,8 +11821,14 @@
       <c r="L219" s="4" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M219" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="N219" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -10557,8 +11865,14 @@
       <c r="L220" s="4" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M220" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="N220" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -10595,8 +11909,14 @@
       <c r="L221" s="4" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M221" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="N221" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -10633,8 +11953,14 @@
       <c r="L222" s="4" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M222" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="N222" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -10671,8 +11997,14 @@
       <c r="L223" s="4" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M223" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="N223" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -10709,8 +12041,14 @@
       <c r="L224" s="4" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M224" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="N224" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -10747,8 +12085,14 @@
       <c r="L225" s="4" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M225" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="N225" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -10785,8 +12129,14 @@
       <c r="L226" s="4" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M226" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="N226" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -10823,8 +12173,14 @@
       <c r="L227" s="4" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M227" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="N227" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -10861,8 +12217,14 @@
       <c r="L228" s="4" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M228" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="N228" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -10899,8 +12261,14 @@
       <c r="L229" s="4" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M229" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="N229" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -10937,8 +12305,14 @@
       <c r="L230" s="4" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M230" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="N230" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -10975,8 +12349,14 @@
       <c r="L231" s="4" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M231" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="N231" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -11013,8 +12393,14 @@
       <c r="L232" s="4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M232" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="N232" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -11051,8 +12437,14 @@
       <c r="L233" s="4" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M233" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="N233" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -11089,8 +12481,14 @@
       <c r="L234" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M234" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="N234" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -11127,8 +12525,14 @@
       <c r="L235" s="4" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M235" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="N235" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -11165,8 +12569,14 @@
       <c r="L236" s="4" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M236" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="N236" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -11203,8 +12613,14 @@
       <c r="L237" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M237" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="N237" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -11241,8 +12657,14 @@
       <c r="L238" s="4" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M238" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="N238" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -11279,8 +12701,14 @@
       <c r="L239" s="4" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M239" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="N239" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -11317,8 +12745,14 @@
       <c r="L240" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M240" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="N240" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -11355,8 +12789,14 @@
       <c r="L241" s="4" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M241" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="N241" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -11393,8 +12833,14 @@
       <c r="L242" s="4" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M242" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="N242" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -11431,8 +12877,14 @@
       <c r="L243" s="4" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M243" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="N243" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -11469,8 +12921,14 @@
       <c r="L244" s="4" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M244" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="N244" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -11507,8 +12965,14 @@
       <c r="L245" s="4" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M245" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="N245" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -11545,8 +13009,14 @@
       <c r="L246" s="4" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M246" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="N246" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -11583,8 +13053,14 @@
       <c r="L247" s="4" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M247" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="N247" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -11621,8 +13097,14 @@
       <c r="L248" s="4" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M248" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="N248" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -11659,8 +13141,14 @@
       <c r="L249" s="4" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M249" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="N249" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -11697,8 +13185,14 @@
       <c r="L250" s="4" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M250" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="N250" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -11735,8 +13229,14 @@
       <c r="L251" s="4" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M251" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="N251" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -11773,8 +13273,14 @@
       <c r="L252" s="4" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M252" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="N252" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -11811,8 +13317,14 @@
       <c r="L253" s="4" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M253" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="N253" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -11849,8 +13361,14 @@
       <c r="L254" s="4" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M254" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="N254" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -11887,8 +13405,14 @@
       <c r="L255" s="4" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M255" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="N255" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -11925,8 +13449,14 @@
       <c r="L256" s="4" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M256" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="N256" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -11963,8 +13493,14 @@
       <c r="L257" s="4" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M257" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="N257" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -12001,8 +13537,14 @@
       <c r="L258" s="4" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M258" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="N258" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -12039,8 +13581,14 @@
       <c r="L259" s="4" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M259" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="N259" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -12077,8 +13625,14 @@
       <c r="L260" s="4" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M260" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="N260" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -12115,8 +13669,14 @@
       <c r="L261" s="4" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M261" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="N261" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -12153,8 +13713,14 @@
       <c r="L262" s="4" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M262" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="N262" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -12191,8 +13757,14 @@
       <c r="L263" s="4" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M263" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="N263" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -12229,8 +13801,14 @@
       <c r="L264" s="4" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M264" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="N264" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -12267,8 +13845,14 @@
       <c r="L265" s="4" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M265" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="N265" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -12305,8 +13889,14 @@
       <c r="L266" s="4" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M266" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="N266" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -12343,8 +13933,14 @@
       <c r="L267" s="4" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M267" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="N267" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -12381,8 +13977,14 @@
       <c r="L268" s="4" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M268" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="N268" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -12419,8 +14021,14 @@
       <c r="L269" s="4" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M269" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="N269" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -12457,8 +14065,14 @@
       <c r="L270" s="4" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M270" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="N270" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -12495,8 +14109,14 @@
       <c r="L271" s="4" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M271" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="N271" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -12533,8 +14153,14 @@
       <c r="L272" s="4" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M272" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="N272" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -12571,8 +14197,14 @@
       <c r="L273" s="4" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M273" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="N273" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -12609,8 +14241,14 @@
       <c r="L274" s="4" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M274" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="N274" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -12647,8 +14285,14 @@
       <c r="L275" s="4" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M275" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="N275" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -12685,8 +14329,14 @@
       <c r="L276" s="4" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M276" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="N276" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -12723,8 +14373,14 @@
       <c r="L277" s="4" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M277" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="N277" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -12761,8 +14417,14 @@
       <c r="L278" s="4" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M278" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="N278" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -12799,8 +14461,14 @@
       <c r="L279" s="4" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M279" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="N279" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -12837,8 +14505,14 @@
       <c r="L280" s="4" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M280" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="N280" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -12875,8 +14549,14 @@
       <c r="L281" s="4" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M281" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="N281" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -12913,8 +14593,14 @@
       <c r="L282" s="4" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M282" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="N282" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -12951,8 +14637,14 @@
       <c r="L283" s="4" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M283" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="N283" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -12989,8 +14681,14 @@
       <c r="L284" s="4" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M284" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="N284" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -13027,8 +14725,14 @@
       <c r="L285" s="4" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M285" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="N285" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -13065,8 +14769,14 @@
       <c r="L286" s="4" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M286" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="N286" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -13103,8 +14813,14 @@
       <c r="L287" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M287" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="N287" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -13141,8 +14857,14 @@
       <c r="L288" s="4" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M288" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="N288" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -13179,8 +14901,14 @@
       <c r="L289" s="4" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M289" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="N289" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -13217,8 +14945,14 @@
       <c r="L290" s="4" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M290" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="N290" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -13253,6 +14987,12 @@
         <v>559</v>
       </c>
       <c r="L291" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="M291" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="N291" s="4" t="s">
         <v>558</v>
       </c>
     </row>
@@ -13549,8 +15289,588 @@
     <hyperlink ref="L289" r:id="rId288" xr:uid="{F52D289D-C695-4D38-A6B2-A06A869DC995}"/>
     <hyperlink ref="L290" r:id="rId289" xr:uid="{BB2511D7-F7A1-49B8-931D-3713F5C05605}"/>
     <hyperlink ref="L291" r:id="rId290" xr:uid="{2DF8C128-451B-4E88-ADD4-75CD47DC2C00}"/>
+    <hyperlink ref="M2" r:id="rId291" xr:uid="{43C9F1FB-FEA3-45E3-9237-7824B1D13DD2}"/>
+    <hyperlink ref="M3" r:id="rId292" xr:uid="{26125300-EF6F-46E0-9EF8-E700BC4A512B}"/>
+    <hyperlink ref="M4" r:id="rId293" xr:uid="{1904CE0E-B768-48CB-AC37-66A9BFB55B80}"/>
+    <hyperlink ref="M5" r:id="rId294" xr:uid="{6B8C267A-AAD1-438E-A1E6-EC08368C0E1F}"/>
+    <hyperlink ref="M6" r:id="rId295" xr:uid="{8CC134A9-76E2-4A30-A328-DBE39AD5A8A9}"/>
+    <hyperlink ref="M7" r:id="rId296" xr:uid="{2AC3856D-EBA1-4436-8781-E87155C128D5}"/>
+    <hyperlink ref="M8" r:id="rId297" xr:uid="{0B3795B9-63C1-46E3-8454-8F7CBECF482A}"/>
+    <hyperlink ref="M9" r:id="rId298" xr:uid="{1106A5C5-B4C8-435A-BC33-EDAF97B823BA}"/>
+    <hyperlink ref="M10" r:id="rId299" xr:uid="{214827E0-3A28-4DC6-8A6C-23F38B1042E8}"/>
+    <hyperlink ref="M11" r:id="rId300" xr:uid="{8B69AD64-1122-44A3-A716-E73C3EDD0B91}"/>
+    <hyperlink ref="M12" r:id="rId301" xr:uid="{BFB86ADB-3065-4990-8482-C0B96C019003}"/>
+    <hyperlink ref="M13" r:id="rId302" xr:uid="{6D3072FB-4606-4087-8EF6-A6D3AA0495DC}"/>
+    <hyperlink ref="M14" r:id="rId303" xr:uid="{85DB5CBE-A734-4AB4-8464-FCD4EDC529D9}"/>
+    <hyperlink ref="M15" r:id="rId304" xr:uid="{72ACE956-CD03-4515-9193-0A24E0A129CC}"/>
+    <hyperlink ref="M16" r:id="rId305" xr:uid="{039AFA02-82F3-42FB-980E-F7AC3BEEF748}"/>
+    <hyperlink ref="M17" r:id="rId306" xr:uid="{CC2BC90D-EBC9-4B91-A516-DA7713ADB970}"/>
+    <hyperlink ref="M18" r:id="rId307" xr:uid="{AEDEFADA-32C2-4673-A8AD-BCC20D7CB75B}"/>
+    <hyperlink ref="M19" r:id="rId308" xr:uid="{FC2600C2-205A-4EDC-9D0D-ABAE70A422DD}"/>
+    <hyperlink ref="M20" r:id="rId309" xr:uid="{52EF9FD9-EB3A-4928-AEB5-0818A1D16E8E}"/>
+    <hyperlink ref="M21" r:id="rId310" xr:uid="{826FBF32-3EF8-4788-B18A-6EE015CF203C}"/>
+    <hyperlink ref="M22" r:id="rId311" xr:uid="{C749B28B-27BD-4B27-BFDA-ADD11C8D775F}"/>
+    <hyperlink ref="M23" r:id="rId312" xr:uid="{4A2043B7-191C-42D1-BACA-6EC9181C955E}"/>
+    <hyperlink ref="M24" r:id="rId313" xr:uid="{B3AF7DD2-2814-4276-806D-5464C6BEC1E5}"/>
+    <hyperlink ref="M25" r:id="rId314" xr:uid="{9E559C5B-A825-49B3-BD2F-B38E1E936998}"/>
+    <hyperlink ref="M26" r:id="rId315" xr:uid="{4BF5542A-8320-4ABF-86C5-6A8F4E4FB415}"/>
+    <hyperlink ref="M27" r:id="rId316" xr:uid="{7D5D5632-54AE-4215-A268-B2B12112A404}"/>
+    <hyperlink ref="M28" r:id="rId317" xr:uid="{CCFEDF73-E3BE-4A78-A866-75574C6BC1B2}"/>
+    <hyperlink ref="M29" r:id="rId318" xr:uid="{0F9DD9EF-12CB-4676-B1F8-E426AF0E0DD0}"/>
+    <hyperlink ref="M30" r:id="rId319" xr:uid="{97A83832-B007-42EA-B8C5-92C5FA656268}"/>
+    <hyperlink ref="M31" r:id="rId320" xr:uid="{6620B582-B946-4D03-951C-54827CDDD061}"/>
+    <hyperlink ref="M32" r:id="rId321" xr:uid="{4BA84D8E-CBFD-498F-8C7E-F2902068D8B8}"/>
+    <hyperlink ref="M33" r:id="rId322" xr:uid="{D2F0E8AE-665B-40CE-B3B8-D7D4DDDEC0FF}"/>
+    <hyperlink ref="M34" r:id="rId323" xr:uid="{687011BA-A131-44CA-8BFD-19083F810509}"/>
+    <hyperlink ref="M35" r:id="rId324" xr:uid="{D93C03BA-9A13-4810-B84F-6F94E7710768}"/>
+    <hyperlink ref="M36" r:id="rId325" xr:uid="{80226A31-672B-4C74-A3A2-4725F84BF34B}"/>
+    <hyperlink ref="M37" r:id="rId326" xr:uid="{BBC944B8-C3FB-49AA-9019-8B5BC21A9051}"/>
+    <hyperlink ref="M38" r:id="rId327" xr:uid="{28F766B7-F546-4E31-ADC1-A6CD217CE57C}"/>
+    <hyperlink ref="M39" r:id="rId328" xr:uid="{819E0436-6C34-48DD-A99E-BE050C9EE846}"/>
+    <hyperlink ref="M40" r:id="rId329" xr:uid="{F3F81829-D624-4638-879B-E4A5306A94AE}"/>
+    <hyperlink ref="M41" r:id="rId330" xr:uid="{8F70C610-6118-4550-87F0-661FFA224623}"/>
+    <hyperlink ref="M42" r:id="rId331" xr:uid="{35BBFF6C-4768-44E3-B88E-31D350E835BF}"/>
+    <hyperlink ref="M43" r:id="rId332" xr:uid="{2E21D7FA-7B65-4DD6-98B9-ABB6FCB1E2BF}"/>
+    <hyperlink ref="M44" r:id="rId333" xr:uid="{D89A6C77-BE97-49B8-8507-104519568AA6}"/>
+    <hyperlink ref="M45" r:id="rId334" xr:uid="{8557D6B7-065E-4ABF-8507-ED9D01C24111}"/>
+    <hyperlink ref="M46" r:id="rId335" xr:uid="{059D46F7-0C08-439A-98EF-DA55D6718ABB}"/>
+    <hyperlink ref="M47" r:id="rId336" xr:uid="{292ADF8B-ABB4-42E0-8E60-3D364C298231}"/>
+    <hyperlink ref="M48" r:id="rId337" xr:uid="{82C2C376-FBF7-4C77-B8CB-1A674BFC5DAD}"/>
+    <hyperlink ref="M49" r:id="rId338" xr:uid="{075B40EC-CC5F-47C0-AD4B-84A098630E65}"/>
+    <hyperlink ref="M50" r:id="rId339" xr:uid="{078CA3EF-38A3-4661-8541-0656FA3F9266}"/>
+    <hyperlink ref="M51" r:id="rId340" xr:uid="{99CA0B13-BBD5-4688-8FCC-D0D8AA05DCE0}"/>
+    <hyperlink ref="M52" r:id="rId341" xr:uid="{F2A22FF6-16FB-43B5-ACD9-93E101F06CB7}"/>
+    <hyperlink ref="M53" r:id="rId342" xr:uid="{488A166D-4A3D-461B-A9AA-8752D9661E2D}"/>
+    <hyperlink ref="M54" r:id="rId343" xr:uid="{5B070A10-D479-41D9-8263-567AD920B38C}"/>
+    <hyperlink ref="M55" r:id="rId344" xr:uid="{DB3E9AE0-163F-403C-9241-44995C8A7569}"/>
+    <hyperlink ref="M56" r:id="rId345" xr:uid="{7843AD26-145F-4967-BABF-33CC1C6E1F14}"/>
+    <hyperlink ref="M57" r:id="rId346" xr:uid="{64CDBB4E-6F6D-4F34-85A4-DF179D98750C}"/>
+    <hyperlink ref="M58" r:id="rId347" xr:uid="{C26F727C-2D1A-4B42-A8D5-E6778F5EE7C6}"/>
+    <hyperlink ref="M59" r:id="rId348" xr:uid="{D618DEDF-021C-4E85-B9F3-0AC8D9F3C7DD}"/>
+    <hyperlink ref="M60" r:id="rId349" xr:uid="{FC1F73AC-6EA2-4471-81FF-CD18A25A58BA}"/>
+    <hyperlink ref="M61" r:id="rId350" xr:uid="{1BA04090-7AE2-4D56-A30D-AE28CF27829A}"/>
+    <hyperlink ref="M62" r:id="rId351" xr:uid="{90D52945-1EF0-48A6-BE62-C8F2464785B8}"/>
+    <hyperlink ref="M63" r:id="rId352" xr:uid="{270B52B2-737B-4496-A0D9-A4086F6235A6}"/>
+    <hyperlink ref="M64" r:id="rId353" xr:uid="{AC6DF5FA-A26D-463C-809E-2B4C7D9A4EA3}"/>
+    <hyperlink ref="M65" r:id="rId354" xr:uid="{15FCF707-D7C5-4CA1-AFE7-56AF09A57A9C}"/>
+    <hyperlink ref="M66" r:id="rId355" xr:uid="{3D076A7F-5875-421F-BA58-9578E260E72C}"/>
+    <hyperlink ref="M67" r:id="rId356" xr:uid="{9F31AC84-A65C-48AC-BC2E-4A6BDC62C6EE}"/>
+    <hyperlink ref="M68" r:id="rId357" xr:uid="{ACF3F50E-4ACD-4933-82C7-31475998D9E7}"/>
+    <hyperlink ref="M69" r:id="rId358" xr:uid="{934E30CA-A169-4E3A-A503-34117609FD4C}"/>
+    <hyperlink ref="M70" r:id="rId359" xr:uid="{A3EDA40A-CE99-41D4-9FC8-EA616C6C26F8}"/>
+    <hyperlink ref="M71" r:id="rId360" xr:uid="{5DB8421A-CE86-455B-9796-9D594D82358B}"/>
+    <hyperlink ref="M72" r:id="rId361" xr:uid="{3C7A69BE-6323-4750-A595-50C82590DD1E}"/>
+    <hyperlink ref="M73" r:id="rId362" xr:uid="{4D8803BA-23C5-4DBB-8D63-30883E7F5514}"/>
+    <hyperlink ref="M74" r:id="rId363" xr:uid="{F4E6BA06-9202-4EC3-8D57-C01D54A58EBB}"/>
+    <hyperlink ref="M75" r:id="rId364" xr:uid="{F9A7D0BB-98F2-441A-9042-6403AD5A4B4A}"/>
+    <hyperlink ref="M76" r:id="rId365" xr:uid="{90B2AFE5-118E-4394-90DA-640B72AD34B7}"/>
+    <hyperlink ref="M77" r:id="rId366" xr:uid="{9D477E93-76C5-4367-9F48-94CC2D986D29}"/>
+    <hyperlink ref="M78" r:id="rId367" xr:uid="{CC362F1E-6E1B-49FD-80C2-81CB29BB8EEA}"/>
+    <hyperlink ref="M79" r:id="rId368" xr:uid="{AAE87590-E816-45AE-933A-4D667F4D0D54}"/>
+    <hyperlink ref="M80" r:id="rId369" xr:uid="{660F7324-4139-40EF-9A3A-2777F60EE4DF}"/>
+    <hyperlink ref="M81" r:id="rId370" xr:uid="{1AE0A2CC-2191-42CD-9806-14C7BC8B33FA}"/>
+    <hyperlink ref="M82" r:id="rId371" xr:uid="{799F0E1F-6D93-4885-BA44-B3E1234BAB7D}"/>
+    <hyperlink ref="M83" r:id="rId372" xr:uid="{2F429004-54E6-4E87-9C68-6880D1A49CB9}"/>
+    <hyperlink ref="M84" r:id="rId373" xr:uid="{EAF7CF2E-C60D-4746-9752-991AFF4EE473}"/>
+    <hyperlink ref="M85" r:id="rId374" xr:uid="{9C323A9F-36C6-40B9-832B-742C1ABA1077}"/>
+    <hyperlink ref="M86" r:id="rId375" xr:uid="{F58FBE8C-7469-4ED0-A1AC-24F239DFDF48}"/>
+    <hyperlink ref="M87" r:id="rId376" xr:uid="{0CA8F8D9-1A71-4650-922C-27E5C87DAD11}"/>
+    <hyperlink ref="M88" r:id="rId377" xr:uid="{AE2953C9-A331-4FD8-8BE3-E1065896364B}"/>
+    <hyperlink ref="M89" r:id="rId378" xr:uid="{2D9DDE7D-25E0-49F9-BB85-A3CE6D02291E}"/>
+    <hyperlink ref="M90" r:id="rId379" xr:uid="{96A82106-529F-4181-8FC6-AEB8B81C83C5}"/>
+    <hyperlink ref="M91" r:id="rId380" xr:uid="{9FDB12DF-406A-47AE-BE79-4171FE2E1FED}"/>
+    <hyperlink ref="M92" r:id="rId381" xr:uid="{F6A157D2-6364-4371-B5C3-921A04ED543A}"/>
+    <hyperlink ref="M93" r:id="rId382" xr:uid="{AEF52D91-6C3F-4942-A523-4B38C78D6C22}"/>
+    <hyperlink ref="M94" r:id="rId383" xr:uid="{6D09EED6-C42F-4449-83D2-926F684868D8}"/>
+    <hyperlink ref="M95" r:id="rId384" xr:uid="{6CEB59CF-6088-40E9-81D6-149A701AE133}"/>
+    <hyperlink ref="M96" r:id="rId385" xr:uid="{7F9561E1-42E3-4264-9874-C2C58014E670}"/>
+    <hyperlink ref="M97" r:id="rId386" xr:uid="{3245A5C1-02A1-4990-A371-61D6EE6A8ECB}"/>
+    <hyperlink ref="M98" r:id="rId387" xr:uid="{1E19E1D1-ADCB-4925-98E1-171B6002C943}"/>
+    <hyperlink ref="M99" r:id="rId388" xr:uid="{63022354-81BF-4FD3-9EA6-F57EAE598C90}"/>
+    <hyperlink ref="M100" r:id="rId389" xr:uid="{3E68950C-21BA-4C00-B983-992873FD7753}"/>
+    <hyperlink ref="M101" r:id="rId390" xr:uid="{3B9B1474-89C4-4F1D-88B4-044FF6CEAA25}"/>
+    <hyperlink ref="M102" r:id="rId391" xr:uid="{A5DC63EC-4A82-4B47-9104-23B1135DAC11}"/>
+    <hyperlink ref="M103" r:id="rId392" xr:uid="{4BD3ABDB-71B6-4643-A257-E448D5E7014B}"/>
+    <hyperlink ref="M104" r:id="rId393" xr:uid="{3FCFFF82-8930-41D8-B6C1-809350533C6D}"/>
+    <hyperlink ref="M105" r:id="rId394" xr:uid="{4F318156-F53E-4A22-AEE0-4AAF8ECA9D9D}"/>
+    <hyperlink ref="M106" r:id="rId395" xr:uid="{2E015F01-B982-4F17-B27D-DADCA1638C8D}"/>
+    <hyperlink ref="M107" r:id="rId396" xr:uid="{E9A25075-D801-4C75-BF6E-EB25543B6E5C}"/>
+    <hyperlink ref="M108" r:id="rId397" xr:uid="{31DA73AE-6C44-4B43-AF1D-83F3F5D88F33}"/>
+    <hyperlink ref="M109" r:id="rId398" xr:uid="{2C03F957-21D7-4FE5-93A3-33FF3DFF994E}"/>
+    <hyperlink ref="M110" r:id="rId399" xr:uid="{B43A3617-5958-4DA4-96FB-2570755AA0F9}"/>
+    <hyperlink ref="M111" r:id="rId400" xr:uid="{F4889CDC-A8BD-43F4-8B21-3F44E0BC08BB}"/>
+    <hyperlink ref="M112" r:id="rId401" xr:uid="{AB73CD2C-6048-42BE-8EDF-975DD9C63F68}"/>
+    <hyperlink ref="M113" r:id="rId402" xr:uid="{AFC58394-DAC9-4925-A1A6-E84E7AD44AC0}"/>
+    <hyperlink ref="M114" r:id="rId403" xr:uid="{DA504A96-9E09-4B3A-B5A3-EF93C9B346F6}"/>
+    <hyperlink ref="M115" r:id="rId404" xr:uid="{1B9C6471-8BF6-4486-ACC8-81B9AD82CDC6}"/>
+    <hyperlink ref="M116" r:id="rId405" xr:uid="{DAB8B93C-0014-4A38-AB3D-3B8C111C3D41}"/>
+    <hyperlink ref="M117" r:id="rId406" xr:uid="{D7FEC68F-3619-4EC4-A54A-7D869BA466EB}"/>
+    <hyperlink ref="M118" r:id="rId407" xr:uid="{980ADC59-B844-4769-A038-44A862A82784}"/>
+    <hyperlink ref="M119" r:id="rId408" xr:uid="{3844E2A8-12C7-4EB2-B67C-29DEFF31AD4B}"/>
+    <hyperlink ref="M120" r:id="rId409" xr:uid="{91125890-C7CA-4895-8C41-A70D2A4614B2}"/>
+    <hyperlink ref="M121" r:id="rId410" xr:uid="{7E968734-2D36-4909-B930-A3F5FEBFD9B8}"/>
+    <hyperlink ref="M122" r:id="rId411" xr:uid="{7F5E2A16-C490-4F11-A724-12D7AA4BF599}"/>
+    <hyperlink ref="M123" r:id="rId412" xr:uid="{E2DBB49B-63F2-40F4-9A59-01425AA970EF}"/>
+    <hyperlink ref="M124" r:id="rId413" xr:uid="{7147518B-3213-4D78-A790-D5EED2F0AF4D}"/>
+    <hyperlink ref="M125" r:id="rId414" xr:uid="{A16D4575-C06A-4709-B4BA-940B1A9F2D94}"/>
+    <hyperlink ref="M126" r:id="rId415" xr:uid="{DB331D4A-A528-4636-9708-8272C6D681AB}"/>
+    <hyperlink ref="M127" r:id="rId416" xr:uid="{0800EEDB-3667-468B-A8E9-AE74256ECF49}"/>
+    <hyperlink ref="M128" r:id="rId417" xr:uid="{084158AB-3E5B-4A68-AFA7-948284AF70D4}"/>
+    <hyperlink ref="M129" r:id="rId418" xr:uid="{42993F4A-6939-4ADF-8E24-6A58429654A4}"/>
+    <hyperlink ref="M130" r:id="rId419" xr:uid="{565BEC73-1460-4E46-B63A-5F8388C051D8}"/>
+    <hyperlink ref="M131" r:id="rId420" xr:uid="{5706AC31-7FFC-4CC9-B96F-4B609CB3ACD7}"/>
+    <hyperlink ref="M132" r:id="rId421" xr:uid="{A29BD442-65D4-4209-BAD5-0DEF6A385FD1}"/>
+    <hyperlink ref="M133" r:id="rId422" xr:uid="{3691F45C-F02F-4F81-BF8B-D5163001F23D}"/>
+    <hyperlink ref="M134" r:id="rId423" xr:uid="{03FC276F-FDE8-41B0-87AD-F53790E4ED6A}"/>
+    <hyperlink ref="M135" r:id="rId424" xr:uid="{E56F3E5D-5861-4D91-9FE2-3FD7A26EB0D4}"/>
+    <hyperlink ref="M136" r:id="rId425" xr:uid="{A9714453-33D5-4808-89E9-DD5190E55D9A}"/>
+    <hyperlink ref="M137" r:id="rId426" xr:uid="{F6141098-E1D3-42B6-AC6C-A52343CCEF44}"/>
+    <hyperlink ref="M138" r:id="rId427" xr:uid="{9E2252FE-B514-4CEA-9547-9A0AA3A773EF}"/>
+    <hyperlink ref="M139" r:id="rId428" xr:uid="{A7FB51DF-8F9E-43E9-970A-A837735AF242}"/>
+    <hyperlink ref="M140" r:id="rId429" xr:uid="{087E72B5-992A-4EC7-A18F-AC92630C1444}"/>
+    <hyperlink ref="M141" r:id="rId430" xr:uid="{62CC8144-BF57-4C0A-BDD1-22D9E784F65C}"/>
+    <hyperlink ref="M142" r:id="rId431" xr:uid="{7387FC22-CA14-4458-ABEF-85F6B4F725E5}"/>
+    <hyperlink ref="M143" r:id="rId432" xr:uid="{A89E0481-8798-40E6-BC75-41F630BA3FBF}"/>
+    <hyperlink ref="M144" r:id="rId433" xr:uid="{823979A3-8AB8-4C9B-A8AF-08D9484351B6}"/>
+    <hyperlink ref="M145" r:id="rId434" xr:uid="{984BB1FD-7059-48F4-AF86-81F68066B104}"/>
+    <hyperlink ref="M146" r:id="rId435" xr:uid="{27CDF878-2670-4109-848E-2C4AEAD63D00}"/>
+    <hyperlink ref="M147" r:id="rId436" xr:uid="{C30CF285-CE01-4D67-A8F7-9B74C6D99176}"/>
+    <hyperlink ref="M148" r:id="rId437" xr:uid="{701C0DDE-A147-4683-8BC9-43A682756A08}"/>
+    <hyperlink ref="M149" r:id="rId438" xr:uid="{D27A2086-6C5A-412B-9EBD-58CA85CDDB19}"/>
+    <hyperlink ref="M150" r:id="rId439" xr:uid="{EAD54D7B-D409-4EB8-94FC-3E3507F6E8A4}"/>
+    <hyperlink ref="M151" r:id="rId440" xr:uid="{6D28B449-4637-48D3-981D-1C5D6C54EA6A}"/>
+    <hyperlink ref="M152" r:id="rId441" xr:uid="{AB4CF55E-793A-4910-B3CB-DBD2F5EDC484}"/>
+    <hyperlink ref="M153" r:id="rId442" xr:uid="{EA695F53-9578-4001-A7CC-A83665A90231}"/>
+    <hyperlink ref="M154" r:id="rId443" xr:uid="{133F7393-141A-492D-8DF3-B41F4CF4987B}"/>
+    <hyperlink ref="M155" r:id="rId444" xr:uid="{EB55AEA7-BAA8-4185-B0DD-52C84F21ADB1}"/>
+    <hyperlink ref="M156" r:id="rId445" xr:uid="{B18B7E49-F7B6-4F31-9BCC-4ED58C643E6E}"/>
+    <hyperlink ref="M157" r:id="rId446" xr:uid="{0A98E7D4-6793-48BE-BC8B-672931CA2CAD}"/>
+    <hyperlink ref="M158" r:id="rId447" xr:uid="{90140982-C097-43D3-9493-177D0129A1CA}"/>
+    <hyperlink ref="M159" r:id="rId448" xr:uid="{210A1158-E031-4B9D-8A3F-8FB8914535BF}"/>
+    <hyperlink ref="M160" r:id="rId449" xr:uid="{44473E3C-C47C-4C91-B051-18A1424863ED}"/>
+    <hyperlink ref="M161" r:id="rId450" xr:uid="{C1829009-29DF-48E1-A233-A40FB4D94863}"/>
+    <hyperlink ref="M162" r:id="rId451" xr:uid="{331993DD-9576-4D6F-B4EC-EC34FDEEA9DE}"/>
+    <hyperlink ref="M163" r:id="rId452" xr:uid="{B941B854-593F-4BC3-82C1-4BA4ECAD1309}"/>
+    <hyperlink ref="M164" r:id="rId453" xr:uid="{6AF0C4AE-58AB-450D-8D8D-E8BE28262551}"/>
+    <hyperlink ref="M165" r:id="rId454" xr:uid="{8B7A07C2-5B11-4A2B-A4A0-109E06D7FFFB}"/>
+    <hyperlink ref="M166" r:id="rId455" xr:uid="{D038BD2C-CF63-4483-89BF-B5DFB9BBB902}"/>
+    <hyperlink ref="M167" r:id="rId456" xr:uid="{4FDFC4ED-9DB7-48C8-8BBA-66C2D0BB2946}"/>
+    <hyperlink ref="M168" r:id="rId457" xr:uid="{82F1DFDF-56B5-42B1-906D-E076881A69AA}"/>
+    <hyperlink ref="M169" r:id="rId458" xr:uid="{86CF4EDD-228B-4A4F-9D6F-185B841132A8}"/>
+    <hyperlink ref="M170" r:id="rId459" xr:uid="{F6DF6EDF-FE11-4152-9570-B04FB3227FB7}"/>
+    <hyperlink ref="M171" r:id="rId460" xr:uid="{55ADFCE7-75F0-46AE-9AB8-3E8A849E6D0A}"/>
+    <hyperlink ref="M172" r:id="rId461" xr:uid="{18DEEB34-355F-4094-A4C1-59E1418ACC4F}"/>
+    <hyperlink ref="M173" r:id="rId462" xr:uid="{32B3072A-7466-49DC-ACA7-5C8CE59171C1}"/>
+    <hyperlink ref="M174" r:id="rId463" xr:uid="{6DEB7B11-2712-4590-8505-8B7E9EA0410F}"/>
+    <hyperlink ref="M175" r:id="rId464" xr:uid="{0C9B27EF-1B34-4632-9B88-C479AD4C853C}"/>
+    <hyperlink ref="M176" r:id="rId465" xr:uid="{71BDB249-0488-43DF-B326-AC84C371645B}"/>
+    <hyperlink ref="M177" r:id="rId466" xr:uid="{FB7F6871-01BD-4CE5-BE6D-E1DE1127579A}"/>
+    <hyperlink ref="M178" r:id="rId467" xr:uid="{EB207862-6B2B-4791-8B2C-86D093EECAFE}"/>
+    <hyperlink ref="M179" r:id="rId468" xr:uid="{A060A2B5-1653-4AD4-902C-95F1E17B517A}"/>
+    <hyperlink ref="M180" r:id="rId469" xr:uid="{31A8F510-5B60-490A-8EC2-E0AE4BB4B24F}"/>
+    <hyperlink ref="M181" r:id="rId470" xr:uid="{CAAA5734-9175-41E5-8AB4-6AC690FF8EF6}"/>
+    <hyperlink ref="M182" r:id="rId471" xr:uid="{560D6BC2-0335-41B7-A86D-C67C47E9ABF7}"/>
+    <hyperlink ref="M183" r:id="rId472" xr:uid="{A19C9AAE-0D11-4B2A-B0BB-4CAD87412E7E}"/>
+    <hyperlink ref="M184" r:id="rId473" xr:uid="{EBA54998-C58D-4D74-9157-702785B4C32D}"/>
+    <hyperlink ref="M185" r:id="rId474" xr:uid="{AE104A0C-B717-44DC-B4DB-F7EA9016EA80}"/>
+    <hyperlink ref="M186" r:id="rId475" xr:uid="{C94C7398-4F5B-4D87-99C4-AE788914162C}"/>
+    <hyperlink ref="M187" r:id="rId476" xr:uid="{ECFEA8B4-8BDB-4288-B0A0-73A36AAAF73B}"/>
+    <hyperlink ref="M188" r:id="rId477" xr:uid="{04BA39EA-74DE-4C17-87EF-DDD2063281B3}"/>
+    <hyperlink ref="M189" r:id="rId478" xr:uid="{353BA5C4-C3BF-4208-A0D1-BB3233F9CC1E}"/>
+    <hyperlink ref="M190" r:id="rId479" xr:uid="{4CCC2961-493F-45A5-BD91-F2899BE610CA}"/>
+    <hyperlink ref="M191" r:id="rId480" xr:uid="{4110220B-C14F-4154-B17B-DBC80720A43F}"/>
+    <hyperlink ref="M192" r:id="rId481" xr:uid="{E599CD1C-E58C-4EF8-BB4B-DF0BA303B232}"/>
+    <hyperlink ref="M193" r:id="rId482" xr:uid="{92FE6C2D-FE8C-4D9A-A35A-97A7171930A1}"/>
+    <hyperlink ref="M194" r:id="rId483" xr:uid="{A9D0CCAB-009B-4BF4-B712-21A9994224F3}"/>
+    <hyperlink ref="M195" r:id="rId484" xr:uid="{F505BAC2-62CE-4558-823B-00C6ABD1D395}"/>
+    <hyperlink ref="M196" r:id="rId485" xr:uid="{20D160EA-2CB8-4CFD-8084-50C942C106E4}"/>
+    <hyperlink ref="M197" r:id="rId486" xr:uid="{211B9DBB-2A11-49B5-9FE7-E80E45E4321F}"/>
+    <hyperlink ref="M198" r:id="rId487" xr:uid="{3CBF12FD-29EA-437E-9873-65BB3F57CE96}"/>
+    <hyperlink ref="M199" r:id="rId488" xr:uid="{56761FCC-888D-47D7-9A74-80929D9DF685}"/>
+    <hyperlink ref="M200" r:id="rId489" xr:uid="{5246190D-5AD7-4DFA-9442-2384F60E3444}"/>
+    <hyperlink ref="M201" r:id="rId490" xr:uid="{C436563A-D7C9-4CEC-B154-370154678A63}"/>
+    <hyperlink ref="M202" r:id="rId491" xr:uid="{E5880D8E-0788-4EAF-A8CB-08BCC8729D4F}"/>
+    <hyperlink ref="M203" r:id="rId492" xr:uid="{410F31BD-F5F5-45C9-8DCA-A89D693E9D2E}"/>
+    <hyperlink ref="M204" r:id="rId493" xr:uid="{49DDEEA8-FFD6-4E73-8AE0-F47CE22B9E2D}"/>
+    <hyperlink ref="M205" r:id="rId494" xr:uid="{679990F9-9CC4-43C5-A498-058559D3E0C2}"/>
+    <hyperlink ref="M206" r:id="rId495" xr:uid="{F93F3FAF-8023-45E9-8CF7-2F79F8C773C5}"/>
+    <hyperlink ref="M207" r:id="rId496" xr:uid="{7305233F-7F74-4CC6-A41D-499EB49C82C2}"/>
+    <hyperlink ref="M208" r:id="rId497" xr:uid="{80FAA036-C038-4205-98EA-40FFAE9C9BEC}"/>
+    <hyperlink ref="M209" r:id="rId498" xr:uid="{8D901608-1D8A-4683-8AB2-85F3A03F2E57}"/>
+    <hyperlink ref="M210" r:id="rId499" xr:uid="{A29A2DE9-6125-4531-8CC8-BC04EAB81C07}"/>
+    <hyperlink ref="M211" r:id="rId500" xr:uid="{5F07504C-9632-466C-9DC9-95D478014AD0}"/>
+    <hyperlink ref="M212" r:id="rId501" xr:uid="{2998B92A-C640-42FB-8259-C0F4EF4D5DA6}"/>
+    <hyperlink ref="M213" r:id="rId502" xr:uid="{986D57E1-D0B4-4973-B47A-9F7082879DCA}"/>
+    <hyperlink ref="M214" r:id="rId503" xr:uid="{787EC00D-2EAA-4093-8725-FC087A93CA07}"/>
+    <hyperlink ref="M215" r:id="rId504" xr:uid="{1B99B692-B344-41AE-8EC6-D5ECB7B4825F}"/>
+    <hyperlink ref="M216" r:id="rId505" xr:uid="{86CCB351-20BA-41FF-8FBA-ACF8C620CADE}"/>
+    <hyperlink ref="M217" r:id="rId506" xr:uid="{16F63F20-C3FC-407B-9729-250F95E8BDB8}"/>
+    <hyperlink ref="M218" r:id="rId507" xr:uid="{83A06B77-9203-4AD8-A31C-973B9ECE9768}"/>
+    <hyperlink ref="M219" r:id="rId508" xr:uid="{8A068535-3C6A-4F29-BDAA-A49D8AC595D6}"/>
+    <hyperlink ref="M220" r:id="rId509" xr:uid="{52F9B9BE-26E2-43FD-886F-A8AFA8DBF74E}"/>
+    <hyperlink ref="M221" r:id="rId510" xr:uid="{9CDD0BF9-D5E6-4EA9-BC1A-759B21A40B90}"/>
+    <hyperlink ref="M222" r:id="rId511" xr:uid="{93C97BC6-A1FF-4D70-BEFD-5FE8C0CA8170}"/>
+    <hyperlink ref="M223" r:id="rId512" xr:uid="{21F6C193-DAD8-41A5-817F-4094638AFDE0}"/>
+    <hyperlink ref="M224" r:id="rId513" xr:uid="{0E9B136F-021E-471C-9751-56D9658335B6}"/>
+    <hyperlink ref="M225" r:id="rId514" xr:uid="{64D654EA-8ED6-4F3C-BC97-1CE621377B74}"/>
+    <hyperlink ref="M226" r:id="rId515" xr:uid="{4BF93862-77EB-4E41-9B75-2E8168037A62}"/>
+    <hyperlink ref="M227" r:id="rId516" xr:uid="{4C2C6C0C-08A9-4861-9E12-8CFC48D72E3E}"/>
+    <hyperlink ref="M228" r:id="rId517" xr:uid="{F3BF835C-9FF0-4B83-A1E5-0475772270F2}"/>
+    <hyperlink ref="M229" r:id="rId518" xr:uid="{3A3B2C39-9459-45F4-B686-99D704CDFD38}"/>
+    <hyperlink ref="M230" r:id="rId519" xr:uid="{7ED6927C-F686-444B-8D26-F52B95E37650}"/>
+    <hyperlink ref="M231" r:id="rId520" xr:uid="{8EB046EC-1229-4203-B363-B7BC198D3609}"/>
+    <hyperlink ref="M232" r:id="rId521" xr:uid="{AA0FE511-73A7-417A-8A4C-BA8809AB2B68}"/>
+    <hyperlink ref="M233" r:id="rId522" xr:uid="{D5D77DB0-4BC7-4E89-99FA-367FE2112636}"/>
+    <hyperlink ref="M234" r:id="rId523" xr:uid="{1429D289-6067-456C-B620-BBDDB611F477}"/>
+    <hyperlink ref="M235" r:id="rId524" xr:uid="{67575A35-68B0-4857-8EED-7AAEC3A2100B}"/>
+    <hyperlink ref="M236" r:id="rId525" xr:uid="{BFBB084B-B246-4CB0-A093-FC5B90A66436}"/>
+    <hyperlink ref="M237" r:id="rId526" xr:uid="{22D4AC09-E4EE-44ED-AFF0-358A22521B29}"/>
+    <hyperlink ref="M238" r:id="rId527" xr:uid="{AFDCD687-CE00-4AA0-9971-B6AAE518D401}"/>
+    <hyperlink ref="M239" r:id="rId528" xr:uid="{822D8BA0-00DB-4B97-9898-32357FDFA721}"/>
+    <hyperlink ref="M240" r:id="rId529" xr:uid="{CC7E0CF7-7CC8-45BA-AFED-AEE41655F404}"/>
+    <hyperlink ref="M241" r:id="rId530" xr:uid="{5E900F42-A24B-436C-AB5F-BDE87BE89606}"/>
+    <hyperlink ref="M242" r:id="rId531" xr:uid="{7BE7BAFD-2DC8-4B7A-9B6E-A169F23110BC}"/>
+    <hyperlink ref="M243" r:id="rId532" xr:uid="{4FFD0664-38DA-402A-9AD7-AE0DFEB4E5D1}"/>
+    <hyperlink ref="M244" r:id="rId533" xr:uid="{713813EE-A5C7-4BCC-8965-10B45A4221E0}"/>
+    <hyperlink ref="M245" r:id="rId534" xr:uid="{F45F45CA-BA09-4CE8-ACEC-A5DD04E436A0}"/>
+    <hyperlink ref="M246" r:id="rId535" xr:uid="{6CA2ACA2-3444-4E53-BC5C-8575BC477A6E}"/>
+    <hyperlink ref="M247" r:id="rId536" xr:uid="{D8AAB25B-F5CB-4643-96C3-C45E5A4B5BD1}"/>
+    <hyperlink ref="M248" r:id="rId537" xr:uid="{924F7FFA-9941-4213-A23A-1AA07EE543AE}"/>
+    <hyperlink ref="M249" r:id="rId538" xr:uid="{35A4F75F-5202-45CE-953E-AB5E4B0BA356}"/>
+    <hyperlink ref="M250" r:id="rId539" xr:uid="{EBB1C492-95A3-46EA-8553-8F44AEBB330E}"/>
+    <hyperlink ref="M251" r:id="rId540" xr:uid="{E595D81F-6DE3-4774-B3BF-DA88A386EEDA}"/>
+    <hyperlink ref="M252" r:id="rId541" xr:uid="{4B6E75C1-ACDE-49F2-85CC-53BA040A306D}"/>
+    <hyperlink ref="M253" r:id="rId542" xr:uid="{68836A90-10E2-444C-B9B0-AA4B015D3388}"/>
+    <hyperlink ref="M254" r:id="rId543" xr:uid="{E7D5A6E4-5483-4F3F-8075-CCBAEE05BE2B}"/>
+    <hyperlink ref="M255" r:id="rId544" xr:uid="{84C44D37-1109-4A9B-B70B-ACC5C385183D}"/>
+    <hyperlink ref="M256" r:id="rId545" xr:uid="{024FC0E7-AB5E-48EE-A239-2078BD010F24}"/>
+    <hyperlink ref="M257" r:id="rId546" xr:uid="{612C77F3-24B5-48AC-A9C9-6DBE0FC59C46}"/>
+    <hyperlink ref="M258" r:id="rId547" xr:uid="{43FE6F6C-48E5-4983-A6C4-3C25E5B51FB2}"/>
+    <hyperlink ref="M259" r:id="rId548" xr:uid="{AF841785-C7C3-400A-A05F-F98775DDA78A}"/>
+    <hyperlink ref="M260" r:id="rId549" xr:uid="{04425652-AC1D-42D4-915E-909B9BFEFB26}"/>
+    <hyperlink ref="M261" r:id="rId550" xr:uid="{57231735-BA1B-435A-8A82-BE573BA98F72}"/>
+    <hyperlink ref="M262" r:id="rId551" xr:uid="{A7065928-B1F5-4D5C-B323-8A576CC89281}"/>
+    <hyperlink ref="M263" r:id="rId552" xr:uid="{D9ADB21A-7C44-42FB-BE58-F93BCF1EA0B4}"/>
+    <hyperlink ref="M264" r:id="rId553" xr:uid="{F0374ED5-32A6-4353-8CF5-22CFA9493C33}"/>
+    <hyperlink ref="M265" r:id="rId554" xr:uid="{F09AAEE0-B011-4F53-BBCC-C9CEB0328382}"/>
+    <hyperlink ref="M266" r:id="rId555" xr:uid="{FF40D0AE-BC8C-4CC1-A3C8-F5D572FA2892}"/>
+    <hyperlink ref="M267" r:id="rId556" xr:uid="{21DCF708-E3C0-44A2-94D6-4DA734811AC9}"/>
+    <hyperlink ref="M268" r:id="rId557" xr:uid="{A9E19FE4-3354-4EF5-B790-4FC179B8EFAD}"/>
+    <hyperlink ref="M269" r:id="rId558" xr:uid="{408E3426-00A3-4458-854C-AA2A7301C81B}"/>
+    <hyperlink ref="M270" r:id="rId559" xr:uid="{DA375CD9-154B-4FFE-9DE0-6BE4046B2CA0}"/>
+    <hyperlink ref="M271" r:id="rId560" xr:uid="{676F5CC4-D2CC-4CAE-9E1B-A788F3AB8B1C}"/>
+    <hyperlink ref="M272" r:id="rId561" xr:uid="{8BA41E3B-D010-4625-BCC7-8DFDE07E0ABC}"/>
+    <hyperlink ref="M273" r:id="rId562" xr:uid="{1A5FDDC4-6B54-489C-8C9A-27751A508C2B}"/>
+    <hyperlink ref="M274" r:id="rId563" xr:uid="{7118EF20-D93A-496A-B071-41323EAB3C46}"/>
+    <hyperlink ref="M275" r:id="rId564" xr:uid="{A82E2327-8682-43A4-B908-E1E8F8F30AB6}"/>
+    <hyperlink ref="M276" r:id="rId565" xr:uid="{16CB96EC-3344-4EA7-B9D1-799642BE8521}"/>
+    <hyperlink ref="M277" r:id="rId566" xr:uid="{CB77E905-9463-41CA-B061-0672AC989547}"/>
+    <hyperlink ref="M278" r:id="rId567" xr:uid="{93A585BB-02EC-4E6F-A2B0-F74E4E67334F}"/>
+    <hyperlink ref="M279" r:id="rId568" xr:uid="{56765AF8-44E0-4483-98E1-3AA6D588A817}"/>
+    <hyperlink ref="M280" r:id="rId569" xr:uid="{04E6CB2B-1792-4E2F-9C44-D912268A4BCD}"/>
+    <hyperlink ref="M281" r:id="rId570" xr:uid="{3E9BBFFD-8E77-4910-9F31-843A93D81BD6}"/>
+    <hyperlink ref="M282" r:id="rId571" xr:uid="{B56FCB4F-74A9-49DB-BEA0-C7A8A634A0FF}"/>
+    <hyperlink ref="M283" r:id="rId572" xr:uid="{31775B90-6C81-44A9-8DDA-792307C49874}"/>
+    <hyperlink ref="M284" r:id="rId573" xr:uid="{71E3A13A-6983-478D-AB2E-DED518B56352}"/>
+    <hyperlink ref="M285" r:id="rId574" xr:uid="{B22A738B-AE89-4029-B167-88E4D4170368}"/>
+    <hyperlink ref="M286" r:id="rId575" xr:uid="{4BB94602-7986-445B-AAAC-09F831D3254D}"/>
+    <hyperlink ref="M287" r:id="rId576" xr:uid="{5913C3AB-7EAE-44FC-B2C5-EFB8EE104774}"/>
+    <hyperlink ref="M288" r:id="rId577" xr:uid="{9C3DE55D-656C-4FC9-A1F6-DC26F2932788}"/>
+    <hyperlink ref="M289" r:id="rId578" xr:uid="{2C1831A5-B3C3-4EFD-8953-D30076F69E7A}"/>
+    <hyperlink ref="M290" r:id="rId579" xr:uid="{4E542E8F-9AFB-4926-81B4-869E98F8EEFC}"/>
+    <hyperlink ref="M291" r:id="rId580" xr:uid="{BF046692-5A99-41E2-BC3C-F10AE95A339B}"/>
+    <hyperlink ref="N2" r:id="rId581" xr:uid="{4CA32F40-3D2C-4449-9654-2DC608FDA7CC}"/>
+    <hyperlink ref="N3" r:id="rId582" xr:uid="{56D1155C-ED35-4D05-A39B-9456EC2E67A4}"/>
+    <hyperlink ref="N4" r:id="rId583" xr:uid="{0EDEDE58-A7BC-49EB-A7FD-EA78ADFE822D}"/>
+    <hyperlink ref="N5" r:id="rId584" xr:uid="{67AB7F96-948F-45C4-B70E-7AAD66410659}"/>
+    <hyperlink ref="N6" r:id="rId585" xr:uid="{F48FCFF8-9E87-46D9-BD76-D2F606A63A98}"/>
+    <hyperlink ref="N7" r:id="rId586" xr:uid="{EAE13371-3D05-4046-A0E1-996FA902B9A5}"/>
+    <hyperlink ref="N8" r:id="rId587" xr:uid="{324B72EC-01DC-4535-A47D-EEDB02155DF5}"/>
+    <hyperlink ref="N9" r:id="rId588" xr:uid="{FBD74477-F306-4425-8254-F6D0A39D44E0}"/>
+    <hyperlink ref="N10" r:id="rId589" xr:uid="{A53092D2-2826-4A0A-915F-20FD6B62805C}"/>
+    <hyperlink ref="N11" r:id="rId590" xr:uid="{462868A8-9DE1-4B0C-8056-198E1F6C5A16}"/>
+    <hyperlink ref="N12" r:id="rId591" xr:uid="{9DF08FB0-67E4-4E38-A43E-CF9DEB76B865}"/>
+    <hyperlink ref="N13" r:id="rId592" xr:uid="{E2B59B15-0E4E-497D-87E1-B38236A79792}"/>
+    <hyperlink ref="N14" r:id="rId593" xr:uid="{CB3C28EF-C96D-4F44-8294-4B3A31A7867F}"/>
+    <hyperlink ref="N15" r:id="rId594" xr:uid="{468FCAA7-B867-4B3C-BEFB-E434243022E4}"/>
+    <hyperlink ref="N16" r:id="rId595" xr:uid="{3CD17561-5BE0-4DDC-900D-450E0BD91F41}"/>
+    <hyperlink ref="N17" r:id="rId596" xr:uid="{5D30C77B-CE66-4A01-9DD1-B3AA79F55C84}"/>
+    <hyperlink ref="N18" r:id="rId597" xr:uid="{2660B39F-A395-4C46-B6C6-7F4DD7A48ABD}"/>
+    <hyperlink ref="N19" r:id="rId598" xr:uid="{B29C43F4-1182-4E2B-AB87-13BB1C1B9E64}"/>
+    <hyperlink ref="N20" r:id="rId599" xr:uid="{94760A44-A9CA-4C8A-B1FB-CA5288F960D5}"/>
+    <hyperlink ref="N21" r:id="rId600" xr:uid="{19A5109A-3D4A-4F09-BE7D-903FA8677B1D}"/>
+    <hyperlink ref="N22" r:id="rId601" xr:uid="{BB0C5193-DFAE-46CE-A174-1CEC70DAFF47}"/>
+    <hyperlink ref="N23" r:id="rId602" xr:uid="{B378C875-822F-4CAC-8127-EE176806EA84}"/>
+    <hyperlink ref="N24" r:id="rId603" xr:uid="{FE65F4AA-7D17-4417-B525-59266BA7E89A}"/>
+    <hyperlink ref="N25" r:id="rId604" xr:uid="{AFBBD727-DF81-47EB-96C0-D0CEE7DA8296}"/>
+    <hyperlink ref="N26" r:id="rId605" xr:uid="{BF560B3D-25C7-42DA-B49E-AFD335D486B2}"/>
+    <hyperlink ref="N27" r:id="rId606" xr:uid="{5BA3E764-D298-45FA-8927-15C73BCE3399}"/>
+    <hyperlink ref="N28" r:id="rId607" xr:uid="{E1EC9EDB-C2DB-4E75-9162-33DD0C304742}"/>
+    <hyperlink ref="N29" r:id="rId608" xr:uid="{617A3EFB-07BC-4A13-A569-B91624B32CAD}"/>
+    <hyperlink ref="N30" r:id="rId609" xr:uid="{B43B2BDB-422C-4CA2-ACE2-0774324D22FE}"/>
+    <hyperlink ref="N31" r:id="rId610" xr:uid="{82894978-31DD-475E-8E0E-D7D1C5418283}"/>
+    <hyperlink ref="N32" r:id="rId611" xr:uid="{F394CC87-A3A2-4B1F-B1BF-EC0886F021BD}"/>
+    <hyperlink ref="N33" r:id="rId612" xr:uid="{95AB6C49-6145-486F-BD03-7CDAD7F00747}"/>
+    <hyperlink ref="N34" r:id="rId613" xr:uid="{69C13641-3CD6-447D-B64E-D18D7D91A930}"/>
+    <hyperlink ref="N35" r:id="rId614" xr:uid="{3E29F031-9AAF-4A1C-8B3E-E2DFAEBA5495}"/>
+    <hyperlink ref="N36" r:id="rId615" xr:uid="{F9380475-D1CF-4BB6-8052-DDE8ACA06D31}"/>
+    <hyperlink ref="N37" r:id="rId616" xr:uid="{8E7A0545-386B-47C7-87B7-D7D0EFFC2C61}"/>
+    <hyperlink ref="N38" r:id="rId617" xr:uid="{942F4248-1E18-4482-92E7-345AB3E3711F}"/>
+    <hyperlink ref="N39" r:id="rId618" xr:uid="{C20E56E9-4674-448B-BD74-35A13B7A1410}"/>
+    <hyperlink ref="N40" r:id="rId619" xr:uid="{3FF1925C-98FC-426A-82FC-16300EC191F1}"/>
+    <hyperlink ref="N41" r:id="rId620" xr:uid="{4D0771AF-02E0-409F-8286-8443F9E0E1F0}"/>
+    <hyperlink ref="N42" r:id="rId621" xr:uid="{D5F6FE23-D800-475F-B47B-3D8E555B8C08}"/>
+    <hyperlink ref="N43" r:id="rId622" xr:uid="{9A026AAF-6634-4903-A881-5C70F494E3C1}"/>
+    <hyperlink ref="N44" r:id="rId623" xr:uid="{4577AABF-5E53-4252-82EF-527611DB28ED}"/>
+    <hyperlink ref="N45" r:id="rId624" xr:uid="{A83691AD-9858-4AF0-A03B-D116FD8186A2}"/>
+    <hyperlink ref="N46" r:id="rId625" xr:uid="{885C7EF6-ED68-4425-A97A-9AC23BB59655}"/>
+    <hyperlink ref="N47" r:id="rId626" xr:uid="{46FE86F3-B84F-42DD-9A95-AB2025CFD396}"/>
+    <hyperlink ref="N48" r:id="rId627" xr:uid="{8DC57DDD-B659-4E8A-BDF2-CAA6C627A58B}"/>
+    <hyperlink ref="N49" r:id="rId628" xr:uid="{9D58B56D-94BA-498A-8381-9C7EF48D4BFB}"/>
+    <hyperlink ref="N50" r:id="rId629" xr:uid="{FFDDEC56-4BB9-4588-8ED5-CA11D1DDC970}"/>
+    <hyperlink ref="N51" r:id="rId630" xr:uid="{3DEA2D10-CFFC-47AC-BD7B-4EA6762F7EDB}"/>
+    <hyperlink ref="N52" r:id="rId631" xr:uid="{69498878-47FF-4E52-8846-29EF35A4D0AF}"/>
+    <hyperlink ref="N53" r:id="rId632" xr:uid="{DE14E1C0-76A1-46AB-9DF9-B1DCE78F3BC4}"/>
+    <hyperlink ref="N54" r:id="rId633" xr:uid="{EE6C540C-E3D9-4938-A880-1DCAAB2F7734}"/>
+    <hyperlink ref="N55" r:id="rId634" xr:uid="{D81B6CBF-CD77-4686-BD21-5E2BA86583D1}"/>
+    <hyperlink ref="N56" r:id="rId635" xr:uid="{959E0EB7-9B2B-4403-B14E-0515C1A9E900}"/>
+    <hyperlink ref="N57" r:id="rId636" xr:uid="{EE98B44C-E5FD-4CE4-B72C-5FBB8AAA79CE}"/>
+    <hyperlink ref="N58" r:id="rId637" xr:uid="{0C259465-8FB7-4D6B-893B-CEA80857D8FC}"/>
+    <hyperlink ref="N59" r:id="rId638" xr:uid="{A2BCAB27-DEDC-4E92-9DFF-0F55A21A980F}"/>
+    <hyperlink ref="N60" r:id="rId639" xr:uid="{A212340D-9A39-4BFF-B759-084AD4B9ED52}"/>
+    <hyperlink ref="N61" r:id="rId640" xr:uid="{7DA3267F-52FB-4728-86ED-9CC189FC1291}"/>
+    <hyperlink ref="N62" r:id="rId641" xr:uid="{B4644A3B-931F-4ACD-A709-77123006DFCD}"/>
+    <hyperlink ref="N63" r:id="rId642" xr:uid="{0A5C96F2-4EBE-46B7-9016-AA251DE69613}"/>
+    <hyperlink ref="N64" r:id="rId643" xr:uid="{01B6AD50-0583-4899-9AC4-FD6B2D621C50}"/>
+    <hyperlink ref="N65" r:id="rId644" xr:uid="{A2107F91-D24D-401A-BEE7-1FB9A36EF355}"/>
+    <hyperlink ref="N66" r:id="rId645" xr:uid="{B657E4B8-9929-4E14-88E5-DD66DE0E0A39}"/>
+    <hyperlink ref="N67" r:id="rId646" xr:uid="{484476AF-9C7B-4390-9776-BBE201C2790C}"/>
+    <hyperlink ref="N68" r:id="rId647" xr:uid="{EA9AE176-BABA-468E-A9D0-509A7E61C16D}"/>
+    <hyperlink ref="N69" r:id="rId648" xr:uid="{F846DD24-7699-4D6C-A67F-F2B6A7E13B0F}"/>
+    <hyperlink ref="N70" r:id="rId649" xr:uid="{6E4F9288-7C8A-4F65-8900-E473374226AF}"/>
+    <hyperlink ref="N71" r:id="rId650" xr:uid="{99BAF56F-F946-4A22-A0E1-B6B02245DFA1}"/>
+    <hyperlink ref="N72" r:id="rId651" xr:uid="{16531AA5-B78C-4B90-8079-5270A16C80DB}"/>
+    <hyperlink ref="N73" r:id="rId652" xr:uid="{C6061984-AA2B-4CDF-AD48-25D6C550A7D8}"/>
+    <hyperlink ref="N74" r:id="rId653" xr:uid="{E8CF5145-9EC6-4A28-A012-0915EA7A9F9A}"/>
+    <hyperlink ref="N75" r:id="rId654" xr:uid="{BF5B63DF-6155-43DA-B64E-E3146D029831}"/>
+    <hyperlink ref="N76" r:id="rId655" xr:uid="{DCB10CF8-4411-4A45-8663-D8ED3F69C4E2}"/>
+    <hyperlink ref="N77" r:id="rId656" xr:uid="{6E2F1314-9BAB-4FB4-83DA-86EB6795A542}"/>
+    <hyperlink ref="N78" r:id="rId657" xr:uid="{5C05BAC1-D249-4179-957F-BEC6605F1413}"/>
+    <hyperlink ref="N79" r:id="rId658" xr:uid="{3B692755-7B98-476C-B2C3-FF16182648A0}"/>
+    <hyperlink ref="N80" r:id="rId659" xr:uid="{72289995-F2D9-4920-B6FC-583E72CCAD39}"/>
+    <hyperlink ref="N81" r:id="rId660" xr:uid="{1AB0A689-3E36-480B-B263-DB2C2A66BD3E}"/>
+    <hyperlink ref="N82" r:id="rId661" xr:uid="{B6A86AD6-139A-4B8B-B109-F1F369DA607A}"/>
+    <hyperlink ref="N83" r:id="rId662" xr:uid="{ABEF9B3C-20D8-48B3-9744-CCAED24231B9}"/>
+    <hyperlink ref="N84" r:id="rId663" xr:uid="{5605ED06-3B55-4F77-8336-C0FE50753BD8}"/>
+    <hyperlink ref="N85" r:id="rId664" xr:uid="{4DF99F96-4015-46AB-8BD6-0E396379573F}"/>
+    <hyperlink ref="N86" r:id="rId665" xr:uid="{7FAC3F82-5D4A-4B12-A68A-109AF3F5278E}"/>
+    <hyperlink ref="N87" r:id="rId666" xr:uid="{4672F070-7603-4379-9F81-8536A93D1239}"/>
+    <hyperlink ref="N88" r:id="rId667" xr:uid="{9D085236-200E-464D-A84B-07A10F05725C}"/>
+    <hyperlink ref="N89" r:id="rId668" xr:uid="{72C2420E-9612-4E1C-ADAC-573FA204FCD2}"/>
+    <hyperlink ref="N90" r:id="rId669" xr:uid="{31864095-D9F1-4CF7-90AE-8E44E617CD9B}"/>
+    <hyperlink ref="N91" r:id="rId670" xr:uid="{5B56E8F3-C579-4363-8E57-9D3ABB6B15CD}"/>
+    <hyperlink ref="N92" r:id="rId671" xr:uid="{5C120F60-CF69-4B5A-9048-0792EDD71366}"/>
+    <hyperlink ref="N93" r:id="rId672" xr:uid="{96ABAB45-5419-4374-B960-1BB02D38E586}"/>
+    <hyperlink ref="N94" r:id="rId673" xr:uid="{D176F755-A2DF-4891-99E6-D3987E50A54F}"/>
+    <hyperlink ref="N95" r:id="rId674" xr:uid="{E8BD6054-BEBF-41EC-9153-EED0353CCD11}"/>
+    <hyperlink ref="N96" r:id="rId675" xr:uid="{0CD6FEEE-8B61-444B-A203-9B049EC16D01}"/>
+    <hyperlink ref="N97" r:id="rId676" xr:uid="{7B98F848-BE28-4D5B-87B9-1C0497A58CA6}"/>
+    <hyperlink ref="N98" r:id="rId677" xr:uid="{DE592586-B7E3-4611-BA90-4B07E8933B26}"/>
+    <hyperlink ref="N99" r:id="rId678" xr:uid="{46215248-B0FA-4908-9851-021F82E23032}"/>
+    <hyperlink ref="N100" r:id="rId679" xr:uid="{9F1DCE49-DF39-40ED-AC98-8A553686FFEB}"/>
+    <hyperlink ref="N101" r:id="rId680" xr:uid="{677E7D6A-5A1B-470C-93D0-5119C9666B32}"/>
+    <hyperlink ref="N102" r:id="rId681" xr:uid="{D60ECC8F-ABD3-4741-A575-B74274241D39}"/>
+    <hyperlink ref="N103" r:id="rId682" xr:uid="{A36711AC-2455-43BA-B5AE-D789784C5683}"/>
+    <hyperlink ref="N104" r:id="rId683" xr:uid="{6237E95E-C264-4BD8-B843-B85268AC5D73}"/>
+    <hyperlink ref="N105" r:id="rId684" xr:uid="{0D3A6973-BA32-48CC-A09D-1302C807914B}"/>
+    <hyperlink ref="N106" r:id="rId685" xr:uid="{1088B971-DCE7-4FA8-B665-9B85661F6653}"/>
+    <hyperlink ref="N107" r:id="rId686" xr:uid="{9120D3DF-6529-47C3-8E67-7D12A1ABC8BB}"/>
+    <hyperlink ref="N108" r:id="rId687" xr:uid="{D8050CA5-B54D-4C35-A18F-AA2019385135}"/>
+    <hyperlink ref="N109" r:id="rId688" xr:uid="{D9E907D4-4398-4BDB-B9F6-E3DEB613720D}"/>
+    <hyperlink ref="N110" r:id="rId689" xr:uid="{784754B3-22F8-443B-8D06-F8FD2D4ED028}"/>
+    <hyperlink ref="N111" r:id="rId690" xr:uid="{F9793827-1850-4FE5-AA77-ACDC94C75D33}"/>
+    <hyperlink ref="N112" r:id="rId691" xr:uid="{FB892947-7CCF-4931-B61F-1F8EC893DC8F}"/>
+    <hyperlink ref="N113" r:id="rId692" xr:uid="{39026D0C-AB2B-4BEF-985F-7EBC5B68C6F9}"/>
+    <hyperlink ref="N114" r:id="rId693" xr:uid="{FDD93499-11A9-4206-AC07-E345A6806201}"/>
+    <hyperlink ref="N115" r:id="rId694" xr:uid="{647DE895-E958-45F5-B0FD-F75508F21127}"/>
+    <hyperlink ref="N116" r:id="rId695" xr:uid="{8C2CEE6F-5850-438E-A337-1D39C5F9743E}"/>
+    <hyperlink ref="N117" r:id="rId696" xr:uid="{EB33968E-0BD5-4AEC-B7DC-28DB28F1ACC2}"/>
+    <hyperlink ref="N118" r:id="rId697" xr:uid="{5A1C1A51-E742-4A3C-873E-ACE00A188603}"/>
+    <hyperlink ref="N119" r:id="rId698" xr:uid="{39FE5E26-2862-4752-AA7A-BA97D35051C6}"/>
+    <hyperlink ref="N120" r:id="rId699" xr:uid="{D87D2919-35B8-44EB-B432-4968A1CBC892}"/>
+    <hyperlink ref="N121" r:id="rId700" xr:uid="{E8BA9401-3679-4348-8375-0875EAEE10CF}"/>
+    <hyperlink ref="N122" r:id="rId701" xr:uid="{B424994D-866F-45C8-9810-40DA615008AC}"/>
+    <hyperlink ref="N123" r:id="rId702" xr:uid="{6AA7BB2E-D1E4-47E1-85ED-CD73AD33C5F6}"/>
+    <hyperlink ref="N124" r:id="rId703" xr:uid="{307706D0-999C-4B31-9B8C-AAA4650CE4DC}"/>
+    <hyperlink ref="N125" r:id="rId704" xr:uid="{6BA29FD0-5F01-4F90-AEAA-059602AB6D32}"/>
+    <hyperlink ref="N126" r:id="rId705" xr:uid="{8347ACA7-6CFB-4D0C-9D4E-E42E11F175FA}"/>
+    <hyperlink ref="N127" r:id="rId706" xr:uid="{87B9CA9A-0671-40AE-960D-87BA238294EA}"/>
+    <hyperlink ref="N128" r:id="rId707" xr:uid="{84A2FC94-9F3F-4661-96C6-A2DBCE62FF3C}"/>
+    <hyperlink ref="N129" r:id="rId708" xr:uid="{94D70CD6-F06D-43F3-8147-F88FBEDC714B}"/>
+    <hyperlink ref="N130" r:id="rId709" xr:uid="{DF701456-B62B-48C5-A38F-A94AF7201F80}"/>
+    <hyperlink ref="N131" r:id="rId710" xr:uid="{A7E297D8-0BE6-4327-9649-5D02E3BF1E37}"/>
+    <hyperlink ref="N132" r:id="rId711" xr:uid="{37559FB4-0043-4393-8ADD-0C8BADEA1373}"/>
+    <hyperlink ref="N133" r:id="rId712" xr:uid="{AC7A8C5C-89AD-4EFD-B893-9C576319AFB6}"/>
+    <hyperlink ref="N134" r:id="rId713" xr:uid="{A2C61207-6FAA-4028-9F1D-51397AF49190}"/>
+    <hyperlink ref="N135" r:id="rId714" xr:uid="{DB374158-F283-496A-A207-7280D0ACE07D}"/>
+    <hyperlink ref="N136" r:id="rId715" xr:uid="{42F55A2F-AE29-48E6-AD0A-2331D95EC71C}"/>
+    <hyperlink ref="N137" r:id="rId716" xr:uid="{7ADC17DB-7FD9-47DF-9155-80054AA25B8A}"/>
+    <hyperlink ref="N138" r:id="rId717" xr:uid="{248DE809-00FA-4E0B-B9CE-ACF0429A8EC4}"/>
+    <hyperlink ref="N139" r:id="rId718" xr:uid="{F8BC27A7-094C-4FD5-A45A-02F9CE763A50}"/>
+    <hyperlink ref="N140" r:id="rId719" xr:uid="{85237BC6-EF21-43B8-8C96-FE7629D7F128}"/>
+    <hyperlink ref="N141" r:id="rId720" xr:uid="{BB44B558-0CA1-4D3C-ADF7-3163977D164C}"/>
+    <hyperlink ref="N142" r:id="rId721" xr:uid="{FD73714B-8F5E-45CF-BDA2-0F67A61C4FA7}"/>
+    <hyperlink ref="N143" r:id="rId722" xr:uid="{F7797FF1-761F-4A75-8F20-311A411212A1}"/>
+    <hyperlink ref="N144" r:id="rId723" xr:uid="{5484F08A-1118-47F0-A2A4-F7CB1F87912A}"/>
+    <hyperlink ref="N145" r:id="rId724" xr:uid="{5F19810F-4697-40B9-BDC1-366C0647A01C}"/>
+    <hyperlink ref="N146" r:id="rId725" xr:uid="{661D1335-CF2A-4D66-AC87-99EB16D5D8C3}"/>
+    <hyperlink ref="N147" r:id="rId726" xr:uid="{B2CE9E87-2A50-4298-9C0D-42BC05FE1713}"/>
+    <hyperlink ref="N148" r:id="rId727" xr:uid="{01543290-49B1-4A30-BFF8-F4B4665BB0D7}"/>
+    <hyperlink ref="N149" r:id="rId728" xr:uid="{6BC66EC4-4F1A-4F2E-8565-E3084FF29762}"/>
+    <hyperlink ref="N150" r:id="rId729" xr:uid="{E14611C2-FFDF-476C-A309-470CD5890468}"/>
+    <hyperlink ref="N151" r:id="rId730" xr:uid="{FB05981A-5BE6-407F-9B55-658A9409D40D}"/>
+    <hyperlink ref="N152" r:id="rId731" xr:uid="{B396D354-3FC3-45EA-ACB1-9FB4B189CA9E}"/>
+    <hyperlink ref="N153" r:id="rId732" xr:uid="{6F7C1E2D-1BE7-4D67-945A-E55C77F5CBC7}"/>
+    <hyperlink ref="N154" r:id="rId733" xr:uid="{C3EB473D-B2EA-4DDA-8C64-91BC216E6301}"/>
+    <hyperlink ref="N155" r:id="rId734" xr:uid="{1951B9A1-1F7C-4071-9ACB-745518EA6811}"/>
+    <hyperlink ref="N156" r:id="rId735" xr:uid="{93AEFA1D-5C69-4742-A00D-8C56B34DA7C8}"/>
+    <hyperlink ref="N157" r:id="rId736" xr:uid="{63DC2523-FB4B-4F6D-B6F6-14B5DE8D074A}"/>
+    <hyperlink ref="N158" r:id="rId737" xr:uid="{A20A8868-7349-4346-B046-E2F7EADA9431}"/>
+    <hyperlink ref="N159" r:id="rId738" xr:uid="{03555487-AFAE-42CD-B79F-2BB2B0C3F1DD}"/>
+    <hyperlink ref="N160" r:id="rId739" xr:uid="{EC139D9E-AE95-4D29-922E-3C102E4CD4AF}"/>
+    <hyperlink ref="N161" r:id="rId740" xr:uid="{3C22D8EC-6A56-4E8A-A1AB-F571FFB6930A}"/>
+    <hyperlink ref="N162" r:id="rId741" xr:uid="{A82B6C2B-C7BB-4B65-971E-75D4081FB8BE}"/>
+    <hyperlink ref="N163" r:id="rId742" xr:uid="{FA298A5E-54F9-48E4-BE12-E7F09ABF65A5}"/>
+    <hyperlink ref="N164" r:id="rId743" xr:uid="{786A2127-A165-487E-A56F-32DDE21CC291}"/>
+    <hyperlink ref="N165" r:id="rId744" xr:uid="{BA9209B8-C5D8-44DC-ACD8-99357E6EFEDD}"/>
+    <hyperlink ref="N166" r:id="rId745" xr:uid="{77E3E65D-E9E3-40D1-8761-0D98E8CDACF6}"/>
+    <hyperlink ref="N167" r:id="rId746" xr:uid="{FCFB566A-ABE6-4225-A344-40CF25C00060}"/>
+    <hyperlink ref="N168" r:id="rId747" xr:uid="{9A5CD90C-EB42-48D1-9D46-52FAE631F48D}"/>
+    <hyperlink ref="N169" r:id="rId748" xr:uid="{DBE3238C-4430-465C-A427-E1504DAA9DBD}"/>
+    <hyperlink ref="N170" r:id="rId749" xr:uid="{D5D84B30-4473-4578-9125-7CD5C0780301}"/>
+    <hyperlink ref="N171" r:id="rId750" xr:uid="{F20A1F5A-3967-451F-852B-54BAEF0562F9}"/>
+    <hyperlink ref="N172" r:id="rId751" xr:uid="{A4DE66E4-4B9F-432E-8CE7-396E9293F730}"/>
+    <hyperlink ref="N173" r:id="rId752" xr:uid="{81E04B93-CEF4-43E1-B8EA-A9BFDDF2F6ED}"/>
+    <hyperlink ref="N174" r:id="rId753" xr:uid="{EFAE66E4-D359-4468-AF92-1B66D1FB2B54}"/>
+    <hyperlink ref="N175" r:id="rId754" xr:uid="{8CF090E8-5F94-45EE-B4F8-C5192854571A}"/>
+    <hyperlink ref="N176" r:id="rId755" xr:uid="{9D9F89F0-00EB-41EE-8B09-21FF6894FAC5}"/>
+    <hyperlink ref="N177" r:id="rId756" xr:uid="{26A3FB81-7DC5-493C-992A-F65AFB3AED2B}"/>
+    <hyperlink ref="N178" r:id="rId757" xr:uid="{3AD09D31-51B4-4D21-ADBC-A9F8C39D7350}"/>
+    <hyperlink ref="N179" r:id="rId758" xr:uid="{1B8021B7-D556-4094-9294-C65072973C97}"/>
+    <hyperlink ref="N180" r:id="rId759" xr:uid="{68D3EDDD-09B5-4177-AC48-B0B7674348EE}"/>
+    <hyperlink ref="N181" r:id="rId760" xr:uid="{6CE1C18E-3A33-462A-8BD0-7592B2B4E3FE}"/>
+    <hyperlink ref="N182" r:id="rId761" xr:uid="{25314B05-7718-44D1-8FF1-6AC9AE44FC9C}"/>
+    <hyperlink ref="N183" r:id="rId762" xr:uid="{ACD3F5A8-BB2F-4F01-A104-024CD9F2467F}"/>
+    <hyperlink ref="N184" r:id="rId763" xr:uid="{BB4D49BF-D882-457D-90B9-75994BAC9C03}"/>
+    <hyperlink ref="N185" r:id="rId764" xr:uid="{FECF42F3-8E82-4B83-A66A-6182A82402AD}"/>
+    <hyperlink ref="N186" r:id="rId765" xr:uid="{20736531-4F16-4984-AF8C-53EBC3CC0E23}"/>
+    <hyperlink ref="N187" r:id="rId766" xr:uid="{904EEB08-D557-4FE9-BDA0-AD10ED0AA0C0}"/>
+    <hyperlink ref="N188" r:id="rId767" xr:uid="{9FC7B187-4AC0-4590-83AA-B05661547DEA}"/>
+    <hyperlink ref="N189" r:id="rId768" xr:uid="{53DAD787-B340-4B2D-AB6A-A7689739402B}"/>
+    <hyperlink ref="N190" r:id="rId769" xr:uid="{ACBBEEE1-B455-45B0-BF46-43E087CCE6B6}"/>
+    <hyperlink ref="N191" r:id="rId770" xr:uid="{724CE2D2-0DF1-434E-931D-9E4ACD134F99}"/>
+    <hyperlink ref="N192" r:id="rId771" xr:uid="{26450FF0-C7C7-4C13-96A0-E0BFF44ADD06}"/>
+    <hyperlink ref="N193" r:id="rId772" xr:uid="{A5D16C2D-8D46-4781-AE61-6133ED686331}"/>
+    <hyperlink ref="N194" r:id="rId773" xr:uid="{DFCAA745-4284-4DCD-B142-D293CEAA6F84}"/>
+    <hyperlink ref="N195" r:id="rId774" xr:uid="{3CE86FA0-2517-4488-A4AB-B13EE0C0CAE0}"/>
+    <hyperlink ref="N196" r:id="rId775" xr:uid="{F86C26B0-4A97-43D2-9265-5568B67349B5}"/>
+    <hyperlink ref="N197" r:id="rId776" xr:uid="{D16F89EF-0C04-4324-B9C1-8882B552B300}"/>
+    <hyperlink ref="N198" r:id="rId777" xr:uid="{D2DCAAC7-2D41-42EA-AEB0-2D8664A7F3AB}"/>
+    <hyperlink ref="N199" r:id="rId778" xr:uid="{F776324E-0696-4E4E-B987-19AD7B7C4650}"/>
+    <hyperlink ref="N200" r:id="rId779" xr:uid="{3B599D8D-BE1F-4AB0-A6F4-E3E59CB0E24C}"/>
+    <hyperlink ref="N201" r:id="rId780" xr:uid="{7ABD0EB0-07CB-4385-A3AF-AED8B91BAD96}"/>
+    <hyperlink ref="N202" r:id="rId781" xr:uid="{85A95E97-C5EE-497D-B21A-882B846BFBBF}"/>
+    <hyperlink ref="N203" r:id="rId782" xr:uid="{20829624-C67B-4924-8506-43E0B1BEE4EA}"/>
+    <hyperlink ref="N204" r:id="rId783" xr:uid="{6EAF354B-4651-4FC6-9508-371DE16F8DF4}"/>
+    <hyperlink ref="N205" r:id="rId784" xr:uid="{1C648C8C-78CF-442C-8A97-6E5EF8D87268}"/>
+    <hyperlink ref="N206" r:id="rId785" xr:uid="{D99F5950-E0B9-4887-A82D-D4E60AFC60ED}"/>
+    <hyperlink ref="N207" r:id="rId786" xr:uid="{C1F325A7-B001-4838-A58A-426D220FAC74}"/>
+    <hyperlink ref="N208" r:id="rId787" xr:uid="{424DEB0E-5002-4531-AED1-2D20F3716E18}"/>
+    <hyperlink ref="N209" r:id="rId788" xr:uid="{B8147B36-8C09-4CFF-B9D4-776D1EB05902}"/>
+    <hyperlink ref="N210" r:id="rId789" xr:uid="{F2FCC133-C6F0-4A3E-9018-0779197387D6}"/>
+    <hyperlink ref="N211" r:id="rId790" xr:uid="{692DD3FF-3981-4784-BCBC-143B1436CEEE}"/>
+    <hyperlink ref="N212" r:id="rId791" xr:uid="{4875D225-188F-47C7-8962-318C282E5C39}"/>
+    <hyperlink ref="N213" r:id="rId792" xr:uid="{F9C43D08-9FA4-44B6-94FD-7E4F32995C37}"/>
+    <hyperlink ref="N214" r:id="rId793" xr:uid="{2941B072-6DF5-48B6-8C60-293BCCF7A721}"/>
+    <hyperlink ref="N215" r:id="rId794" xr:uid="{8E06A909-D28A-406D-B031-9FBA435E55FE}"/>
+    <hyperlink ref="N216" r:id="rId795" xr:uid="{ABF5A52C-D979-43E7-80E7-04C9C970FDFD}"/>
+    <hyperlink ref="N217" r:id="rId796" xr:uid="{529040EF-C0FB-4777-85FD-6C3253CCEE1D}"/>
+    <hyperlink ref="N218" r:id="rId797" xr:uid="{6AE360E5-177D-491F-878B-B7868DAD45C1}"/>
+    <hyperlink ref="N219" r:id="rId798" xr:uid="{E18CECA9-4A47-42C5-94DA-C9CFB91A4E56}"/>
+    <hyperlink ref="N220" r:id="rId799" xr:uid="{3A3599CD-D264-4F84-B6F9-F39384F8AB7F}"/>
+    <hyperlink ref="N221" r:id="rId800" xr:uid="{6AE64705-463A-4CE6-9F60-A572882F9651}"/>
+    <hyperlink ref="N222" r:id="rId801" xr:uid="{07CF6234-A0F1-43A3-8753-9F681C0671DA}"/>
+    <hyperlink ref="N223" r:id="rId802" xr:uid="{A32A1107-FDB7-41BF-A271-D1154B4BFF50}"/>
+    <hyperlink ref="N224" r:id="rId803" xr:uid="{9F8F1165-D033-4A22-A120-18A4CC0B7784}"/>
+    <hyperlink ref="N225" r:id="rId804" xr:uid="{E95BF312-AA32-4AA7-9CE4-E1D85003F8C2}"/>
+    <hyperlink ref="N226" r:id="rId805" xr:uid="{B0498543-543C-43FA-BF83-D3E6E64FAA31}"/>
+    <hyperlink ref="N227" r:id="rId806" xr:uid="{76D4739B-3045-4845-A037-E3C504CEB759}"/>
+    <hyperlink ref="N228" r:id="rId807" xr:uid="{2448EE36-1688-4F2E-99C2-69C5D0C7661A}"/>
+    <hyperlink ref="N229" r:id="rId808" xr:uid="{3874F696-2538-41F1-8C4F-EF65670F5DD6}"/>
+    <hyperlink ref="N230" r:id="rId809" xr:uid="{DD1F5238-FF19-4B3A-87AA-1EA0EBFC417E}"/>
+    <hyperlink ref="N231" r:id="rId810" xr:uid="{87B2917A-F5EB-48B2-8132-E8BA38CB72F2}"/>
+    <hyperlink ref="N232" r:id="rId811" xr:uid="{53F4C93F-BED7-4680-A57C-4D1ECEAC9568}"/>
+    <hyperlink ref="N233" r:id="rId812" xr:uid="{76DB1E59-CE69-4ED3-9984-E85EB787340A}"/>
+    <hyperlink ref="N234" r:id="rId813" xr:uid="{4857EA04-536B-4424-8BF4-5BB32D474FEA}"/>
+    <hyperlink ref="N235" r:id="rId814" xr:uid="{093F8D1B-F7F9-4696-84A7-4D8AA33F784D}"/>
+    <hyperlink ref="N236" r:id="rId815" xr:uid="{E1044E95-25C6-42EF-9FF1-9B88FBA488A9}"/>
+    <hyperlink ref="N237" r:id="rId816" xr:uid="{114E74F2-B081-4809-BD54-D40AAF8BE07D}"/>
+    <hyperlink ref="N238" r:id="rId817" xr:uid="{6AEBB46F-0290-4455-A389-BF156B3F5096}"/>
+    <hyperlink ref="N239" r:id="rId818" xr:uid="{3770B8D7-F5FD-403A-A61E-8A59C9A1F0A5}"/>
+    <hyperlink ref="N240" r:id="rId819" xr:uid="{D141012B-F83C-436B-8C37-284E6E23A58C}"/>
+    <hyperlink ref="N241" r:id="rId820" xr:uid="{D8E8D830-8BC8-439F-A2FA-41F9014AD800}"/>
+    <hyperlink ref="N242" r:id="rId821" xr:uid="{C3D885FB-E07A-4544-B775-45788FCF97BC}"/>
+    <hyperlink ref="N243" r:id="rId822" xr:uid="{2736C3EE-7325-403D-BD11-084552A7217D}"/>
+    <hyperlink ref="N244" r:id="rId823" xr:uid="{D96DD939-EFF3-438C-BC75-5D7B866E4BC6}"/>
+    <hyperlink ref="N245" r:id="rId824" xr:uid="{E3132390-3F10-42B2-9DFB-F9859EA32152}"/>
+    <hyperlink ref="N246" r:id="rId825" xr:uid="{DED1CB5A-94B6-4CE5-B65A-93217BB2D2B0}"/>
+    <hyperlink ref="N247" r:id="rId826" xr:uid="{BA7B7F02-91D3-4EBC-BA0D-D5D76A12795C}"/>
+    <hyperlink ref="N248" r:id="rId827" xr:uid="{917B8D1D-0F7D-4774-9EDD-DB86B0AF8CB7}"/>
+    <hyperlink ref="N249" r:id="rId828" xr:uid="{8E8C5D82-3AF7-4324-AB83-ABE142F20F66}"/>
+    <hyperlink ref="N250" r:id="rId829" xr:uid="{DB16F211-40FE-4177-8485-3967CB54EBB5}"/>
+    <hyperlink ref="N251" r:id="rId830" xr:uid="{39B400FA-F017-4DD7-9C86-94DD2DC8607D}"/>
+    <hyperlink ref="N252" r:id="rId831" xr:uid="{13949E9A-BADE-4493-9C9A-FC1F414301F4}"/>
+    <hyperlink ref="N253" r:id="rId832" xr:uid="{79B600F2-28F1-4DDE-A510-B57885B7A145}"/>
+    <hyperlink ref="N254" r:id="rId833" xr:uid="{8AF62513-A589-4E3E-BC59-B74571A2A420}"/>
+    <hyperlink ref="N255" r:id="rId834" xr:uid="{47FAA76D-2301-48B8-B1D0-046A71E1E06C}"/>
+    <hyperlink ref="N256" r:id="rId835" xr:uid="{EB65A223-7FE1-49A6-8542-A3B3873F774A}"/>
+    <hyperlink ref="N257" r:id="rId836" xr:uid="{611EF009-FDD5-4847-8E7F-AF8BD182008E}"/>
+    <hyperlink ref="N258" r:id="rId837" xr:uid="{ED90DCAB-A679-4C97-9FBE-35E8782745B1}"/>
+    <hyperlink ref="N259" r:id="rId838" xr:uid="{9E23D3B0-A604-4542-8876-97183A48BCA3}"/>
+    <hyperlink ref="N260" r:id="rId839" xr:uid="{3F6D729D-3E28-4451-8547-911E3E88BDCF}"/>
+    <hyperlink ref="N261" r:id="rId840" xr:uid="{FFA7885A-2448-4256-AA5D-B6C1B36CC1B5}"/>
+    <hyperlink ref="N262" r:id="rId841" xr:uid="{4268D173-5AD7-4C57-B550-6F5367E608FB}"/>
+    <hyperlink ref="N263" r:id="rId842" xr:uid="{D7D6B015-F51B-423A-BBBD-0D7A0DE3A973}"/>
+    <hyperlink ref="N264" r:id="rId843" xr:uid="{D487A808-2326-4810-86E5-A5FE29CA5E7E}"/>
+    <hyperlink ref="N265" r:id="rId844" xr:uid="{7AA98869-3D92-4041-9752-292C5CE3807E}"/>
+    <hyperlink ref="N266" r:id="rId845" xr:uid="{4F648B5F-048F-48D3-8CCB-7DACFFE457DC}"/>
+    <hyperlink ref="N267" r:id="rId846" xr:uid="{47837391-6892-4D82-B4E5-B9708F6FAB54}"/>
+    <hyperlink ref="N268" r:id="rId847" xr:uid="{428EE9AC-7277-4ABD-B611-DACC4A27F6F7}"/>
+    <hyperlink ref="N269" r:id="rId848" xr:uid="{E21622D2-89D0-46C4-8261-623D8E7F6D46}"/>
+    <hyperlink ref="N270" r:id="rId849" xr:uid="{DF501DED-D1FD-42CE-976F-E0ABEE4FC73E}"/>
+    <hyperlink ref="N271" r:id="rId850" xr:uid="{BE70FEC0-7CFD-4E7E-818D-C1D82620AA67}"/>
+    <hyperlink ref="N272" r:id="rId851" xr:uid="{5630064F-B8FF-452B-9D0D-9A176E60CEC1}"/>
+    <hyperlink ref="N273" r:id="rId852" xr:uid="{ADF9E745-E0B3-45CB-AB45-233585104779}"/>
+    <hyperlink ref="N274" r:id="rId853" xr:uid="{F497B515-7DE8-4F81-B48A-CB236ABA96C5}"/>
+    <hyperlink ref="N275" r:id="rId854" xr:uid="{0F042DBD-717B-40A6-9526-3EFD255E42F5}"/>
+    <hyperlink ref="N276" r:id="rId855" xr:uid="{AE74FC69-1EB7-4B3B-A97B-0CE668E31EA4}"/>
+    <hyperlink ref="N277" r:id="rId856" xr:uid="{533683AA-501A-4649-9C99-5D70F463ACAB}"/>
+    <hyperlink ref="N278" r:id="rId857" xr:uid="{10E243A1-1F46-4F81-B770-778191CB6D0E}"/>
+    <hyperlink ref="N279" r:id="rId858" xr:uid="{A2C4251A-1DE4-45D5-910B-E340758E94A2}"/>
+    <hyperlink ref="N280" r:id="rId859" xr:uid="{3E506CAA-8D9D-4870-9399-C4EC6A299FBD}"/>
+    <hyperlink ref="N281" r:id="rId860" xr:uid="{9255CD1B-C8BC-454D-A3C8-6C63E961098E}"/>
+    <hyperlink ref="N282" r:id="rId861" xr:uid="{99C201C0-F32B-4543-8344-CD3F1F44DC33}"/>
+    <hyperlink ref="N283" r:id="rId862" xr:uid="{14866260-124E-4311-AA57-F995A367656A}"/>
+    <hyperlink ref="N284" r:id="rId863" xr:uid="{97B9DCC3-19AB-415E-892F-2D0FF698AFE4}"/>
+    <hyperlink ref="N285" r:id="rId864" xr:uid="{E4359ACB-79B2-495A-8683-EDBC89A96738}"/>
+    <hyperlink ref="N286" r:id="rId865" xr:uid="{06B53EDA-1A84-4F08-BCD8-6C53C473EFAC}"/>
+    <hyperlink ref="N287" r:id="rId866" xr:uid="{C1178508-F83E-449E-9F09-DBD98A6B6D97}"/>
+    <hyperlink ref="N288" r:id="rId867" xr:uid="{A8EB47AF-B3B5-47E3-97F7-441249EB5096}"/>
+    <hyperlink ref="N289" r:id="rId868" xr:uid="{E007F93F-C9DA-4A1B-BCA1-15DD472442DB}"/>
+    <hyperlink ref="N290" r:id="rId869" xr:uid="{0828D809-6446-4EC0-A4E9-0835EBE8943E}"/>
+    <hyperlink ref="N291" r:id="rId870" xr:uid="{5ABB2C15-C9E4-4A6E-B657-5A8F8ADB4ED1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId291"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId871"/>
 </worksheet>
 </file>
--- a/finalPJT/Server/theme/type.xlsx
+++ b/finalPJT/Server/theme/type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KB_IT_Academy_4Team\finalPJT\Server\theme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B73F52-948E-4828-AF50-FDD0C58FD744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E44C89-DD2B-4079-85DB-82BEBA528E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3099,6 +3099,131 @@
   </si>
   <si>
     <t>에프터스쿨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t1.daumcdn.net/cfile/tistory/260A9E4850EA6A7A0E</t>
+  </si>
+  <si>
+    <t>https://i1.daumcdn.net/cfile230/image/242CD03353953F2527CCD6</t>
+  </si>
+  <si>
+    <t>https://fr2.decorexpro.com/wp-content/uploads/2018/01/provans-v-interere-452-1113x650.jpg</t>
+  </si>
+  <si>
+    <t>https://mblogthumb-phinf.pstatic.net/20140824_168/malong_blog2_1408884498238nsUT1_JPEG/pop_art_interior_by_ultrarender-d60worh.jpg?type=w2</t>
+  </si>
+  <si>
+    <t>https://mblogthumb-phinf.pstatic.net/20130709_285/gjlovese09_1373344118071CJusD_JPEG/71.jpg?type=w2</t>
+  </si>
+  <si>
+    <t>https://t1.daumcdn.net/cfile/tistory/26066444564E7CF71A</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT4skY4TAQVjp7M-kT7azEUQNULmUgcjYbRYg&amp;amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://blog.kakaocdn.net/dn/ZqVHI/btrscNM6qpA/iCQkjeKDEAmck3vhKrzzB1/img.jpg</t>
+  </si>
+  <si>
+    <t>파파스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mblogthumb-phinf.pstatic.net/MjAxOTA3MTJfNCAg/MDAxNTYyODgzNTA0OTg2.ro9UMaEb2GZOFIMNaRxEVGkUNj0dhM4jP5uwYYKoqV4g.Q3lRqHeQ8Gt8PhYYb8QeE-DcplEhwzcuBfLGRySL0F0g.JPEG.rino0924/downloadfile-18.jpg?type=w800</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRbNYzRJviBRC6PaH06PLoshd0eQlXCOhdz-A&amp;amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRtnodDihGpaFFGs_34mXaMOBDW5jdZ3S8n0g&amp;amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://t1.daumcdn.net/cfile/tistory/998651365EA65B0921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제주 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lodging_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>modern</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>industrial</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>classic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>popart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>provence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>asia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>img1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>img2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>img3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>img4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>modern</t>
+  </si>
+  <si>
+    <t>asia</t>
+  </si>
+  <si>
+    <t>provence</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>popart</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>홍제1968</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3125,133 +3250,10 @@
       </rPr>
       <t>2.png?type=w800</t>
     </r>
-  </si>
-  <si>
-    <t>https://t1.daumcdn.net/cfile/tistory/260A9E4850EA6A7A0E</t>
-  </si>
-  <si>
-    <t>https://i1.daumcdn.net/cfile230/image/242CD03353953F2527CCD6</t>
-  </si>
-  <si>
-    <t>https://fr2.decorexpro.com/wp-content/uploads/2018/01/provans-v-interere-452-1113x650.jpg</t>
-  </si>
-  <si>
-    <t>https://mblogthumb-phinf.pstatic.net/20140824_168/malong_blog2_1408884498238nsUT1_JPEG/pop_art_interior_by_ultrarender-d60worh.jpg?type=w2</t>
-  </si>
-  <si>
-    <t>https://mblogthumb-phinf.pstatic.net/20130709_285/gjlovese09_1373344118071CJusD_JPEG/71.jpg?type=w2</t>
-  </si>
-  <si>
-    <t>https://t1.daumcdn.net/cfile/tistory/26066444564E7CF71A</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT4skY4TAQVjp7M-kT7azEUQNULmUgcjYbRYg&amp;amp;usqp=CAU</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR_dlLFavvINLPx4hKNIrqcnrkPMRZYWkLUSQ&amp;amp;usqp=CAU" jsaction="load:XAeZkd;</t>
-  </si>
-  <si>
-    <t>https://blog.kakaocdn.net/dn/ZqVHI/btrscNM6qpA/iCQkjeKDEAmck3vhKrzzB1/img.jpg</t>
-  </si>
-  <si>
-    <t>파파스</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>https://mblogthumb-phinf.pstatic.net/MjAxOTA3MTJfNCAg/MDAxNTYyODgzNTA0OTg2.ro9UMaEb2GZOFIMNaRxEVGkUNj0dhM4jP5uwYYKoqV4g.Q3lRqHeQ8Gt8PhYYb8QeE-DcplEhwzcuBfLGRySL0F0g.JPEG.rino0924/downloadfile-18.jpg?type=w800</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRbNYzRJviBRC6PaH06PLoshd0eQlXCOhdz-A&amp;amp;usqp=CAU</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRtnodDihGpaFFGs_34mXaMOBDW5jdZ3S8n0g&amp;amp;usqp=CAU</t>
-  </si>
-  <si>
-    <t>https://t1.daumcdn.net/cfile/tistory/998651365EA65B0921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제주 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lodging_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>natural</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>modern</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>industrial</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>classic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>popart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>provence</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>asia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>img1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>img2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>img3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>img4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>modern</t>
-  </si>
-  <si>
-    <t>asia</t>
-  </si>
-  <si>
-    <t>provence</t>
-  </si>
-  <si>
-    <t>industrial</t>
-  </si>
-  <si>
-    <t>natural</t>
-  </si>
-  <si>
-    <t>popart</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>홍제1968</t>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR_dlLFavvINLPx4hKNIrqcnrkPMRZYWkLUSQ&amp;amp;usqp=CAU"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3719,60 +3721,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L35" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="20.09765625" customWidth="1"/>
     <col min="11" max="11" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.3984375" customWidth="1"/>
+    <col min="12" max="12" width="197.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
@@ -3804,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K2" t="s">
         <v>197</v>
@@ -3851,7 +3853,7 @@
         <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K3" t="s">
         <v>199</v>
@@ -3898,7 +3900,7 @@
         <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K4" t="s">
         <v>196</v>
@@ -3945,7 +3947,7 @@
         <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K5" t="s">
         <v>199</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K6" t="s">
         <v>197</v>
@@ -4039,7 +4041,7 @@
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="K7" t="s">
         <v>197</v>
@@ -4086,7 +4088,7 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K8" t="s">
         <v>198</v>
@@ -4133,7 +4135,7 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K9" t="s">
         <v>197</v>
@@ -4180,7 +4182,7 @@
         <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K10" t="s">
         <v>206</v>
@@ -4227,7 +4229,7 @@
         <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K11" t="s">
         <v>196</v>
@@ -4274,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K12" t="s">
         <v>198</v>
@@ -4321,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K13" t="s">
         <v>197</v>
@@ -4368,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K14" t="s">
         <v>199</v>
@@ -4415,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K15" t="s">
         <v>197</v>
@@ -4462,7 +4464,7 @@
         <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K16" t="s">
         <v>198</v>
@@ -4509,7 +4511,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K17" t="s">
         <v>196</v>
@@ -4556,7 +4558,7 @@
         <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K18" t="s">
         <v>197</v>
@@ -4603,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K19" t="s">
         <v>206</v>
@@ -4650,7 +4652,7 @@
         <v>7</v>
       </c>
       <c r="J20" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K20" t="s">
         <v>198</v>
@@ -4697,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K21" t="s">
         <v>197</v>
@@ -4744,7 +4746,7 @@
         <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K22" t="s">
         <v>198</v>
@@ -4791,7 +4793,7 @@
         <v>83</v>
       </c>
       <c r="J23" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K23" t="s">
         <v>197</v>
@@ -4838,7 +4840,7 @@
         <v>93</v>
       </c>
       <c r="J24" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K24" t="s">
         <v>198</v>
@@ -4885,7 +4887,7 @@
         <v>84</v>
       </c>
       <c r="J25" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K25" t="s">
         <v>196</v>
@@ -4932,7 +4934,7 @@
         <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K26" t="s">
         <v>206</v>
@@ -4979,7 +4981,7 @@
         <v>54</v>
       </c>
       <c r="J27" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K27" t="s">
         <v>201</v>
@@ -5026,7 +5028,7 @@
         <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K28" t="s">
         <v>197</v>
@@ -5073,7 +5075,7 @@
         <v>35</v>
       </c>
       <c r="J29" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K29" t="s">
         <v>199</v>
@@ -5120,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K30" t="s">
         <v>199</v>
@@ -5167,7 +5169,7 @@
         <v>84</v>
       </c>
       <c r="J31" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K31" t="s">
         <v>197</v>
@@ -5214,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K32" t="s">
         <v>197</v>
@@ -5261,7 +5263,7 @@
         <v>87</v>
       </c>
       <c r="J33" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K33" t="s">
         <v>198</v>
@@ -5308,7 +5310,7 @@
         <v>46</v>
       </c>
       <c r="J34" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K34" t="s">
         <v>206</v>
@@ -5355,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K35" t="s">
         <v>197</v>
@@ -5402,7 +5404,7 @@
         <v>96</v>
       </c>
       <c r="J36" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K36" t="s">
         <v>196</v>
@@ -5449,13 +5451,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="K37" t="s">
         <v>998</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
@@ -5487,13 +5489,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="K38" t="s">
         <v>1005</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
@@ -5525,7 +5527,7 @@
         <v>10</v>
       </c>
       <c r="J39" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K39" t="s">
         <v>203</v>
@@ -5572,7 +5574,7 @@
         <v>40</v>
       </c>
       <c r="J40" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K40" t="s">
         <v>197</v>
@@ -5619,7 +5621,7 @@
         <v>79</v>
       </c>
       <c r="J41" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K41" t="s">
         <v>206</v>
@@ -5666,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K42" t="s">
         <v>197</v>
@@ -5713,7 +5715,7 @@
         <v>8</v>
       </c>
       <c r="J43" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K43" t="s">
         <v>197</v>
@@ -5760,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K44" t="s">
         <v>198</v>
@@ -5807,7 +5809,7 @@
         <v>45</v>
       </c>
       <c r="J45" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K45" t="s">
         <v>197</v>
@@ -5854,13 +5856,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="K46" t="s">
         <v>1002</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>1027</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
@@ -5892,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K47" t="s">
         <v>197</v>
@@ -5939,7 +5941,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="K48" t="s">
         <v>204</v>
@@ -5986,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K49" t="s">
         <v>196</v>
@@ -6033,7 +6035,7 @@
         <v>95</v>
       </c>
       <c r="J50" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K50" t="s">
         <v>196</v>
@@ -6080,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K51" t="s">
         <v>197</v>
@@ -6127,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K52" t="s">
         <v>198</v>
@@ -6174,7 +6176,7 @@
         <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K53" t="s">
         <v>206</v>
@@ -6221,7 +6223,7 @@
         <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K54" t="s">
         <v>203</v>
@@ -6268,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K55" t="s">
         <v>197</v>
@@ -6315,7 +6317,7 @@
         <v>95</v>
       </c>
       <c r="J56" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K56" t="s">
         <v>199</v>
@@ -6362,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K57" t="s">
         <v>206</v>
@@ -6409,7 +6411,7 @@
         <v>37</v>
       </c>
       <c r="J58" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K58" t="s">
         <v>197</v>
@@ -6456,7 +6458,7 @@
         <v>37</v>
       </c>
       <c r="J59" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K59" t="s">
         <v>197</v>
@@ -6503,7 +6505,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K60" t="s">
         <v>196</v>
@@ -6550,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K61" t="s">
         <v>197</v>
@@ -6597,7 +6599,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K62" t="s">
         <v>199</v>
@@ -6644,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K63" t="s">
         <v>197</v>
@@ -6691,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K64" t="s">
         <v>197</v>
@@ -6738,7 +6740,7 @@
         <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K65" t="s">
         <v>199</v>
@@ -6785,7 +6787,7 @@
         <v>96</v>
       </c>
       <c r="J66" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K66" t="s">
         <v>197</v>
@@ -6832,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K67" t="s">
         <v>197</v>
@@ -6879,13 +6881,13 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="K68" t="s">
         <v>1004</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.4">
@@ -6917,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K69" t="s">
         <v>196</v>
@@ -6964,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K70" t="s">
         <v>197</v>
@@ -7011,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K71" t="s">
         <v>197</v>
@@ -7058,7 +7060,7 @@
         <v>99</v>
       </c>
       <c r="J72" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K72" t="s">
         <v>198</v>
@@ -7105,7 +7107,7 @@
         <v>58</v>
       </c>
       <c r="J73" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K73" t="s">
         <v>201</v>
@@ -7152,7 +7154,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K74" t="s">
         <v>197</v>
@@ -7199,7 +7201,7 @@
         <v>9</v>
       </c>
       <c r="J75" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K75" t="s">
         <v>206</v>
@@ -7246,7 +7248,7 @@
         <v>99</v>
       </c>
       <c r="J76" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K76" t="s">
         <v>198</v>
@@ -7293,7 +7295,7 @@
         <v>76</v>
       </c>
       <c r="J77" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K77" t="s">
         <v>197</v>
@@ -7340,7 +7342,7 @@
         <v>70</v>
       </c>
       <c r="J78" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K78" t="s">
         <v>197</v>
@@ -7387,7 +7389,7 @@
         <v>16</v>
       </c>
       <c r="J79" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K79" t="s">
         <v>197</v>
@@ -7434,7 +7436,7 @@
         <v>99</v>
       </c>
       <c r="J80" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K80" t="s">
         <v>198</v>
@@ -7481,7 +7483,7 @@
         <v>49</v>
       </c>
       <c r="J81" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K81" t="s">
         <v>198</v>
@@ -7528,7 +7530,7 @@
         <v>13</v>
       </c>
       <c r="J82" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K82" t="s">
         <v>197</v>
@@ -7575,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K83" t="s">
         <v>197</v>
@@ -7622,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K84" t="s">
         <v>196</v>
@@ -7669,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K85" t="s">
         <v>197</v>
@@ -7716,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K86" t="s">
         <v>206</v>
@@ -7763,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K87" t="s">
         <v>197</v>
@@ -7810,7 +7812,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K88" t="s">
         <v>197</v>
@@ -7857,7 +7859,7 @@
         <v>95</v>
       </c>
       <c r="J89" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K89" t="s">
         <v>200</v>
@@ -7904,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K90" t="s">
         <v>200</v>
@@ -7951,7 +7953,7 @@
         <v>13</v>
       </c>
       <c r="J91" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K91" t="s">
         <v>206</v>
@@ -7998,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K92" t="s">
         <v>197</v>
@@ -8045,7 +8047,7 @@
         <v>99</v>
       </c>
       <c r="J93" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K93" t="s">
         <v>198</v>
@@ -8092,7 +8094,7 @@
         <v>97</v>
       </c>
       <c r="J94" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K94" t="s">
         <v>206</v>
@@ -8139,7 +8141,7 @@
         <v>48</v>
       </c>
       <c r="J95" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K95" t="s">
         <v>199</v>
@@ -8186,7 +8188,7 @@
         <v>91</v>
       </c>
       <c r="J96" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K96" t="s">
         <v>206</v>
@@ -8233,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K97" t="s">
         <v>197</v>
@@ -8280,7 +8282,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K98" t="s">
         <v>196</v>
@@ -8327,7 +8329,7 @@
         <v>55</v>
       </c>
       <c r="J99" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K99" t="s">
         <v>197</v>
@@ -8374,7 +8376,7 @@
         <v>94</v>
       </c>
       <c r="J100" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K100" t="s">
         <v>196</v>
@@ -8421,7 +8423,7 @@
         <v>13</v>
       </c>
       <c r="J101" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K101" t="s">
         <v>199</v>
@@ -8468,7 +8470,7 @@
         <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="K102" t="s">
         <v>197</v>
@@ -8515,7 +8517,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K103" t="s">
         <v>196</v>
@@ -8562,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="K104" t="s">
         <v>197</v>
@@ -8609,7 +8611,7 @@
         <v>6</v>
       </c>
       <c r="J105" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K105" t="s">
         <v>196</v>
@@ -8656,7 +8658,7 @@
         <v>10</v>
       </c>
       <c r="J106" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K106" t="s">
         <v>206</v>
@@ -8703,7 +8705,7 @@
         <v>59</v>
       </c>
       <c r="J107" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K107" t="s">
         <v>202</v>
@@ -8750,7 +8752,7 @@
         <v>6</v>
       </c>
       <c r="J108" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K108" t="s">
         <v>201</v>
@@ -8797,7 +8799,7 @@
         <v>65</v>
       </c>
       <c r="J109" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K109" t="s">
         <v>197</v>
@@ -8844,7 +8846,7 @@
         <v>5</v>
       </c>
       <c r="J110" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K110" t="s">
         <v>204</v>
@@ -8891,7 +8893,7 @@
         <v>13</v>
       </c>
       <c r="J111" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K111" t="s">
         <v>199</v>
@@ -8938,7 +8940,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K112" t="s">
         <v>200</v>
@@ -8985,7 +8987,7 @@
         <v>5</v>
       </c>
       <c r="J113" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K113" t="s">
         <v>198</v>
@@ -9032,7 +9034,7 @@
         <v>6</v>
       </c>
       <c r="J114" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K114" t="s">
         <v>196</v>
@@ -9079,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K115" t="s">
         <v>199</v>
@@ -9126,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K116" t="s">
         <v>200</v>
@@ -9173,7 +9175,7 @@
         <v>45</v>
       </c>
       <c r="J117" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K117" t="s">
         <v>199</v>
@@ -9220,7 +9222,7 @@
         <v>41</v>
       </c>
       <c r="J118" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K118" t="s">
         <v>200</v>
@@ -9267,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="K119" t="s">
         <v>196</v>
@@ -9314,7 +9316,7 @@
         <v>66</v>
       </c>
       <c r="J120" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K120" t="s">
         <v>199</v>
@@ -9361,7 +9363,7 @@
         <v>54</v>
       </c>
       <c r="J121" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K121" t="s">
         <v>207</v>
@@ -9408,7 +9410,7 @@
         <v>99</v>
       </c>
       <c r="J122" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K122" t="s">
         <v>197</v>
@@ -9455,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K123" t="s">
         <v>196</v>
@@ -9502,7 +9504,7 @@
         <v>39</v>
       </c>
       <c r="J124" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K124" t="s">
         <v>196</v>
@@ -9549,7 +9551,7 @@
         <v>99</v>
       </c>
       <c r="J125" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K125" t="s">
         <v>198</v>
@@ -9596,7 +9598,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K126" t="s">
         <v>200</v>
@@ -9643,13 +9645,13 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="K127" t="s">
         <v>999</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.4">
@@ -9681,7 +9683,7 @@
         <v>8</v>
       </c>
       <c r="J128" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K128" t="s">
         <v>196</v>
@@ -9728,7 +9730,7 @@
         <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K129" t="s">
         <v>198</v>
@@ -9775,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K130" t="s">
         <v>197</v>
@@ -9822,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K131" t="s">
         <v>197</v>
@@ -9869,7 +9871,7 @@
         <v>95</v>
       </c>
       <c r="J132" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K132" t="s">
         <v>198</v>
@@ -9916,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K133" t="s">
         <v>197</v>
@@ -9963,7 +9965,7 @@
         <v>10</v>
       </c>
       <c r="J134" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K134" t="s">
         <v>197</v>
@@ -10010,13 +10012,13 @@
         <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="K135" t="s">
         <v>1002</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.4">
@@ -10048,13 +10050,13 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="K136" t="s">
         <v>1002</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.4">
@@ -10086,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K137" t="s">
         <v>206</v>
@@ -10133,7 +10135,7 @@
         <v>31</v>
       </c>
       <c r="J138" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K138" t="s">
         <v>198</v>
@@ -10180,7 +10182,7 @@
         <v>98</v>
       </c>
       <c r="J139" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K139" t="s">
         <v>206</v>
@@ -10227,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K140" t="s">
         <v>198</v>
@@ -10274,7 +10276,7 @@
         <v>25</v>
       </c>
       <c r="J141" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K141" t="s">
         <v>199</v>
@@ -10321,7 +10323,7 @@
         <v>98</v>
       </c>
       <c r="J142" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K142" t="s">
         <v>196</v>
@@ -10368,7 +10370,7 @@
         <v>39</v>
       </c>
       <c r="J143" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K143" t="s">
         <v>201</v>
@@ -10415,7 +10417,7 @@
         <v>99</v>
       </c>
       <c r="J144" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K144" t="s">
         <v>196</v>
@@ -10462,7 +10464,7 @@
         <v>50</v>
       </c>
       <c r="J145" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K145" t="s">
         <v>197</v>
@@ -10509,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K146" t="s">
         <v>205</v>
@@ -10556,7 +10558,7 @@
         <v>46</v>
       </c>
       <c r="J147" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K147" t="s">
         <v>206</v>
@@ -10603,7 +10605,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="K148" t="s">
         <v>197</v>
@@ -10650,7 +10652,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K149" t="s">
         <v>197</v>
@@ -10697,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K150" t="s">
         <v>196</v>
@@ -10744,13 +10746,13 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="K151" t="s">
         <v>1003</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.4">
@@ -10782,7 +10784,7 @@
         <v>10</v>
       </c>
       <c r="J152" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K152" t="s">
         <v>203</v>
@@ -10829,7 +10831,7 @@
         <v>81</v>
       </c>
       <c r="J153" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K153" t="s">
         <v>199</v>
@@ -10876,7 +10878,7 @@
         <v>85</v>
       </c>
       <c r="J154" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K154" t="s">
         <v>196</v>
@@ -10923,7 +10925,7 @@
         <v>58</v>
       </c>
       <c r="J155" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K155" t="s">
         <v>207</v>
@@ -10970,7 +10972,7 @@
         <v>39</v>
       </c>
       <c r="J156" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K156" t="s">
         <v>199</v>
@@ -11017,7 +11019,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K157" t="s">
         <v>197</v>
@@ -11064,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K158" t="s">
         <v>196</v>
@@ -11111,7 +11113,7 @@
         <v>93</v>
       </c>
       <c r="J159" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K159" t="s">
         <v>198</v>
@@ -11158,7 +11160,7 @@
         <v>97</v>
       </c>
       <c r="J160" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K160" t="s">
         <v>198</v>
@@ -11205,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K161" t="s">
         <v>204</v>
@@ -11252,7 +11254,7 @@
         <v>78</v>
       </c>
       <c r="J162" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K162" t="s">
         <v>206</v>
@@ -11299,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K163" t="s">
         <v>197</v>
@@ -11346,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K164" t="s">
         <v>197</v>
@@ -11393,7 +11395,7 @@
         <v>3</v>
       </c>
       <c r="J165" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K165" t="s">
         <v>197</v>
@@ -11440,7 +11442,7 @@
         <v>94</v>
       </c>
       <c r="J166" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K166" t="s">
         <v>197</v>
@@ -11487,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K167" t="s">
         <v>203</v>
@@ -11534,7 +11536,7 @@
         <v>40</v>
       </c>
       <c r="J168" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K168" t="s">
         <v>197</v>
@@ -11581,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K169" t="s">
         <v>197</v>
@@ -11628,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K170" t="s">
         <v>200</v>
@@ -11675,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K171" t="s">
         <v>197</v>
@@ -11722,7 +11724,7 @@
         <v>95</v>
       </c>
       <c r="J172" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K172" t="s">
         <v>197</v>
@@ -11769,7 +11771,7 @@
         <v>36</v>
       </c>
       <c r="J173" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K173" t="s">
         <v>198</v>
@@ -11816,7 +11818,7 @@
         <v>6</v>
       </c>
       <c r="J174" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K174" t="s">
         <v>199</v>
@@ -11863,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K175" t="s">
         <v>197</v>
@@ -11910,7 +11912,7 @@
         <v>97</v>
       </c>
       <c r="J176" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K176" t="s">
         <v>206</v>
@@ -11957,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K177" t="s">
         <v>196</v>
@@ -12004,7 +12006,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K178" t="s">
         <v>196</v>
@@ -12051,7 +12053,7 @@
         <v>88</v>
       </c>
       <c r="J179" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K179" t="s">
         <v>197</v>
@@ -12098,7 +12100,7 @@
         <v>84</v>
       </c>
       <c r="J180" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K180" t="s">
         <v>197</v>
@@ -12145,7 +12147,7 @@
         <v>63</v>
       </c>
       <c r="J181" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K181" t="s">
         <v>197</v>
@@ -12192,7 +12194,7 @@
         <v>32</v>
       </c>
       <c r="J182" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K182" t="s">
         <v>199</v>
@@ -12239,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K183" t="s">
         <v>197</v>
@@ -12286,7 +12288,7 @@
         <v>17</v>
       </c>
       <c r="J184" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K184" t="s">
         <v>197</v>
@@ -12333,13 +12335,13 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="K185" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.4">
@@ -12371,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K186" t="s">
         <v>198</v>
@@ -12394,7 +12396,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C187">
         <v>3</v>
@@ -12418,13 +12420,13 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="K187" t="s">
         <v>1001</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.4">
@@ -12456,13 +12458,13 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="K188" t="s">
         <v>1000</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.4">
@@ -12494,7 +12496,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K189" t="s">
         <v>197</v>
@@ -12541,7 +12543,7 @@
         <v>3</v>
       </c>
       <c r="J190" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K190" t="s">
         <v>197</v>
@@ -12588,7 +12590,7 @@
         <v>79</v>
       </c>
       <c r="J191" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K191" t="s">
         <v>206</v>
@@ -12635,13 +12637,13 @@
         <v>3</v>
       </c>
       <c r="J192" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="K192" t="s">
         <v>997</v>
       </c>
       <c r="L192" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.4">
@@ -12673,13 +12675,13 @@
         <v>10</v>
       </c>
       <c r="J193" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="K193" t="s">
         <v>996</v>
       </c>
       <c r="L193" s="2" t="s">
-        <v>1019</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.4">
@@ -12711,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K194" t="s">
         <v>203</v>
@@ -12758,7 +12760,7 @@
         <v>11</v>
       </c>
       <c r="J195" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K195" t="s">
         <v>197</v>
@@ -12805,7 +12807,7 @@
         <v>4</v>
       </c>
       <c r="J196" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K196" t="s">
         <v>197</v>
@@ -12852,7 +12854,7 @@
         <v>61</v>
       </c>
       <c r="J197" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K197" t="s">
         <v>197</v>
@@ -12899,7 +12901,7 @@
         <v>98</v>
       </c>
       <c r="J198" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K198" t="s">
         <v>197</v>
@@ -12946,7 +12948,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K199" t="s">
         <v>197</v>
@@ -12993,7 +12995,7 @@
         <v>69</v>
       </c>
       <c r="J200" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K200" t="s">
         <v>198</v>
@@ -13040,7 +13042,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K201" t="s">
         <v>199</v>
@@ -13087,7 +13089,7 @@
         <v>81</v>
       </c>
       <c r="J202" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K202" t="s">
         <v>196</v>
@@ -13134,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K203" t="s">
         <v>197</v>
@@ -13181,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K204" t="s">
         <v>199</v>
@@ -13228,13 +13230,13 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="K205" t="s">
         <v>997</v>
       </c>
       <c r="L205" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.4">
@@ -13266,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K206" t="s">
         <v>197</v>
@@ -13313,7 +13315,7 @@
         <v>54</v>
       </c>
       <c r="J207" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K207" t="s">
         <v>197</v>
@@ -13360,7 +13362,7 @@
         <v>3</v>
       </c>
       <c r="J208" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K208" t="s">
         <v>196</v>
@@ -13383,7 +13385,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -13407,7 +13409,7 @@
         <v>3</v>
       </c>
       <c r="J209" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K209" t="s">
         <v>196</v>
@@ -13454,7 +13456,7 @@
         <v>7</v>
       </c>
       <c r="J210" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K210" t="s">
         <v>197</v>
@@ -13501,7 +13503,7 @@
         <v>93</v>
       </c>
       <c r="J211" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K211" t="s">
         <v>199</v>
@@ -13548,7 +13550,7 @@
         <v>72</v>
       </c>
       <c r="J212" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K212" t="s">
         <v>197</v>

--- a/finalPJT/Server/theme/type.xlsx
+++ b/finalPJT/Server/theme/type.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KB_IT_Academy_4Team\finalPJT\Server\theme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E44C89-DD2B-4079-85DB-82BEBA528E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772B022C-EA96-4773-8049-F0007322C059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$212</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="1056">
   <si>
     <t>스테이 아온</t>
   </si>
@@ -626,9 +629,6 @@
   </si>
   <si>
     <t xml:space="preserve">경기 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">전남 </t>
   </si>
   <si>
     <t xml:space="preserve">부산 </t>
@@ -3721,8 +3721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L35" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3735,46 +3735,46 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
@@ -3806,22 +3806,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K2" t="s">
         <v>197</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
@@ -3853,22 +3853,22 @@
         <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K3" t="s">
         <v>199</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
@@ -3900,22 +3900,22 @@
         <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K4" t="s">
         <v>196</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
@@ -3947,22 +3947,22 @@
         <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K5" t="s">
         <v>199</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
@@ -3994,22 +3994,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K6" t="s">
         <v>197</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
@@ -4041,22 +4041,22 @@
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K7" t="s">
         <v>197</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -4088,22 +4088,22 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K8" t="s">
         <v>198</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -4135,22 +4135,22 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K9" t="s">
         <v>197</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
@@ -4182,22 +4182,22 @@
         <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
@@ -4229,22 +4229,22 @@
         <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K11" t="s">
         <v>196</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
@@ -4276,22 +4276,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K12" t="s">
         <v>198</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
@@ -4323,22 +4323,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K13" t="s">
         <v>197</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
@@ -4370,22 +4370,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K14" t="s">
         <v>199</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
@@ -4417,22 +4417,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K15" t="s">
         <v>197</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
@@ -4464,22 +4464,22 @@
         <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K16" t="s">
         <v>198</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
@@ -4511,22 +4511,22 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K17" t="s">
         <v>196</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
@@ -4558,22 +4558,22 @@
         <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K18" t="s">
         <v>197</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
@@ -4605,22 +4605,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
@@ -4652,22 +4652,22 @@
         <v>7</v>
       </c>
       <c r="J20" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K20" t="s">
         <v>198</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
@@ -4699,22 +4699,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K21" t="s">
         <v>197</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
@@ -4746,22 +4746,22 @@
         <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K22" t="s">
         <v>198</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
@@ -4793,22 +4793,22 @@
         <v>83</v>
       </c>
       <c r="J23" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K23" t="s">
         <v>197</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
@@ -4840,22 +4840,22 @@
         <v>93</v>
       </c>
       <c r="J24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K24" t="s">
         <v>198</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
@@ -4887,22 +4887,22 @@
         <v>84</v>
       </c>
       <c r="J25" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K25" t="s">
         <v>196</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
@@ -4934,22 +4934,22 @@
         <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
@@ -4981,22 +4981,22 @@
         <v>54</v>
       </c>
       <c r="J27" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K27" t="s">
         <v>201</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
@@ -5028,22 +5028,22 @@
         <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K28" t="s">
         <v>197</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
@@ -5075,22 +5075,22 @@
         <v>35</v>
       </c>
       <c r="J29" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K29" t="s">
         <v>199</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
@@ -5122,22 +5122,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K30" t="s">
         <v>199</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
@@ -5169,22 +5169,22 @@
         <v>84</v>
       </c>
       <c r="J31" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K31" t="s">
         <v>197</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
@@ -5216,22 +5216,22 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K32" t="s">
         <v>197</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
@@ -5263,22 +5263,22 @@
         <v>87</v>
       </c>
       <c r="J33" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K33" t="s">
         <v>198</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
@@ -5310,22 +5310,22 @@
         <v>46</v>
       </c>
       <c r="J34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
@@ -5357,22 +5357,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K35" t="s">
         <v>197</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
@@ -5404,22 +5404,22 @@
         <v>96</v>
       </c>
       <c r="J36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K36" t="s">
         <v>196</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
@@ -5427,7 +5427,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C37">
         <v>21</v>
@@ -5451,13 +5451,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K37" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
@@ -5465,7 +5465,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5489,13 +5489,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="K38" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
@@ -5527,22 +5527,22 @@
         <v>10</v>
       </c>
       <c r="J39" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
@@ -5574,22 +5574,22 @@
         <v>40</v>
       </c>
       <c r="J40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K40" t="s">
         <v>197</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
@@ -5621,22 +5621,22 @@
         <v>79</v>
       </c>
       <c r="J41" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
@@ -5668,22 +5668,22 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K42" t="s">
         <v>197</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
@@ -5715,22 +5715,22 @@
         <v>8</v>
       </c>
       <c r="J43" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K43" t="s">
         <v>197</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
@@ -5762,22 +5762,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K44" t="s">
         <v>198</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
@@ -5809,22 +5809,22 @@
         <v>45</v>
       </c>
       <c r="J45" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K45" t="s">
         <v>197</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
@@ -5832,7 +5832,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="K46" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
@@ -5894,22 +5894,22 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K47" t="s">
         <v>197</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
@@ -5941,22 +5941,22 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
@@ -5988,22 +5988,22 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K49" t="s">
         <v>196</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
@@ -6035,22 +6035,22 @@
         <v>95</v>
       </c>
       <c r="J50" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K50" t="s">
         <v>196</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
@@ -6082,22 +6082,22 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K51" t="s">
         <v>197</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
@@ -6129,22 +6129,22 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K52" t="s">
         <v>198</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
@@ -6176,22 +6176,22 @@
         <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
@@ -6223,22 +6223,22 @@
         <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.4">
@@ -6270,22 +6270,22 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K55" t="s">
         <v>197</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
@@ -6317,22 +6317,22 @@
         <v>95</v>
       </c>
       <c r="J56" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K56" t="s">
         <v>199</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.4">
@@ -6364,22 +6364,22 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
@@ -6411,22 +6411,22 @@
         <v>37</v>
       </c>
       <c r="J58" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K58" t="s">
         <v>197</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.4">
@@ -6458,22 +6458,22 @@
         <v>37</v>
       </c>
       <c r="J59" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K59" t="s">
         <v>197</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
@@ -6505,22 +6505,22 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K60" t="s">
         <v>196</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
@@ -6552,22 +6552,22 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K61" t="s">
         <v>197</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.4">
@@ -6599,22 +6599,22 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K62" t="s">
         <v>199</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.4">
@@ -6646,22 +6646,22 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K63" t="s">
         <v>197</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.4">
@@ -6693,22 +6693,22 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K64" t="s">
         <v>197</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.4">
@@ -6740,22 +6740,22 @@
         <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K65" t="s">
         <v>199</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.4">
@@ -6787,22 +6787,22 @@
         <v>96</v>
       </c>
       <c r="J66" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K66" t="s">
         <v>197</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.4">
@@ -6834,22 +6834,22 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K67" t="s">
         <v>197</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.4">
@@ -6857,7 +6857,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C68">
         <v>10</v>
@@ -6881,13 +6881,13 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="K68" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.4">
@@ -6919,22 +6919,22 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K69" t="s">
         <v>196</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.4">
@@ -6966,22 +6966,22 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K70" t="s">
         <v>197</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.4">
@@ -7013,22 +7013,22 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K71" t="s">
         <v>197</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.4">
@@ -7060,22 +7060,22 @@
         <v>99</v>
       </c>
       <c r="J72" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K72" t="s">
         <v>198</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.4">
@@ -7107,22 +7107,22 @@
         <v>58</v>
       </c>
       <c r="J73" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K73" t="s">
         <v>201</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.4">
@@ -7154,22 +7154,22 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K74" t="s">
         <v>197</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.4">
@@ -7201,22 +7201,22 @@
         <v>9</v>
       </c>
       <c r="J75" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.4">
@@ -7248,22 +7248,22 @@
         <v>99</v>
       </c>
       <c r="J76" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K76" t="s">
         <v>198</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.4">
@@ -7295,22 +7295,22 @@
         <v>76</v>
       </c>
       <c r="J77" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K77" t="s">
         <v>197</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.4">
@@ -7342,22 +7342,22 @@
         <v>70</v>
       </c>
       <c r="J78" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K78" t="s">
         <v>197</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.4">
@@ -7389,22 +7389,22 @@
         <v>16</v>
       </c>
       <c r="J79" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K79" t="s">
         <v>197</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.4">
@@ -7436,22 +7436,22 @@
         <v>99</v>
       </c>
       <c r="J80" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K80" t="s">
         <v>198</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.4">
@@ -7483,22 +7483,22 @@
         <v>49</v>
       </c>
       <c r="J81" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K81" t="s">
         <v>198</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.4">
@@ -7530,22 +7530,22 @@
         <v>13</v>
       </c>
       <c r="J82" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K82" t="s">
         <v>197</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.4">
@@ -7577,22 +7577,22 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K83" t="s">
         <v>197</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.4">
@@ -7624,22 +7624,22 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K84" t="s">
         <v>196</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.4">
@@ -7671,22 +7671,22 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K85" t="s">
         <v>197</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.4">
@@ -7718,22 +7718,22 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.4">
@@ -7765,22 +7765,22 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K87" t="s">
         <v>197</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.4">
@@ -7812,22 +7812,22 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K88" t="s">
         <v>197</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.4">
@@ -7859,22 +7859,22 @@
         <v>95</v>
       </c>
       <c r="J89" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K89" t="s">
         <v>200</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.4">
@@ -7906,22 +7906,22 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K90" t="s">
         <v>200</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.4">
@@ -7953,22 +7953,22 @@
         <v>13</v>
       </c>
       <c r="J91" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.4">
@@ -8000,22 +8000,22 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K92" t="s">
         <v>197</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.4">
@@ -8047,22 +8047,22 @@
         <v>99</v>
       </c>
       <c r="J93" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K93" t="s">
         <v>198</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.4">
@@ -8094,22 +8094,22 @@
         <v>97</v>
       </c>
       <c r="J94" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.4">
@@ -8141,22 +8141,22 @@
         <v>48</v>
       </c>
       <c r="J95" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K95" t="s">
         <v>199</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.4">
@@ -8188,22 +8188,22 @@
         <v>91</v>
       </c>
       <c r="J96" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.4">
@@ -8235,22 +8235,22 @@
         <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K97" t="s">
         <v>197</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.4">
@@ -8282,22 +8282,22 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K98" t="s">
         <v>196</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.4">
@@ -8329,22 +8329,22 @@
         <v>55</v>
       </c>
       <c r="J99" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K99" t="s">
         <v>197</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.4">
@@ -8376,22 +8376,22 @@
         <v>94</v>
       </c>
       <c r="J100" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K100" t="s">
         <v>196</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.4">
@@ -8423,22 +8423,22 @@
         <v>13</v>
       </c>
       <c r="J101" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K101" t="s">
         <v>199</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.4">
@@ -8470,22 +8470,22 @@
         <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K102" t="s">
         <v>197</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.4">
@@ -8517,22 +8517,22 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K103" t="s">
         <v>196</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.4">
@@ -8564,22 +8564,22 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K104" t="s">
         <v>197</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.4">
@@ -8611,22 +8611,22 @@
         <v>6</v>
       </c>
       <c r="J105" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K105" t="s">
         <v>196</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.4">
@@ -8658,22 +8658,22 @@
         <v>10</v>
       </c>
       <c r="J106" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.4">
@@ -8705,22 +8705,22 @@
         <v>59</v>
       </c>
       <c r="J107" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K107" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.4">
@@ -8752,22 +8752,22 @@
         <v>6</v>
       </c>
       <c r="J108" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K108" t="s">
         <v>201</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.4">
@@ -8799,22 +8799,22 @@
         <v>65</v>
       </c>
       <c r="J109" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K109" t="s">
         <v>197</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.4">
@@ -8846,22 +8846,22 @@
         <v>5</v>
       </c>
       <c r="J110" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.4">
@@ -8893,22 +8893,22 @@
         <v>13</v>
       </c>
       <c r="J111" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K111" t="s">
         <v>199</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.4">
@@ -8940,22 +8940,22 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K112" t="s">
         <v>200</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.4">
@@ -8987,22 +8987,22 @@
         <v>5</v>
       </c>
       <c r="J113" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K113" t="s">
         <v>198</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.4">
@@ -9034,22 +9034,22 @@
         <v>6</v>
       </c>
       <c r="J114" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K114" t="s">
         <v>196</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.4">
@@ -9081,22 +9081,22 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K115" t="s">
         <v>199</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.4">
@@ -9128,22 +9128,22 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K116" t="s">
         <v>200</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.4">
@@ -9175,22 +9175,22 @@
         <v>45</v>
       </c>
       <c r="J117" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K117" t="s">
         <v>199</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.4">
@@ -9222,22 +9222,22 @@
         <v>41</v>
       </c>
       <c r="J118" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K118" t="s">
         <v>200</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.4">
@@ -9269,22 +9269,22 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K119" t="s">
         <v>196</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.4">
@@ -9316,22 +9316,22 @@
         <v>66</v>
       </c>
       <c r="J120" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K120" t="s">
         <v>199</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.4">
@@ -9363,22 +9363,22 @@
         <v>54</v>
       </c>
       <c r="J121" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K121" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.4">
@@ -9410,22 +9410,22 @@
         <v>99</v>
       </c>
       <c r="J122" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K122" t="s">
         <v>197</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.4">
@@ -9457,22 +9457,22 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K123" t="s">
         <v>196</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.4">
@@ -9504,22 +9504,22 @@
         <v>39</v>
       </c>
       <c r="J124" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K124" t="s">
         <v>196</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.4">
@@ -9551,22 +9551,22 @@
         <v>99</v>
       </c>
       <c r="J125" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K125" t="s">
         <v>198</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.4">
@@ -9598,22 +9598,22 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K126" t="s">
         <v>200</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.4">
@@ -9621,7 +9621,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -9645,13 +9645,13 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K127" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.4">
@@ -9683,22 +9683,22 @@
         <v>8</v>
       </c>
       <c r="J128" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K128" t="s">
         <v>196</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.4">
@@ -9730,22 +9730,22 @@
         <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K129" t="s">
         <v>198</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.4">
@@ -9777,22 +9777,22 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K130" t="s">
         <v>197</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.4">
@@ -9824,22 +9824,22 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K131" t="s">
         <v>197</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.4">
@@ -9871,22 +9871,22 @@
         <v>95</v>
       </c>
       <c r="J132" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K132" t="s">
         <v>198</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.4">
@@ -9918,22 +9918,22 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K133" t="s">
         <v>197</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.4">
@@ -9965,22 +9965,22 @@
         <v>10</v>
       </c>
       <c r="J134" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K134" t="s">
         <v>197</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.4">
@@ -9988,7 +9988,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -10012,13 +10012,13 @@
         <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K135" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.4">
@@ -10026,7 +10026,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C136">
         <v>7</v>
@@ -10050,13 +10050,13 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="K136" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.4">
@@ -10088,22 +10088,22 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K137" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.4">
@@ -10135,22 +10135,22 @@
         <v>31</v>
       </c>
       <c r="J138" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K138" t="s">
         <v>198</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.4">
@@ -10182,22 +10182,22 @@
         <v>98</v>
       </c>
       <c r="J139" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K139" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.4">
@@ -10229,22 +10229,22 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K140" t="s">
         <v>198</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.4">
@@ -10276,22 +10276,22 @@
         <v>25</v>
       </c>
       <c r="J141" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K141" t="s">
         <v>199</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.4">
@@ -10323,22 +10323,22 @@
         <v>98</v>
       </c>
       <c r="J142" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K142" t="s">
         <v>196</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.4">
@@ -10370,22 +10370,22 @@
         <v>39</v>
       </c>
       <c r="J143" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K143" t="s">
         <v>201</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.4">
@@ -10417,22 +10417,22 @@
         <v>99</v>
       </c>
       <c r="J144" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K144" t="s">
         <v>196</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.4">
@@ -10464,22 +10464,22 @@
         <v>50</v>
       </c>
       <c r="J145" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K145" t="s">
         <v>197</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.4">
@@ -10511,22 +10511,22 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K146" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.4">
@@ -10558,22 +10558,22 @@
         <v>46</v>
       </c>
       <c r="J147" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K147" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.4">
@@ -10605,22 +10605,22 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K148" t="s">
         <v>197</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.4">
@@ -10652,22 +10652,22 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K149" t="s">
         <v>197</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.4">
@@ -10699,22 +10699,22 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K150" t="s">
         <v>196</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.4">
@@ -10722,7 +10722,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C151">
         <v>18</v>
@@ -10746,13 +10746,13 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="K151" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.4">
@@ -10784,22 +10784,22 @@
         <v>10</v>
       </c>
       <c r="J152" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K152" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.4">
@@ -10831,22 +10831,22 @@
         <v>81</v>
       </c>
       <c r="J153" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K153" t="s">
         <v>199</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.4">
@@ -10878,22 +10878,22 @@
         <v>85</v>
       </c>
       <c r="J154" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K154" t="s">
         <v>196</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.4">
@@ -10925,22 +10925,22 @@
         <v>58</v>
       </c>
       <c r="J155" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.4">
@@ -10972,22 +10972,22 @@
         <v>39</v>
       </c>
       <c r="J156" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K156" t="s">
         <v>199</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.4">
@@ -11019,22 +11019,22 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K157" t="s">
         <v>197</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.4">
@@ -11066,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K158" t="s">
         <v>196</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.4">
@@ -11113,22 +11113,22 @@
         <v>93</v>
       </c>
       <c r="J159" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K159" t="s">
         <v>198</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.4">
@@ -11160,22 +11160,22 @@
         <v>97</v>
       </c>
       <c r="J160" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K160" t="s">
         <v>198</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.4">
@@ -11207,22 +11207,22 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.4">
@@ -11254,22 +11254,22 @@
         <v>78</v>
       </c>
       <c r="J162" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K162" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.4">
@@ -11301,22 +11301,22 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K163" t="s">
         <v>197</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.4">
@@ -11348,22 +11348,22 @@
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K164" t="s">
         <v>197</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.4">
@@ -11395,22 +11395,22 @@
         <v>3</v>
       </c>
       <c r="J165" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K165" t="s">
         <v>197</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.4">
@@ -11442,22 +11442,22 @@
         <v>94</v>
       </c>
       <c r="J166" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K166" t="s">
         <v>197</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.4">
@@ -11489,22 +11489,22 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K167" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.4">
@@ -11536,22 +11536,22 @@
         <v>40</v>
       </c>
       <c r="J168" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K168" t="s">
         <v>197</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.4">
@@ -11583,22 +11583,22 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K169" t="s">
         <v>197</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.4">
@@ -11630,22 +11630,22 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K170" t="s">
         <v>200</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.4">
@@ -11677,22 +11677,22 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K171" t="s">
         <v>197</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.4">
@@ -11724,22 +11724,22 @@
         <v>95</v>
       </c>
       <c r="J172" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K172" t="s">
         <v>197</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.4">
@@ -11771,22 +11771,22 @@
         <v>36</v>
       </c>
       <c r="J173" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K173" t="s">
         <v>198</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.4">
@@ -11818,22 +11818,22 @@
         <v>6</v>
       </c>
       <c r="J174" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K174" t="s">
         <v>199</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.4">
@@ -11865,22 +11865,22 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K175" t="s">
         <v>197</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.4">
@@ -11912,22 +11912,22 @@
         <v>97</v>
       </c>
       <c r="J176" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K176" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.4">
@@ -11959,22 +11959,22 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K177" t="s">
         <v>196</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.4">
@@ -12006,22 +12006,22 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K178" t="s">
         <v>196</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.4">
@@ -12053,22 +12053,22 @@
         <v>88</v>
       </c>
       <c r="J179" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K179" t="s">
         <v>197</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="O179" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.4">
@@ -12100,22 +12100,22 @@
         <v>84</v>
       </c>
       <c r="J180" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K180" t="s">
         <v>197</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.4">
@@ -12147,22 +12147,22 @@
         <v>63</v>
       </c>
       <c r="J181" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K181" t="s">
         <v>197</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O181" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.4">
@@ -12194,22 +12194,22 @@
         <v>32</v>
       </c>
       <c r="J182" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K182" t="s">
         <v>199</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="O182" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.4">
@@ -12241,22 +12241,22 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K183" t="s">
         <v>197</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.4">
@@ -12288,22 +12288,22 @@
         <v>17</v>
       </c>
       <c r="J184" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K184" t="s">
         <v>197</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O184" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.4">
@@ -12311,7 +12311,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12335,13 +12335,13 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K185" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.4">
@@ -12373,22 +12373,22 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K186" t="s">
         <v>198</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N186" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="O186" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.4">
@@ -12396,7 +12396,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C187">
         <v>3</v>
@@ -12420,13 +12420,13 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K187" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.4">
@@ -12434,7 +12434,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -12458,13 +12458,13 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K188" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.4">
@@ -12496,22 +12496,22 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K189" t="s">
         <v>197</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O189" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.4">
@@ -12543,22 +12543,22 @@
         <v>3</v>
       </c>
       <c r="J190" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K190" t="s">
         <v>197</v>
       </c>
       <c r="L190" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N190" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O190" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.4">
@@ -12590,22 +12590,22 @@
         <v>79</v>
       </c>
       <c r="J191" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L191" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="O191" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.4">
@@ -12613,7 +12613,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -12637,13 +12637,13 @@
         <v>3</v>
       </c>
       <c r="J192" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K192" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="L192" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.4">
@@ -12651,7 +12651,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12675,13 +12675,13 @@
         <v>10</v>
       </c>
       <c r="J193" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K193" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L193" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.4">
@@ -12713,22 +12713,22 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K194" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O194" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.4">
@@ -12760,22 +12760,22 @@
         <v>11</v>
       </c>
       <c r="J195" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K195" t="s">
         <v>197</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O195" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.4">
@@ -12807,22 +12807,22 @@
         <v>4</v>
       </c>
       <c r="J196" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K196" t="s">
         <v>197</v>
       </c>
       <c r="L196" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="O196" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.4">
@@ -12854,22 +12854,22 @@
         <v>61</v>
       </c>
       <c r="J197" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K197" t="s">
         <v>197</v>
       </c>
       <c r="L197" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="O197" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.4">
@@ -12901,22 +12901,22 @@
         <v>98</v>
       </c>
       <c r="J198" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K198" t="s">
         <v>197</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.4">
@@ -12948,22 +12948,22 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K199" t="s">
         <v>197</v>
       </c>
       <c r="L199" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O199" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.4">
@@ -12995,22 +12995,22 @@
         <v>69</v>
       </c>
       <c r="J200" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K200" t="s">
         <v>198</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O200" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.4">
@@ -13042,22 +13042,22 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K201" t="s">
         <v>199</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N201" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O201" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.4">
@@ -13089,22 +13089,22 @@
         <v>81</v>
       </c>
       <c r="J202" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K202" t="s">
         <v>196</v>
       </c>
       <c r="L202" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N202" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O202" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.4">
@@ -13136,22 +13136,22 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K203" t="s">
         <v>197</v>
       </c>
       <c r="L203" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N203" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="O203" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.4">
@@ -13183,22 +13183,22 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K204" t="s">
         <v>199</v>
       </c>
       <c r="L204" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.4">
@@ -13206,7 +13206,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -13230,13 +13230,13 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K205" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="L205" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.4">
@@ -13268,22 +13268,22 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K206" t="s">
         <v>197</v>
       </c>
       <c r="L206" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N206" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.4">
@@ -13315,22 +13315,22 @@
         <v>54</v>
       </c>
       <c r="J207" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K207" t="s">
         <v>197</v>
       </c>
       <c r="L207" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N207" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="O207" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.4">
@@ -13362,22 +13362,22 @@
         <v>3</v>
       </c>
       <c r="J208" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K208" t="s">
         <v>196</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N208" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="O208" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.4">
@@ -13385,7 +13385,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -13409,22 +13409,22 @@
         <v>3</v>
       </c>
       <c r="J209" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K209" t="s">
         <v>196</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O209" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.4">
@@ -13456,22 +13456,22 @@
         <v>7</v>
       </c>
       <c r="J210" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K210" t="s">
         <v>197</v>
       </c>
       <c r="L210" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M210" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O210" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.4">
@@ -13503,22 +13503,22 @@
         <v>93</v>
       </c>
       <c r="J211" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K211" t="s">
         <v>199</v>
       </c>
       <c r="L211" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N211" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="O211" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.4">
@@ -13550,25 +13550,26 @@
         <v>72</v>
       </c>
       <c r="J212" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K212" t="s">
         <v>197</v>
       </c>
       <c r="L212" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N212" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O212" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="K1:K212" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:O212">
     <sortCondition ref="B2"/>
   </sortState>

--- a/finalPJT/Server/theme/type.xlsx
+++ b/finalPJT/Server/theme/type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KB_IT_Academy_4Team\finalPJT\Server\theme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772B022C-EA96-4773-8049-F0007322C059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5116D201-D54F-4B08-A663-A26D8CB60DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1056">
   <si>
     <t>스테이 아온</t>
   </si>
@@ -3306,12 +3306,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -3367,7 +3373,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3380,6 +3386,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3721,15 +3732,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="K213" sqref="K213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="20.09765625" customWidth="1"/>
     <col min="11" max="11" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="197.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.59765625" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
@@ -5422,41 +5436,50 @@
         <v>860</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A37" s="3">
+    <row r="37" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="7" t="s">
         <v>1007</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="7">
         <v>21</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="7">
         <v>4</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="7">
         <v>3</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
         <v>7</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="7">
         <v>65</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>1048</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="O37" s="8" t="s">
         <v>1019</v>
       </c>
     </row>
@@ -5497,6 +5520,15 @@
       <c r="L38" s="2" t="s">
         <v>1029</v>
       </c>
+      <c r="M38" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
@@ -5827,41 +5859,50 @@
         <v>924</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A46" s="3">
+    <row r="46" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="7" t="s">
         <v>1011</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
         <v>98</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
         <v>2</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O46" s="8" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -6852,41 +6893,50 @@
         <v>946</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A68" s="3">
+    <row r="68" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="6">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="7" t="s">
         <v>1014</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="7">
         <v>10</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
         <v>86</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
         <v>4</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="7" t="s">
         <v>1003</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L68" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O68" s="8" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -9616,41 +9666,47 @@
         <v>817</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A127" s="3">
+    <row r="127" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="6">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="7" t="s">
         <v>1008</v>
       </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127">
+      <c r="C127" s="7">
+        <v>0</v>
+      </c>
+      <c r="D127" s="7">
+        <v>1</v>
+      </c>
+      <c r="E127" s="7">
         <v>3</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="7">
         <v>4</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="7">
         <v>5</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="7">
         <v>87</v>
       </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" t="s">
+      <c r="I127" s="7">
+        <v>0</v>
+      </c>
+      <c r="J127" s="7" t="s">
         <v>1048</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K127" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="L127" s="2" t="s">
+      <c r="L127" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M127" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N127" s="8" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -9983,81 +10039,95 @@
         <v>855</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A135" s="3">
+    <row r="135" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="6">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="7" t="s">
         <v>1017</v>
       </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
+      <c r="C135" s="7">
+        <v>0</v>
+      </c>
+      <c r="D135" s="7">
         <v>3</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="7">
         <v>7</v>
       </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
+      <c r="F135" s="7">
+        <v>0</v>
+      </c>
+      <c r="G135" s="7">
         <v>78</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="7">
         <v>9</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="7">
         <v>3</v>
       </c>
-      <c r="J135" t="s">
+      <c r="J135" s="7" t="s">
         <v>1051</v>
       </c>
-      <c r="K135" t="s">
+      <c r="K135" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="L135" s="2" t="s">
+      <c r="L135" s="8" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A136" s="3">
+      <c r="M135" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N135" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O135" s="8"/>
+    </row>
+    <row r="136" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="6">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="7">
         <v>7</v>
       </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
+      <c r="D136" s="7">
+        <v>0</v>
+      </c>
+      <c r="E136" s="7">
         <v>8</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="7">
         <v>73</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="7">
         <v>2</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="7">
         <v>10</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136" t="s">
+      <c r="I136" s="7">
+        <v>0</v>
+      </c>
+      <c r="J136" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="K136" t="s">
+      <c r="K136" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="L136" s="2" t="s">
+      <c r="L136" s="8" t="s">
         <v>1025</v>
       </c>
+      <c r="M136" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N136" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="O136" s="8"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
@@ -10717,41 +10787,47 @@
         <v>840</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A151" s="3">
+    <row r="151" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="6">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="7" t="s">
         <v>1013</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="7">
         <v>18</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="7">
         <v>5</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="7">
         <v>9</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="7">
         <v>62</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="7">
         <v>3</v>
       </c>
-      <c r="H151">
+      <c r="H151" s="7">
         <v>13</v>
       </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151" t="s">
+      <c r="I151" s="7">
+        <v>0</v>
+      </c>
+      <c r="J151" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="K151" t="s">
+      <c r="K151" s="7" t="s">
         <v>1002</v>
       </c>
-      <c r="L151" s="2" t="s">
+      <c r="L151" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M151" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N151" s="8" t="s">
         <v>1027</v>
       </c>
     </row>
@@ -12306,41 +12382,47 @@
         <v>933</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A185" s="3">
+    <row r="185" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="6">
         <v>183</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="7" t="s">
         <v>1016</v>
       </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185">
+      <c r="C185" s="7">
+        <v>1</v>
+      </c>
+      <c r="D185" s="7">
         <v>2</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="7">
         <v>80</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="7">
         <v>5</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="7">
         <v>2</v>
       </c>
-      <c r="H185">
+      <c r="H185" s="7">
         <v>10</v>
       </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185" t="s">
+      <c r="I185" s="7">
+        <v>0</v>
+      </c>
+      <c r="J185" s="7" t="s">
         <v>1049</v>
       </c>
-      <c r="K185" t="s">
+      <c r="K185" s="7" t="s">
         <v>1031</v>
       </c>
-      <c r="L185" s="2" t="s">
+      <c r="L185" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M185" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N185" s="8" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -12391,79 +12473,91 @@
         <v>985</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A187" s="3">
+    <row r="187" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="6">
         <v>185</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="7">
         <v>3</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="7">
         <v>2</v>
       </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187">
+      <c r="E187" s="7">
+        <v>0</v>
+      </c>
+      <c r="F187" s="7">
         <v>10</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="7">
         <v>83</v>
       </c>
-      <c r="H187">
-        <v>0</v>
-      </c>
-      <c r="I187">
+      <c r="H187" s="7">
+        <v>0</v>
+      </c>
+      <c r="I187" s="7">
         <v>2</v>
       </c>
-      <c r="J187" t="s">
+      <c r="J187" s="7" t="s">
         <v>1051</v>
       </c>
-      <c r="K187" t="s">
+      <c r="K187" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="L187" s="2" t="s">
+      <c r="L187" s="8" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A188" s="3">
+      <c r="M187" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N187" s="8" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="6">
         <v>186</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188">
-        <v>1</v>
-      </c>
-      <c r="E188">
+      <c r="C188" s="7">
+        <v>0</v>
+      </c>
+      <c r="D188" s="7">
+        <v>1</v>
+      </c>
+      <c r="E188" s="7">
         <v>2</v>
       </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
-      <c r="G188">
+      <c r="F188" s="7">
+        <v>0</v>
+      </c>
+      <c r="G188" s="7">
         <v>90</v>
       </c>
-      <c r="H188">
+      <c r="H188" s="7">
         <v>7</v>
       </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
-      <c r="J188" t="s">
+      <c r="I188" s="7">
+        <v>0</v>
+      </c>
+      <c r="J188" s="7" t="s">
         <v>1051</v>
       </c>
-      <c r="K188" t="s">
+      <c r="K188" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="L188" s="2" t="s">
+      <c r="L188" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M188" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N188" s="8" t="s">
         <v>1021</v>
       </c>
     </row>
@@ -12608,79 +12702,97 @@
         <v>869</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A192" s="3">
+    <row r="192" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A192" s="6">
         <v>190</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
-      <c r="G192">
+      <c r="C192" s="7">
+        <v>0</v>
+      </c>
+      <c r="D192" s="7">
+        <v>0</v>
+      </c>
+      <c r="E192" s="7">
+        <v>0</v>
+      </c>
+      <c r="F192" s="7">
+        <v>0</v>
+      </c>
+      <c r="G192" s="7">
         <v>2</v>
       </c>
-      <c r="H192">
+      <c r="H192" s="7">
         <v>95</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="7">
         <v>3</v>
       </c>
-      <c r="J192" t="s">
+      <c r="J192" s="7" t="s">
         <v>1048</v>
       </c>
-      <c r="K192" t="s">
+      <c r="K192" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="L192" s="2" t="s">
+      <c r="L192" s="8" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A193" s="3">
+      <c r="M192" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N192" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="O192" s="8" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A193" s="6">
         <v>191</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="7" t="s">
         <v>1005</v>
       </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-      <c r="D193">
+      <c r="C193" s="7">
+        <v>1</v>
+      </c>
+      <c r="D193" s="7">
         <v>4</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="7">
         <v>5</v>
       </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193">
+      <c r="F193" s="7">
+        <v>0</v>
+      </c>
+      <c r="G193" s="7">
+        <v>0</v>
+      </c>
+      <c r="H193" s="7">
         <v>80</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="7">
         <v>10</v>
       </c>
-      <c r="J193" t="s">
+      <c r="J193" s="7" t="s">
         <v>1048</v>
       </c>
-      <c r="K193" t="s">
+      <c r="K193" s="7" t="s">
         <v>995</v>
       </c>
-      <c r="L193" s="2" t="s">
+      <c r="L193" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M193" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N193" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="O193" s="8" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -13201,41 +13313,50 @@
         <v>801</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A205" s="3">
+    <row r="205" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="6">
         <v>203</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="7" t="s">
         <v>1010</v>
       </c>
-      <c r="C205">
-        <v>0</v>
-      </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="E205">
-        <v>1</v>
-      </c>
-      <c r="F205">
+      <c r="C205" s="7">
+        <v>0</v>
+      </c>
+      <c r="D205" s="7">
+        <v>0</v>
+      </c>
+      <c r="E205" s="7">
+        <v>1</v>
+      </c>
+      <c r="F205" s="7">
         <v>4</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="7">
         <v>95</v>
       </c>
-      <c r="H205">
-        <v>0</v>
-      </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-      <c r="J205" t="s">
+      <c r="H205" s="7">
+        <v>0</v>
+      </c>
+      <c r="I205" s="7">
+        <v>0</v>
+      </c>
+      <c r="J205" s="7" t="s">
         <v>1051</v>
       </c>
-      <c r="K205" t="s">
+      <c r="K205" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="L205" s="2" t="s">
+      <c r="L205" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M205" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N205" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O205" s="8" t="s">
         <v>1023</v>
       </c>
     </row>
@@ -14377,6 +14498,41 @@
     <hyperlink ref="L68" r:id="rId800" xr:uid="{00000000-0004-0000-0000-00001F030000}"/>
     <hyperlink ref="L38" r:id="rId801" xr:uid="{00000000-0004-0000-0000-000020030000}"/>
     <hyperlink ref="L185" r:id="rId802" xr:uid="{00000000-0004-0000-0000-000021030000}"/>
+    <hyperlink ref="M37" r:id="rId803" xr:uid="{231FF2DA-E841-44E0-BF16-7FE04DE5AE42}"/>
+    <hyperlink ref="N37" r:id="rId804" xr:uid="{3CA8B759-1729-4F13-8552-A63653D021A1}"/>
+    <hyperlink ref="O37" r:id="rId805" xr:uid="{8C562F75-C852-4E45-B72C-0C825261675E}"/>
+    <hyperlink ref="M38" r:id="rId806" xr:uid="{C6513E7C-C329-4DF3-9203-C577BCBA84F2}"/>
+    <hyperlink ref="N38" r:id="rId807" xr:uid="{3E854662-781D-4C03-9181-7931C4FE8ABD}"/>
+    <hyperlink ref="O38" r:id="rId808" xr:uid="{7EF56327-B1FB-4CCC-A0A0-D7F7FB4088A9}"/>
+    <hyperlink ref="M46" r:id="rId809" xr:uid="{E7D2B37C-CC07-474C-B50A-F66E4AEBC981}"/>
+    <hyperlink ref="N46" r:id="rId810" xr:uid="{1D9AB176-9A3A-4019-9185-E28A7E6C643C}"/>
+    <hyperlink ref="O46" r:id="rId811" xr:uid="{687FE326-DBFB-4AFA-9772-57699D5C2AAE}"/>
+    <hyperlink ref="M205" r:id="rId812" xr:uid="{32827EF4-A286-46D6-927B-2490B707FD09}"/>
+    <hyperlink ref="N205" r:id="rId813" xr:uid="{3461935B-EB52-41EF-AC00-E551D433ECE9}"/>
+    <hyperlink ref="O205" r:id="rId814" xr:uid="{D3D27EC0-886B-4AED-8CCC-9E7860B7B453}"/>
+    <hyperlink ref="M193" r:id="rId815" xr:uid="{3BB75934-C12B-4A73-9FDA-68EBEE50B337}"/>
+    <hyperlink ref="N193" r:id="rId816" xr:uid="{3A4E034C-55E0-4CD1-8A7F-204906CFC135}"/>
+    <hyperlink ref="O193" r:id="rId817" xr:uid="{8D1A8F0F-2F80-497A-AEDD-B292D9F00718}"/>
+    <hyperlink ref="M192" r:id="rId818" xr:uid="{ED703E51-AB2E-46E9-A8B6-0060592A8824}"/>
+    <hyperlink ref="N192" r:id="rId819" xr:uid="{2E0D882E-94DC-4471-AABD-3C52A6850FFB}"/>
+    <hyperlink ref="O192" r:id="rId820" xr:uid="{6742BC90-0426-433C-B6F6-F770AD307AD8}"/>
+    <hyperlink ref="M68" r:id="rId821" xr:uid="{99FFFF27-3793-40D6-B515-A35AF96FCBBF}"/>
+    <hyperlink ref="N68" r:id="rId822" xr:uid="{9907E0B0-5A6A-4FC0-983E-C519039DE685}"/>
+    <hyperlink ref="O68" r:id="rId823" xr:uid="{FC0F4314-C6E3-4FE4-B673-651357408FD1}"/>
+    <hyperlink ref="M136" r:id="rId824" xr:uid="{CED8F341-3C25-44F1-A41E-8F5531B4C3BC}"/>
+    <hyperlink ref="N136" r:id="rId825" xr:uid="{501D053F-0FFB-4C7A-B71B-1BA35E79EB9C}"/>
+    <hyperlink ref="M135" r:id="rId826" xr:uid="{DB350202-A8E8-4B45-8C7E-B710F674406F}"/>
+    <hyperlink ref="N135" r:id="rId827" xr:uid="{0F870580-50B4-491D-AF9C-0BA06F27CBB8}"/>
+    <hyperlink ref="M151" r:id="rId828" xr:uid="{3EDFAE58-FAFC-44E1-BBC0-CD2D7AA83FCA}"/>
+    <hyperlink ref="N151" r:id="rId829" xr:uid="{58868497-53BA-45EA-BCDE-39C74AAABA57}"/>
+    <hyperlink ref="M185" r:id="rId830" xr:uid="{190FA0D9-C802-432B-9DB9-CF6C5257C79D}"/>
+    <hyperlink ref="N185" r:id="rId831" xr:uid="{CB6FC685-B2BD-4C20-B0D7-6D1D38FFEE33}"/>
+    <hyperlink ref="M187" r:id="rId832" xr:uid="{4518B2FD-E8CF-4839-B0AE-EF3C6C8D3D49}"/>
+    <hyperlink ref="N187" r:id="rId833" xr:uid="{F5AF4911-0A34-4445-B3AE-03B8585CE104}"/>
+    <hyperlink ref="M188" r:id="rId834" xr:uid="{31E266FC-E12E-46F3-A2C8-EBAD9920DFAE}"/>
+    <hyperlink ref="N188" r:id="rId835" xr:uid="{1040B671-0760-47AD-B5DC-76070AADDD00}"/>
+    <hyperlink ref="M127" r:id="rId836" xr:uid="{156CE1EC-DF11-4EB0-BCB8-C31A535E0966}"/>
+    <hyperlink ref="N127" r:id="rId837" xr:uid="{F2596E1B-98BA-4350-892E-C63A81203D36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
